--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1080" windowWidth="24915" windowHeight="11625" tabRatio="892" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="1140" windowWidth="24915" windowHeight="11565" tabRatio="892" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Комбайн" sheetId="1" r:id="rId1"/>
     <sheet name="01.10" sheetId="71" r:id="rId2"/>
-    <sheet name="test" r:id="rId7" sheetId="72"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -2795,7 +2794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>Держ №</t>
   </si>
@@ -3044,7 +3043,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3129,7 +3127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3144,19 +3142,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442" rgb="4F81BD"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442" rgb="F79646"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" rgb="000000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3180,19 +3178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442" rgb="EEECE1"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893" rgb="000000"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485" rgb="9BBB59"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3202,45 +3200,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="BFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="BFBFBF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="58">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -3566,273 +3527,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
-    <border>
-      <top style="medium"/>
-    </border>
-    <border>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4011,6 +3711,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4023,49 +3735,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="57" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4384,9 +4058,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7092,18 +6766,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AH12" sqref="AH12"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="32" width="14.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="32" width="23.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="32" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="32" width="25.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="32" width="22.140625" collapsed="true"/>
-    <col min="6" max="53" customWidth="true" style="32" width="3.28515625" collapsed="true"/>
-    <col min="54" max="16384" style="32" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" style="32" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.140625" style="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="53" width="3.28515625" style="32" customWidth="1" collapsed="1"/>
+    <col min="54" max="16384" width="9.140625" style="32" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
@@ -7115,63 +6789,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="111"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="112"/>
-      <c r="AT2" s="112"/>
-      <c r="AU2" s="112"/>
-      <c r="AV2" s="112"/>
-      <c r="AW2" s="112"/>
-      <c r="AX2" s="112"/>
-      <c r="AY2" s="112"/>
-      <c r="AZ2" s="112"/>
-      <c r="BA2" s="112"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="105"/>
+      <c r="AY2" s="105"/>
+      <c r="AZ2" s="105"/>
+      <c r="BA2" s="105"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -7189,102 +6863,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="108">
+      <c r="F3" s="106">
         <v>7</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108">
+      <c r="G3" s="106"/>
+      <c r="H3" s="106">
         <v>8</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108">
+      <c r="I3" s="106"/>
+      <c r="J3" s="106">
         <v>9</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106">
         <v>10</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108">
+      <c r="M3" s="106"/>
+      <c r="N3" s="106">
         <v>11</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108">
+      <c r="O3" s="106"/>
+      <c r="P3" s="106">
         <v>12</v>
       </c>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108">
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106">
         <v>13</v>
       </c>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108">
+      <c r="S3" s="106"/>
+      <c r="T3" s="106">
         <v>14</v>
       </c>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108">
+      <c r="U3" s="106"/>
+      <c r="V3" s="106">
         <v>15</v>
       </c>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108">
+      <c r="W3" s="106"/>
+      <c r="X3" s="106">
         <v>16</v>
       </c>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="110">
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="113">
         <v>17</v>
       </c>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110">
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113">
         <v>18</v>
       </c>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108">
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="106">
         <v>19</v>
       </c>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108">
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106">
         <v>20</v>
       </c>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108">
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106">
         <v>21</v>
       </c>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108">
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106">
         <v>22</v>
       </c>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108">
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106">
         <v>23</v>
       </c>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108">
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106">
         <v>24</v>
       </c>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108">
+      <c r="AO3" s="106"/>
+      <c r="AP3" s="106">
         <v>1</v>
       </c>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108">
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="106">
         <v>2</v>
       </c>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108">
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106">
         <v>3</v>
       </c>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108">
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106">
         <v>4</v>
       </c>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108">
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="106">
         <v>5</v>
       </c>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108">
+      <c r="AY3" s="106"/>
+      <c r="AZ3" s="106">
         <v>6</v>
       </c>
-      <c r="BA3" s="113"/>
+      <c r="BA3" s="107"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -7344,7 +7018,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="108" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -7411,7 +7085,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -7478,7 +7152,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="105"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -7543,7 +7217,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="110" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -7610,7 +7284,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -7673,7 +7347,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="108" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -7738,7 +7412,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -7797,7 +7471,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="110" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -7866,7 +7540,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -7933,7 +7607,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -7998,7 +7672,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -8061,7 +7735,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -8122,7 +7796,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -8187,7 +7861,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="105"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -8252,7 +7926,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="110" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -8319,7 +7993,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -8382,7 +8056,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="105"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -8905,21 +8579,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -8936,197 +8595,8 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="23.85546875" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="25.85546875" customWidth="true"/>
-    <col min="5" max="5" width="22.140625" customWidth="true"/>
-    <col min="6" max="6" width="3.28515625" customWidth="true"/>
-    <col min="7" max="7" width="3.28515625" customWidth="true"/>
-    <col min="8" max="8" width="3.28515625" customWidth="true"/>
-    <col min="9" max="9" width="3.28515625" customWidth="true"/>
-    <col min="10" max="10" width="3.28515625" customWidth="true"/>
-    <col min="11" max="11" width="3.28515625" customWidth="true"/>
-    <col min="12" max="12" width="3.28515625" customWidth="true"/>
-    <col min="13" max="13" width="3.28515625" customWidth="true"/>
-    <col min="14" max="14" width="3.28515625" customWidth="true"/>
-    <col min="15" max="15" width="3.28515625" customWidth="true"/>
-    <col min="16" max="16" width="3.28515625" customWidth="true"/>
-    <col min="17" max="17" width="3.28515625" customWidth="true"/>
-    <col min="18" max="18" width="3.28515625" customWidth="true"/>
-    <col min="19" max="19" width="3.28515625" customWidth="true"/>
-    <col min="20" max="20" width="3.28515625" customWidth="true"/>
-    <col min="21" max="21" width="3.28515625" customWidth="true"/>
-    <col min="22" max="22" width="3.28515625" customWidth="true"/>
-    <col min="23" max="23" width="3.28515625" customWidth="true"/>
-    <col min="24" max="24" width="3.28515625" customWidth="true"/>
-    <col min="25" max="25" width="3.28515625" customWidth="true"/>
-    <col min="26" max="26" width="3.28515625" customWidth="true"/>
-    <col min="27" max="27" width="3.28515625" customWidth="true"/>
-    <col min="28" max="28" width="3.28515625" customWidth="true"/>
-    <col min="29" max="29" width="3.28515625" customWidth="true"/>
-    <col min="30" max="30" width="3.28515625" customWidth="true"/>
-    <col min="31" max="31" width="3.28515625" customWidth="true"/>
-    <col min="32" max="32" width="3.28515625" customWidth="true"/>
-    <col min="33" max="33" width="3.28515625" customWidth="true"/>
-    <col min="34" max="34" width="3.28515625" customWidth="true"/>
-    <col min="35" max="35" width="3.28515625" customWidth="true"/>
-    <col min="36" max="36" width="3.28515625" customWidth="true"/>
-    <col min="37" max="37" width="3.28515625" customWidth="true"/>
-    <col min="38" max="38" width="3.28515625" customWidth="true"/>
-    <col min="39" max="39" width="3.28515625" customWidth="true"/>
-    <col min="40" max="40" width="3.28515625" customWidth="true"/>
-    <col min="41" max="41" width="3.28515625" customWidth="true"/>
-    <col min="42" max="42" width="3.28515625" customWidth="true"/>
-    <col min="43" max="43" width="3.28515625" customWidth="true"/>
-    <col min="44" max="44" width="3.28515625" customWidth="true"/>
-    <col min="45" max="45" width="3.28515625" customWidth="true"/>
-    <col min="46" max="46" width="3.28515625" customWidth="true"/>
-    <col min="47" max="47" width="3.28515625" customWidth="true"/>
-    <col min="48" max="48" width="3.28515625" customWidth="true"/>
-    <col min="49" max="49" width="3.28515625" customWidth="true"/>
-    <col min="50" max="50" width="3.28515625" customWidth="true"/>
-    <col min="51" max="51" width="3.28515625" customWidth="true"/>
-    <col min="52" max="52" width="3.28515625" customWidth="true"/>
-    <col min="53" max="53" width="3.28515625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="s" s="114">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="115">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s" s="115">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s" s="115">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="115">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s" s="115">
-        <v>20</v>
-      </c>
-      <c r="F3" t="n" s="115">
-        <v>7.0</v>
-      </c>
-      <c r="G3" s="120"/>
-      <c r="H3" t="n" s="115">
-        <v>8.0</v>
-      </c>
-      <c r="I3" s="120"/>
-      <c r="J3" t="n" s="115">
-        <v>9.0</v>
-      </c>
-      <c r="K3" s="120"/>
-      <c r="L3" t="n" s="115">
-        <v>10.0</v>
-      </c>
-      <c r="M3" s="120"/>
-      <c r="N3" t="n" s="115">
-        <v>11.0</v>
-      </c>
-      <c r="O3" s="120"/>
-      <c r="P3" t="n" s="115">
-        <v>12.0</v>
-      </c>
-      <c r="Q3" s="120"/>
-      <c r="R3" t="n" s="115">
-        <v>13.0</v>
-      </c>
-      <c r="S3" s="120"/>
-      <c r="T3" t="n" s="115">
-        <v>14.0</v>
-      </c>
-      <c r="U3" s="120"/>
-      <c r="V3" t="n" s="115">
-        <v>15.0</v>
-      </c>
-      <c r="W3" s="120"/>
-      <c r="X3" t="n" s="115">
-        <v>16.0</v>
-      </c>
-      <c r="Y3" s="120"/>
-      <c r="Z3" t="n" s="115">
-        <v>17.0</v>
-      </c>
-      <c r="AA3" s="120"/>
-      <c r="AB3" t="n" s="115">
-        <v>18.0</v>
-      </c>
-      <c r="AC3" s="120"/>
-      <c r="AD3" t="n" s="115">
-        <v>19.0</v>
-      </c>
-      <c r="AE3" s="120"/>
-      <c r="AF3" t="n" s="115">
-        <v>20.0</v>
-      </c>
-      <c r="AG3" s="120"/>
-      <c r="AH3" t="n" s="115">
-        <v>21.0</v>
-      </c>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" t="n" s="115">
-        <v>22.0</v>
-      </c>
-      <c r="AK3" s="120"/>
-      <c r="AL3" t="n" s="115">
-        <v>23.0</v>
-      </c>
-      <c r="AM3" s="120"/>
-      <c r="AN3" t="n" s="115">
-        <v>24.0</v>
-      </c>
-      <c r="AO3" s="120"/>
-      <c r="AP3" t="n" s="115">
-        <v>1.0</v>
-      </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" t="n" s="115">
-        <v>2.0</v>
-      </c>
-      <c r="AS3" s="120"/>
-      <c r="AT3" t="n" s="115">
-        <v>3.0</v>
-      </c>
-      <c r="AU3" s="120"/>
-      <c r="AV3" t="n" s="115">
-        <v>4.0</v>
-      </c>
-      <c r="AW3" s="120"/>
-      <c r="AX3" t="n" s="115">
-        <v>5.0</v>
-      </c>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" t="n" s="115">
-        <v>6.0</v>
-      </c>
-      <c r="BA3" s="120"/>
-    </row>
-  </sheetData>
-  <mergeCells>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
@@ -9135,23 +8605,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
     <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -3711,18 +3711,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3735,10 +3723,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6766,7 +6766,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AH12" sqref="AH12"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6789,63 +6789,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="105"/>
-      <c r="AY2" s="105"/>
-      <c r="AZ2" s="105"/>
-      <c r="BA2" s="105"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="112"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="112"/>
+      <c r="AZ2" s="112"/>
+      <c r="BA2" s="112"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -6863,102 +6863,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="108">
         <v>7</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108">
         <v>8</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106">
+      <c r="I3" s="108"/>
+      <c r="J3" s="108">
         <v>9</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106">
+      <c r="K3" s="108"/>
+      <c r="L3" s="108">
         <v>10</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108">
         <v>11</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106">
+      <c r="O3" s="108"/>
+      <c r="P3" s="108">
         <v>12</v>
       </c>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106">
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108">
         <v>13</v>
       </c>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106">
+      <c r="S3" s="108"/>
+      <c r="T3" s="108">
         <v>14</v>
       </c>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106">
+      <c r="U3" s="108"/>
+      <c r="V3" s="108">
         <v>15</v>
       </c>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106">
+      <c r="W3" s="108"/>
+      <c r="X3" s="108">
         <v>16</v>
       </c>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="113">
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="110">
         <v>17</v>
       </c>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113">
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110">
         <v>18</v>
       </c>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="106">
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="108">
         <v>19</v>
       </c>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106">
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108">
         <v>20</v>
       </c>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106">
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108">
         <v>21</v>
       </c>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106">
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108">
         <v>22</v>
       </c>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106">
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108">
         <v>23</v>
       </c>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106">
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108">
         <v>24</v>
       </c>
-      <c r="AO3" s="106"/>
-      <c r="AP3" s="106">
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108">
         <v>1</v>
       </c>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="106">
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108">
         <v>2</v>
       </c>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106">
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108">
         <v>3</v>
       </c>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106">
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108">
         <v>4</v>
       </c>
-      <c r="AW3" s="106"/>
-      <c r="AX3" s="106">
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="108">
         <v>5</v>
       </c>
-      <c r="AY3" s="106"/>
-      <c r="AZ3" s="106">
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108">
         <v>6</v>
       </c>
-      <c r="BA3" s="107"/>
+      <c r="BA3" s="113"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -7018,7 +7018,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="104" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -7085,7 +7085,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -7152,7 +7152,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -7217,7 +7217,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="106" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -7284,7 +7284,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="104" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -7412,7 +7412,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="106" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -7540,7 +7540,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -7607,7 +7607,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -7672,7 +7672,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -7735,7 +7735,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -7796,7 +7796,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="106" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -7993,7 +7993,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -8579,6 +8579,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -8595,21 +8610,6 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1140" windowWidth="24915" windowHeight="11565" tabRatio="892" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="1080" windowWidth="24915" windowHeight="11625" tabRatio="892" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Комбайн" sheetId="1" r:id="rId1"/>
     <sheet name="01.10" sheetId="71" r:id="rId2"/>
+    <sheet name="test" r:id="rId7" sheetId="72"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2794,7 +2795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
   <si>
     <t>Держ №</t>
   </si>
@@ -3037,12 +3038,85 @@
   </si>
   <si>
     <t>test version</t>
+  </si>
+  <si>
+    <t>John Deere-S6901_09039BI</t>
+  </si>
+  <si>
+    <t>Хмільниця_Тест</t>
+  </si>
+  <si>
+    <t>Збирання кукурудзи_Тест</t>
+  </si>
+  <si>
+    <t>Півень В.М.</t>
+  </si>
+  <si>
+    <t>John Deere-S9880_11270CB</t>
+  </si>
+  <si>
+    <t>Коробко В.М.</t>
+  </si>
+  <si>
+    <t>John Deere-S9880_11271CB</t>
+  </si>
+  <si>
+    <t>John Deere-S9880_11273CB</t>
+  </si>
+  <si>
+    <t>Василенко А.П.</t>
+  </si>
+  <si>
+    <t>John Deere-S9880_11269CB</t>
+  </si>
+  <si>
+    <t>Скляров О.В.</t>
+  </si>
+  <si>
+    <t>John Deere-S9880_11272CB</t>
+  </si>
+  <si>
+    <t>Скляров М.В</t>
+  </si>
+  <si>
+    <t>Палессе 16318СВ</t>
+  </si>
+  <si>
+    <t>16318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">най-н Clas 22491АС </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нью-Холонд Новий </t>
+  </si>
+  <si>
+    <t>б/н</t>
+  </si>
+  <si>
+    <t>Иллюшко С.Л</t>
+  </si>
+  <si>
+    <t>най-й Джон Дір 18143 2105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">най-н CLAS 2249АС (міні) </t>
+  </si>
+  <si>
+    <t>най Case 07156 Данилов Ю.М. 2102</t>
+  </si>
+  <si>
+    <t>най Сase 07157 Косенко О.І. 1750</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3127,7 +3201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3142,19 +3216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442" rgb="4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442" rgb="F79646"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" rgb="000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3178,19 +3252,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442" rgb="EEECE1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.249977111117893" rgb="000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485" rgb="9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3200,8 +3274,45 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -3527,12 +3638,481 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
+    <border>
+      <top style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3740,6 +4320,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="57" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="62" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="74" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="82" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4058,9 +4680,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6766,18 +7388,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AH12" sqref="AH12"/>
-      <selection pane="bottomLeft" activeCell="U27" sqref="U27"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="32" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.85546875" style="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" style="32" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.85546875" style="32" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.140625" style="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="53" width="3.28515625" style="32" customWidth="1" collapsed="1"/>
-    <col min="54" max="16384" width="9.140625" style="32" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="32" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="32" width="23.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="32" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="32" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="32" width="22.140625" collapsed="true"/>
+    <col min="6" max="53" customWidth="true" style="32" width="3.28515625" collapsed="true"/>
+    <col min="54" max="16384" style="32" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
@@ -8615,4 +9237,1117 @@
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="23.85546875" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="25.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.140625" customWidth="true"/>
+    <col min="6" max="6" width="3.28515625" customWidth="true"/>
+    <col min="7" max="7" width="3.28515625" customWidth="true"/>
+    <col min="8" max="8" width="3.28515625" customWidth="true"/>
+    <col min="9" max="9" width="3.28515625" customWidth="true"/>
+    <col min="10" max="10" width="3.28515625" customWidth="true"/>
+    <col min="11" max="11" width="3.28515625" customWidth="true"/>
+    <col min="12" max="12" width="3.28515625" customWidth="true"/>
+    <col min="13" max="13" width="3.28515625" customWidth="true"/>
+    <col min="14" max="14" width="3.28515625" customWidth="true"/>
+    <col min="15" max="15" width="3.28515625" customWidth="true"/>
+    <col min="16" max="16" width="3.28515625" customWidth="true"/>
+    <col min="17" max="17" width="3.28515625" customWidth="true"/>
+    <col min="18" max="18" width="3.28515625" customWidth="true"/>
+    <col min="19" max="19" width="3.28515625" customWidth="true"/>
+    <col min="20" max="20" width="3.28515625" customWidth="true"/>
+    <col min="21" max="21" width="3.28515625" customWidth="true"/>
+    <col min="22" max="22" width="3.28515625" customWidth="true"/>
+    <col min="23" max="23" width="3.28515625" customWidth="true"/>
+    <col min="24" max="24" width="3.28515625" customWidth="true"/>
+    <col min="25" max="25" width="3.28515625" customWidth="true"/>
+    <col min="26" max="26" width="3.28515625" customWidth="true"/>
+    <col min="27" max="27" width="3.28515625" customWidth="true"/>
+    <col min="28" max="28" width="3.28515625" customWidth="true"/>
+    <col min="29" max="29" width="3.28515625" customWidth="true"/>
+    <col min="30" max="30" width="3.28515625" customWidth="true"/>
+    <col min="31" max="31" width="3.28515625" customWidth="true"/>
+    <col min="32" max="32" width="3.28515625" customWidth="true"/>
+    <col min="33" max="33" width="3.28515625" customWidth="true"/>
+    <col min="34" max="34" width="3.28515625" customWidth="true"/>
+    <col min="35" max="35" width="3.28515625" customWidth="true"/>
+    <col min="36" max="36" width="3.28515625" customWidth="true"/>
+    <col min="37" max="37" width="3.28515625" customWidth="true"/>
+    <col min="38" max="38" width="3.28515625" customWidth="true"/>
+    <col min="39" max="39" width="3.28515625" customWidth="true"/>
+    <col min="40" max="40" width="3.28515625" customWidth="true"/>
+    <col min="41" max="41" width="3.28515625" customWidth="true"/>
+    <col min="42" max="42" width="3.28515625" customWidth="true"/>
+    <col min="43" max="43" width="3.28515625" customWidth="true"/>
+    <col min="44" max="44" width="3.28515625" customWidth="true"/>
+    <col min="45" max="45" width="3.28515625" customWidth="true"/>
+    <col min="46" max="46" width="3.28515625" customWidth="true"/>
+    <col min="47" max="47" width="3.28515625" customWidth="true"/>
+    <col min="48" max="48" width="3.28515625" customWidth="true"/>
+    <col min="49" max="49" width="3.28515625" customWidth="true"/>
+    <col min="50" max="50" width="3.28515625" customWidth="true"/>
+    <col min="51" max="51" width="3.28515625" customWidth="true"/>
+    <col min="52" max="52" width="3.28515625" customWidth="true"/>
+    <col min="53" max="53" width="3.28515625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s" s="114">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="115">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s" s="115">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="115">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="115">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="115">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n" s="115">
+        <v>7.0</v>
+      </c>
+      <c r="G3" s="120"/>
+      <c r="H3" t="n" s="115">
+        <v>8.0</v>
+      </c>
+      <c r="I3" s="120"/>
+      <c r="J3" t="n" s="115">
+        <v>9.0</v>
+      </c>
+      <c r="K3" s="120"/>
+      <c r="L3" t="n" s="115">
+        <v>10.0</v>
+      </c>
+      <c r="M3" s="120"/>
+      <c r="N3" t="n" s="115">
+        <v>11.0</v>
+      </c>
+      <c r="O3" s="120"/>
+      <c r="P3" t="n" s="115">
+        <v>12.0</v>
+      </c>
+      <c r="Q3" s="120"/>
+      <c r="R3" t="n" s="115">
+        <v>13.0</v>
+      </c>
+      <c r="S3" s="120"/>
+      <c r="T3" t="n" s="115">
+        <v>14.0</v>
+      </c>
+      <c r="U3" s="120"/>
+      <c r="V3" t="n" s="115">
+        <v>15.0</v>
+      </c>
+      <c r="W3" s="120"/>
+      <c r="X3" t="n" s="115">
+        <v>16.0</v>
+      </c>
+      <c r="Y3" s="120"/>
+      <c r="Z3" t="n" s="115">
+        <v>17.0</v>
+      </c>
+      <c r="AA3" s="120"/>
+      <c r="AB3" t="n" s="115">
+        <v>18.0</v>
+      </c>
+      <c r="AC3" s="120"/>
+      <c r="AD3" t="n" s="115">
+        <v>19.0</v>
+      </c>
+      <c r="AE3" s="120"/>
+      <c r="AF3" t="n" s="115">
+        <v>20.0</v>
+      </c>
+      <c r="AG3" s="120"/>
+      <c r="AH3" t="n" s="115">
+        <v>21.0</v>
+      </c>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" t="n" s="115">
+        <v>22.0</v>
+      </c>
+      <c r="AK3" s="120"/>
+      <c r="AL3" t="n" s="115">
+        <v>23.0</v>
+      </c>
+      <c r="AM3" s="120"/>
+      <c r="AN3" t="n" s="115">
+        <v>24.0</v>
+      </c>
+      <c r="AO3" s="120"/>
+      <c r="AP3" t="n" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="AQ3" s="120"/>
+      <c r="AR3" t="n" s="115">
+        <v>2.0</v>
+      </c>
+      <c r="AS3" s="120"/>
+      <c r="AT3" t="n" s="115">
+        <v>3.0</v>
+      </c>
+      <c r="AU3" s="120"/>
+      <c r="AV3" t="n" s="115">
+        <v>4.0</v>
+      </c>
+      <c r="AW3" s="120"/>
+      <c r="AX3" t="n" s="115">
+        <v>5.0</v>
+      </c>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" t="n" s="115">
+        <v>6.0</v>
+      </c>
+      <c r="BA3" s="120"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="124"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="124"/>
+      <c r="BA4" s="124"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s" s="124">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s" s="124">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s" s="124">
+        <v>84</v>
+      </c>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AE5" s="124"/>
+      <c r="AF5" s="124"/>
+      <c r="AG5" s="124"/>
+      <c r="AH5" s="124"/>
+      <c r="AI5" s="124"/>
+      <c r="AJ5" s="124"/>
+      <c r="AK5" s="124"/>
+      <c r="AL5" s="124"/>
+      <c r="AM5" s="124"/>
+      <c r="AN5" s="124"/>
+      <c r="AO5" s="124"/>
+      <c r="AP5" s="124"/>
+      <c r="AQ5" s="124"/>
+      <c r="AR5" s="124"/>
+      <c r="AS5" s="124"/>
+      <c r="AT5" s="124"/>
+      <c r="AU5" s="124"/>
+      <c r="AV5" s="124"/>
+      <c r="AW5" s="124"/>
+      <c r="AX5" s="124"/>
+      <c r="AY5" s="124"/>
+      <c r="AZ5" s="124"/>
+      <c r="BA5" s="124"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s" s="124">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s" s="124">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s" s="124">
+        <v>86</v>
+      </c>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="124"/>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="124"/>
+      <c r="AC6" s="124"/>
+      <c r="AD6" s="124"/>
+      <c r="AE6" s="124"/>
+      <c r="AF6" s="124"/>
+      <c r="AG6" s="124"/>
+      <c r="AH6" s="124"/>
+      <c r="AI6" s="124"/>
+      <c r="AJ6" s="124"/>
+      <c r="AK6" s="124"/>
+      <c r="AL6" s="124"/>
+      <c r="AM6" s="124"/>
+      <c r="AN6" s="124"/>
+      <c r="AO6" s="124"/>
+      <c r="AP6" s="124"/>
+      <c r="AQ6" s="124"/>
+      <c r="AR6" s="124"/>
+      <c r="AS6" s="124"/>
+      <c r="AT6" s="124"/>
+      <c r="AU6" s="124"/>
+      <c r="AV6" s="124"/>
+      <c r="AW6" s="124"/>
+      <c r="AX6" s="124"/>
+      <c r="AY6" s="124"/>
+      <c r="AZ6" s="124"/>
+      <c r="BA6" s="124"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s" s="124">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s" s="124">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s" s="124">
+        <v>51</v>
+      </c>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="124"/>
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="124"/>
+      <c r="AN7" s="124"/>
+      <c r="AO7" s="124"/>
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="124"/>
+      <c r="AR7" s="124"/>
+      <c r="AS7" s="124"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="124"/>
+      <c r="AV7" s="124"/>
+      <c r="AW7" s="124"/>
+      <c r="AX7" s="124"/>
+      <c r="AY7" s="124"/>
+      <c r="AZ7" s="124"/>
+      <c r="BA7" s="124"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s" s="124">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s" s="124">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s" s="124">
+        <v>89</v>
+      </c>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="124"/>
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="124"/>
+      <c r="AT8" s="124"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
+      <c r="AX8" s="124"/>
+      <c r="AY8" s="124"/>
+      <c r="AZ8" s="124"/>
+      <c r="BA8" s="124"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s" s="124">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s" s="124">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s" s="124">
+        <v>91</v>
+      </c>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="124"/>
+      <c r="AF9" s="124"/>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="124"/>
+      <c r="AJ9" s="124"/>
+      <c r="AK9" s="124"/>
+      <c r="AL9" s="124"/>
+      <c r="AM9" s="124"/>
+      <c r="AN9" s="124"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="124"/>
+      <c r="AQ9" s="124"/>
+      <c r="AR9" s="124"/>
+      <c r="AS9" s="124"/>
+      <c r="AT9" s="124"/>
+      <c r="AU9" s="124"/>
+      <c r="AV9" s="124"/>
+      <c r="AW9" s="124"/>
+      <c r="AX9" s="124"/>
+      <c r="AY9" s="124"/>
+      <c r="AZ9" s="124"/>
+      <c r="BA9" s="124"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s" s="124">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s" s="124">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s" s="124">
+        <v>93</v>
+      </c>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="124"/>
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="124"/>
+      <c r="AJ10" s="124"/>
+      <c r="AK10" s="124"/>
+      <c r="AL10" s="124"/>
+      <c r="AM10" s="124"/>
+      <c r="AN10" s="124"/>
+      <c r="AO10" s="124"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="124"/>
+      <c r="AR10" s="124"/>
+      <c r="AS10" s="124"/>
+      <c r="AT10" s="124"/>
+      <c r="AU10" s="124"/>
+      <c r="AV10" s="124"/>
+      <c r="AW10" s="124"/>
+      <c r="AX10" s="124"/>
+      <c r="AY10" s="124"/>
+      <c r="AZ10" s="124"/>
+      <c r="BA10" s="124"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s" s="124">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s" s="124">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s" s="124">
+        <v>55</v>
+      </c>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="124"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="124"/>
+      <c r="AK11" s="124"/>
+      <c r="AL11" s="124"/>
+      <c r="AM11" s="124"/>
+      <c r="AN11" s="124"/>
+      <c r="AO11" s="124"/>
+      <c r="AP11" s="124"/>
+      <c r="AQ11" s="124"/>
+      <c r="AR11" s="124"/>
+      <c r="AS11" s="124"/>
+      <c r="AT11" s="124"/>
+      <c r="AU11" s="124"/>
+      <c r="AV11" s="124"/>
+      <c r="AW11" s="124"/>
+      <c r="AX11" s="124"/>
+      <c r="AY11" s="124"/>
+      <c r="AZ11" s="124"/>
+      <c r="BA11" s="124"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s" s="124">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="124"/>
+      <c r="AF12" s="124"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="124"/>
+      <c r="AK12" s="124"/>
+      <c r="AL12" s="124"/>
+      <c r="AM12" s="124"/>
+      <c r="AN12" s="124"/>
+      <c r="AO12" s="124"/>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="124"/>
+      <c r="AR12" s="124"/>
+      <c r="AS12" s="124"/>
+      <c r="AT12" s="124"/>
+      <c r="AU12" s="124"/>
+      <c r="AV12" s="124"/>
+      <c r="AW12" s="124"/>
+      <c r="AX12" s="124"/>
+      <c r="AY12" s="124"/>
+      <c r="AZ12" s="124"/>
+      <c r="BA12" s="124"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s" s="124">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s" s="124">
+        <v>100</v>
+      </c>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="124"/>
+      <c r="AK13" s="124"/>
+      <c r="AL13" s="124"/>
+      <c r="AM13" s="124"/>
+      <c r="AN13" s="124"/>
+      <c r="AO13" s="124"/>
+      <c r="AP13" s="124"/>
+      <c r="AQ13" s="124"/>
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="124"/>
+      <c r="AT13" s="124"/>
+      <c r="AU13" s="124"/>
+      <c r="AV13" s="124"/>
+      <c r="AW13" s="124"/>
+      <c r="AX13" s="124"/>
+      <c r="AY13" s="124"/>
+      <c r="AZ13" s="124"/>
+      <c r="BA13" s="124"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s" s="124">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="124"/>
+      <c r="AF14" s="124"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="124"/>
+      <c r="AL14" s="124"/>
+      <c r="AM14" s="124"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="124"/>
+      <c r="AP14" s="124"/>
+      <c r="AQ14" s="124"/>
+      <c r="AR14" s="124"/>
+      <c r="AS14" s="124"/>
+      <c r="AT14" s="124"/>
+      <c r="AU14" s="124"/>
+      <c r="AV14" s="124"/>
+      <c r="AW14" s="124"/>
+      <c r="AX14" s="124"/>
+      <c r="AY14" s="124"/>
+      <c r="AZ14" s="124"/>
+      <c r="BA14" s="124"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s" s="124">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="124"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="124"/>
+      <c r="AJ15" s="124"/>
+      <c r="AK15" s="124"/>
+      <c r="AL15" s="124"/>
+      <c r="AM15" s="124"/>
+      <c r="AN15" s="124"/>
+      <c r="AO15" s="124"/>
+      <c r="AP15" s="124"/>
+      <c r="AQ15" s="124"/>
+      <c r="AR15" s="124"/>
+      <c r="AS15" s="124"/>
+      <c r="AT15" s="124"/>
+      <c r="AU15" s="124"/>
+      <c r="AV15" s="124"/>
+      <c r="AW15" s="124"/>
+      <c r="AX15" s="124"/>
+      <c r="AY15" s="124"/>
+      <c r="AZ15" s="124"/>
+      <c r="BA15" s="124"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s" s="124">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="124"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="124"/>
+      <c r="AJ16" s="124"/>
+      <c r="AK16" s="124"/>
+      <c r="AL16" s="124"/>
+      <c r="AM16" s="124"/>
+      <c r="AN16" s="124"/>
+      <c r="AO16" s="124"/>
+      <c r="AP16" s="124"/>
+      <c r="AQ16" s="124"/>
+      <c r="AR16" s="124"/>
+      <c r="AS16" s="124"/>
+      <c r="AT16" s="124"/>
+      <c r="AU16" s="124"/>
+      <c r="AV16" s="124"/>
+      <c r="AW16" s="124"/>
+      <c r="AX16" s="124"/>
+      <c r="AY16" s="124"/>
+      <c r="AZ16" s="124"/>
+      <c r="BA16" s="124"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s" s="124">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="124"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="124"/>
+      <c r="AJ17" s="124"/>
+      <c r="AK17" s="124"/>
+      <c r="AL17" s="124"/>
+      <c r="AM17" s="124"/>
+      <c r="AN17" s="124"/>
+      <c r="AO17" s="124"/>
+      <c r="AP17" s="124"/>
+      <c r="AQ17" s="124"/>
+      <c r="AR17" s="124"/>
+      <c r="AS17" s="124"/>
+      <c r="AT17" s="124"/>
+      <c r="AU17" s="124"/>
+      <c r="AV17" s="124"/>
+      <c r="AW17" s="124"/>
+      <c r="AX17" s="124"/>
+      <c r="AY17" s="124"/>
+      <c r="AZ17" s="124"/>
+      <c r="BA17" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Комбайн" sheetId="1" r:id="rId1"/>
     <sheet name="01.10" sheetId="71" r:id="rId2"/>
-    <sheet name="test" r:id="rId7" sheetId="72"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2795,7 +2794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>Держ №</t>
   </si>
@@ -3039,84 +3038,11 @@
   <si>
     <t>test version</t>
   </si>
-  <si>
-    <t>John Deere-S6901_09039BI</t>
-  </si>
-  <si>
-    <t>Хмільниця_Тест</t>
-  </si>
-  <si>
-    <t>Збирання кукурудзи_Тест</t>
-  </si>
-  <si>
-    <t>Півень В.М.</t>
-  </si>
-  <si>
-    <t>John Deere-S9880_11270CB</t>
-  </si>
-  <si>
-    <t>Коробко В.М.</t>
-  </si>
-  <si>
-    <t>John Deere-S9880_11271CB</t>
-  </si>
-  <si>
-    <t>John Deere-S9880_11273CB</t>
-  </si>
-  <si>
-    <t>Василенко А.П.</t>
-  </si>
-  <si>
-    <t>John Deere-S9880_11269CB</t>
-  </si>
-  <si>
-    <t>Скляров О.В.</t>
-  </si>
-  <si>
-    <t>John Deere-S9880_11272CB</t>
-  </si>
-  <si>
-    <t>Скляров М.В</t>
-  </si>
-  <si>
-    <t>Палессе 16318СВ</t>
-  </si>
-  <si>
-    <t>16318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">най-н Clas 22491АС </t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нью-Холонд Новий </t>
-  </si>
-  <si>
-    <t>б/н</t>
-  </si>
-  <si>
-    <t>Иллюшко С.Л</t>
-  </si>
-  <si>
-    <t>най-й Джон Дір 18143 2105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">най-н CLAS 2249АС (міні) </t>
-  </si>
-  <si>
-    <t>най Case 07156 Данилов Ю.М. 2102</t>
-  </si>
-  <si>
-    <t>най Сase 07157 Косенко О.І. 1750</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3201,7 +3127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3216,19 +3142,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442" rgb="4F81BD"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442" rgb="F79646"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" rgb="000000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3252,19 +3178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442" rgb="EEECE1"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893" rgb="000000"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485" rgb="9BBB59"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3274,45 +3200,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="BFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="BFBFBF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="83">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -3638,481 +3527,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
-    <border>
-      <top style="medium"/>
-    </border>
-    <border>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4320,48 +3740,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="57" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="62" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="74" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="82" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4680,9 +4058,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7393,13 +6771,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="32" width="14.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="32" width="23.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="32" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="32" width="25.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="32" width="22.140625" collapsed="true"/>
-    <col min="6" max="53" customWidth="true" style="32" width="3.28515625" collapsed="true"/>
-    <col min="54" max="16384" style="32" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="32" customWidth="1"/>
+    <col min="6" max="53" width="3.28515625" style="32" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
@@ -9237,1117 +8615,4 @@
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="23.85546875" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="25.85546875" customWidth="true"/>
-    <col min="5" max="5" width="22.140625" customWidth="true"/>
-    <col min="6" max="6" width="3.28515625" customWidth="true"/>
-    <col min="7" max="7" width="3.28515625" customWidth="true"/>
-    <col min="8" max="8" width="3.28515625" customWidth="true"/>
-    <col min="9" max="9" width="3.28515625" customWidth="true"/>
-    <col min="10" max="10" width="3.28515625" customWidth="true"/>
-    <col min="11" max="11" width="3.28515625" customWidth="true"/>
-    <col min="12" max="12" width="3.28515625" customWidth="true"/>
-    <col min="13" max="13" width="3.28515625" customWidth="true"/>
-    <col min="14" max="14" width="3.28515625" customWidth="true"/>
-    <col min="15" max="15" width="3.28515625" customWidth="true"/>
-    <col min="16" max="16" width="3.28515625" customWidth="true"/>
-    <col min="17" max="17" width="3.28515625" customWidth="true"/>
-    <col min="18" max="18" width="3.28515625" customWidth="true"/>
-    <col min="19" max="19" width="3.28515625" customWidth="true"/>
-    <col min="20" max="20" width="3.28515625" customWidth="true"/>
-    <col min="21" max="21" width="3.28515625" customWidth="true"/>
-    <col min="22" max="22" width="3.28515625" customWidth="true"/>
-    <col min="23" max="23" width="3.28515625" customWidth="true"/>
-    <col min="24" max="24" width="3.28515625" customWidth="true"/>
-    <col min="25" max="25" width="3.28515625" customWidth="true"/>
-    <col min="26" max="26" width="3.28515625" customWidth="true"/>
-    <col min="27" max="27" width="3.28515625" customWidth="true"/>
-    <col min="28" max="28" width="3.28515625" customWidth="true"/>
-    <col min="29" max="29" width="3.28515625" customWidth="true"/>
-    <col min="30" max="30" width="3.28515625" customWidth="true"/>
-    <col min="31" max="31" width="3.28515625" customWidth="true"/>
-    <col min="32" max="32" width="3.28515625" customWidth="true"/>
-    <col min="33" max="33" width="3.28515625" customWidth="true"/>
-    <col min="34" max="34" width="3.28515625" customWidth="true"/>
-    <col min="35" max="35" width="3.28515625" customWidth="true"/>
-    <col min="36" max="36" width="3.28515625" customWidth="true"/>
-    <col min="37" max="37" width="3.28515625" customWidth="true"/>
-    <col min="38" max="38" width="3.28515625" customWidth="true"/>
-    <col min="39" max="39" width="3.28515625" customWidth="true"/>
-    <col min="40" max="40" width="3.28515625" customWidth="true"/>
-    <col min="41" max="41" width="3.28515625" customWidth="true"/>
-    <col min="42" max="42" width="3.28515625" customWidth="true"/>
-    <col min="43" max="43" width="3.28515625" customWidth="true"/>
-    <col min="44" max="44" width="3.28515625" customWidth="true"/>
-    <col min="45" max="45" width="3.28515625" customWidth="true"/>
-    <col min="46" max="46" width="3.28515625" customWidth="true"/>
-    <col min="47" max="47" width="3.28515625" customWidth="true"/>
-    <col min="48" max="48" width="3.28515625" customWidth="true"/>
-    <col min="49" max="49" width="3.28515625" customWidth="true"/>
-    <col min="50" max="50" width="3.28515625" customWidth="true"/>
-    <col min="51" max="51" width="3.28515625" customWidth="true"/>
-    <col min="52" max="52" width="3.28515625" customWidth="true"/>
-    <col min="53" max="53" width="3.28515625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="s" s="114">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="115">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s" s="115">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s" s="115">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="115">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s" s="115">
-        <v>20</v>
-      </c>
-      <c r="F3" t="n" s="115">
-        <v>7.0</v>
-      </c>
-      <c r="G3" s="120"/>
-      <c r="H3" t="n" s="115">
-        <v>8.0</v>
-      </c>
-      <c r="I3" s="120"/>
-      <c r="J3" t="n" s="115">
-        <v>9.0</v>
-      </c>
-      <c r="K3" s="120"/>
-      <c r="L3" t="n" s="115">
-        <v>10.0</v>
-      </c>
-      <c r="M3" s="120"/>
-      <c r="N3" t="n" s="115">
-        <v>11.0</v>
-      </c>
-      <c r="O3" s="120"/>
-      <c r="P3" t="n" s="115">
-        <v>12.0</v>
-      </c>
-      <c r="Q3" s="120"/>
-      <c r="R3" t="n" s="115">
-        <v>13.0</v>
-      </c>
-      <c r="S3" s="120"/>
-      <c r="T3" t="n" s="115">
-        <v>14.0</v>
-      </c>
-      <c r="U3" s="120"/>
-      <c r="V3" t="n" s="115">
-        <v>15.0</v>
-      </c>
-      <c r="W3" s="120"/>
-      <c r="X3" t="n" s="115">
-        <v>16.0</v>
-      </c>
-      <c r="Y3" s="120"/>
-      <c r="Z3" t="n" s="115">
-        <v>17.0</v>
-      </c>
-      <c r="AA3" s="120"/>
-      <c r="AB3" t="n" s="115">
-        <v>18.0</v>
-      </c>
-      <c r="AC3" s="120"/>
-      <c r="AD3" t="n" s="115">
-        <v>19.0</v>
-      </c>
-      <c r="AE3" s="120"/>
-      <c r="AF3" t="n" s="115">
-        <v>20.0</v>
-      </c>
-      <c r="AG3" s="120"/>
-      <c r="AH3" t="n" s="115">
-        <v>21.0</v>
-      </c>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" t="n" s="115">
-        <v>22.0</v>
-      </c>
-      <c r="AK3" s="120"/>
-      <c r="AL3" t="n" s="115">
-        <v>23.0</v>
-      </c>
-      <c r="AM3" s="120"/>
-      <c r="AN3" t="n" s="115">
-        <v>24.0</v>
-      </c>
-      <c r="AO3" s="120"/>
-      <c r="AP3" t="n" s="115">
-        <v>1.0</v>
-      </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" t="n" s="115">
-        <v>2.0</v>
-      </c>
-      <c r="AS3" s="120"/>
-      <c r="AT3" t="n" s="115">
-        <v>3.0</v>
-      </c>
-      <c r="AU3" s="120"/>
-      <c r="AV3" t="n" s="115">
-        <v>4.0</v>
-      </c>
-      <c r="AW3" s="120"/>
-      <c r="AX3" t="n" s="115">
-        <v>5.0</v>
-      </c>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" t="n" s="115">
-        <v>6.0</v>
-      </c>
-      <c r="BA3" s="120"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="124"/>
-      <c r="BA4" s="124"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s" s="124">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s" s="124">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s" s="124">
-        <v>84</v>
-      </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="124"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="124"/>
-      <c r="AE5" s="124"/>
-      <c r="AF5" s="124"/>
-      <c r="AG5" s="124"/>
-      <c r="AH5" s="124"/>
-      <c r="AI5" s="124"/>
-      <c r="AJ5" s="124"/>
-      <c r="AK5" s="124"/>
-      <c r="AL5" s="124"/>
-      <c r="AM5" s="124"/>
-      <c r="AN5" s="124"/>
-      <c r="AO5" s="124"/>
-      <c r="AP5" s="124"/>
-      <c r="AQ5" s="124"/>
-      <c r="AR5" s="124"/>
-      <c r="AS5" s="124"/>
-      <c r="AT5" s="124"/>
-      <c r="AU5" s="124"/>
-      <c r="AV5" s="124"/>
-      <c r="AW5" s="124"/>
-      <c r="AX5" s="124"/>
-      <c r="AY5" s="124"/>
-      <c r="AZ5" s="124"/>
-      <c r="BA5" s="124"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s" s="124">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s" s="124">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s" s="124">
-        <v>86</v>
-      </c>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="124"/>
-      <c r="AP6" s="124"/>
-      <c r="AQ6" s="124"/>
-      <c r="AR6" s="124"/>
-      <c r="AS6" s="124"/>
-      <c r="AT6" s="124"/>
-      <c r="AU6" s="124"/>
-      <c r="AV6" s="124"/>
-      <c r="AW6" s="124"/>
-      <c r="AX6" s="124"/>
-      <c r="AY6" s="124"/>
-      <c r="AZ6" s="124"/>
-      <c r="BA6" s="124"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s" s="124">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s" s="124">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s" s="124">
-        <v>51</v>
-      </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="124"/>
-      <c r="AN7" s="124"/>
-      <c r="AO7" s="124"/>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="124"/>
-      <c r="AR7" s="124"/>
-      <c r="AS7" s="124"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="124"/>
-      <c r="AV7" s="124"/>
-      <c r="AW7" s="124"/>
-      <c r="AX7" s="124"/>
-      <c r="AY7" s="124"/>
-      <c r="AZ7" s="124"/>
-      <c r="BA7" s="124"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s" s="124">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s" s="124">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s" s="124">
-        <v>89</v>
-      </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124"/>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="124"/>
-      <c r="AF8" s="124"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="124"/>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
-      <c r="AL8" s="124"/>
-      <c r="AM8" s="124"/>
-      <c r="AN8" s="124"/>
-      <c r="AO8" s="124"/>
-      <c r="AP8" s="124"/>
-      <c r="AQ8" s="124"/>
-      <c r="AR8" s="124"/>
-      <c r="AS8" s="124"/>
-      <c r="AT8" s="124"/>
-      <c r="AU8" s="124"/>
-      <c r="AV8" s="124"/>
-      <c r="AW8" s="124"/>
-      <c r="AX8" s="124"/>
-      <c r="AY8" s="124"/>
-      <c r="AZ8" s="124"/>
-      <c r="BA8" s="124"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s" s="124">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s" s="124">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s" s="124">
-        <v>91</v>
-      </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="124"/>
-      <c r="AD9" s="124"/>
-      <c r="AE9" s="124"/>
-      <c r="AF9" s="124"/>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="124"/>
-      <c r="AJ9" s="124"/>
-      <c r="AK9" s="124"/>
-      <c r="AL9" s="124"/>
-      <c r="AM9" s="124"/>
-      <c r="AN9" s="124"/>
-      <c r="AO9" s="124"/>
-      <c r="AP9" s="124"/>
-      <c r="AQ9" s="124"/>
-      <c r="AR9" s="124"/>
-      <c r="AS9" s="124"/>
-      <c r="AT9" s="124"/>
-      <c r="AU9" s="124"/>
-      <c r="AV9" s="124"/>
-      <c r="AW9" s="124"/>
-      <c r="AX9" s="124"/>
-      <c r="AY9" s="124"/>
-      <c r="AZ9" s="124"/>
-      <c r="BA9" s="124"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s" s="124">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s" s="124">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s" s="124">
-        <v>93</v>
-      </c>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="124"/>
-      <c r="AJ10" s="124"/>
-      <c r="AK10" s="124"/>
-      <c r="AL10" s="124"/>
-      <c r="AM10" s="124"/>
-      <c r="AN10" s="124"/>
-      <c r="AO10" s="124"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="124"/>
-      <c r="AR10" s="124"/>
-      <c r="AS10" s="124"/>
-      <c r="AT10" s="124"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="124"/>
-      <c r="AY10" s="124"/>
-      <c r="AZ10" s="124"/>
-      <c r="BA10" s="124"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s" s="124">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s" s="124">
-        <v>95</v>
-      </c>
-      <c r="D11" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s" s="124">
-        <v>55</v>
-      </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="124"/>
-      <c r="AK11" s="124"/>
-      <c r="AL11" s="124"/>
-      <c r="AM11" s="124"/>
-      <c r="AN11" s="124"/>
-      <c r="AO11" s="124"/>
-      <c r="AP11" s="124"/>
-      <c r="AQ11" s="124"/>
-      <c r="AR11" s="124"/>
-      <c r="AS11" s="124"/>
-      <c r="AT11" s="124"/>
-      <c r="AU11" s="124"/>
-      <c r="AV11" s="124"/>
-      <c r="AW11" s="124"/>
-      <c r="AX11" s="124"/>
-      <c r="AY11" s="124"/>
-      <c r="AZ11" s="124"/>
-      <c r="BA11" s="124"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s" s="124">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s" s="124">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s" s="124">
-        <v>97</v>
-      </c>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="124"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="124"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="124"/>
-      <c r="AK12" s="124"/>
-      <c r="AL12" s="124"/>
-      <c r="AM12" s="124"/>
-      <c r="AN12" s="124"/>
-      <c r="AO12" s="124"/>
-      <c r="AP12" s="124"/>
-      <c r="AQ12" s="124"/>
-      <c r="AR12" s="124"/>
-      <c r="AS12" s="124"/>
-      <c r="AT12" s="124"/>
-      <c r="AU12" s="124"/>
-      <c r="AV12" s="124"/>
-      <c r="AW12" s="124"/>
-      <c r="AX12" s="124"/>
-      <c r="AY12" s="124"/>
-      <c r="AZ12" s="124"/>
-      <c r="BA12" s="124"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s" s="124">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s" s="124">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s" s="124">
-        <v>100</v>
-      </c>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-      <c r="Z13" s="124"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="124"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="124"/>
-      <c r="AJ13" s="124"/>
-      <c r="AK13" s="124"/>
-      <c r="AL13" s="124"/>
-      <c r="AM13" s="124"/>
-      <c r="AN13" s="124"/>
-      <c r="AO13" s="124"/>
-      <c r="AP13" s="124"/>
-      <c r="AQ13" s="124"/>
-      <c r="AR13" s="124"/>
-      <c r="AS13" s="124"/>
-      <c r="AT13" s="124"/>
-      <c r="AU13" s="124"/>
-      <c r="AV13" s="124"/>
-      <c r="AW13" s="124"/>
-      <c r="AX13" s="124"/>
-      <c r="AY13" s="124"/>
-      <c r="AZ13" s="124"/>
-      <c r="BA13" s="124"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s" s="124">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s" s="124">
-        <v>97</v>
-      </c>
-      <c r="D14" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s" s="124">
-        <v>97</v>
-      </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="124"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="124"/>
-      <c r="AE14" s="124"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="124"/>
-      <c r="AM14" s="124"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="124"/>
-      <c r="AP14" s="124"/>
-      <c r="AQ14" s="124"/>
-      <c r="AR14" s="124"/>
-      <c r="AS14" s="124"/>
-      <c r="AT14" s="124"/>
-      <c r="AU14" s="124"/>
-      <c r="AV14" s="124"/>
-      <c r="AW14" s="124"/>
-      <c r="AX14" s="124"/>
-      <c r="AY14" s="124"/>
-      <c r="AZ14" s="124"/>
-      <c r="BA14" s="124"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s" s="124">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s" s="124">
-        <v>97</v>
-      </c>
-      <c r="D15" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s" s="124">
-        <v>97</v>
-      </c>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="124"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="124"/>
-      <c r="AN15" s="124"/>
-      <c r="AO15" s="124"/>
-      <c r="AP15" s="124"/>
-      <c r="AQ15" s="124"/>
-      <c r="AR15" s="124"/>
-      <c r="AS15" s="124"/>
-      <c r="AT15" s="124"/>
-      <c r="AU15" s="124"/>
-      <c r="AV15" s="124"/>
-      <c r="AW15" s="124"/>
-      <c r="AX15" s="124"/>
-      <c r="AY15" s="124"/>
-      <c r="AZ15" s="124"/>
-      <c r="BA15" s="124"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s" s="124">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s" s="124">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E16" t="s" s="124">
-        <v>97</v>
-      </c>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="124"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="124"/>
-      <c r="AJ16" s="124"/>
-      <c r="AK16" s="124"/>
-      <c r="AL16" s="124"/>
-      <c r="AM16" s="124"/>
-      <c r="AN16" s="124"/>
-      <c r="AO16" s="124"/>
-      <c r="AP16" s="124"/>
-      <c r="AQ16" s="124"/>
-      <c r="AR16" s="124"/>
-      <c r="AS16" s="124"/>
-      <c r="AT16" s="124"/>
-      <c r="AU16" s="124"/>
-      <c r="AV16" s="124"/>
-      <c r="AW16" s="124"/>
-      <c r="AX16" s="124"/>
-      <c r="AY16" s="124"/>
-      <c r="AZ16" s="124"/>
-      <c r="BA16" s="124"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="124">
-        <v>82</v>
-      </c>
-      <c r="B17" t="s" s="124">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s" s="124">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s" s="124">
-        <v>83</v>
-      </c>
-      <c r="E17" t="s" s="124">
-        <v>97</v>
-      </c>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="124"/>
-      <c r="AJ17" s="124"/>
-      <c r="AK17" s="124"/>
-      <c r="AL17" s="124"/>
-      <c r="AM17" s="124"/>
-      <c r="AN17" s="124"/>
-      <c r="AO17" s="124"/>
-      <c r="AP17" s="124"/>
-      <c r="AQ17" s="124"/>
-      <c r="AR17" s="124"/>
-      <c r="AS17" s="124"/>
-      <c r="AT17" s="124"/>
-      <c r="AU17" s="124"/>
-      <c r="AV17" s="124"/>
-      <c r="AW17" s="124"/>
-      <c r="AX17" s="124"/>
-      <c r="AY17" s="124"/>
-      <c r="AZ17" s="124"/>
-      <c r="BA17" s="124"/>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Комбайн" sheetId="1" r:id="rId1"/>
     <sheet name="01.10" sheetId="71" r:id="rId2"/>
+    <sheet name="test" r:id="rId7" sheetId="72"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2794,7 +2795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
   <si>
     <t>Держ №</t>
   </si>
@@ -3038,11 +3039,74 @@
   <si>
     <t>test version</t>
   </si>
+  <si>
+    <t xml:space="preserve">John Deere-S6901_09039BI"
+</t>
+  </si>
+  <si>
+    <t>Хмільниця_Тест</t>
+  </si>
+  <si>
+    <t>Збирання кукурудзи_Тест</t>
+  </si>
+  <si>
+    <t>Півень В.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere-S9880_11270CB"
+</t>
+  </si>
+  <si>
+    <t>Коробко В.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere-S9880_11271CB"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere-S9880_11273CB"
+</t>
+  </si>
+  <si>
+    <t>Василенко А.П.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere-S9880_11269CB"
+</t>
+  </si>
+  <si>
+    <t>Скляров О.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere-S9880_11272CB"
+</t>
+  </si>
+  <si>
+    <t>Скляров М.В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палессе 16318СВ"
+</t>
+  </si>
+  <si>
+    <t>16318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нью-Холонд Новий "
+</t>
+  </si>
+  <si>
+    <t>б/н</t>
+  </si>
+  <si>
+    <t>Иллюшко С.Л</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3127,7 +3191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3142,19 +3206,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442" rgb="4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442" rgb="F79646"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" rgb="000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3178,19 +3242,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442" rgb="EEECE1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.249977111117893" rgb="000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485" rgb="9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3200,8 +3264,55 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B050"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -3527,12 +3638,488 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
+    <border>
+      <top style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3741,6 +4328,209 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="57" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="62" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="74" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="82" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4058,9 +4848,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6771,13 +7561,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="32" customWidth="1"/>
-    <col min="6" max="53" width="3.28515625" style="32" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" customWidth="true" style="32" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="32" width="23.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="32" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="32" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="32" width="22.140625" collapsed="true"/>
+    <col min="6" max="53" customWidth="true" style="32" width="3.28515625" collapsed="true"/>
+    <col min="54" max="16384" style="32" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
@@ -8615,4 +9405,792 @@
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="23.85546875" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="25.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.140625" customWidth="true"/>
+    <col min="6" max="6" width="3.28515625" customWidth="true"/>
+    <col min="7" max="7" width="3.28515625" customWidth="true"/>
+    <col min="8" max="8" width="3.28515625" customWidth="true"/>
+    <col min="9" max="9" width="3.28515625" customWidth="true"/>
+    <col min="10" max="10" width="3.28515625" customWidth="true"/>
+    <col min="11" max="11" width="3.28515625" customWidth="true"/>
+    <col min="12" max="12" width="3.28515625" customWidth="true"/>
+    <col min="13" max="13" width="3.28515625" customWidth="true"/>
+    <col min="14" max="14" width="3.28515625" customWidth="true"/>
+    <col min="15" max="15" width="3.28515625" customWidth="true"/>
+    <col min="16" max="16" width="3.28515625" customWidth="true"/>
+    <col min="17" max="17" width="3.28515625" customWidth="true"/>
+    <col min="18" max="18" width="3.28515625" customWidth="true"/>
+    <col min="19" max="19" width="3.28515625" customWidth="true"/>
+    <col min="20" max="20" width="3.28515625" customWidth="true"/>
+    <col min="21" max="21" width="3.28515625" customWidth="true"/>
+    <col min="22" max="22" width="3.28515625" customWidth="true"/>
+    <col min="23" max="23" width="3.28515625" customWidth="true"/>
+    <col min="24" max="24" width="3.28515625" customWidth="true"/>
+    <col min="25" max="25" width="3.28515625" customWidth="true"/>
+    <col min="26" max="26" width="3.28515625" customWidth="true"/>
+    <col min="27" max="27" width="3.28515625" customWidth="true"/>
+    <col min="28" max="28" width="3.28515625" customWidth="true"/>
+    <col min="29" max="29" width="3.28515625" customWidth="true"/>
+    <col min="30" max="30" width="3.28515625" customWidth="true"/>
+    <col min="31" max="31" width="3.28515625" customWidth="true"/>
+    <col min="32" max="32" width="3.28515625" customWidth="true"/>
+    <col min="33" max="33" width="3.28515625" customWidth="true"/>
+    <col min="34" max="34" width="3.28515625" customWidth="true"/>
+    <col min="35" max="35" width="3.28515625" customWidth="true"/>
+    <col min="36" max="36" width="3.28515625" customWidth="true"/>
+    <col min="37" max="37" width="3.28515625" customWidth="true"/>
+    <col min="38" max="38" width="3.28515625" customWidth="true"/>
+    <col min="39" max="39" width="3.28515625" customWidth="true"/>
+    <col min="40" max="40" width="3.28515625" customWidth="true"/>
+    <col min="41" max="41" width="3.28515625" customWidth="true"/>
+    <col min="42" max="42" width="3.28515625" customWidth="true"/>
+    <col min="43" max="43" width="3.28515625" customWidth="true"/>
+    <col min="44" max="44" width="3.28515625" customWidth="true"/>
+    <col min="45" max="45" width="3.28515625" customWidth="true"/>
+    <col min="46" max="46" width="3.28515625" customWidth="true"/>
+    <col min="47" max="47" width="3.28515625" customWidth="true"/>
+    <col min="48" max="48" width="3.28515625" customWidth="true"/>
+    <col min="49" max="49" width="3.28515625" customWidth="true"/>
+    <col min="50" max="50" width="3.28515625" customWidth="true"/>
+    <col min="51" max="51" width="3.28515625" customWidth="true"/>
+    <col min="52" max="52" width="3.28515625" customWidth="true"/>
+    <col min="53" max="53" width="3.28515625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s" s="114">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="115">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s" s="115">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="115">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="115">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="115">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n" s="115">
+        <v>7.0</v>
+      </c>
+      <c r="G3" s="120"/>
+      <c r="H3" t="n" s="115">
+        <v>8.0</v>
+      </c>
+      <c r="I3" s="120"/>
+      <c r="J3" t="n" s="115">
+        <v>9.0</v>
+      </c>
+      <c r="K3" s="120"/>
+      <c r="L3" t="n" s="115">
+        <v>10.0</v>
+      </c>
+      <c r="M3" s="120"/>
+      <c r="N3" t="n" s="115">
+        <v>11.0</v>
+      </c>
+      <c r="O3" s="120"/>
+      <c r="P3" t="n" s="115">
+        <v>12.0</v>
+      </c>
+      <c r="Q3" s="120"/>
+      <c r="R3" t="n" s="115">
+        <v>13.0</v>
+      </c>
+      <c r="S3" s="120"/>
+      <c r="T3" t="n" s="115">
+        <v>14.0</v>
+      </c>
+      <c r="U3" s="120"/>
+      <c r="V3" t="n" s="115">
+        <v>15.0</v>
+      </c>
+      <c r="W3" s="120"/>
+      <c r="X3" t="n" s="115">
+        <v>16.0</v>
+      </c>
+      <c r="Y3" s="120"/>
+      <c r="Z3" t="n" s="115">
+        <v>17.0</v>
+      </c>
+      <c r="AA3" s="120"/>
+      <c r="AB3" t="n" s="115">
+        <v>18.0</v>
+      </c>
+      <c r="AC3" s="120"/>
+      <c r="AD3" t="n" s="115">
+        <v>19.0</v>
+      </c>
+      <c r="AE3" s="120"/>
+      <c r="AF3" t="n" s="115">
+        <v>20.0</v>
+      </c>
+      <c r="AG3" s="120"/>
+      <c r="AH3" t="n" s="115">
+        <v>21.0</v>
+      </c>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" t="n" s="115">
+        <v>22.0</v>
+      </c>
+      <c r="AK3" s="120"/>
+      <c r="AL3" t="n" s="115">
+        <v>23.0</v>
+      </c>
+      <c r="AM3" s="120"/>
+      <c r="AN3" t="n" s="115">
+        <v>24.0</v>
+      </c>
+      <c r="AO3" s="120"/>
+      <c r="AP3" t="n" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="AQ3" s="120"/>
+      <c r="AR3" t="n" s="115">
+        <v>2.0</v>
+      </c>
+      <c r="AS3" s="120"/>
+      <c r="AT3" t="n" s="115">
+        <v>3.0</v>
+      </c>
+      <c r="AU3" s="120"/>
+      <c r="AV3" t="n" s="115">
+        <v>4.0</v>
+      </c>
+      <c r="AW3" s="120"/>
+      <c r="AX3" t="n" s="115">
+        <v>5.0</v>
+      </c>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" t="n" s="115">
+        <v>6.0</v>
+      </c>
+      <c r="BA3" s="120"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="124"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="124"/>
+      <c r="BA4" s="124"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s" s="124">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s" s="124">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s" s="124">
+        <v>84</v>
+      </c>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="142"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="149"/>
+      <c r="AJ5" s="124"/>
+      <c r="AK5" s="124"/>
+      <c r="AL5" s="124"/>
+      <c r="AM5" s="124"/>
+      <c r="AN5" s="124"/>
+      <c r="AO5" s="124"/>
+      <c r="AP5" s="124"/>
+      <c r="AQ5" s="124"/>
+      <c r="AR5" s="124"/>
+      <c r="AS5" s="124"/>
+      <c r="AT5" s="124"/>
+      <c r="AU5" s="124"/>
+      <c r="AV5" s="124"/>
+      <c r="AW5" s="124"/>
+      <c r="AX5" s="124"/>
+      <c r="AY5" s="124"/>
+      <c r="AZ5" s="124"/>
+      <c r="BA5" s="124"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s" s="124">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s" s="124">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s" s="124">
+        <v>86</v>
+      </c>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="161"/>
+      <c r="U6" s="162"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="166"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="168"/>
+      <c r="AB6" s="169"/>
+      <c r="AC6" s="170"/>
+      <c r="AD6" s="171"/>
+      <c r="AE6" s="172"/>
+      <c r="AF6" s="173"/>
+      <c r="AG6" s="174"/>
+      <c r="AH6" s="175"/>
+      <c r="AI6" s="176"/>
+      <c r="AJ6" s="124"/>
+      <c r="AK6" s="124"/>
+      <c r="AL6" s="124"/>
+      <c r="AM6" s="124"/>
+      <c r="AN6" s="124"/>
+      <c r="AO6" s="124"/>
+      <c r="AP6" s="124"/>
+      <c r="AQ6" s="124"/>
+      <c r="AR6" s="124"/>
+      <c r="AS6" s="124"/>
+      <c r="AT6" s="124"/>
+      <c r="AU6" s="124"/>
+      <c r="AV6" s="124"/>
+      <c r="AW6" s="124"/>
+      <c r="AX6" s="124"/>
+      <c r="AY6" s="124"/>
+      <c r="AZ6" s="124"/>
+      <c r="BA6" s="124"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s" s="124">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s" s="124">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s" s="124">
+        <v>51</v>
+      </c>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="186"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="188"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="124"/>
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="124"/>
+      <c r="AN7" s="124"/>
+      <c r="AO7" s="124"/>
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="124"/>
+      <c r="AR7" s="124"/>
+      <c r="AS7" s="124"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="124"/>
+      <c r="AV7" s="124"/>
+      <c r="AW7" s="124"/>
+      <c r="AX7" s="124"/>
+      <c r="AY7" s="124"/>
+      <c r="AZ7" s="124"/>
+      <c r="BA7" s="124"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s" s="124">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s" s="124">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s" s="124">
+        <v>89</v>
+      </c>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="192"/>
+      <c r="O8" s="193"/>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="196"/>
+      <c r="S8" s="197"/>
+      <c r="T8" s="198"/>
+      <c r="U8" s="199"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="201"/>
+      <c r="X8" s="202"/>
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="205"/>
+      <c r="AB8" s="206"/>
+      <c r="AC8" s="207"/>
+      <c r="AD8" s="208"/>
+      <c r="AE8" s="209"/>
+      <c r="AF8" s="210"/>
+      <c r="AG8" s="211"/>
+      <c r="AH8" s="212"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="124"/>
+      <c r="AT8" s="124"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
+      <c r="AX8" s="124"/>
+      <c r="AY8" s="124"/>
+      <c r="AZ8" s="124"/>
+      <c r="BA8" s="124"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s" s="124">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s" s="124">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s" s="124">
+        <v>91</v>
+      </c>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="216"/>
+      <c r="P9" s="217"/>
+      <c r="Q9" s="218"/>
+      <c r="R9" s="219"/>
+      <c r="S9" s="220"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="222"/>
+      <c r="V9" s="223"/>
+      <c r="W9" s="224"/>
+      <c r="X9" s="225"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="227"/>
+      <c r="AA9" s="228"/>
+      <c r="AB9" s="229"/>
+      <c r="AC9" s="230"/>
+      <c r="AD9" s="231"/>
+      <c r="AE9" s="232"/>
+      <c r="AF9" s="233"/>
+      <c r="AG9" s="234"/>
+      <c r="AH9" s="235"/>
+      <c r="AI9" s="236"/>
+      <c r="AJ9" s="124"/>
+      <c r="AK9" s="124"/>
+      <c r="AL9" s="124"/>
+      <c r="AM9" s="124"/>
+      <c r="AN9" s="124"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="124"/>
+      <c r="AQ9" s="124"/>
+      <c r="AR9" s="124"/>
+      <c r="AS9" s="124"/>
+      <c r="AT9" s="124"/>
+      <c r="AU9" s="124"/>
+      <c r="AV9" s="124"/>
+      <c r="AW9" s="124"/>
+      <c r="AX9" s="124"/>
+      <c r="AY9" s="124"/>
+      <c r="AZ9" s="124"/>
+      <c r="BA9" s="124"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s" s="124">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s" s="124">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s" s="124">
+        <v>93</v>
+      </c>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="239"/>
+      <c r="O10" s="240"/>
+      <c r="P10" s="241"/>
+      <c r="Q10" s="242"/>
+      <c r="R10" s="243"/>
+      <c r="S10" s="244"/>
+      <c r="T10" s="245"/>
+      <c r="U10" s="246"/>
+      <c r="V10" s="247"/>
+      <c r="W10" s="248"/>
+      <c r="X10" s="249"/>
+      <c r="Y10" s="250"/>
+      <c r="Z10" s="251"/>
+      <c r="AA10" s="252"/>
+      <c r="AB10" s="253"/>
+      <c r="AC10" s="254"/>
+      <c r="AD10" s="255"/>
+      <c r="AE10" s="256"/>
+      <c r="AF10" s="257"/>
+      <c r="AG10" s="258"/>
+      <c r="AH10" s="259"/>
+      <c r="AI10" s="260"/>
+      <c r="AJ10" s="124"/>
+      <c r="AK10" s="124"/>
+      <c r="AL10" s="124"/>
+      <c r="AM10" s="124"/>
+      <c r="AN10" s="124"/>
+      <c r="AO10" s="124"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="124"/>
+      <c r="AR10" s="124"/>
+      <c r="AS10" s="124"/>
+      <c r="AT10" s="124"/>
+      <c r="AU10" s="124"/>
+      <c r="AV10" s="124"/>
+      <c r="AW10" s="124"/>
+      <c r="AX10" s="124"/>
+      <c r="AY10" s="124"/>
+      <c r="AZ10" s="124"/>
+      <c r="BA10" s="124"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s" s="124">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s" s="124">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s" s="124">
+        <v>55</v>
+      </c>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="124"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="124"/>
+      <c r="AK11" s="124"/>
+      <c r="AL11" s="124"/>
+      <c r="AM11" s="124"/>
+      <c r="AN11" s="124"/>
+      <c r="AO11" s="261"/>
+      <c r="AP11" s="124"/>
+      <c r="AQ11" s="124"/>
+      <c r="AR11" s="124"/>
+      <c r="AS11" s="124"/>
+      <c r="AT11" s="124"/>
+      <c r="AU11" s="124"/>
+      <c r="AV11" s="124"/>
+      <c r="AW11" s="124"/>
+      <c r="AX11" s="124"/>
+      <c r="AY11" s="124"/>
+      <c r="AZ11" s="124"/>
+      <c r="BA11" s="124"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="124">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s" s="124">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s" s="124">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s" s="124">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s" s="124">
+        <v>98</v>
+      </c>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="264"/>
+      <c r="N12" s="265"/>
+      <c r="O12" s="266"/>
+      <c r="P12" s="267"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="271"/>
+      <c r="U12" s="272"/>
+      <c r="V12" s="273"/>
+      <c r="W12" s="274"/>
+      <c r="X12" s="275"/>
+      <c r="Y12" s="276"/>
+      <c r="Z12" s="277"/>
+      <c r="AA12" s="278"/>
+      <c r="AB12" s="279"/>
+      <c r="AC12" s="280"/>
+      <c r="AD12" s="281"/>
+      <c r="AE12" s="282"/>
+      <c r="AF12" s="283"/>
+      <c r="AG12" s="284"/>
+      <c r="AH12" s="285"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="124"/>
+      <c r="AK12" s="124"/>
+      <c r="AL12" s="124"/>
+      <c r="AM12" s="124"/>
+      <c r="AN12" s="124"/>
+      <c r="AO12" s="124"/>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="124"/>
+      <c r="AR12" s="124"/>
+      <c r="AS12" s="124"/>
+      <c r="AT12" s="124"/>
+      <c r="AU12" s="124"/>
+      <c r="AV12" s="124"/>
+      <c r="AW12" s="124"/>
+      <c r="AX12" s="124"/>
+      <c r="AY12" s="124"/>
+      <c r="AZ12" s="124"/>
+      <c r="BA12" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -11,7 +11,7 @@
     <sheet name="01.10" sheetId="71" r:id="rId2"/>
     <sheet name="test" r:id="rId7" sheetId="72"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -3312,7 +3312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -3837,6 +3837,51 @@
       </bottom>
     </border>
     <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
       <right style="medium"/>
       <bottom style="medium"/>
     </border>
@@ -3944,42 +3989,41 @@
       </bottom>
     </border>
     <border>
-      <left style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
       <top style="thin"/>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color indexed="8"/>
       </left>
       <top style="thin"/>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color indexed="8"/>
       </left>
       <right>
         <color indexed="8"/>
       </right>
       <top style="thin"/>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color indexed="8"/>
       </left>
       <right>
@@ -3988,51 +4032,50 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin"/>
       <right style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color indexed="8"/>
       </left>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin"/>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -4041,12 +4084,9 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
     </border>
     <border>
       <left style="thin"/>
@@ -4110,16 +4150,12 @@
     <border>
       <right style="thin"/>
     </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4298,6 +4334,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4310,28 +4358,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="57" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="62" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -4350,187 +4386,191 @@
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="62" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="67" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="74" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="73" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="82" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="79" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="86" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7556,7 +7596,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AH12" sqref="AH12"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7579,63 +7619,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="111"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="112"/>
-      <c r="AT2" s="112"/>
-      <c r="AU2" s="112"/>
-      <c r="AV2" s="112"/>
-      <c r="AW2" s="112"/>
-      <c r="AX2" s="112"/>
-      <c r="AY2" s="112"/>
-      <c r="AZ2" s="112"/>
-      <c r="BA2" s="112"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="105"/>
+      <c r="AY2" s="105"/>
+      <c r="AZ2" s="105"/>
+      <c r="BA2" s="105"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -7653,102 +7693,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="108">
+      <c r="F3" s="106">
         <v>7</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108">
+      <c r="G3" s="106"/>
+      <c r="H3" s="106">
         <v>8</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108">
+      <c r="I3" s="106"/>
+      <c r="J3" s="106">
         <v>9</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106">
         <v>10</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108">
+      <c r="M3" s="106"/>
+      <c r="N3" s="106">
         <v>11</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108">
+      <c r="O3" s="106"/>
+      <c r="P3" s="106">
         <v>12</v>
       </c>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108">
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106">
         <v>13</v>
       </c>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108">
+      <c r="S3" s="106"/>
+      <c r="T3" s="106">
         <v>14</v>
       </c>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108">
+      <c r="U3" s="106"/>
+      <c r="V3" s="106">
         <v>15</v>
       </c>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108">
+      <c r="W3" s="106"/>
+      <c r="X3" s="106">
         <v>16</v>
       </c>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="110">
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="113">
         <v>17</v>
       </c>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110">
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113">
         <v>18</v>
       </c>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108">
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="106">
         <v>19</v>
       </c>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108">
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106">
         <v>20</v>
       </c>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108">
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106">
         <v>21</v>
       </c>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108">
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106">
         <v>22</v>
       </c>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108">
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106">
         <v>23</v>
       </c>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108">
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106">
         <v>24</v>
       </c>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108">
+      <c r="AO3" s="106"/>
+      <c r="AP3" s="106">
         <v>1</v>
       </c>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108">
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="106">
         <v>2</v>
       </c>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108">
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106">
         <v>3</v>
       </c>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108">
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106">
         <v>4</v>
       </c>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108">
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="106">
         <v>5</v>
       </c>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108">
+      <c r="AY3" s="106"/>
+      <c r="AZ3" s="106">
         <v>6</v>
       </c>
-      <c r="BA3" s="113"/>
+      <c r="BA3" s="107"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -7808,7 +7848,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="108" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -7875,7 +7915,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -7942,7 +7982,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="105"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -8007,7 +8047,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="110" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -8074,7 +8114,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -8137,7 +8177,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="108" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -8202,7 +8242,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -8261,7 +8301,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="110" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -8330,7 +8370,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -8397,7 +8437,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -8462,7 +8502,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -8525,7 +8565,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -8586,7 +8626,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -8651,7 +8691,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="105"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -8716,7 +8756,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="110" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -8783,7 +8823,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -8846,7 +8886,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="105"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -9369,21 +9409,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -9400,6 +9425,21 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -9420,54 +9460,102 @@
     <col min="3" max="3" width="11.42578125" customWidth="true"/>
     <col min="4" max="4" width="25.85546875" customWidth="true"/>
     <col min="5" max="5" width="22.140625" customWidth="true"/>
-    <col min="6" max="6" width="3.28515625" customWidth="true"/>
-    <col min="7" max="7" width="3.28515625" customWidth="true"/>
-    <col min="8" max="8" width="3.28515625" customWidth="true"/>
-    <col min="9" max="9" width="3.28515625" customWidth="true"/>
-    <col min="10" max="10" width="3.28515625" customWidth="true"/>
-    <col min="11" max="11" width="3.28515625" customWidth="true"/>
-    <col min="12" max="12" width="3.28515625" customWidth="true"/>
-    <col min="13" max="13" width="3.28515625" customWidth="true"/>
-    <col min="14" max="14" width="3.28515625" customWidth="true"/>
-    <col min="15" max="15" width="3.28515625" customWidth="true"/>
-    <col min="16" max="16" width="3.28515625" customWidth="true"/>
-    <col min="17" max="17" width="3.28515625" customWidth="true"/>
-    <col min="18" max="18" width="3.28515625" customWidth="true"/>
-    <col min="19" max="19" width="3.28515625" customWidth="true"/>
-    <col min="20" max="20" width="3.28515625" customWidth="true"/>
-    <col min="21" max="21" width="3.28515625" customWidth="true"/>
-    <col min="22" max="22" width="3.28515625" customWidth="true"/>
-    <col min="23" max="23" width="3.28515625" customWidth="true"/>
-    <col min="24" max="24" width="3.28515625" customWidth="true"/>
-    <col min="25" max="25" width="3.28515625" customWidth="true"/>
-    <col min="26" max="26" width="3.28515625" customWidth="true"/>
-    <col min="27" max="27" width="3.28515625" customWidth="true"/>
-    <col min="28" max="28" width="3.28515625" customWidth="true"/>
-    <col min="29" max="29" width="3.28515625" customWidth="true"/>
-    <col min="30" max="30" width="3.28515625" customWidth="true"/>
-    <col min="31" max="31" width="3.28515625" customWidth="true"/>
-    <col min="32" max="32" width="3.28515625" customWidth="true"/>
-    <col min="33" max="33" width="3.28515625" customWidth="true"/>
-    <col min="34" max="34" width="3.28515625" customWidth="true"/>
-    <col min="35" max="35" width="3.28515625" customWidth="true"/>
-    <col min="36" max="36" width="3.28515625" customWidth="true"/>
-    <col min="37" max="37" width="3.28515625" customWidth="true"/>
-    <col min="38" max="38" width="3.28515625" customWidth="true"/>
-    <col min="39" max="39" width="3.28515625" customWidth="true"/>
-    <col min="40" max="40" width="3.28515625" customWidth="true"/>
-    <col min="41" max="41" width="3.28515625" customWidth="true"/>
-    <col min="42" max="42" width="3.28515625" customWidth="true"/>
-    <col min="43" max="43" width="3.28515625" customWidth="true"/>
-    <col min="44" max="44" width="3.28515625" customWidth="true"/>
-    <col min="45" max="45" width="3.28515625" customWidth="true"/>
-    <col min="46" max="46" width="3.28515625" customWidth="true"/>
-    <col min="47" max="47" width="3.28515625" customWidth="true"/>
-    <col min="48" max="48" width="3.28515625" customWidth="true"/>
-    <col min="49" max="49" width="3.28515625" customWidth="true"/>
-    <col min="50" max="50" width="3.28515625" customWidth="true"/>
-    <col min="51" max="51" width="3.28515625" customWidth="true"/>
-    <col min="52" max="52" width="3.28515625" customWidth="true"/>
-    <col min="53" max="53" width="3.28515625" customWidth="true"/>
+    <col min="6" max="6" width="1.640625" customWidth="true"/>
+    <col min="7" max="7" width="1.640625" customWidth="true"/>
+    <col min="8" max="8" width="1.640625" customWidth="true"/>
+    <col min="9" max="9" width="1.640625" customWidth="true"/>
+    <col min="10" max="10" width="1.640625" customWidth="true"/>
+    <col min="11" max="11" width="1.640625" customWidth="true"/>
+    <col min="12" max="12" width="1.640625" customWidth="true"/>
+    <col min="13" max="13" width="1.640625" customWidth="true"/>
+    <col min="14" max="14" width="1.640625" customWidth="true"/>
+    <col min="15" max="15" width="1.640625" customWidth="true"/>
+    <col min="16" max="16" width="1.640625" customWidth="true"/>
+    <col min="17" max="17" width="1.640625" customWidth="true"/>
+    <col min="18" max="18" width="1.640625" customWidth="true"/>
+    <col min="19" max="19" width="1.640625" customWidth="true"/>
+    <col min="20" max="20" width="1.640625" customWidth="true"/>
+    <col min="21" max="21" width="1.640625" customWidth="true"/>
+    <col min="22" max="22" width="1.640625" customWidth="true"/>
+    <col min="23" max="23" width="1.640625" customWidth="true"/>
+    <col min="24" max="24" width="1.640625" customWidth="true"/>
+    <col min="25" max="25" width="1.640625" customWidth="true"/>
+    <col min="26" max="26" width="1.640625" customWidth="true"/>
+    <col min="27" max="27" width="1.640625" customWidth="true"/>
+    <col min="28" max="28" width="1.640625" customWidth="true"/>
+    <col min="29" max="29" width="1.640625" customWidth="true"/>
+    <col min="30" max="30" width="1.640625" customWidth="true"/>
+    <col min="31" max="31" width="1.640625" customWidth="true"/>
+    <col min="32" max="32" width="1.640625" customWidth="true"/>
+    <col min="33" max="33" width="1.640625" customWidth="true"/>
+    <col min="34" max="34" width="1.640625" customWidth="true"/>
+    <col min="35" max="35" width="1.640625" customWidth="true"/>
+    <col min="36" max="36" width="1.640625" customWidth="true"/>
+    <col min="37" max="37" width="1.640625" customWidth="true"/>
+    <col min="38" max="38" width="1.640625" customWidth="true"/>
+    <col min="39" max="39" width="1.640625" customWidth="true"/>
+    <col min="40" max="40" width="1.640625" customWidth="true"/>
+    <col min="41" max="41" width="1.640625" customWidth="true"/>
+    <col min="42" max="42" width="1.640625" customWidth="true"/>
+    <col min="43" max="43" width="1.640625" customWidth="true"/>
+    <col min="44" max="44" width="1.640625" customWidth="true"/>
+    <col min="45" max="45" width="1.640625" customWidth="true"/>
+    <col min="46" max="46" width="1.640625" customWidth="true"/>
+    <col min="47" max="47" width="1.640625" customWidth="true"/>
+    <col min="48" max="48" width="1.640625" customWidth="true"/>
+    <col min="49" max="49" width="1.640625" customWidth="true"/>
+    <col min="50" max="50" width="1.640625" customWidth="true"/>
+    <col min="51" max="51" width="1.640625" customWidth="true"/>
+    <col min="52" max="52" width="1.640625" customWidth="true"/>
+    <col min="53" max="53" width="1.640625" customWidth="true"/>
+    <col min="54" max="54" width="1.640625" customWidth="true"/>
+    <col min="55" max="55" width="1.640625" customWidth="true"/>
+    <col min="56" max="56" width="1.640625" customWidth="true"/>
+    <col min="57" max="57" width="1.640625" customWidth="true"/>
+    <col min="58" max="58" width="1.640625" customWidth="true"/>
+    <col min="59" max="59" width="1.640625" customWidth="true"/>
+    <col min="60" max="60" width="1.640625" customWidth="true"/>
+    <col min="61" max="61" width="1.640625" customWidth="true"/>
+    <col min="62" max="62" width="1.640625" customWidth="true"/>
+    <col min="63" max="63" width="1.640625" customWidth="true"/>
+    <col min="64" max="64" width="1.640625" customWidth="true"/>
+    <col min="65" max="65" width="1.640625" customWidth="true"/>
+    <col min="66" max="66" width="1.640625" customWidth="true"/>
+    <col min="67" max="67" width="1.640625" customWidth="true"/>
+    <col min="68" max="68" width="1.640625" customWidth="true"/>
+    <col min="69" max="69" width="1.640625" customWidth="true"/>
+    <col min="70" max="70" width="1.640625" customWidth="true"/>
+    <col min="71" max="71" width="1.640625" customWidth="true"/>
+    <col min="72" max="72" width="1.640625" customWidth="true"/>
+    <col min="73" max="73" width="1.640625" customWidth="true"/>
+    <col min="74" max="74" width="1.640625" customWidth="true"/>
+    <col min="75" max="75" width="1.640625" customWidth="true"/>
+    <col min="76" max="76" width="1.640625" customWidth="true"/>
+    <col min="77" max="77" width="1.640625" customWidth="true"/>
+    <col min="78" max="78" width="1.640625" customWidth="true"/>
+    <col min="79" max="79" width="1.640625" customWidth="true"/>
+    <col min="80" max="80" width="1.640625" customWidth="true"/>
+    <col min="81" max="81" width="1.640625" customWidth="true"/>
+    <col min="82" max="82" width="1.640625" customWidth="true"/>
+    <col min="83" max="83" width="1.640625" customWidth="true"/>
+    <col min="84" max="84" width="1.640625" customWidth="true"/>
+    <col min="85" max="85" width="1.640625" customWidth="true"/>
+    <col min="86" max="86" width="1.640625" customWidth="true"/>
+    <col min="87" max="87" width="1.640625" customWidth="true"/>
+    <col min="88" max="88" width="1.640625" customWidth="true"/>
+    <col min="89" max="89" width="1.640625" customWidth="true"/>
+    <col min="90" max="90" width="1.640625" customWidth="true"/>
+    <col min="91" max="91" width="1.640625" customWidth="true"/>
+    <col min="92" max="92" width="1.640625" customWidth="true"/>
+    <col min="93" max="93" width="1.640625" customWidth="true"/>
+    <col min="94" max="94" width="1.640625" customWidth="true"/>
+    <col min="95" max="95" width="1.640625" customWidth="true"/>
+    <col min="96" max="96" width="1.640625" customWidth="true"/>
+    <col min="97" max="97" width="1.640625" customWidth="true"/>
+    <col min="98" max="98" width="1.640625" customWidth="true"/>
+    <col min="99" max="99" width="1.640625" customWidth="true"/>
+    <col min="100" max="100" width="1.640625" customWidth="true"/>
+    <col min="101" max="101" width="1.640625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -9495,701 +9583,1181 @@
         <v>7.0</v>
       </c>
       <c r="G3" s="120"/>
-      <c r="H3" t="n" s="115">
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
+      <c r="J3" t="n" s="115">
         <v>8.0</v>
       </c>
-      <c r="I3" s="120"/>
-      <c r="J3" t="n" s="115">
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="121"/>
+      <c r="N3" t="n" s="115">
         <v>9.0</v>
       </c>
-      <c r="K3" s="120"/>
-      <c r="L3" t="n" s="115">
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" t="n" s="115">
         <v>10.0</v>
       </c>
-      <c r="M3" s="120"/>
-      <c r="N3" t="n" s="115">
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="121"/>
+      <c r="V3" t="n" s="115">
         <v>11.0</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" t="n" s="115">
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" t="n" s="115">
         <v>12.0</v>
       </c>
-      <c r="Q3" s="120"/>
-      <c r="R3" t="n" s="115">
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" t="n" s="115">
         <v>13.0</v>
       </c>
-      <c r="S3" s="120"/>
-      <c r="T3" t="n" s="115">
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" t="n" s="115">
         <v>14.0</v>
       </c>
-      <c r="U3" s="120"/>
-      <c r="V3" t="n" s="115">
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="120"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" t="n" s="115">
         <v>15.0</v>
       </c>
-      <c r="W3" s="120"/>
-      <c r="X3" t="n" s="115">
+      <c r="AM3" s="120"/>
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="121"/>
+      <c r="AP3" t="n" s="115">
         <v>16.0</v>
       </c>
-      <c r="Y3" s="120"/>
-      <c r="Z3" t="n" s="115">
+      <c r="AQ3" s="120"/>
+      <c r="AR3" s="120"/>
+      <c r="AS3" s="121"/>
+      <c r="AT3" t="n" s="115">
         <v>17.0</v>
       </c>
-      <c r="AA3" s="120"/>
-      <c r="AB3" t="n" s="115">
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="121"/>
+      <c r="AX3" t="n" s="115">
         <v>18.0</v>
       </c>
-      <c r="AC3" s="120"/>
-      <c r="AD3" t="n" s="115">
+      <c r="AY3" s="120"/>
+      <c r="AZ3" s="120"/>
+      <c r="BA3" s="121"/>
+      <c r="BB3" t="n" s="115">
         <v>19.0</v>
       </c>
-      <c r="AE3" s="120"/>
-      <c r="AF3" t="n" s="115">
+      <c r="BC3" s="120"/>
+      <c r="BD3" s="120"/>
+      <c r="BE3" s="121"/>
+      <c r="BF3" t="n" s="115">
         <v>20.0</v>
       </c>
-      <c r="AG3" s="120"/>
-      <c r="AH3" t="n" s="115">
+      <c r="BG3" s="120"/>
+      <c r="BH3" s="120"/>
+      <c r="BI3" s="121"/>
+      <c r="BJ3" t="n" s="115">
         <v>21.0</v>
       </c>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" t="n" s="115">
+      <c r="BK3" s="120"/>
+      <c r="BL3" s="120"/>
+      <c r="BM3" s="121"/>
+      <c r="BN3" t="n" s="115">
         <v>22.0</v>
       </c>
-      <c r="AK3" s="120"/>
-      <c r="AL3" t="n" s="115">
+      <c r="BO3" s="120"/>
+      <c r="BP3" s="120"/>
+      <c r="BQ3" s="121"/>
+      <c r="BR3" t="n" s="115">
         <v>23.0</v>
       </c>
-      <c r="AM3" s="120"/>
-      <c r="AN3" t="n" s="115">
+      <c r="BS3" s="120"/>
+      <c r="BT3" s="120"/>
+      <c r="BU3" s="121"/>
+      <c r="BV3" t="n" s="115">
         <v>24.0</v>
       </c>
-      <c r="AO3" s="120"/>
-      <c r="AP3" t="n" s="115">
+      <c r="BW3" s="120"/>
+      <c r="BX3" s="120"/>
+      <c r="BY3" s="121"/>
+      <c r="BZ3" t="n" s="115">
         <v>1.0</v>
       </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" t="n" s="115">
+      <c r="CA3" s="120"/>
+      <c r="CB3" s="120"/>
+      <c r="CC3" s="121"/>
+      <c r="CD3" t="n" s="115">
         <v>2.0</v>
       </c>
-      <c r="AS3" s="120"/>
-      <c r="AT3" t="n" s="115">
+      <c r="CE3" s="120"/>
+      <c r="CF3" s="120"/>
+      <c r="CG3" s="121"/>
+      <c r="CH3" t="n" s="115">
         <v>3.0</v>
       </c>
-      <c r="AU3" s="120"/>
-      <c r="AV3" t="n" s="115">
+      <c r="CI3" s="120"/>
+      <c r="CJ3" s="120"/>
+      <c r="CK3" s="121"/>
+      <c r="CL3" t="n" s="115">
         <v>4.0</v>
       </c>
-      <c r="AW3" s="120"/>
-      <c r="AX3" t="n" s="115">
+      <c r="CM3" s="120"/>
+      <c r="CN3" s="120"/>
+      <c r="CO3" s="121"/>
+      <c r="CP3" t="n" s="115">
         <v>5.0</v>
       </c>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" t="n" s="115">
+      <c r="CQ3" s="120"/>
+      <c r="CR3" s="120"/>
+      <c r="CS3" s="121"/>
+      <c r="CT3" t="n" s="115">
         <v>6.0</v>
       </c>
-      <c r="BA3" s="120"/>
+      <c r="CU3" s="120"/>
+      <c r="CV3" s="120"/>
+      <c r="CW3" s="121"/>
     </row>
     <row r="4">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="124"/>
-      <c r="BA4" s="124"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123"/>
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="123"/>
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="123"/>
+      <c r="BG4" s="123"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="123"/>
+      <c r="BJ4" s="123"/>
+      <c r="BK4" s="123"/>
+      <c r="BL4" s="123"/>
+      <c r="BM4" s="123"/>
+      <c r="BN4" s="123"/>
+      <c r="BO4" s="123"/>
+      <c r="BP4" s="123"/>
+      <c r="BQ4" s="123"/>
+      <c r="BR4" s="123"/>
+      <c r="BS4" s="123"/>
+      <c r="BT4" s="123"/>
+      <c r="BU4" s="123"/>
+      <c r="BV4" s="123"/>
+      <c r="BW4" s="123"/>
+      <c r="BX4" s="123"/>
+      <c r="BY4" s="123"/>
+      <c r="BZ4" s="123"/>
+      <c r="CA4" s="123"/>
+      <c r="CB4" s="123"/>
+      <c r="CC4" s="123"/>
+      <c r="CD4" s="123"/>
+      <c r="CE4" s="123"/>
+      <c r="CF4" s="123"/>
+      <c r="CG4" s="123"/>
+      <c r="CH4" s="123"/>
+      <c r="CI4" s="123"/>
+      <c r="CJ4" s="123"/>
+      <c r="CK4" s="123"/>
+      <c r="CL4" s="123"/>
+      <c r="CM4" s="123"/>
+      <c r="CN4" s="123"/>
+      <c r="CO4" s="123"/>
+      <c r="CP4" s="123"/>
+      <c r="CQ4" s="123"/>
+      <c r="CR4" s="123"/>
+      <c r="CS4" s="123"/>
+      <c r="CT4" s="123"/>
+      <c r="CU4" s="123"/>
+      <c r="CV4" s="123"/>
+      <c r="CW4" s="123"/>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="124">
+      <c r="A5" t="s" s="125">
         <v>82</v>
       </c>
-      <c r="B5" t="s" s="124">
+      <c r="B5" t="s" s="125">
         <v>81</v>
       </c>
-      <c r="C5" t="s" s="124">
+      <c r="C5" t="s" s="125">
         <v>26</v>
       </c>
-      <c r="D5" t="s" s="124">
+      <c r="D5" t="s" s="125">
         <v>83</v>
       </c>
-      <c r="E5" t="s" s="124">
+      <c r="E5" t="s" s="125">
         <v>84</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="139"/>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="143"/>
-      <c r="AD5" s="144"/>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="148"/>
-      <c r="AI5" s="149"/>
-      <c r="AJ5" s="124"/>
-      <c r="AK5" s="124"/>
-      <c r="AL5" s="124"/>
-      <c r="AM5" s="124"/>
-      <c r="AN5" s="124"/>
-      <c r="AO5" s="124"/>
-      <c r="AP5" s="124"/>
-      <c r="AQ5" s="124"/>
-      <c r="AR5" s="124"/>
-      <c r="AS5" s="124"/>
-      <c r="AT5" s="124"/>
-      <c r="AU5" s="124"/>
-      <c r="AV5" s="124"/>
-      <c r="AW5" s="124"/>
-      <c r="AX5" s="124"/>
-      <c r="AY5" s="124"/>
-      <c r="AZ5" s="124"/>
-      <c r="BA5" s="124"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="138"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="149"/>
+      <c r="AI5" s="150"/>
+      <c r="AJ5" s="123"/>
+      <c r="AK5" s="123"/>
+      <c r="AL5" s="123"/>
+      <c r="AM5" s="123"/>
+      <c r="AN5" s="123"/>
+      <c r="AO5" s="123"/>
+      <c r="AP5" s="123"/>
+      <c r="AQ5" s="123"/>
+      <c r="AR5" s="123"/>
+      <c r="AS5" s="123"/>
+      <c r="AT5" s="123"/>
+      <c r="AU5" s="123"/>
+      <c r="AV5" s="123"/>
+      <c r="AW5" s="123"/>
+      <c r="AX5" s="123"/>
+      <c r="AY5" s="123"/>
+      <c r="AZ5" s="123"/>
+      <c r="BA5" s="123"/>
+      <c r="BB5" s="123"/>
+      <c r="BC5" s="123"/>
+      <c r="BD5" s="123"/>
+      <c r="BE5" s="123"/>
+      <c r="BF5" s="123"/>
+      <c r="BG5" s="123"/>
+      <c r="BH5" s="123"/>
+      <c r="BI5" s="123"/>
+      <c r="BJ5" s="123"/>
+      <c r="BK5" s="123"/>
+      <c r="BL5" s="123"/>
+      <c r="BM5" s="123"/>
+      <c r="BN5" s="123"/>
+      <c r="BO5" s="123"/>
+      <c r="BP5" s="123"/>
+      <c r="BQ5" s="123"/>
+      <c r="BR5" s="123"/>
+      <c r="BS5" s="123"/>
+      <c r="BT5" s="123"/>
+      <c r="BU5" s="123"/>
+      <c r="BV5" s="123"/>
+      <c r="BW5" s="123"/>
+      <c r="BX5" s="123"/>
+      <c r="BY5" s="123"/>
+      <c r="BZ5" s="123"/>
+      <c r="CA5" s="123"/>
+      <c r="CB5" s="123"/>
+      <c r="CC5" s="123"/>
+      <c r="CD5" s="123"/>
+      <c r="CE5" s="123"/>
+      <c r="CF5" s="123"/>
+      <c r="CG5" s="123"/>
+      <c r="CH5" s="123"/>
+      <c r="CI5" s="123"/>
+      <c r="CJ5" s="123"/>
+      <c r="CK5" s="123"/>
+      <c r="CL5" s="123"/>
+      <c r="CM5" s="123"/>
+      <c r="CN5" s="123"/>
+      <c r="CO5" s="123"/>
+      <c r="CP5" s="123"/>
+      <c r="CQ5" s="123"/>
+      <c r="CR5" s="123"/>
+      <c r="CS5" s="123"/>
+      <c r="CT5" s="123"/>
+      <c r="CU5" s="123"/>
+      <c r="CV5" s="123"/>
+      <c r="CW5" s="123"/>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="124">
+      <c r="A6" t="s" s="125">
         <v>82</v>
       </c>
-      <c r="B6" t="s" s="124">
+      <c r="B6" t="s" s="125">
         <v>85</v>
       </c>
-      <c r="C6" t="s" s="124">
+      <c r="C6" t="s" s="125">
         <v>27</v>
       </c>
-      <c r="D6" t="s" s="124">
+      <c r="D6" t="s" s="125">
         <v>83</v>
       </c>
-      <c r="E6" t="s" s="124">
+      <c r="E6" t="s" s="125">
         <v>86</v>
       </c>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="157"/>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="161"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="164"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="166"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="168"/>
-      <c r="AB6" s="169"/>
-      <c r="AC6" s="170"/>
-      <c r="AD6" s="171"/>
-      <c r="AE6" s="172"/>
-      <c r="AF6" s="173"/>
-      <c r="AG6" s="174"/>
-      <c r="AH6" s="175"/>
-      <c r="AI6" s="176"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="124"/>
-      <c r="AP6" s="124"/>
-      <c r="AQ6" s="124"/>
-      <c r="AR6" s="124"/>
-      <c r="AS6" s="124"/>
-      <c r="AT6" s="124"/>
-      <c r="AU6" s="124"/>
-      <c r="AV6" s="124"/>
-      <c r="AW6" s="124"/>
-      <c r="AX6" s="124"/>
-      <c r="AY6" s="124"/>
-      <c r="AZ6" s="124"/>
-      <c r="BA6" s="124"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="161"/>
+      <c r="T6" s="162"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="168"/>
+      <c r="AA6" s="169"/>
+      <c r="AB6" s="170"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="172"/>
+      <c r="AE6" s="173"/>
+      <c r="AF6" s="174"/>
+      <c r="AG6" s="175"/>
+      <c r="AH6" s="176"/>
+      <c r="AI6" s="177"/>
+      <c r="AJ6" s="123"/>
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="123"/>
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123"/>
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="123"/>
+      <c r="AY6" s="123"/>
+      <c r="AZ6" s="123"/>
+      <c r="BA6" s="123"/>
+      <c r="BB6" s="123"/>
+      <c r="BC6" s="123"/>
+      <c r="BD6" s="123"/>
+      <c r="BE6" s="123"/>
+      <c r="BF6" s="123"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="123"/>
+      <c r="BI6" s="123"/>
+      <c r="BJ6" s="123"/>
+      <c r="BK6" s="123"/>
+      <c r="BL6" s="123"/>
+      <c r="BM6" s="123"/>
+      <c r="BN6" s="123"/>
+      <c r="BO6" s="123"/>
+      <c r="BP6" s="123"/>
+      <c r="BQ6" s="123"/>
+      <c r="BR6" s="123"/>
+      <c r="BS6" s="123"/>
+      <c r="BT6" s="123"/>
+      <c r="BU6" s="123"/>
+      <c r="BV6" s="123"/>
+      <c r="BW6" s="123"/>
+      <c r="BX6" s="123"/>
+      <c r="BY6" s="123"/>
+      <c r="BZ6" s="123"/>
+      <c r="CA6" s="123"/>
+      <c r="CB6" s="123"/>
+      <c r="CC6" s="123"/>
+      <c r="CD6" s="123"/>
+      <c r="CE6" s="123"/>
+      <c r="CF6" s="123"/>
+      <c r="CG6" s="123"/>
+      <c r="CH6" s="123"/>
+      <c r="CI6" s="123"/>
+      <c r="CJ6" s="123"/>
+      <c r="CK6" s="123"/>
+      <c r="CL6" s="123"/>
+      <c r="CM6" s="123"/>
+      <c r="CN6" s="123"/>
+      <c r="CO6" s="123"/>
+      <c r="CP6" s="123"/>
+      <c r="CQ6" s="123"/>
+      <c r="CR6" s="123"/>
+      <c r="CS6" s="123"/>
+      <c r="CT6" s="123"/>
+      <c r="CU6" s="123"/>
+      <c r="CV6" s="123"/>
+      <c r="CW6" s="123"/>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="124">
+      <c r="A7" t="s" s="125">
         <v>82</v>
       </c>
-      <c r="B7" t="s" s="124">
+      <c r="B7" t="s" s="125">
         <v>87</v>
       </c>
-      <c r="C7" t="s" s="124">
+      <c r="C7" t="s" s="125">
         <v>28</v>
       </c>
-      <c r="D7" t="s" s="124">
+      <c r="D7" t="s" s="125">
         <v>83</v>
       </c>
-      <c r="E7" t="s" s="124">
+      <c r="E7" t="s" s="125">
         <v>51</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="184"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="186"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="188"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="124"/>
-      <c r="AN7" s="124"/>
-      <c r="AO7" s="124"/>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="124"/>
-      <c r="AR7" s="124"/>
-      <c r="AS7" s="124"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="124"/>
-      <c r="AV7" s="124"/>
-      <c r="AW7" s="124"/>
-      <c r="AX7" s="124"/>
-      <c r="AY7" s="124"/>
-      <c r="AZ7" s="124"/>
-      <c r="BA7" s="124"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="188"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="190"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="123"/>
+      <c r="AM7" s="123"/>
+      <c r="AN7" s="123"/>
+      <c r="AO7" s="123"/>
+      <c r="AP7" s="123"/>
+      <c r="AQ7" s="123"/>
+      <c r="AR7" s="123"/>
+      <c r="AS7" s="123"/>
+      <c r="AT7" s="123"/>
+      <c r="AU7" s="123"/>
+      <c r="AV7" s="123"/>
+      <c r="AW7" s="123"/>
+      <c r="AX7" s="123"/>
+      <c r="AY7" s="123"/>
+      <c r="AZ7" s="123"/>
+      <c r="BA7" s="123"/>
+      <c r="BB7" s="123"/>
+      <c r="BC7" s="123"/>
+      <c r="BD7" s="123"/>
+      <c r="BE7" s="123"/>
+      <c r="BF7" s="123"/>
+      <c r="BG7" s="123"/>
+      <c r="BH7" s="123"/>
+      <c r="BI7" s="123"/>
+      <c r="BJ7" s="123"/>
+      <c r="BK7" s="123"/>
+      <c r="BL7" s="123"/>
+      <c r="BM7" s="123"/>
+      <c r="BN7" s="123"/>
+      <c r="BO7" s="123"/>
+      <c r="BP7" s="123"/>
+      <c r="BQ7" s="123"/>
+      <c r="BR7" s="123"/>
+      <c r="BS7" s="123"/>
+      <c r="BT7" s="123"/>
+      <c r="BU7" s="123"/>
+      <c r="BV7" s="123"/>
+      <c r="BW7" s="123"/>
+      <c r="BX7" s="123"/>
+      <c r="BY7" s="123"/>
+      <c r="BZ7" s="123"/>
+      <c r="CA7" s="123"/>
+      <c r="CB7" s="123"/>
+      <c r="CC7" s="123"/>
+      <c r="CD7" s="123"/>
+      <c r="CE7" s="123"/>
+      <c r="CF7" s="123"/>
+      <c r="CG7" s="123"/>
+      <c r="CH7" s="123"/>
+      <c r="CI7" s="123"/>
+      <c r="CJ7" s="123"/>
+      <c r="CK7" s="123"/>
+      <c r="CL7" s="123"/>
+      <c r="CM7" s="123"/>
+      <c r="CN7" s="123"/>
+      <c r="CO7" s="123"/>
+      <c r="CP7" s="123"/>
+      <c r="CQ7" s="123"/>
+      <c r="CR7" s="123"/>
+      <c r="CS7" s="123"/>
+      <c r="CT7" s="123"/>
+      <c r="CU7" s="123"/>
+      <c r="CV7" s="123"/>
+      <c r="CW7" s="123"/>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="124">
+      <c r="A8" t="s" s="125">
         <v>82</v>
       </c>
-      <c r="B8" t="s" s="124">
+      <c r="B8" t="s" s="125">
         <v>88</v>
       </c>
-      <c r="C8" t="s" s="124">
+      <c r="C8" t="s" s="125">
         <v>29</v>
       </c>
-      <c r="D8" t="s" s="124">
+      <c r="D8" t="s" s="125">
         <v>83</v>
       </c>
-      <c r="E8" t="s" s="124">
+      <c r="E8" t="s" s="125">
         <v>89</v>
       </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="192"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="194"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="196"/>
-      <c r="S8" s="197"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="199"/>
-      <c r="V8" s="200"/>
-      <c r="W8" s="201"/>
-      <c r="X8" s="202"/>
-      <c r="Y8" s="203"/>
-      <c r="Z8" s="204"/>
-      <c r="AA8" s="205"/>
-      <c r="AB8" s="206"/>
-      <c r="AC8" s="207"/>
-      <c r="AD8" s="208"/>
-      <c r="AE8" s="209"/>
-      <c r="AF8" s="210"/>
-      <c r="AG8" s="211"/>
-      <c r="AH8" s="212"/>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
-      <c r="AL8" s="124"/>
-      <c r="AM8" s="124"/>
-      <c r="AN8" s="124"/>
-      <c r="AO8" s="124"/>
-      <c r="AP8" s="124"/>
-      <c r="AQ8" s="124"/>
-      <c r="AR8" s="124"/>
-      <c r="AS8" s="124"/>
-      <c r="AT8" s="124"/>
-      <c r="AU8" s="124"/>
-      <c r="AV8" s="124"/>
-      <c r="AW8" s="124"/>
-      <c r="AX8" s="124"/>
-      <c r="AY8" s="124"/>
-      <c r="AZ8" s="124"/>
-      <c r="BA8" s="124"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="196"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="198"/>
+      <c r="T8" s="199"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="201"/>
+      <c r="W8" s="202"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="205"/>
+      <c r="AA8" s="206"/>
+      <c r="AB8" s="207"/>
+      <c r="AC8" s="208"/>
+      <c r="AD8" s="209"/>
+      <c r="AE8" s="210"/>
+      <c r="AF8" s="211"/>
+      <c r="AG8" s="212"/>
+      <c r="AH8" s="213"/>
+      <c r="AI8" s="123"/>
+      <c r="AJ8" s="123"/>
+      <c r="AK8" s="123"/>
+      <c r="AL8" s="123"/>
+      <c r="AM8" s="123"/>
+      <c r="AN8" s="123"/>
+      <c r="AO8" s="123"/>
+      <c r="AP8" s="123"/>
+      <c r="AQ8" s="123"/>
+      <c r="AR8" s="123"/>
+      <c r="AS8" s="123"/>
+      <c r="AT8" s="123"/>
+      <c r="AU8" s="123"/>
+      <c r="AV8" s="123"/>
+      <c r="AW8" s="123"/>
+      <c r="AX8" s="123"/>
+      <c r="AY8" s="123"/>
+      <c r="AZ8" s="123"/>
+      <c r="BA8" s="123"/>
+      <c r="BB8" s="123"/>
+      <c r="BC8" s="123"/>
+      <c r="BD8" s="123"/>
+      <c r="BE8" s="123"/>
+      <c r="BF8" s="123"/>
+      <c r="BG8" s="123"/>
+      <c r="BH8" s="123"/>
+      <c r="BI8" s="123"/>
+      <c r="BJ8" s="123"/>
+      <c r="BK8" s="123"/>
+      <c r="BL8" s="123"/>
+      <c r="BM8" s="123"/>
+      <c r="BN8" s="123"/>
+      <c r="BO8" s="123"/>
+      <c r="BP8" s="123"/>
+      <c r="BQ8" s="123"/>
+      <c r="BR8" s="123"/>
+      <c r="BS8" s="123"/>
+      <c r="BT8" s="123"/>
+      <c r="BU8" s="123"/>
+      <c r="BV8" s="123"/>
+      <c r="BW8" s="123"/>
+      <c r="BX8" s="123"/>
+      <c r="BY8" s="123"/>
+      <c r="BZ8" s="123"/>
+      <c r="CA8" s="123"/>
+      <c r="CB8" s="123"/>
+      <c r="CC8" s="123"/>
+      <c r="CD8" s="123"/>
+      <c r="CE8" s="123"/>
+      <c r="CF8" s="123"/>
+      <c r="CG8" s="123"/>
+      <c r="CH8" s="123"/>
+      <c r="CI8" s="123"/>
+      <c r="CJ8" s="123"/>
+      <c r="CK8" s="123"/>
+      <c r="CL8" s="123"/>
+      <c r="CM8" s="123"/>
+      <c r="CN8" s="123"/>
+      <c r="CO8" s="123"/>
+      <c r="CP8" s="123"/>
+      <c r="CQ8" s="123"/>
+      <c r="CR8" s="123"/>
+      <c r="CS8" s="123"/>
+      <c r="CT8" s="123"/>
+      <c r="CU8" s="123"/>
+      <c r="CV8" s="123"/>
+      <c r="CW8" s="123"/>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="124">
+      <c r="A9" t="s" s="125">
         <v>82</v>
       </c>
-      <c r="B9" t="s" s="124">
+      <c r="B9" t="s" s="125">
         <v>90</v>
       </c>
-      <c r="C9" t="s" s="124">
+      <c r="C9" t="s" s="125">
         <v>30</v>
       </c>
-      <c r="D9" t="s" s="124">
+      <c r="D9" t="s" s="125">
         <v>83</v>
       </c>
-      <c r="E9" t="s" s="124">
+      <c r="E9" t="s" s="125">
         <v>91</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="215"/>
-      <c r="O9" s="216"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="218"/>
-      <c r="R9" s="219"/>
-      <c r="S9" s="220"/>
-      <c r="T9" s="221"/>
-      <c r="U9" s="222"/>
-      <c r="V9" s="223"/>
-      <c r="W9" s="224"/>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="226"/>
-      <c r="Z9" s="227"/>
-      <c r="AA9" s="228"/>
-      <c r="AB9" s="229"/>
-      <c r="AC9" s="230"/>
-      <c r="AD9" s="231"/>
-      <c r="AE9" s="232"/>
-      <c r="AF9" s="233"/>
-      <c r="AG9" s="234"/>
-      <c r="AH9" s="235"/>
-      <c r="AI9" s="236"/>
-      <c r="AJ9" s="124"/>
-      <c r="AK9" s="124"/>
-      <c r="AL9" s="124"/>
-      <c r="AM9" s="124"/>
-      <c r="AN9" s="124"/>
-      <c r="AO9" s="124"/>
-      <c r="AP9" s="124"/>
-      <c r="AQ9" s="124"/>
-      <c r="AR9" s="124"/>
-      <c r="AS9" s="124"/>
-      <c r="AT9" s="124"/>
-      <c r="AU9" s="124"/>
-      <c r="AV9" s="124"/>
-      <c r="AW9" s="124"/>
-      <c r="AX9" s="124"/>
-      <c r="AY9" s="124"/>
-      <c r="AZ9" s="124"/>
-      <c r="BA9" s="124"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="216"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="218"/>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="220"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="223"/>
+      <c r="V9" s="224"/>
+      <c r="W9" s="225"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="227"/>
+      <c r="Z9" s="228"/>
+      <c r="AA9" s="229"/>
+      <c r="AB9" s="230"/>
+      <c r="AC9" s="231"/>
+      <c r="AD9" s="232"/>
+      <c r="AE9" s="233"/>
+      <c r="AF9" s="234"/>
+      <c r="AG9" s="235"/>
+      <c r="AH9" s="236"/>
+      <c r="AI9" s="237"/>
+      <c r="AJ9" s="123"/>
+      <c r="AK9" s="123"/>
+      <c r="AL9" s="123"/>
+      <c r="AM9" s="123"/>
+      <c r="AN9" s="123"/>
+      <c r="AO9" s="123"/>
+      <c r="AP9" s="123"/>
+      <c r="AQ9" s="123"/>
+      <c r="AR9" s="123"/>
+      <c r="AS9" s="123"/>
+      <c r="AT9" s="123"/>
+      <c r="AU9" s="123"/>
+      <c r="AV9" s="123"/>
+      <c r="AW9" s="123"/>
+      <c r="AX9" s="123"/>
+      <c r="AY9" s="123"/>
+      <c r="AZ9" s="123"/>
+      <c r="BA9" s="123"/>
+      <c r="BB9" s="123"/>
+      <c r="BC9" s="123"/>
+      <c r="BD9" s="123"/>
+      <c r="BE9" s="123"/>
+      <c r="BF9" s="123"/>
+      <c r="BG9" s="123"/>
+      <c r="BH9" s="123"/>
+      <c r="BI9" s="123"/>
+      <c r="BJ9" s="123"/>
+      <c r="BK9" s="123"/>
+      <c r="BL9" s="123"/>
+      <c r="BM9" s="123"/>
+      <c r="BN9" s="123"/>
+      <c r="BO9" s="123"/>
+      <c r="BP9" s="123"/>
+      <c r="BQ9" s="123"/>
+      <c r="BR9" s="123"/>
+      <c r="BS9" s="123"/>
+      <c r="BT9" s="123"/>
+      <c r="BU9" s="123"/>
+      <c r="BV9" s="123"/>
+      <c r="BW9" s="123"/>
+      <c r="BX9" s="123"/>
+      <c r="BY9" s="123"/>
+      <c r="BZ9" s="123"/>
+      <c r="CA9" s="123"/>
+      <c r="CB9" s="123"/>
+      <c r="CC9" s="123"/>
+      <c r="CD9" s="123"/>
+      <c r="CE9" s="123"/>
+      <c r="CF9" s="123"/>
+      <c r="CG9" s="123"/>
+      <c r="CH9" s="123"/>
+      <c r="CI9" s="123"/>
+      <c r="CJ9" s="123"/>
+      <c r="CK9" s="123"/>
+      <c r="CL9" s="123"/>
+      <c r="CM9" s="123"/>
+      <c r="CN9" s="123"/>
+      <c r="CO9" s="123"/>
+      <c r="CP9" s="123"/>
+      <c r="CQ9" s="123"/>
+      <c r="CR9" s="123"/>
+      <c r="CS9" s="123"/>
+      <c r="CT9" s="123"/>
+      <c r="CU9" s="123"/>
+      <c r="CV9" s="123"/>
+      <c r="CW9" s="123"/>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="124">
+      <c r="A10" t="s" s="125">
         <v>82</v>
       </c>
-      <c r="B10" t="s" s="124">
+      <c r="B10" t="s" s="125">
         <v>92</v>
       </c>
-      <c r="C10" t="s" s="124">
+      <c r="C10" t="s" s="125">
         <v>31</v>
       </c>
-      <c r="D10" t="s" s="124">
+      <c r="D10" t="s" s="125">
         <v>83</v>
       </c>
-      <c r="E10" t="s" s="124">
+      <c r="E10" t="s" s="125">
         <v>93</v>
       </c>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="240"/>
-      <c r="P10" s="241"/>
-      <c r="Q10" s="242"/>
-      <c r="R10" s="243"/>
-      <c r="S10" s="244"/>
-      <c r="T10" s="245"/>
-      <c r="U10" s="246"/>
-      <c r="V10" s="247"/>
-      <c r="W10" s="248"/>
-      <c r="X10" s="249"/>
-      <c r="Y10" s="250"/>
-      <c r="Z10" s="251"/>
-      <c r="AA10" s="252"/>
-      <c r="AB10" s="253"/>
-      <c r="AC10" s="254"/>
-      <c r="AD10" s="255"/>
-      <c r="AE10" s="256"/>
-      <c r="AF10" s="257"/>
-      <c r="AG10" s="258"/>
-      <c r="AH10" s="259"/>
-      <c r="AI10" s="260"/>
-      <c r="AJ10" s="124"/>
-      <c r="AK10" s="124"/>
-      <c r="AL10" s="124"/>
-      <c r="AM10" s="124"/>
-      <c r="AN10" s="124"/>
-      <c r="AO10" s="124"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="124"/>
-      <c r="AR10" s="124"/>
-      <c r="AS10" s="124"/>
-      <c r="AT10" s="124"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="124"/>
-      <c r="AY10" s="124"/>
-      <c r="AZ10" s="124"/>
-      <c r="BA10" s="124"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="239"/>
+      <c r="N10" s="240"/>
+      <c r="O10" s="241"/>
+      <c r="P10" s="242"/>
+      <c r="Q10" s="243"/>
+      <c r="R10" s="244"/>
+      <c r="S10" s="245"/>
+      <c r="T10" s="246"/>
+      <c r="U10" s="247"/>
+      <c r="V10" s="248"/>
+      <c r="W10" s="249"/>
+      <c r="X10" s="250"/>
+      <c r="Y10" s="251"/>
+      <c r="Z10" s="252"/>
+      <c r="AA10" s="253"/>
+      <c r="AB10" s="254"/>
+      <c r="AC10" s="255"/>
+      <c r="AD10" s="256"/>
+      <c r="AE10" s="257"/>
+      <c r="AF10" s="258"/>
+      <c r="AG10" s="259"/>
+      <c r="AH10" s="260"/>
+      <c r="AI10" s="261"/>
+      <c r="AJ10" s="123"/>
+      <c r="AK10" s="123"/>
+      <c r="AL10" s="123"/>
+      <c r="AM10" s="123"/>
+      <c r="AN10" s="123"/>
+      <c r="AO10" s="123"/>
+      <c r="AP10" s="123"/>
+      <c r="AQ10" s="123"/>
+      <c r="AR10" s="123"/>
+      <c r="AS10" s="123"/>
+      <c r="AT10" s="123"/>
+      <c r="AU10" s="123"/>
+      <c r="AV10" s="123"/>
+      <c r="AW10" s="123"/>
+      <c r="AX10" s="123"/>
+      <c r="AY10" s="123"/>
+      <c r="AZ10" s="123"/>
+      <c r="BA10" s="123"/>
+      <c r="BB10" s="123"/>
+      <c r="BC10" s="123"/>
+      <c r="BD10" s="123"/>
+      <c r="BE10" s="123"/>
+      <c r="BF10" s="123"/>
+      <c r="BG10" s="123"/>
+      <c r="BH10" s="123"/>
+      <c r="BI10" s="123"/>
+      <c r="BJ10" s="123"/>
+      <c r="BK10" s="123"/>
+      <c r="BL10" s="123"/>
+      <c r="BM10" s="123"/>
+      <c r="BN10" s="123"/>
+      <c r="BO10" s="123"/>
+      <c r="BP10" s="123"/>
+      <c r="BQ10" s="123"/>
+      <c r="BR10" s="123"/>
+      <c r="BS10" s="123"/>
+      <c r="BT10" s="123"/>
+      <c r="BU10" s="123"/>
+      <c r="BV10" s="123"/>
+      <c r="BW10" s="123"/>
+      <c r="BX10" s="123"/>
+      <c r="BY10" s="123"/>
+      <c r="BZ10" s="123"/>
+      <c r="CA10" s="123"/>
+      <c r="CB10" s="123"/>
+      <c r="CC10" s="123"/>
+      <c r="CD10" s="123"/>
+      <c r="CE10" s="123"/>
+      <c r="CF10" s="123"/>
+      <c r="CG10" s="123"/>
+      <c r="CH10" s="123"/>
+      <c r="CI10" s="123"/>
+      <c r="CJ10" s="123"/>
+      <c r="CK10" s="123"/>
+      <c r="CL10" s="123"/>
+      <c r="CM10" s="123"/>
+      <c r="CN10" s="123"/>
+      <c r="CO10" s="123"/>
+      <c r="CP10" s="123"/>
+      <c r="CQ10" s="123"/>
+      <c r="CR10" s="123"/>
+      <c r="CS10" s="123"/>
+      <c r="CT10" s="123"/>
+      <c r="CU10" s="123"/>
+      <c r="CV10" s="123"/>
+      <c r="CW10" s="123"/>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="124">
+      <c r="A11" t="s" s="125">
         <v>82</v>
       </c>
-      <c r="B11" t="s" s="124">
+      <c r="B11" t="s" s="125">
         <v>94</v>
       </c>
-      <c r="C11" t="s" s="124">
+      <c r="C11" t="s" s="125">
         <v>95</v>
       </c>
-      <c r="D11" t="s" s="124">
+      <c r="D11" t="s" s="125">
         <v>83</v>
       </c>
-      <c r="E11" t="s" s="124">
+      <c r="E11" t="s" s="125">
         <v>55</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="124"/>
-      <c r="AK11" s="124"/>
-      <c r="AL11" s="124"/>
-      <c r="AM11" s="124"/>
-      <c r="AN11" s="124"/>
-      <c r="AO11" s="261"/>
-      <c r="AP11" s="124"/>
-      <c r="AQ11" s="124"/>
-      <c r="AR11" s="124"/>
-      <c r="AS11" s="124"/>
-      <c r="AT11" s="124"/>
-      <c r="AU11" s="124"/>
-      <c r="AV11" s="124"/>
-      <c r="AW11" s="124"/>
-      <c r="AX11" s="124"/>
-      <c r="AY11" s="124"/>
-      <c r="AZ11" s="124"/>
-      <c r="BA11" s="124"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="123"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="123"/>
+      <c r="AI11" s="123"/>
+      <c r="AJ11" s="123"/>
+      <c r="AK11" s="123"/>
+      <c r="AL11" s="123"/>
+      <c r="AM11" s="123"/>
+      <c r="AN11" s="123"/>
+      <c r="AO11" s="262"/>
+      <c r="AP11" s="123"/>
+      <c r="AQ11" s="123"/>
+      <c r="AR11" s="123"/>
+      <c r="AS11" s="123"/>
+      <c r="AT11" s="123"/>
+      <c r="AU11" s="123"/>
+      <c r="AV11" s="123"/>
+      <c r="AW11" s="123"/>
+      <c r="AX11" s="123"/>
+      <c r="AY11" s="123"/>
+      <c r="AZ11" s="123"/>
+      <c r="BA11" s="123"/>
+      <c r="BB11" s="123"/>
+      <c r="BC11" s="123"/>
+      <c r="BD11" s="123"/>
+      <c r="BE11" s="123"/>
+      <c r="BF11" s="123"/>
+      <c r="BG11" s="123"/>
+      <c r="BH11" s="123"/>
+      <c r="BI11" s="123"/>
+      <c r="BJ11" s="123"/>
+      <c r="BK11" s="123"/>
+      <c r="BL11" s="123"/>
+      <c r="BM11" s="123"/>
+      <c r="BN11" s="123"/>
+      <c r="BO11" s="123"/>
+      <c r="BP11" s="123"/>
+      <c r="BQ11" s="123"/>
+      <c r="BR11" s="123"/>
+      <c r="BS11" s="123"/>
+      <c r="BT11" s="123"/>
+      <c r="BU11" s="123"/>
+      <c r="BV11" s="123"/>
+      <c r="BW11" s="123"/>
+      <c r="BX11" s="123"/>
+      <c r="BY11" s="123"/>
+      <c r="BZ11" s="123"/>
+      <c r="CA11" s="123"/>
+      <c r="CB11" s="123"/>
+      <c r="CC11" s="123"/>
+      <c r="CD11" s="123"/>
+      <c r="CE11" s="123"/>
+      <c r="CF11" s="123"/>
+      <c r="CG11" s="123"/>
+      <c r="CH11" s="123"/>
+      <c r="CI11" s="123"/>
+      <c r="CJ11" s="123"/>
+      <c r="CK11" s="123"/>
+      <c r="CL11" s="123"/>
+      <c r="CM11" s="123"/>
+      <c r="CN11" s="123"/>
+      <c r="CO11" s="123"/>
+      <c r="CP11" s="123"/>
+      <c r="CQ11" s="123"/>
+      <c r="CR11" s="123"/>
+      <c r="CS11" s="123"/>
+      <c r="CT11" s="123"/>
+      <c r="CU11" s="123"/>
+      <c r="CV11" s="123"/>
+      <c r="CW11" s="123"/>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="124">
+      <c r="A12" t="s" s="125">
         <v>82</v>
       </c>
-      <c r="B12" t="s" s="124">
+      <c r="B12" t="s" s="125">
         <v>96</v>
       </c>
-      <c r="C12" t="s" s="124">
+      <c r="C12" t="s" s="125">
         <v>97</v>
       </c>
-      <c r="D12" t="s" s="124">
+      <c r="D12" t="s" s="125">
         <v>83</v>
       </c>
-      <c r="E12" t="s" s="124">
+      <c r="E12" t="s" s="125">
         <v>98</v>
       </c>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="262"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="264"/>
-      <c r="N12" s="265"/>
-      <c r="O12" s="266"/>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="269"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="271"/>
-      <c r="U12" s="272"/>
-      <c r="V12" s="273"/>
-      <c r="W12" s="274"/>
-      <c r="X12" s="275"/>
-      <c r="Y12" s="276"/>
-      <c r="Z12" s="277"/>
-      <c r="AA12" s="278"/>
-      <c r="AB12" s="279"/>
-      <c r="AC12" s="280"/>
-      <c r="AD12" s="281"/>
-      <c r="AE12" s="282"/>
-      <c r="AF12" s="283"/>
-      <c r="AG12" s="284"/>
-      <c r="AH12" s="285"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="124"/>
-      <c r="AK12" s="124"/>
-      <c r="AL12" s="124"/>
-      <c r="AM12" s="124"/>
-      <c r="AN12" s="124"/>
-      <c r="AO12" s="124"/>
-      <c r="AP12" s="124"/>
-      <c r="AQ12" s="124"/>
-      <c r="AR12" s="124"/>
-      <c r="AS12" s="124"/>
-      <c r="AT12" s="124"/>
-      <c r="AU12" s="124"/>
-      <c r="AV12" s="124"/>
-      <c r="AW12" s="124"/>
-      <c r="AX12" s="124"/>
-      <c r="AY12" s="124"/>
-      <c r="AZ12" s="124"/>
-      <c r="BA12" s="124"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="264"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="267"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="269"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="271"/>
+      <c r="T12" s="272"/>
+      <c r="U12" s="273"/>
+      <c r="V12" s="274"/>
+      <c r="W12" s="275"/>
+      <c r="X12" s="276"/>
+      <c r="Y12" s="277"/>
+      <c r="Z12" s="278"/>
+      <c r="AA12" s="279"/>
+      <c r="AB12" s="280"/>
+      <c r="AC12" s="281"/>
+      <c r="AD12" s="282"/>
+      <c r="AE12" s="283"/>
+      <c r="AF12" s="284"/>
+      <c r="AG12" s="285"/>
+      <c r="AH12" s="286"/>
+      <c r="AI12" s="123"/>
+      <c r="AJ12" s="123"/>
+      <c r="AK12" s="123"/>
+      <c r="AL12" s="123"/>
+      <c r="AM12" s="123"/>
+      <c r="AN12" s="123"/>
+      <c r="AO12" s="123"/>
+      <c r="AP12" s="123"/>
+      <c r="AQ12" s="123"/>
+      <c r="AR12" s="123"/>
+      <c r="AS12" s="123"/>
+      <c r="AT12" s="123"/>
+      <c r="AU12" s="123"/>
+      <c r="AV12" s="123"/>
+      <c r="AW12" s="123"/>
+      <c r="AX12" s="123"/>
+      <c r="AY12" s="123"/>
+      <c r="AZ12" s="123"/>
+      <c r="BA12" s="123"/>
+      <c r="BB12" s="123"/>
+      <c r="BC12" s="123"/>
+      <c r="BD12" s="123"/>
+      <c r="BE12" s="123"/>
+      <c r="BF12" s="123"/>
+      <c r="BG12" s="123"/>
+      <c r="BH12" s="123"/>
+      <c r="BI12" s="123"/>
+      <c r="BJ12" s="123"/>
+      <c r="BK12" s="123"/>
+      <c r="BL12" s="123"/>
+      <c r="BM12" s="123"/>
+      <c r="BN12" s="123"/>
+      <c r="BO12" s="123"/>
+      <c r="BP12" s="123"/>
+      <c r="BQ12" s="123"/>
+      <c r="BR12" s="123"/>
+      <c r="BS12" s="123"/>
+      <c r="BT12" s="123"/>
+      <c r="BU12" s="123"/>
+      <c r="BV12" s="123"/>
+      <c r="BW12" s="123"/>
+      <c r="BX12" s="123"/>
+      <c r="BY12" s="123"/>
+      <c r="BZ12" s="123"/>
+      <c r="CA12" s="123"/>
+      <c r="CB12" s="123"/>
+      <c r="CC12" s="123"/>
+      <c r="CD12" s="123"/>
+      <c r="CE12" s="123"/>
+      <c r="CF12" s="123"/>
+      <c r="CG12" s="123"/>
+      <c r="CH12" s="123"/>
+      <c r="CI12" s="123"/>
+      <c r="CJ12" s="123"/>
+      <c r="CK12" s="123"/>
+      <c r="CL12" s="123"/>
+      <c r="CM12" s="123"/>
+      <c r="CN12" s="123"/>
+      <c r="CO12" s="123"/>
+      <c r="CP12" s="123"/>
+      <c r="CQ12" s="123"/>
+      <c r="CR12" s="123"/>
+      <c r="CS12" s="123"/>
+      <c r="CT12" s="123"/>
+      <c r="CU12" s="123"/>
+      <c r="CV12" s="123"/>
+      <c r="CW12" s="123"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1080" windowWidth="24915" windowHeight="11625" tabRatio="892" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="1080" windowWidth="24915" windowHeight="11625" tabRatio="892" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Комбайн" sheetId="1" r:id="rId1"/>
     <sheet name="01.10" sheetId="71" r:id="rId2"/>
-    <sheet name="test" r:id="rId7" sheetId="72"/>
+    <sheet name="19.11" sheetId="72" r:id="rId3"/>
+    <sheet name="test" r:id="rId8" sheetId="73"/>
   </sheets>
   <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
@@ -2794,8 +2795,201 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Диспетчер ЧИМК Васюк Евгений</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+237</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+238</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+239</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+240</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+241
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+242</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+446</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
   <si>
     <t>Держ №</t>
   </si>
@@ -3038,6 +3232,24 @@
   </si>
   <si>
     <t>test version</t>
+  </si>
+  <si>
+    <t>19.11</t>
+  </si>
+  <si>
+    <t>Комбайни Шибиринівка</t>
+  </si>
+  <si>
+    <t>Бункера Шибиринівка</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Case210 15122</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Case210 15121</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">John Deere-S6901_09039BI"
@@ -3312,7 +3524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -3634,6 +3846,197 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -4155,7 +4558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="442">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4331,20 +4734,59 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4358,219 +4800,385 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="62" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="79" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="53" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="59" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="71" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="77" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="67" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="73" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="79" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="96" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="86" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="103" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4894,24 +5502,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7593,10 +8201,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AH12" sqref="AH12"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7619,63 +8227,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="138"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="105"/>
-      <c r="AY2" s="105"/>
-      <c r="AZ2" s="105"/>
-      <c r="BA2" s="105"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="139"/>
+      <c r="AJ2" s="139"/>
+      <c r="AK2" s="139"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="139"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="139"/>
+      <c r="AS2" s="139"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="139"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="139"/>
+      <c r="AX2" s="139"/>
+      <c r="AY2" s="139"/>
+      <c r="AZ2" s="139"/>
+      <c r="BA2" s="139"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -7693,102 +8301,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="135">
         <v>7</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106">
+      <c r="G3" s="135"/>
+      <c r="H3" s="135">
         <v>8</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106">
+      <c r="I3" s="135"/>
+      <c r="J3" s="135">
         <v>9</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106">
+      <c r="K3" s="135"/>
+      <c r="L3" s="135">
         <v>10</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106">
+      <c r="M3" s="135"/>
+      <c r="N3" s="135">
         <v>11</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106">
+      <c r="O3" s="135"/>
+      <c r="P3" s="135">
         <v>12</v>
       </c>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106">
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135">
         <v>13</v>
       </c>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106">
+      <c r="S3" s="135"/>
+      <c r="T3" s="135">
         <v>14</v>
       </c>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106">
+      <c r="U3" s="135"/>
+      <c r="V3" s="135">
         <v>15</v>
       </c>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106">
+      <c r="W3" s="135"/>
+      <c r="X3" s="135">
         <v>16</v>
       </c>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="113">
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="137">
         <v>17</v>
       </c>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113">
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="137">
         <v>18</v>
       </c>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="106">
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="135">
         <v>19</v>
       </c>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106">
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135">
         <v>20</v>
       </c>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106">
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="135">
         <v>21</v>
       </c>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106">
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="135">
         <v>22</v>
       </c>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106">
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="135">
         <v>23</v>
       </c>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106">
+      <c r="AM3" s="135"/>
+      <c r="AN3" s="135">
         <v>24</v>
       </c>
-      <c r="AO3" s="106"/>
-      <c r="AP3" s="106">
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="135">
         <v>1</v>
       </c>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="106">
+      <c r="AQ3" s="135"/>
+      <c r="AR3" s="135">
         <v>2</v>
       </c>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106">
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="135">
         <v>3</v>
       </c>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106">
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135">
         <v>4</v>
       </c>
-      <c r="AW3" s="106"/>
-      <c r="AX3" s="106">
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135">
         <v>5</v>
       </c>
-      <c r="AY3" s="106"/>
-      <c r="AZ3" s="106">
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135">
         <v>6</v>
       </c>
-      <c r="BA3" s="107"/>
+      <c r="BA3" s="140"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -7848,7 +8456,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="131" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -7915,7 +8523,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -7982,7 +8590,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -8047,7 +8655,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="133" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -8114,7 +8722,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -8177,7 +8785,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="131" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -8242,7 +8850,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -8301,7 +8909,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="133" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -8370,7 +8978,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -8437,7 +9045,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -8502,7 +9110,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -8565,7 +9173,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -8626,7 +9234,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -8691,7 +9299,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -8756,7 +9364,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="133" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -8823,7 +9431,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -8886,7 +9494,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -9409,6 +10017,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -9425,21 +10048,6 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -9447,7 +10055,1976 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:CW26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="X18" sqref="X18"/>
+      <selection pane="bottomLeft" activeCell="AH16" sqref="AH16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="32" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="32" width="23.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="32" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="32" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="32" width="22.140625" collapsed="true"/>
+    <col min="6" max="101" customWidth="true" style="32" width="1.42578125" collapsed="true"/>
+    <col min="102" max="16384" style="32" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:101" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="138"/>
+      <c r="C2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="139"/>
+      <c r="AJ2" s="139"/>
+      <c r="AK2" s="139"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="139"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="139"/>
+      <c r="AS2" s="139"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="139"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="139"/>
+      <c r="AX2" s="139"/>
+      <c r="AY2" s="139"/>
+      <c r="AZ2" s="139"/>
+      <c r="BA2" s="139"/>
+    </row>
+    <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="148">
+        <v>7</v>
+      </c>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="141">
+        <v>8</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="141">
+        <v>9</v>
+      </c>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="141">
+        <v>10</v>
+      </c>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="141">
+        <v>11</v>
+      </c>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="151">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="141">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="141">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="141">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="141">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="141">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="142"/>
+      <c r="AV3" s="142"/>
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="141">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="144"/>
+      <c r="BB3" s="148">
+        <v>19</v>
+      </c>
+      <c r="BC3" s="149"/>
+      <c r="BD3" s="149"/>
+      <c r="BE3" s="150"/>
+      <c r="BF3" s="141">
+        <v>20</v>
+      </c>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="143"/>
+      <c r="BJ3" s="141">
+        <v>21</v>
+      </c>
+      <c r="BK3" s="142"/>
+      <c r="BL3" s="142"/>
+      <c r="BM3" s="143"/>
+      <c r="BN3" s="141">
+        <v>22</v>
+      </c>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="143"/>
+      <c r="BR3" s="141">
+        <v>23</v>
+      </c>
+      <c r="BS3" s="142"/>
+      <c r="BT3" s="142"/>
+      <c r="BU3" s="142"/>
+      <c r="BV3" s="145">
+        <v>24</v>
+      </c>
+      <c r="BW3" s="146"/>
+      <c r="BX3" s="146"/>
+      <c r="BY3" s="147"/>
+      <c r="BZ3" s="142">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="142"/>
+      <c r="CB3" s="142"/>
+      <c r="CC3" s="143"/>
+      <c r="CD3" s="141">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="142"/>
+      <c r="CF3" s="142"/>
+      <c r="CG3" s="143"/>
+      <c r="CH3" s="141">
+        <v>3</v>
+      </c>
+      <c r="CI3" s="142"/>
+      <c r="CJ3" s="142"/>
+      <c r="CK3" s="143"/>
+      <c r="CL3" s="141">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="143"/>
+      <c r="CP3" s="141">
+        <v>5</v>
+      </c>
+      <c r="CQ3" s="142"/>
+      <c r="CR3" s="142"/>
+      <c r="CS3" s="143"/>
+      <c r="CT3" s="141">
+        <v>6</v>
+      </c>
+      <c r="CU3" s="142"/>
+      <c r="CV3" s="142"/>
+      <c r="CW3" s="144"/>
+    </row>
+    <row r="4" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="108"/>
+      <c r="AZ4" s="108"/>
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="110"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="110"/>
+      <c r="BN4" s="110"/>
+      <c r="BO4" s="110"/>
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="110"/>
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="110"/>
+      <c r="BT4" s="110"/>
+      <c r="BU4" s="110"/>
+      <c r="BV4" s="110"/>
+      <c r="BW4" s="110"/>
+      <c r="BX4" s="110"/>
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="110"/>
+      <c r="CA4" s="110"/>
+      <c r="CB4" s="110"/>
+      <c r="CC4" s="110"/>
+      <c r="CD4" s="110"/>
+      <c r="CE4" s="110"/>
+      <c r="CF4" s="110"/>
+      <c r="CG4" s="110"/>
+      <c r="CH4" s="110"/>
+      <c r="CI4" s="110"/>
+      <c r="CJ4" s="110"/>
+      <c r="CK4" s="110"/>
+      <c r="CL4" s="110"/>
+      <c r="CM4" s="110"/>
+      <c r="CN4" s="110"/>
+      <c r="CO4" s="110"/>
+      <c r="CP4" s="110"/>
+      <c r="CQ4" s="110"/>
+      <c r="CR4" s="110"/>
+      <c r="CS4" s="110"/>
+      <c r="CT4" s="110"/>
+      <c r="CU4" s="110"/>
+      <c r="CV4" s="110"/>
+      <c r="CW4" s="111"/>
+    </row>
+    <row r="5" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="131" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
+      <c r="AX5" s="115"/>
+      <c r="AY5" s="115"/>
+      <c r="AZ5" s="115"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="115"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
+      <c r="BJ5" s="115"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="115"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="115"/>
+      <c r="BO5" s="115"/>
+      <c r="BP5" s="115"/>
+      <c r="BQ5" s="115"/>
+      <c r="BR5" s="115"/>
+      <c r="BS5" s="115"/>
+      <c r="BT5" s="115"/>
+      <c r="BU5" s="115"/>
+      <c r="BV5" s="115"/>
+      <c r="BW5" s="115"/>
+      <c r="BX5" s="115"/>
+      <c r="BY5" s="115"/>
+      <c r="BZ5" s="115"/>
+      <c r="CA5" s="115"/>
+      <c r="CB5" s="115"/>
+      <c r="CC5" s="115"/>
+      <c r="CD5" s="115"/>
+      <c r="CE5" s="115"/>
+      <c r="CF5" s="115"/>
+      <c r="CG5" s="115"/>
+      <c r="CH5" s="115"/>
+      <c r="CI5" s="115"/>
+      <c r="CJ5" s="115"/>
+      <c r="CK5" s="115"/>
+      <c r="CL5" s="115"/>
+      <c r="CM5" s="115"/>
+      <c r="CN5" s="115"/>
+      <c r="CO5" s="115"/>
+      <c r="CP5" s="115"/>
+      <c r="CQ5" s="115"/>
+      <c r="CR5" s="115"/>
+      <c r="CS5" s="115"/>
+      <c r="CT5" s="115"/>
+      <c r="CU5" s="115"/>
+      <c r="CV5" s="115"/>
+      <c r="CW5" s="116"/>
+    </row>
+    <row r="6" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="134"/>
+      <c r="B6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="114"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="115"/>
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="115"/>
+      <c r="AD6" s="115"/>
+      <c r="AE6" s="115"/>
+      <c r="AF6" s="115"/>
+      <c r="AG6" s="115"/>
+      <c r="AH6" s="115"/>
+      <c r="AI6" s="115"/>
+      <c r="AJ6" s="115"/>
+      <c r="AK6" s="115"/>
+      <c r="AL6" s="115"/>
+      <c r="AM6" s="115"/>
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="115"/>
+      <c r="AR6" s="115"/>
+      <c r="AS6" s="115"/>
+      <c r="AT6" s="115"/>
+      <c r="AU6" s="115"/>
+      <c r="AV6" s="115"/>
+      <c r="AW6" s="115"/>
+      <c r="AX6" s="115"/>
+      <c r="AY6" s="115"/>
+      <c r="AZ6" s="115"/>
+      <c r="BA6" s="115"/>
+      <c r="BB6" s="115"/>
+      <c r="BC6" s="115"/>
+      <c r="BD6" s="115"/>
+      <c r="BE6" s="115"/>
+      <c r="BF6" s="115"/>
+      <c r="BG6" s="115"/>
+      <c r="BH6" s="115"/>
+      <c r="BI6" s="115"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="115"/>
+      <c r="BO6" s="115"/>
+      <c r="BP6" s="115"/>
+      <c r="BQ6" s="115"/>
+      <c r="BR6" s="115"/>
+      <c r="BS6" s="115"/>
+      <c r="BT6" s="115"/>
+      <c r="BU6" s="115"/>
+      <c r="BV6" s="115"/>
+      <c r="BW6" s="115"/>
+      <c r="BX6" s="115"/>
+      <c r="BY6" s="115"/>
+      <c r="BZ6" s="115"/>
+      <c r="CA6" s="115"/>
+      <c r="CB6" s="115"/>
+      <c r="CC6" s="115"/>
+      <c r="CD6" s="115"/>
+      <c r="CE6" s="115"/>
+      <c r="CF6" s="115"/>
+      <c r="CG6" s="115"/>
+      <c r="CH6" s="115"/>
+      <c r="CI6" s="115"/>
+      <c r="CJ6" s="115"/>
+      <c r="CK6" s="115"/>
+      <c r="CL6" s="115"/>
+      <c r="CM6" s="115"/>
+      <c r="CN6" s="115"/>
+      <c r="CO6" s="115"/>
+      <c r="CP6" s="115"/>
+      <c r="CQ6" s="115"/>
+      <c r="CR6" s="115"/>
+      <c r="CS6" s="115"/>
+      <c r="CT6" s="115"/>
+      <c r="CU6" s="115"/>
+      <c r="CV6" s="115"/>
+      <c r="CW6" s="116"/>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7" s="134"/>
+      <c r="B7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="115"/>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="115"/>
+      <c r="AG7" s="115"/>
+      <c r="AH7" s="115"/>
+      <c r="AI7" s="115"/>
+      <c r="AJ7" s="115"/>
+      <c r="AK7" s="115"/>
+      <c r="AL7" s="115"/>
+      <c r="AM7" s="115"/>
+      <c r="AN7" s="115"/>
+      <c r="AO7" s="115"/>
+      <c r="AP7" s="115"/>
+      <c r="AQ7" s="115"/>
+      <c r="AR7" s="115"/>
+      <c r="AS7" s="115"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="115"/>
+      <c r="AV7" s="115"/>
+      <c r="AW7" s="115"/>
+      <c r="AX7" s="115"/>
+      <c r="AY7" s="115"/>
+      <c r="AZ7" s="115"/>
+      <c r="BA7" s="115"/>
+      <c r="BB7" s="115"/>
+      <c r="BC7" s="115"/>
+      <c r="BD7" s="115"/>
+      <c r="BE7" s="115"/>
+      <c r="BF7" s="115"/>
+      <c r="BG7" s="115"/>
+      <c r="BH7" s="115"/>
+      <c r="BI7" s="115"/>
+      <c r="BJ7" s="115"/>
+      <c r="BK7" s="115"/>
+      <c r="BL7" s="115"/>
+      <c r="BM7" s="115"/>
+      <c r="BN7" s="115"/>
+      <c r="BO7" s="115"/>
+      <c r="BP7" s="115"/>
+      <c r="BQ7" s="115"/>
+      <c r="BR7" s="115"/>
+      <c r="BS7" s="115"/>
+      <c r="BT7" s="115"/>
+      <c r="BU7" s="115"/>
+      <c r="BV7" s="115"/>
+      <c r="BW7" s="115"/>
+      <c r="BX7" s="115"/>
+      <c r="BY7" s="115"/>
+      <c r="BZ7" s="115"/>
+      <c r="CA7" s="115"/>
+      <c r="CB7" s="115"/>
+      <c r="CC7" s="115"/>
+      <c r="CD7" s="115"/>
+      <c r="CE7" s="115"/>
+      <c r="CF7" s="115"/>
+      <c r="CG7" s="115"/>
+      <c r="CH7" s="115"/>
+      <c r="CI7" s="115"/>
+      <c r="CJ7" s="115"/>
+      <c r="CK7" s="115"/>
+      <c r="CL7" s="115"/>
+      <c r="CM7" s="115"/>
+      <c r="CN7" s="115"/>
+      <c r="CO7" s="115"/>
+      <c r="CP7" s="115"/>
+      <c r="CQ7" s="115"/>
+      <c r="CR7" s="115"/>
+      <c r="CS7" s="115"/>
+      <c r="CT7" s="115"/>
+      <c r="CU7" s="115"/>
+      <c r="CV7" s="115"/>
+      <c r="CW7" s="116"/>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8" s="134"/>
+      <c r="B8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="115"/>
+      <c r="AF8" s="115"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="115"/>
+      <c r="AI8" s="115"/>
+      <c r="AJ8" s="115"/>
+      <c r="AK8" s="115"/>
+      <c r="AL8" s="115"/>
+      <c r="AM8" s="115"/>
+      <c r="AN8" s="115"/>
+      <c r="AO8" s="115"/>
+      <c r="AP8" s="115"/>
+      <c r="AQ8" s="115"/>
+      <c r="AR8" s="115"/>
+      <c r="AS8" s="115"/>
+      <c r="AT8" s="115"/>
+      <c r="AU8" s="115"/>
+      <c r="AV8" s="115"/>
+      <c r="AW8" s="115"/>
+      <c r="AX8" s="115"/>
+      <c r="AY8" s="115"/>
+      <c r="AZ8" s="115"/>
+      <c r="BA8" s="115"/>
+      <c r="BB8" s="115"/>
+      <c r="BC8" s="115"/>
+      <c r="BD8" s="115"/>
+      <c r="BE8" s="115"/>
+      <c r="BF8" s="115"/>
+      <c r="BG8" s="115"/>
+      <c r="BH8" s="115"/>
+      <c r="BI8" s="115"/>
+      <c r="BJ8" s="115"/>
+      <c r="BK8" s="115"/>
+      <c r="BL8" s="115"/>
+      <c r="BM8" s="115"/>
+      <c r="BN8" s="115"/>
+      <c r="BO8" s="115"/>
+      <c r="BP8" s="115"/>
+      <c r="BQ8" s="115"/>
+      <c r="BR8" s="115"/>
+      <c r="BS8" s="115"/>
+      <c r="BT8" s="115"/>
+      <c r="BU8" s="115"/>
+      <c r="BV8" s="115"/>
+      <c r="BW8" s="115"/>
+      <c r="BX8" s="115"/>
+      <c r="BY8" s="115"/>
+      <c r="BZ8" s="115"/>
+      <c r="CA8" s="115"/>
+      <c r="CB8" s="115"/>
+      <c r="CC8" s="115"/>
+      <c r="CD8" s="115"/>
+      <c r="CE8" s="115"/>
+      <c r="CF8" s="115"/>
+      <c r="CG8" s="115"/>
+      <c r="CH8" s="115"/>
+      <c r="CI8" s="115"/>
+      <c r="CJ8" s="115"/>
+      <c r="CK8" s="115"/>
+      <c r="CL8" s="115"/>
+      <c r="CM8" s="115"/>
+      <c r="CN8" s="115"/>
+      <c r="CO8" s="115"/>
+      <c r="CP8" s="115"/>
+      <c r="CQ8" s="115"/>
+      <c r="CR8" s="115"/>
+      <c r="CS8" s="115"/>
+      <c r="CT8" s="115"/>
+      <c r="CU8" s="115"/>
+      <c r="CV8" s="115"/>
+      <c r="CW8" s="116"/>
+    </row>
+    <row r="9" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="134"/>
+      <c r="B9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="115"/>
+      <c r="AB9" s="115"/>
+      <c r="AC9" s="115"/>
+      <c r="AD9" s="115"/>
+      <c r="AE9" s="115"/>
+      <c r="AF9" s="115"/>
+      <c r="AG9" s="115"/>
+      <c r="AH9" s="115"/>
+      <c r="AI9" s="115"/>
+      <c r="AJ9" s="115"/>
+      <c r="AK9" s="115"/>
+      <c r="AL9" s="115"/>
+      <c r="AM9" s="115"/>
+      <c r="AN9" s="115"/>
+      <c r="AO9" s="115"/>
+      <c r="AP9" s="115"/>
+      <c r="AQ9" s="115"/>
+      <c r="AR9" s="115"/>
+      <c r="AS9" s="115"/>
+      <c r="AT9" s="115"/>
+      <c r="AU9" s="115"/>
+      <c r="AV9" s="115"/>
+      <c r="AW9" s="115"/>
+      <c r="AX9" s="115"/>
+      <c r="AY9" s="115"/>
+      <c r="AZ9" s="115"/>
+      <c r="BA9" s="115"/>
+      <c r="BB9" s="115"/>
+      <c r="BC9" s="115"/>
+      <c r="BD9" s="115"/>
+      <c r="BE9" s="115"/>
+      <c r="BF9" s="115"/>
+      <c r="BG9" s="115"/>
+      <c r="BH9" s="115"/>
+      <c r="BI9" s="115"/>
+      <c r="BJ9" s="115"/>
+      <c r="BK9" s="115"/>
+      <c r="BL9" s="115"/>
+      <c r="BM9" s="115"/>
+      <c r="BN9" s="115"/>
+      <c r="BO9" s="115"/>
+      <c r="BP9" s="115"/>
+      <c r="BQ9" s="115"/>
+      <c r="BR9" s="115"/>
+      <c r="BS9" s="115"/>
+      <c r="BT9" s="115"/>
+      <c r="BU9" s="115"/>
+      <c r="BV9" s="115"/>
+      <c r="BW9" s="115"/>
+      <c r="BX9" s="115"/>
+      <c r="BY9" s="115"/>
+      <c r="BZ9" s="115"/>
+      <c r="CA9" s="115"/>
+      <c r="CB9" s="115"/>
+      <c r="CC9" s="115"/>
+      <c r="CD9" s="115"/>
+      <c r="CE9" s="115"/>
+      <c r="CF9" s="115"/>
+      <c r="CG9" s="115"/>
+      <c r="CH9" s="115"/>
+      <c r="CI9" s="115"/>
+      <c r="CJ9" s="115"/>
+      <c r="CK9" s="115"/>
+      <c r="CL9" s="115"/>
+      <c r="CM9" s="115"/>
+      <c r="CN9" s="115"/>
+      <c r="CO9" s="115"/>
+      <c r="CP9" s="115"/>
+      <c r="CQ9" s="115"/>
+      <c r="CR9" s="115"/>
+      <c r="CS9" s="115"/>
+      <c r="CT9" s="115"/>
+      <c r="CU9" s="115"/>
+      <c r="CV9" s="115"/>
+      <c r="CW9" s="116"/>
+    </row>
+    <row r="10" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="134"/>
+      <c r="B10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="114"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="115"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="115"/>
+      <c r="AM10" s="115"/>
+      <c r="AN10" s="115"/>
+      <c r="AO10" s="115"/>
+      <c r="AP10" s="115"/>
+      <c r="AQ10" s="115"/>
+      <c r="AR10" s="115"/>
+      <c r="AS10" s="115"/>
+      <c r="AT10" s="115"/>
+      <c r="AU10" s="115"/>
+      <c r="AV10" s="115"/>
+      <c r="AW10" s="115"/>
+      <c r="AX10" s="115"/>
+      <c r="AY10" s="115"/>
+      <c r="AZ10" s="115"/>
+      <c r="BA10" s="115"/>
+      <c r="BB10" s="115"/>
+      <c r="BC10" s="115"/>
+      <c r="BD10" s="115"/>
+      <c r="BE10" s="115"/>
+      <c r="BF10" s="115"/>
+      <c r="BG10" s="115"/>
+      <c r="BH10" s="115"/>
+      <c r="BI10" s="115"/>
+      <c r="BJ10" s="115"/>
+      <c r="BK10" s="115"/>
+      <c r="BL10" s="115"/>
+      <c r="BM10" s="115"/>
+      <c r="BN10" s="115"/>
+      <c r="BO10" s="115"/>
+      <c r="BP10" s="115"/>
+      <c r="BQ10" s="115"/>
+      <c r="BR10" s="115"/>
+      <c r="BS10" s="115"/>
+      <c r="BT10" s="115"/>
+      <c r="BU10" s="115"/>
+      <c r="BV10" s="115"/>
+      <c r="BW10" s="115"/>
+      <c r="BX10" s="115"/>
+      <c r="BY10" s="115"/>
+      <c r="BZ10" s="115"/>
+      <c r="CA10" s="115"/>
+      <c r="CB10" s="115"/>
+      <c r="CC10" s="115"/>
+      <c r="CD10" s="115"/>
+      <c r="CE10" s="115"/>
+      <c r="CF10" s="115"/>
+      <c r="CG10" s="115"/>
+      <c r="CH10" s="115"/>
+      <c r="CI10" s="115"/>
+      <c r="CJ10" s="115"/>
+      <c r="CK10" s="115"/>
+      <c r="CL10" s="115"/>
+      <c r="CM10" s="115"/>
+      <c r="CN10" s="115"/>
+      <c r="CO10" s="115"/>
+      <c r="CP10" s="115"/>
+      <c r="CQ10" s="115"/>
+      <c r="CR10" s="115"/>
+      <c r="CS10" s="115"/>
+      <c r="CT10" s="115"/>
+      <c r="CU10" s="115"/>
+      <c r="CV10" s="115"/>
+      <c r="CW10" s="116"/>
+    </row>
+    <row r="11" spans="1:101" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="136"/>
+      <c r="B11" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="115"/>
+      <c r="AC11" s="115"/>
+      <c r="AD11" s="115"/>
+      <c r="AE11" s="115"/>
+      <c r="AF11" s="115"/>
+      <c r="AG11" s="115"/>
+      <c r="AH11" s="115"/>
+      <c r="AI11" s="115"/>
+      <c r="AJ11" s="115"/>
+      <c r="AK11" s="115"/>
+      <c r="AL11" s="115"/>
+      <c r="AM11" s="115"/>
+      <c r="AN11" s="115"/>
+      <c r="AO11" s="115"/>
+      <c r="AP11" s="115"/>
+      <c r="AQ11" s="115"/>
+      <c r="AR11" s="115"/>
+      <c r="AS11" s="115"/>
+      <c r="AT11" s="115"/>
+      <c r="AU11" s="115"/>
+      <c r="AV11" s="115"/>
+      <c r="AW11" s="115"/>
+      <c r="AX11" s="115"/>
+      <c r="AY11" s="115"/>
+      <c r="AZ11" s="115"/>
+      <c r="BA11" s="115"/>
+      <c r="BB11" s="115"/>
+      <c r="BC11" s="115"/>
+      <c r="BD11" s="115"/>
+      <c r="BE11" s="115"/>
+      <c r="BF11" s="115"/>
+      <c r="BG11" s="115"/>
+      <c r="BH11" s="115"/>
+      <c r="BI11" s="115"/>
+      <c r="BJ11" s="115"/>
+      <c r="BK11" s="115"/>
+      <c r="BL11" s="115"/>
+      <c r="BM11" s="115"/>
+      <c r="BN11" s="115"/>
+      <c r="BO11" s="115"/>
+      <c r="BP11" s="115"/>
+      <c r="BQ11" s="115"/>
+      <c r="BR11" s="115"/>
+      <c r="BS11" s="115"/>
+      <c r="BT11" s="115"/>
+      <c r="BU11" s="115"/>
+      <c r="BV11" s="115"/>
+      <c r="BW11" s="115"/>
+      <c r="BX11" s="115"/>
+      <c r="BY11" s="115"/>
+      <c r="BZ11" s="115"/>
+      <c r="CA11" s="115"/>
+      <c r="CB11" s="115"/>
+      <c r="CC11" s="115"/>
+      <c r="CD11" s="115"/>
+      <c r="CE11" s="115"/>
+      <c r="CF11" s="115"/>
+      <c r="CG11" s="115"/>
+      <c r="CH11" s="115"/>
+      <c r="CI11" s="115"/>
+      <c r="CJ11" s="115"/>
+      <c r="CK11" s="115"/>
+      <c r="CL11" s="115"/>
+      <c r="CM11" s="115"/>
+      <c r="CN11" s="115"/>
+      <c r="CO11" s="115"/>
+      <c r="CP11" s="115"/>
+      <c r="CQ11" s="115"/>
+      <c r="CR11" s="115"/>
+      <c r="CS11" s="115"/>
+      <c r="CT11" s="115"/>
+      <c r="CU11" s="115"/>
+      <c r="CV11" s="115"/>
+      <c r="CW11" s="116"/>
+    </row>
+    <row r="12" spans="1:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="113">
+        <v>187</v>
+      </c>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="115"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="115"/>
+      <c r="AB12" s="115"/>
+      <c r="AC12" s="115"/>
+      <c r="AD12" s="115"/>
+      <c r="AE12" s="115"/>
+      <c r="AF12" s="115"/>
+      <c r="AG12" s="115"/>
+      <c r="AH12" s="115"/>
+      <c r="AI12" s="115"/>
+      <c r="AJ12" s="115"/>
+      <c r="AK12" s="115"/>
+      <c r="AL12" s="115"/>
+      <c r="AM12" s="115"/>
+      <c r="AN12" s="115"/>
+      <c r="AO12" s="115"/>
+      <c r="AP12" s="115"/>
+      <c r="AQ12" s="115"/>
+      <c r="AR12" s="115"/>
+      <c r="AS12" s="115"/>
+      <c r="AT12" s="115"/>
+      <c r="AU12" s="115"/>
+      <c r="AV12" s="115"/>
+      <c r="AW12" s="115"/>
+      <c r="AX12" s="115"/>
+      <c r="AY12" s="115"/>
+      <c r="AZ12" s="115"/>
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="115"/>
+      <c r="BC12" s="115"/>
+      <c r="BD12" s="115"/>
+      <c r="BE12" s="115"/>
+      <c r="BF12" s="115"/>
+      <c r="BG12" s="115"/>
+      <c r="BH12" s="115"/>
+      <c r="BI12" s="115"/>
+      <c r="BJ12" s="115"/>
+      <c r="BK12" s="115"/>
+      <c r="BL12" s="115"/>
+      <c r="BM12" s="115"/>
+      <c r="BN12" s="115"/>
+      <c r="BO12" s="115"/>
+      <c r="BP12" s="115"/>
+      <c r="BQ12" s="115"/>
+      <c r="BR12" s="115"/>
+      <c r="BS12" s="115"/>
+      <c r="BT12" s="115"/>
+      <c r="BU12" s="115"/>
+      <c r="BV12" s="115"/>
+      <c r="BW12" s="115"/>
+      <c r="BX12" s="115"/>
+      <c r="BY12" s="115"/>
+      <c r="BZ12" s="115"/>
+      <c r="CA12" s="115"/>
+      <c r="CB12" s="115"/>
+      <c r="CC12" s="115"/>
+      <c r="CD12" s="115"/>
+      <c r="CE12" s="115"/>
+      <c r="CF12" s="115"/>
+      <c r="CG12" s="115"/>
+      <c r="CH12" s="115"/>
+      <c r="CI12" s="115"/>
+      <c r="CJ12" s="115"/>
+      <c r="CK12" s="115"/>
+      <c r="CL12" s="115"/>
+      <c r="CM12" s="115"/>
+      <c r="CN12" s="115"/>
+      <c r="CO12" s="115"/>
+      <c r="CP12" s="115"/>
+      <c r="CQ12" s="115"/>
+      <c r="CR12" s="115"/>
+      <c r="CS12" s="115"/>
+      <c r="CT12" s="115"/>
+      <c r="CU12" s="115"/>
+      <c r="CV12" s="115"/>
+      <c r="CW12" s="116"/>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A13" s="134"/>
+      <c r="B13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="39">
+        <v>2012309</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="125">
+        <v>162</v>
+      </c>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="115"/>
+      <c r="AD13" s="115"/>
+      <c r="AE13" s="115"/>
+      <c r="AF13" s="115"/>
+      <c r="AG13" s="115"/>
+      <c r="AH13" s="115"/>
+      <c r="AI13" s="115"/>
+      <c r="AJ13" s="115"/>
+      <c r="AK13" s="115"/>
+      <c r="AL13" s="115"/>
+      <c r="AM13" s="115"/>
+      <c r="AN13" s="115"/>
+      <c r="AO13" s="115"/>
+      <c r="AP13" s="115"/>
+      <c r="AQ13" s="115"/>
+      <c r="AR13" s="115"/>
+      <c r="AS13" s="115"/>
+      <c r="AT13" s="115"/>
+      <c r="AU13" s="115"/>
+      <c r="AV13" s="115"/>
+      <c r="AW13" s="115"/>
+      <c r="AX13" s="115"/>
+      <c r="AY13" s="115"/>
+      <c r="AZ13" s="115"/>
+      <c r="BA13" s="115"/>
+      <c r="BB13" s="115"/>
+      <c r="BC13" s="115"/>
+      <c r="BD13" s="115"/>
+      <c r="BE13" s="115"/>
+      <c r="BF13" s="115"/>
+      <c r="BG13" s="115"/>
+      <c r="BH13" s="115"/>
+      <c r="BI13" s="115"/>
+      <c r="BJ13" s="115"/>
+      <c r="BK13" s="115"/>
+      <c r="BL13" s="115"/>
+      <c r="BM13" s="115"/>
+      <c r="BN13" s="115"/>
+      <c r="BO13" s="115"/>
+      <c r="BP13" s="115"/>
+      <c r="BQ13" s="115"/>
+      <c r="BR13" s="115"/>
+      <c r="BS13" s="115"/>
+      <c r="BT13" s="115"/>
+      <c r="BU13" s="115"/>
+      <c r="BV13" s="115"/>
+      <c r="BW13" s="115"/>
+      <c r="BX13" s="115"/>
+      <c r="BY13" s="115"/>
+      <c r="BZ13" s="115"/>
+      <c r="CA13" s="115"/>
+      <c r="CB13" s="115"/>
+      <c r="CC13" s="115"/>
+      <c r="CD13" s="115"/>
+      <c r="CE13" s="115"/>
+      <c r="CF13" s="115"/>
+      <c r="CG13" s="115"/>
+      <c r="CH13" s="115"/>
+      <c r="CI13" s="115"/>
+      <c r="CJ13" s="115"/>
+      <c r="CK13" s="115"/>
+      <c r="CL13" s="115"/>
+      <c r="CM13" s="115"/>
+      <c r="CN13" s="115"/>
+      <c r="CO13" s="115"/>
+      <c r="CP13" s="115"/>
+      <c r="CQ13" s="115"/>
+      <c r="CR13" s="115"/>
+      <c r="CS13" s="115"/>
+      <c r="CT13" s="115"/>
+      <c r="CU13" s="115"/>
+      <c r="CV13" s="115"/>
+      <c r="CW13" s="116"/>
+    </row>
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A14" s="134"/>
+      <c r="B14" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="126">
+        <v>2011200</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="125">
+        <v>233</v>
+      </c>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="115"/>
+      <c r="AI14" s="115"/>
+      <c r="AJ14" s="115"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
+      <c r="AX14" s="115"/>
+      <c r="AY14" s="115"/>
+      <c r="AZ14" s="115"/>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="115"/>
+      <c r="BD14" s="115"/>
+      <c r="BE14" s="115"/>
+      <c r="BF14" s="115"/>
+      <c r="BG14" s="115"/>
+      <c r="BH14" s="115"/>
+      <c r="BI14" s="115"/>
+      <c r="BJ14" s="115"/>
+      <c r="BK14" s="115"/>
+      <c r="BL14" s="115"/>
+      <c r="BM14" s="115"/>
+      <c r="BN14" s="115"/>
+      <c r="BO14" s="115"/>
+      <c r="BP14" s="115"/>
+      <c r="BQ14" s="115"/>
+      <c r="BR14" s="115"/>
+      <c r="BS14" s="115"/>
+      <c r="BT14" s="115"/>
+      <c r="BU14" s="115"/>
+      <c r="BV14" s="115"/>
+      <c r="BW14" s="115"/>
+      <c r="BX14" s="115"/>
+      <c r="BY14" s="115"/>
+      <c r="BZ14" s="115"/>
+      <c r="CA14" s="115"/>
+      <c r="CB14" s="115"/>
+      <c r="CC14" s="115"/>
+      <c r="CD14" s="115"/>
+      <c r="CE14" s="115"/>
+      <c r="CF14" s="115"/>
+      <c r="CG14" s="115"/>
+      <c r="CH14" s="115"/>
+      <c r="CI14" s="115"/>
+      <c r="CJ14" s="115"/>
+      <c r="CK14" s="115"/>
+      <c r="CL14" s="115"/>
+      <c r="CM14" s="115"/>
+      <c r="CN14" s="115"/>
+      <c r="CO14" s="115"/>
+      <c r="CP14" s="115"/>
+      <c r="CQ14" s="115"/>
+      <c r="CR14" s="115"/>
+      <c r="CS14" s="115"/>
+      <c r="CT14" s="115"/>
+      <c r="CU14" s="115"/>
+      <c r="CV14" s="115"/>
+      <c r="CW14" s="116"/>
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A15" s="134"/>
+      <c r="B15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="90">
+        <v>2012311</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="127">
+        <v>334</v>
+      </c>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="115"/>
+      <c r="AD15" s="115"/>
+      <c r="AE15" s="115"/>
+      <c r="AF15" s="115"/>
+      <c r="AG15" s="115"/>
+      <c r="AH15" s="115"/>
+      <c r="AI15" s="115"/>
+      <c r="AJ15" s="115"/>
+      <c r="AK15" s="115"/>
+      <c r="AL15" s="115"/>
+      <c r="AM15" s="115"/>
+      <c r="AN15" s="115"/>
+      <c r="AO15" s="115"/>
+      <c r="AP15" s="115"/>
+      <c r="AQ15" s="115"/>
+      <c r="AR15" s="115"/>
+      <c r="AS15" s="115"/>
+      <c r="AT15" s="115"/>
+      <c r="AU15" s="115"/>
+      <c r="AV15" s="115"/>
+      <c r="AW15" s="115"/>
+      <c r="AX15" s="115"/>
+      <c r="AY15" s="115"/>
+      <c r="AZ15" s="115"/>
+      <c r="BA15" s="115"/>
+      <c r="BB15" s="115"/>
+      <c r="BC15" s="115"/>
+      <c r="BD15" s="115"/>
+      <c r="BE15" s="115"/>
+      <c r="BF15" s="115"/>
+      <c r="BG15" s="115"/>
+      <c r="BH15" s="115"/>
+      <c r="BI15" s="115"/>
+      <c r="BJ15" s="115"/>
+      <c r="BK15" s="115"/>
+      <c r="BL15" s="115"/>
+      <c r="BM15" s="115"/>
+      <c r="BN15" s="115"/>
+      <c r="BO15" s="115"/>
+      <c r="BP15" s="115"/>
+      <c r="BQ15" s="115"/>
+      <c r="BR15" s="115"/>
+      <c r="BS15" s="115"/>
+      <c r="BT15" s="115"/>
+      <c r="BU15" s="115"/>
+      <c r="BV15" s="115"/>
+      <c r="BW15" s="115"/>
+      <c r="BX15" s="115"/>
+      <c r="BY15" s="115"/>
+      <c r="BZ15" s="115"/>
+      <c r="CA15" s="115"/>
+      <c r="CB15" s="115"/>
+      <c r="CC15" s="115"/>
+      <c r="CD15" s="115"/>
+      <c r="CE15" s="115"/>
+      <c r="CF15" s="115"/>
+      <c r="CG15" s="115"/>
+      <c r="CH15" s="115"/>
+      <c r="CI15" s="115"/>
+      <c r="CJ15" s="115"/>
+      <c r="CK15" s="115"/>
+      <c r="CL15" s="115"/>
+      <c r="CM15" s="115"/>
+      <c r="CN15" s="115"/>
+      <c r="CO15" s="115"/>
+      <c r="CP15" s="115"/>
+      <c r="CQ15" s="115"/>
+      <c r="CR15" s="115"/>
+      <c r="CS15" s="115"/>
+      <c r="CT15" s="115"/>
+      <c r="CU15" s="115"/>
+      <c r="CV15" s="115"/>
+      <c r="CW15" s="116"/>
+    </row>
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="80"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="80"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="80"/>
+      <c r="AL17" s="80"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="80"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="80"/>
+      <c r="AL19" s="80"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="80"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9559,1177 +12136,1177 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" t="s" s="114">
+      <c r="A2" t="s" s="154">
         <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="115">
+      <c r="A3" t="s" s="155">
         <v>16</v>
       </c>
-      <c r="B3" t="s" s="115">
+      <c r="B3" t="s" s="155">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="115">
+      <c r="C3" t="s" s="155">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="115">
+      <c r="D3" t="s" s="155">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="115">
+      <c r="E3" t="s" s="155">
         <v>20</v>
       </c>
-      <c r="F3" t="n" s="115">
+      <c r="F3" t="n" s="155">
         <v>7.0</v>
       </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121"/>
-      <c r="J3" t="n" s="115">
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
+      <c r="J3" t="n" s="155">
         <v>8.0</v>
       </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="121"/>
-      <c r="N3" t="n" s="115">
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="161"/>
+      <c r="N3" t="n" s="155">
         <v>9.0</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" t="n" s="115">
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" t="n" s="155">
         <v>10.0</v>
       </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="121"/>
-      <c r="V3" t="n" s="115">
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="161"/>
+      <c r="V3" t="n" s="155">
         <v>11.0</v>
       </c>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" t="n" s="115">
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" t="n" s="155">
         <v>12.0</v>
       </c>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" t="n" s="115">
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" t="n" s="155">
         <v>13.0</v>
       </c>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="120"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" t="n" s="115">
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" t="n" s="155">
         <v>14.0</v>
       </c>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" t="n" s="115">
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="160"/>
+      <c r="AK3" s="161"/>
+      <c r="AL3" t="n" s="155">
         <v>15.0</v>
       </c>
-      <c r="AM3" s="120"/>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="121"/>
-      <c r="AP3" t="n" s="115">
+      <c r="AM3" s="160"/>
+      <c r="AN3" s="160"/>
+      <c r="AO3" s="161"/>
+      <c r="AP3" t="n" s="155">
         <v>16.0</v>
       </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
-      <c r="AS3" s="121"/>
-      <c r="AT3" t="n" s="115">
+      <c r="AQ3" s="160"/>
+      <c r="AR3" s="160"/>
+      <c r="AS3" s="161"/>
+      <c r="AT3" t="n" s="155">
         <v>17.0</v>
       </c>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="121"/>
-      <c r="AX3" t="n" s="115">
+      <c r="AU3" s="160"/>
+      <c r="AV3" s="160"/>
+      <c r="AW3" s="161"/>
+      <c r="AX3" t="n" s="155">
         <v>18.0</v>
       </c>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" s="120"/>
-      <c r="BA3" s="121"/>
-      <c r="BB3" t="n" s="115">
+      <c r="AY3" s="160"/>
+      <c r="AZ3" s="160"/>
+      <c r="BA3" s="161"/>
+      <c r="BB3" t="n" s="155">
         <v>19.0</v>
       </c>
-      <c r="BC3" s="120"/>
-      <c r="BD3" s="120"/>
-      <c r="BE3" s="121"/>
-      <c r="BF3" t="n" s="115">
+      <c r="BC3" s="160"/>
+      <c r="BD3" s="160"/>
+      <c r="BE3" s="161"/>
+      <c r="BF3" t="n" s="155">
         <v>20.0</v>
       </c>
-      <c r="BG3" s="120"/>
-      <c r="BH3" s="120"/>
-      <c r="BI3" s="121"/>
-      <c r="BJ3" t="n" s="115">
+      <c r="BG3" s="160"/>
+      <c r="BH3" s="160"/>
+      <c r="BI3" s="161"/>
+      <c r="BJ3" t="n" s="155">
         <v>21.0</v>
       </c>
-      <c r="BK3" s="120"/>
-      <c r="BL3" s="120"/>
-      <c r="BM3" s="121"/>
-      <c r="BN3" t="n" s="115">
+      <c r="BK3" s="160"/>
+      <c r="BL3" s="160"/>
+      <c r="BM3" s="161"/>
+      <c r="BN3" t="n" s="155">
         <v>22.0</v>
       </c>
-      <c r="BO3" s="120"/>
-      <c r="BP3" s="120"/>
-      <c r="BQ3" s="121"/>
-      <c r="BR3" t="n" s="115">
+      <c r="BO3" s="160"/>
+      <c r="BP3" s="160"/>
+      <c r="BQ3" s="161"/>
+      <c r="BR3" t="n" s="155">
         <v>23.0</v>
       </c>
-      <c r="BS3" s="120"/>
-      <c r="BT3" s="120"/>
-      <c r="BU3" s="121"/>
-      <c r="BV3" t="n" s="115">
+      <c r="BS3" s="160"/>
+      <c r="BT3" s="160"/>
+      <c r="BU3" s="161"/>
+      <c r="BV3" t="n" s="155">
         <v>24.0</v>
       </c>
-      <c r="BW3" s="120"/>
-      <c r="BX3" s="120"/>
-      <c r="BY3" s="121"/>
-      <c r="BZ3" t="n" s="115">
+      <c r="BW3" s="160"/>
+      <c r="BX3" s="160"/>
+      <c r="BY3" s="161"/>
+      <c r="BZ3" t="n" s="155">
         <v>1.0</v>
       </c>
-      <c r="CA3" s="120"/>
-      <c r="CB3" s="120"/>
-      <c r="CC3" s="121"/>
-      <c r="CD3" t="n" s="115">
+      <c r="CA3" s="160"/>
+      <c r="CB3" s="160"/>
+      <c r="CC3" s="161"/>
+      <c r="CD3" t="n" s="155">
         <v>2.0</v>
       </c>
-      <c r="CE3" s="120"/>
-      <c r="CF3" s="120"/>
-      <c r="CG3" s="121"/>
-      <c r="CH3" t="n" s="115">
+      <c r="CE3" s="160"/>
+      <c r="CF3" s="160"/>
+      <c r="CG3" s="161"/>
+      <c r="CH3" t="n" s="155">
         <v>3.0</v>
       </c>
-      <c r="CI3" s="120"/>
-      <c r="CJ3" s="120"/>
-      <c r="CK3" s="121"/>
-      <c r="CL3" t="n" s="115">
+      <c r="CI3" s="160"/>
+      <c r="CJ3" s="160"/>
+      <c r="CK3" s="161"/>
+      <c r="CL3" t="n" s="155">
         <v>4.0</v>
       </c>
-      <c r="CM3" s="120"/>
-      <c r="CN3" s="120"/>
-      <c r="CO3" s="121"/>
-      <c r="CP3" t="n" s="115">
+      <c r="CM3" s="160"/>
+      <c r="CN3" s="160"/>
+      <c r="CO3" s="161"/>
+      <c r="CP3" t="n" s="155">
         <v>5.0</v>
       </c>
-      <c r="CQ3" s="120"/>
-      <c r="CR3" s="120"/>
-      <c r="CS3" s="121"/>
-      <c r="CT3" t="n" s="115">
+      <c r="CQ3" s="160"/>
+      <c r="CR3" s="160"/>
+      <c r="CS3" s="161"/>
+      <c r="CT3" t="n" s="155">
         <v>6.0</v>
       </c>
-      <c r="CU3" s="120"/>
-      <c r="CV3" s="120"/>
-      <c r="CW3" s="121"/>
+      <c r="CU3" s="160"/>
+      <c r="CV3" s="160"/>
+      <c r="CW3" s="161"/>
     </row>
     <row r="4">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123"/>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123"/>
-      <c r="AX4" s="123"/>
-      <c r="AY4" s="123"/>
-      <c r="AZ4" s="123"/>
-      <c r="BA4" s="123"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="123"/>
-      <c r="BE4" s="123"/>
-      <c r="BF4" s="123"/>
-      <c r="BG4" s="123"/>
-      <c r="BH4" s="123"/>
-      <c r="BI4" s="123"/>
-      <c r="BJ4" s="123"/>
-      <c r="BK4" s="123"/>
-      <c r="BL4" s="123"/>
-      <c r="BM4" s="123"/>
-      <c r="BN4" s="123"/>
-      <c r="BO4" s="123"/>
-      <c r="BP4" s="123"/>
-      <c r="BQ4" s="123"/>
-      <c r="BR4" s="123"/>
-      <c r="BS4" s="123"/>
-      <c r="BT4" s="123"/>
-      <c r="BU4" s="123"/>
-      <c r="BV4" s="123"/>
-      <c r="BW4" s="123"/>
-      <c r="BX4" s="123"/>
-      <c r="BY4" s="123"/>
-      <c r="BZ4" s="123"/>
-      <c r="CA4" s="123"/>
-      <c r="CB4" s="123"/>
-      <c r="CC4" s="123"/>
-      <c r="CD4" s="123"/>
-      <c r="CE4" s="123"/>
-      <c r="CF4" s="123"/>
-      <c r="CG4" s="123"/>
-      <c r="CH4" s="123"/>
-      <c r="CI4" s="123"/>
-      <c r="CJ4" s="123"/>
-      <c r="CK4" s="123"/>
-      <c r="CL4" s="123"/>
-      <c r="CM4" s="123"/>
-      <c r="CN4" s="123"/>
-      <c r="CO4" s="123"/>
-      <c r="CP4" s="123"/>
-      <c r="CQ4" s="123"/>
-      <c r="CR4" s="123"/>
-      <c r="CS4" s="123"/>
-      <c r="CT4" s="123"/>
-      <c r="CU4" s="123"/>
-      <c r="CV4" s="123"/>
-      <c r="CW4" s="123"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
+      <c r="AX4" s="163"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="163"/>
+      <c r="BA4" s="163"/>
+      <c r="BB4" s="163"/>
+      <c r="BC4" s="163"/>
+      <c r="BD4" s="163"/>
+      <c r="BE4" s="163"/>
+      <c r="BF4" s="163"/>
+      <c r="BG4" s="163"/>
+      <c r="BH4" s="163"/>
+      <c r="BI4" s="163"/>
+      <c r="BJ4" s="163"/>
+      <c r="BK4" s="163"/>
+      <c r="BL4" s="163"/>
+      <c r="BM4" s="163"/>
+      <c r="BN4" s="163"/>
+      <c r="BO4" s="163"/>
+      <c r="BP4" s="163"/>
+      <c r="BQ4" s="163"/>
+      <c r="BR4" s="163"/>
+      <c r="BS4" s="163"/>
+      <c r="BT4" s="163"/>
+      <c r="BU4" s="163"/>
+      <c r="BV4" s="163"/>
+      <c r="BW4" s="163"/>
+      <c r="BX4" s="163"/>
+      <c r="BY4" s="163"/>
+      <c r="BZ4" s="163"/>
+      <c r="CA4" s="163"/>
+      <c r="CB4" s="163"/>
+      <c r="CC4" s="163"/>
+      <c r="CD4" s="163"/>
+      <c r="CE4" s="163"/>
+      <c r="CF4" s="163"/>
+      <c r="CG4" s="163"/>
+      <c r="CH4" s="163"/>
+      <c r="CI4" s="163"/>
+      <c r="CJ4" s="163"/>
+      <c r="CK4" s="163"/>
+      <c r="CL4" s="163"/>
+      <c r="CM4" s="163"/>
+      <c r="CN4" s="163"/>
+      <c r="CO4" s="163"/>
+      <c r="CP4" s="163"/>
+      <c r="CQ4" s="163"/>
+      <c r="CR4" s="163"/>
+      <c r="CS4" s="163"/>
+      <c r="CT4" s="163"/>
+      <c r="CU4" s="163"/>
+      <c r="CV4" s="163"/>
+      <c r="CW4" s="163"/>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="125">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s" s="125">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s" s="125">
+      <c r="A5" t="s" s="165">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s" s="165">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s" s="165">
         <v>26</v>
       </c>
-      <c r="D5" t="s" s="125">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s" s="125">
-        <v>84</v>
-      </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="138"/>
-      <c r="X5" s="139"/>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="143"/>
-      <c r="AC5" s="144"/>
-      <c r="AD5" s="145"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="148"/>
-      <c r="AH5" s="149"/>
-      <c r="AI5" s="150"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="123"/>
-      <c r="AO5" s="123"/>
-      <c r="AP5" s="123"/>
-      <c r="AQ5" s="123"/>
-      <c r="AR5" s="123"/>
-      <c r="AS5" s="123"/>
-      <c r="AT5" s="123"/>
-      <c r="AU5" s="123"/>
-      <c r="AV5" s="123"/>
-      <c r="AW5" s="123"/>
-      <c r="AX5" s="123"/>
-      <c r="AY5" s="123"/>
-      <c r="AZ5" s="123"/>
-      <c r="BA5" s="123"/>
-      <c r="BB5" s="123"/>
-      <c r="BC5" s="123"/>
-      <c r="BD5" s="123"/>
-      <c r="BE5" s="123"/>
-      <c r="BF5" s="123"/>
-      <c r="BG5" s="123"/>
-      <c r="BH5" s="123"/>
-      <c r="BI5" s="123"/>
-      <c r="BJ5" s="123"/>
-      <c r="BK5" s="123"/>
-      <c r="BL5" s="123"/>
-      <c r="BM5" s="123"/>
-      <c r="BN5" s="123"/>
-      <c r="BO5" s="123"/>
-      <c r="BP5" s="123"/>
-      <c r="BQ5" s="123"/>
-      <c r="BR5" s="123"/>
-      <c r="BS5" s="123"/>
-      <c r="BT5" s="123"/>
-      <c r="BU5" s="123"/>
-      <c r="BV5" s="123"/>
-      <c r="BW5" s="123"/>
-      <c r="BX5" s="123"/>
-      <c r="BY5" s="123"/>
-      <c r="BZ5" s="123"/>
-      <c r="CA5" s="123"/>
-      <c r="CB5" s="123"/>
-      <c r="CC5" s="123"/>
-      <c r="CD5" s="123"/>
-      <c r="CE5" s="123"/>
-      <c r="CF5" s="123"/>
-      <c r="CG5" s="123"/>
-      <c r="CH5" s="123"/>
-      <c r="CI5" s="123"/>
-      <c r="CJ5" s="123"/>
-      <c r="CK5" s="123"/>
-      <c r="CL5" s="123"/>
-      <c r="CM5" s="123"/>
-      <c r="CN5" s="123"/>
-      <c r="CO5" s="123"/>
-      <c r="CP5" s="123"/>
-      <c r="CQ5" s="123"/>
-      <c r="CR5" s="123"/>
-      <c r="CS5" s="123"/>
-      <c r="CT5" s="123"/>
-      <c r="CU5" s="123"/>
-      <c r="CV5" s="123"/>
-      <c r="CW5" s="123"/>
+      <c r="D5" t="s" s="165">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s" s="165">
+        <v>90</v>
+      </c>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="175"/>
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="177"/>
+      <c r="AB5" s="178"/>
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="183"/>
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="185"/>
+      <c r="AJ5" s="186"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="188"/>
+      <c r="AM5" s="189"/>
+      <c r="AN5" s="190"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="192"/>
+      <c r="AQ5" s="193"/>
+      <c r="AR5" s="194"/>
+      <c r="AS5" s="195"/>
+      <c r="AT5" s="196"/>
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="198"/>
+      <c r="AW5" s="199"/>
+      <c r="AX5" s="200"/>
+      <c r="AY5" s="201"/>
+      <c r="AZ5" s="202"/>
+      <c r="BA5" s="203"/>
+      <c r="BB5" s="204"/>
+      <c r="BC5" s="205"/>
+      <c r="BD5" s="206"/>
+      <c r="BE5" s="207"/>
+      <c r="BF5" s="208"/>
+      <c r="BG5" s="209"/>
+      <c r="BH5" s="210"/>
+      <c r="BI5" s="211"/>
+      <c r="BJ5" s="163"/>
+      <c r="BK5" s="163"/>
+      <c r="BL5" s="163"/>
+      <c r="BM5" s="163"/>
+      <c r="BN5" s="163"/>
+      <c r="BO5" s="163"/>
+      <c r="BP5" s="163"/>
+      <c r="BQ5" s="163"/>
+      <c r="BR5" s="163"/>
+      <c r="BS5" s="163"/>
+      <c r="BT5" s="163"/>
+      <c r="BU5" s="163"/>
+      <c r="BV5" s="163"/>
+      <c r="BW5" s="163"/>
+      <c r="BX5" s="163"/>
+      <c r="BY5" s="163"/>
+      <c r="BZ5" s="163"/>
+      <c r="CA5" s="163"/>
+      <c r="CB5" s="163"/>
+      <c r="CC5" s="163"/>
+      <c r="CD5" s="163"/>
+      <c r="CE5" s="163"/>
+      <c r="CF5" s="163"/>
+      <c r="CG5" s="163"/>
+      <c r="CH5" s="163"/>
+      <c r="CI5" s="163"/>
+      <c r="CJ5" s="163"/>
+      <c r="CK5" s="163"/>
+      <c r="CL5" s="163"/>
+      <c r="CM5" s="163"/>
+      <c r="CN5" s="163"/>
+      <c r="CO5" s="163"/>
+      <c r="CP5" s="163"/>
+      <c r="CQ5" s="163"/>
+      <c r="CR5" s="163"/>
+      <c r="CS5" s="163"/>
+      <c r="CT5" s="163"/>
+      <c r="CU5" s="163"/>
+      <c r="CV5" s="163"/>
+      <c r="CW5" s="163"/>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="125">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s" s="125">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s" s="125">
+      <c r="A6" t="s" s="165">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s" s="165">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s" s="165">
         <v>27</v>
       </c>
-      <c r="D6" t="s" s="125">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s" s="125">
-        <v>86</v>
-      </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="161"/>
-      <c r="T6" s="162"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="166"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="168"/>
-      <c r="AA6" s="169"/>
-      <c r="AB6" s="170"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="172"/>
-      <c r="AE6" s="173"/>
-      <c r="AF6" s="174"/>
-      <c r="AG6" s="175"/>
-      <c r="AH6" s="176"/>
-      <c r="AI6" s="177"/>
-      <c r="AJ6" s="123"/>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123"/>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123"/>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123"/>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123"/>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="123"/>
-      <c r="BJ6" s="123"/>
-      <c r="BK6" s="123"/>
-      <c r="BL6" s="123"/>
-      <c r="BM6" s="123"/>
-      <c r="BN6" s="123"/>
-      <c r="BO6" s="123"/>
-      <c r="BP6" s="123"/>
-      <c r="BQ6" s="123"/>
-      <c r="BR6" s="123"/>
-      <c r="BS6" s="123"/>
-      <c r="BT6" s="123"/>
-      <c r="BU6" s="123"/>
-      <c r="BV6" s="123"/>
-      <c r="BW6" s="123"/>
-      <c r="BX6" s="123"/>
-      <c r="BY6" s="123"/>
-      <c r="BZ6" s="123"/>
-      <c r="CA6" s="123"/>
-      <c r="CB6" s="123"/>
-      <c r="CC6" s="123"/>
-      <c r="CD6" s="123"/>
-      <c r="CE6" s="123"/>
-      <c r="CF6" s="123"/>
-      <c r="CG6" s="123"/>
-      <c r="CH6" s="123"/>
-      <c r="CI6" s="123"/>
-      <c r="CJ6" s="123"/>
-      <c r="CK6" s="123"/>
-      <c r="CL6" s="123"/>
-      <c r="CM6" s="123"/>
-      <c r="CN6" s="123"/>
-      <c r="CO6" s="123"/>
-      <c r="CP6" s="123"/>
-      <c r="CQ6" s="123"/>
-      <c r="CR6" s="123"/>
-      <c r="CS6" s="123"/>
-      <c r="CT6" s="123"/>
-      <c r="CU6" s="123"/>
-      <c r="CV6" s="123"/>
-      <c r="CW6" s="123"/>
+      <c r="D6" t="s" s="165">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s" s="165">
+        <v>92</v>
+      </c>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="212"/>
+      <c r="Q6" s="213"/>
+      <c r="R6" s="214"/>
+      <c r="S6" s="215"/>
+      <c r="T6" s="216"/>
+      <c r="U6" s="217"/>
+      <c r="V6" s="218"/>
+      <c r="W6" s="219"/>
+      <c r="X6" s="220"/>
+      <c r="Y6" s="221"/>
+      <c r="Z6" s="222"/>
+      <c r="AA6" s="223"/>
+      <c r="AB6" s="224"/>
+      <c r="AC6" s="225"/>
+      <c r="AD6" s="226"/>
+      <c r="AE6" s="227"/>
+      <c r="AF6" s="228"/>
+      <c r="AG6" s="229"/>
+      <c r="AH6" s="230"/>
+      <c r="AI6" s="231"/>
+      <c r="AJ6" s="232"/>
+      <c r="AK6" s="233"/>
+      <c r="AL6" s="234"/>
+      <c r="AM6" s="235"/>
+      <c r="AN6" s="236"/>
+      <c r="AO6" s="237"/>
+      <c r="AP6" s="238"/>
+      <c r="AQ6" s="239"/>
+      <c r="AR6" s="240"/>
+      <c r="AS6" s="241"/>
+      <c r="AT6" s="242"/>
+      <c r="AU6" s="243"/>
+      <c r="AV6" s="244"/>
+      <c r="AW6" s="245"/>
+      <c r="AX6" s="246"/>
+      <c r="AY6" s="247"/>
+      <c r="AZ6" s="248"/>
+      <c r="BA6" s="249"/>
+      <c r="BB6" s="250"/>
+      <c r="BC6" s="251"/>
+      <c r="BD6" s="252"/>
+      <c r="BE6" s="253"/>
+      <c r="BF6" s="254"/>
+      <c r="BG6" s="255"/>
+      <c r="BH6" s="256"/>
+      <c r="BI6" s="257"/>
+      <c r="BJ6" s="163"/>
+      <c r="BK6" s="163"/>
+      <c r="BL6" s="163"/>
+      <c r="BM6" s="163"/>
+      <c r="BN6" s="163"/>
+      <c r="BO6" s="163"/>
+      <c r="BP6" s="163"/>
+      <c r="BQ6" s="163"/>
+      <c r="BR6" s="163"/>
+      <c r="BS6" s="163"/>
+      <c r="BT6" s="163"/>
+      <c r="BU6" s="163"/>
+      <c r="BV6" s="163"/>
+      <c r="BW6" s="163"/>
+      <c r="BX6" s="163"/>
+      <c r="BY6" s="163"/>
+      <c r="BZ6" s="163"/>
+      <c r="CA6" s="163"/>
+      <c r="CB6" s="163"/>
+      <c r="CC6" s="163"/>
+      <c r="CD6" s="163"/>
+      <c r="CE6" s="163"/>
+      <c r="CF6" s="163"/>
+      <c r="CG6" s="163"/>
+      <c r="CH6" s="163"/>
+      <c r="CI6" s="163"/>
+      <c r="CJ6" s="163"/>
+      <c r="CK6" s="163"/>
+      <c r="CL6" s="163"/>
+      <c r="CM6" s="163"/>
+      <c r="CN6" s="163"/>
+      <c r="CO6" s="163"/>
+      <c r="CP6" s="163"/>
+      <c r="CQ6" s="163"/>
+      <c r="CR6" s="163"/>
+      <c r="CS6" s="163"/>
+      <c r="CT6" s="163"/>
+      <c r="CU6" s="163"/>
+      <c r="CV6" s="163"/>
+      <c r="CW6" s="163"/>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="125">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s" s="125">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s" s="125">
+      <c r="A7" t="s" s="165">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s" s="165">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s" s="165">
         <v>28</v>
       </c>
-      <c r="D7" t="s" s="125">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s" s="125">
+      <c r="D7" t="s" s="165">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s" s="165">
         <v>51</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="188"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="123"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="123"/>
-      <c r="AN7" s="123"/>
-      <c r="AO7" s="123"/>
-      <c r="AP7" s="123"/>
-      <c r="AQ7" s="123"/>
-      <c r="AR7" s="123"/>
-      <c r="AS7" s="123"/>
-      <c r="AT7" s="123"/>
-      <c r="AU7" s="123"/>
-      <c r="AV7" s="123"/>
-      <c r="AW7" s="123"/>
-      <c r="AX7" s="123"/>
-      <c r="AY7" s="123"/>
-      <c r="AZ7" s="123"/>
-      <c r="BA7" s="123"/>
-      <c r="BB7" s="123"/>
-      <c r="BC7" s="123"/>
-      <c r="BD7" s="123"/>
-      <c r="BE7" s="123"/>
-      <c r="BF7" s="123"/>
-      <c r="BG7" s="123"/>
-      <c r="BH7" s="123"/>
-      <c r="BI7" s="123"/>
-      <c r="BJ7" s="123"/>
-      <c r="BK7" s="123"/>
-      <c r="BL7" s="123"/>
-      <c r="BM7" s="123"/>
-      <c r="BN7" s="123"/>
-      <c r="BO7" s="123"/>
-      <c r="BP7" s="123"/>
-      <c r="BQ7" s="123"/>
-      <c r="BR7" s="123"/>
-      <c r="BS7" s="123"/>
-      <c r="BT7" s="123"/>
-      <c r="BU7" s="123"/>
-      <c r="BV7" s="123"/>
-      <c r="BW7" s="123"/>
-      <c r="BX7" s="123"/>
-      <c r="BY7" s="123"/>
-      <c r="BZ7" s="123"/>
-      <c r="CA7" s="123"/>
-      <c r="CB7" s="123"/>
-      <c r="CC7" s="123"/>
-      <c r="CD7" s="123"/>
-      <c r="CE7" s="123"/>
-      <c r="CF7" s="123"/>
-      <c r="CG7" s="123"/>
-      <c r="CH7" s="123"/>
-      <c r="CI7" s="123"/>
-      <c r="CJ7" s="123"/>
-      <c r="CK7" s="123"/>
-      <c r="CL7" s="123"/>
-      <c r="CM7" s="123"/>
-      <c r="CN7" s="123"/>
-      <c r="CO7" s="123"/>
-      <c r="CP7" s="123"/>
-      <c r="CQ7" s="123"/>
-      <c r="CR7" s="123"/>
-      <c r="CS7" s="123"/>
-      <c r="CT7" s="123"/>
-      <c r="CU7" s="123"/>
-      <c r="CV7" s="123"/>
-      <c r="CW7" s="123"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="163"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="258"/>
+      <c r="AF7" s="259"/>
+      <c r="AG7" s="260"/>
+      <c r="AH7" s="261"/>
+      <c r="AI7" s="262"/>
+      <c r="AJ7" s="263"/>
+      <c r="AK7" s="264"/>
+      <c r="AL7" s="163"/>
+      <c r="AM7" s="163"/>
+      <c r="AN7" s="163"/>
+      <c r="AO7" s="163"/>
+      <c r="AP7" s="163"/>
+      <c r="AQ7" s="163"/>
+      <c r="AR7" s="163"/>
+      <c r="AS7" s="163"/>
+      <c r="AT7" s="163"/>
+      <c r="AU7" s="163"/>
+      <c r="AV7" s="163"/>
+      <c r="AW7" s="163"/>
+      <c r="AX7" s="163"/>
+      <c r="AY7" s="163"/>
+      <c r="AZ7" s="163"/>
+      <c r="BA7" s="163"/>
+      <c r="BB7" s="163"/>
+      <c r="BC7" s="163"/>
+      <c r="BD7" s="163"/>
+      <c r="BE7" s="163"/>
+      <c r="BF7" s="163"/>
+      <c r="BG7" s="163"/>
+      <c r="BH7" s="163"/>
+      <c r="BI7" s="163"/>
+      <c r="BJ7" s="163"/>
+      <c r="BK7" s="163"/>
+      <c r="BL7" s="163"/>
+      <c r="BM7" s="163"/>
+      <c r="BN7" s="163"/>
+      <c r="BO7" s="163"/>
+      <c r="BP7" s="163"/>
+      <c r="BQ7" s="163"/>
+      <c r="BR7" s="163"/>
+      <c r="BS7" s="163"/>
+      <c r="BT7" s="163"/>
+      <c r="BU7" s="163"/>
+      <c r="BV7" s="163"/>
+      <c r="BW7" s="163"/>
+      <c r="BX7" s="163"/>
+      <c r="BY7" s="163"/>
+      <c r="BZ7" s="163"/>
+      <c r="CA7" s="163"/>
+      <c r="CB7" s="163"/>
+      <c r="CC7" s="163"/>
+      <c r="CD7" s="163"/>
+      <c r="CE7" s="163"/>
+      <c r="CF7" s="163"/>
+      <c r="CG7" s="163"/>
+      <c r="CH7" s="163"/>
+      <c r="CI7" s="163"/>
+      <c r="CJ7" s="163"/>
+      <c r="CK7" s="163"/>
+      <c r="CL7" s="163"/>
+      <c r="CM7" s="163"/>
+      <c r="CN7" s="163"/>
+      <c r="CO7" s="163"/>
+      <c r="CP7" s="163"/>
+      <c r="CQ7" s="163"/>
+      <c r="CR7" s="163"/>
+      <c r="CS7" s="163"/>
+      <c r="CT7" s="163"/>
+      <c r="CU7" s="163"/>
+      <c r="CV7" s="163"/>
+      <c r="CW7" s="163"/>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="125">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s" s="125">
+      <c r="A8" t="s" s="165">
         <v>88</v>
       </c>
-      <c r="C8" t="s" s="125">
+      <c r="B8" t="s" s="165">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s" s="165">
         <v>29</v>
       </c>
-      <c r="D8" t="s" s="125">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s" s="125">
+      <c r="D8" t="s" s="165">
         <v>89</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="194"/>
-      <c r="P8" s="195"/>
-      <c r="Q8" s="196"/>
-      <c r="R8" s="197"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="199"/>
-      <c r="U8" s="200"/>
-      <c r="V8" s="201"/>
-      <c r="W8" s="202"/>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="205"/>
-      <c r="AA8" s="206"/>
-      <c r="AB8" s="207"/>
-      <c r="AC8" s="208"/>
-      <c r="AD8" s="209"/>
-      <c r="AE8" s="210"/>
-      <c r="AF8" s="211"/>
-      <c r="AG8" s="212"/>
-      <c r="AH8" s="213"/>
-      <c r="AI8" s="123"/>
-      <c r="AJ8" s="123"/>
-      <c r="AK8" s="123"/>
-      <c r="AL8" s="123"/>
-      <c r="AM8" s="123"/>
-      <c r="AN8" s="123"/>
-      <c r="AO8" s="123"/>
-      <c r="AP8" s="123"/>
-      <c r="AQ8" s="123"/>
-      <c r="AR8" s="123"/>
-      <c r="AS8" s="123"/>
-      <c r="AT8" s="123"/>
-      <c r="AU8" s="123"/>
-      <c r="AV8" s="123"/>
-      <c r="AW8" s="123"/>
-      <c r="AX8" s="123"/>
-      <c r="AY8" s="123"/>
-      <c r="AZ8" s="123"/>
-      <c r="BA8" s="123"/>
-      <c r="BB8" s="123"/>
-      <c r="BC8" s="123"/>
-      <c r="BD8" s="123"/>
-      <c r="BE8" s="123"/>
-      <c r="BF8" s="123"/>
-      <c r="BG8" s="123"/>
-      <c r="BH8" s="123"/>
-      <c r="BI8" s="123"/>
-      <c r="BJ8" s="123"/>
-      <c r="BK8" s="123"/>
-      <c r="BL8" s="123"/>
-      <c r="BM8" s="123"/>
-      <c r="BN8" s="123"/>
-      <c r="BO8" s="123"/>
-      <c r="BP8" s="123"/>
-      <c r="BQ8" s="123"/>
-      <c r="BR8" s="123"/>
-      <c r="BS8" s="123"/>
-      <c r="BT8" s="123"/>
-      <c r="BU8" s="123"/>
-      <c r="BV8" s="123"/>
-      <c r="BW8" s="123"/>
-      <c r="BX8" s="123"/>
-      <c r="BY8" s="123"/>
-      <c r="BZ8" s="123"/>
-      <c r="CA8" s="123"/>
-      <c r="CB8" s="123"/>
-      <c r="CC8" s="123"/>
-      <c r="CD8" s="123"/>
-      <c r="CE8" s="123"/>
-      <c r="CF8" s="123"/>
-      <c r="CG8" s="123"/>
-      <c r="CH8" s="123"/>
-      <c r="CI8" s="123"/>
-      <c r="CJ8" s="123"/>
-      <c r="CK8" s="123"/>
-      <c r="CL8" s="123"/>
-      <c r="CM8" s="123"/>
-      <c r="CN8" s="123"/>
-      <c r="CO8" s="123"/>
-      <c r="CP8" s="123"/>
-      <c r="CQ8" s="123"/>
-      <c r="CR8" s="123"/>
-      <c r="CS8" s="123"/>
-      <c r="CT8" s="123"/>
-      <c r="CU8" s="123"/>
-      <c r="CV8" s="123"/>
-      <c r="CW8" s="123"/>
+      <c r="E8" t="s" s="165">
+        <v>95</v>
+      </c>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="265"/>
+      <c r="U8" s="266"/>
+      <c r="V8" s="267"/>
+      <c r="W8" s="268"/>
+      <c r="X8" s="269"/>
+      <c r="Y8" s="270"/>
+      <c r="Z8" s="271"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="273"/>
+      <c r="AC8" s="274"/>
+      <c r="AD8" s="275"/>
+      <c r="AE8" s="276"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="278"/>
+      <c r="AH8" s="279"/>
+      <c r="AI8" s="280"/>
+      <c r="AJ8" s="281"/>
+      <c r="AK8" s="282"/>
+      <c r="AL8" s="283"/>
+      <c r="AM8" s="284"/>
+      <c r="AN8" s="285"/>
+      <c r="AO8" s="286"/>
+      <c r="AP8" s="287"/>
+      <c r="AQ8" s="288"/>
+      <c r="AR8" s="289"/>
+      <c r="AS8" s="290"/>
+      <c r="AT8" s="291"/>
+      <c r="AU8" s="292"/>
+      <c r="AV8" s="293"/>
+      <c r="AW8" s="294"/>
+      <c r="AX8" s="295"/>
+      <c r="AY8" s="296"/>
+      <c r="AZ8" s="297"/>
+      <c r="BA8" s="298"/>
+      <c r="BB8" s="299"/>
+      <c r="BC8" s="300"/>
+      <c r="BD8" s="301"/>
+      <c r="BE8" s="302"/>
+      <c r="BF8" s="303"/>
+      <c r="BG8" s="304"/>
+      <c r="BH8" s="305"/>
+      <c r="BI8" s="163"/>
+      <c r="BJ8" s="163"/>
+      <c r="BK8" s="163"/>
+      <c r="BL8" s="163"/>
+      <c r="BM8" s="163"/>
+      <c r="BN8" s="163"/>
+      <c r="BO8" s="163"/>
+      <c r="BP8" s="163"/>
+      <c r="BQ8" s="163"/>
+      <c r="BR8" s="163"/>
+      <c r="BS8" s="163"/>
+      <c r="BT8" s="163"/>
+      <c r="BU8" s="163"/>
+      <c r="BV8" s="163"/>
+      <c r="BW8" s="163"/>
+      <c r="BX8" s="163"/>
+      <c r="BY8" s="163"/>
+      <c r="BZ8" s="163"/>
+      <c r="CA8" s="163"/>
+      <c r="CB8" s="163"/>
+      <c r="CC8" s="163"/>
+      <c r="CD8" s="163"/>
+      <c r="CE8" s="163"/>
+      <c r="CF8" s="163"/>
+      <c r="CG8" s="163"/>
+      <c r="CH8" s="163"/>
+      <c r="CI8" s="163"/>
+      <c r="CJ8" s="163"/>
+      <c r="CK8" s="163"/>
+      <c r="CL8" s="163"/>
+      <c r="CM8" s="163"/>
+      <c r="CN8" s="163"/>
+      <c r="CO8" s="163"/>
+      <c r="CP8" s="163"/>
+      <c r="CQ8" s="163"/>
+      <c r="CR8" s="163"/>
+      <c r="CS8" s="163"/>
+      <c r="CT8" s="163"/>
+      <c r="CU8" s="163"/>
+      <c r="CV8" s="163"/>
+      <c r="CW8" s="163"/>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="125">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s" s="125">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s" s="125">
+      <c r="A9" t="s" s="165">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s" s="165">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="165">
         <v>30</v>
       </c>
-      <c r="D9" t="s" s="125">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s" s="125">
-        <v>91</v>
-      </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="216"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="219"/>
-      <c r="R9" s="220"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="222"/>
-      <c r="U9" s="223"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="225"/>
-      <c r="X9" s="226"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="228"/>
-      <c r="AA9" s="229"/>
-      <c r="AB9" s="230"/>
-      <c r="AC9" s="231"/>
-      <c r="AD9" s="232"/>
-      <c r="AE9" s="233"/>
-      <c r="AF9" s="234"/>
-      <c r="AG9" s="235"/>
-      <c r="AH9" s="236"/>
-      <c r="AI9" s="237"/>
-      <c r="AJ9" s="123"/>
-      <c r="AK9" s="123"/>
-      <c r="AL9" s="123"/>
-      <c r="AM9" s="123"/>
-      <c r="AN9" s="123"/>
-      <c r="AO9" s="123"/>
-      <c r="AP9" s="123"/>
-      <c r="AQ9" s="123"/>
-      <c r="AR9" s="123"/>
-      <c r="AS9" s="123"/>
-      <c r="AT9" s="123"/>
-      <c r="AU9" s="123"/>
-      <c r="AV9" s="123"/>
-      <c r="AW9" s="123"/>
-      <c r="AX9" s="123"/>
-      <c r="AY9" s="123"/>
-      <c r="AZ9" s="123"/>
-      <c r="BA9" s="123"/>
-      <c r="BB9" s="123"/>
-      <c r="BC9" s="123"/>
-      <c r="BD9" s="123"/>
-      <c r="BE9" s="123"/>
-      <c r="BF9" s="123"/>
-      <c r="BG9" s="123"/>
-      <c r="BH9" s="123"/>
-      <c r="BI9" s="123"/>
-      <c r="BJ9" s="123"/>
-      <c r="BK9" s="123"/>
-      <c r="BL9" s="123"/>
-      <c r="BM9" s="123"/>
-      <c r="BN9" s="123"/>
-      <c r="BO9" s="123"/>
-      <c r="BP9" s="123"/>
-      <c r="BQ9" s="123"/>
-      <c r="BR9" s="123"/>
-      <c r="BS9" s="123"/>
-      <c r="BT9" s="123"/>
-      <c r="BU9" s="123"/>
-      <c r="BV9" s="123"/>
-      <c r="BW9" s="123"/>
-      <c r="BX9" s="123"/>
-      <c r="BY9" s="123"/>
-      <c r="BZ9" s="123"/>
-      <c r="CA9" s="123"/>
-      <c r="CB9" s="123"/>
-      <c r="CC9" s="123"/>
-      <c r="CD9" s="123"/>
-      <c r="CE9" s="123"/>
-      <c r="CF9" s="123"/>
-      <c r="CG9" s="123"/>
-      <c r="CH9" s="123"/>
-      <c r="CI9" s="123"/>
-      <c r="CJ9" s="123"/>
-      <c r="CK9" s="123"/>
-      <c r="CL9" s="123"/>
-      <c r="CM9" s="123"/>
-      <c r="CN9" s="123"/>
-      <c r="CO9" s="123"/>
-      <c r="CP9" s="123"/>
-      <c r="CQ9" s="123"/>
-      <c r="CR9" s="123"/>
-      <c r="CS9" s="123"/>
-      <c r="CT9" s="123"/>
-      <c r="CU9" s="123"/>
-      <c r="CV9" s="123"/>
-      <c r="CW9" s="123"/>
+      <c r="D9" t="s" s="165">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s" s="165">
+        <v>97</v>
+      </c>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="306"/>
+      <c r="Q9" s="307"/>
+      <c r="R9" s="308"/>
+      <c r="S9" s="309"/>
+      <c r="T9" s="310"/>
+      <c r="U9" s="311"/>
+      <c r="V9" s="312"/>
+      <c r="W9" s="313"/>
+      <c r="X9" s="314"/>
+      <c r="Y9" s="315"/>
+      <c r="Z9" s="316"/>
+      <c r="AA9" s="317"/>
+      <c r="AB9" s="318"/>
+      <c r="AC9" s="319"/>
+      <c r="AD9" s="320"/>
+      <c r="AE9" s="321"/>
+      <c r="AF9" s="322"/>
+      <c r="AG9" s="323"/>
+      <c r="AH9" s="324"/>
+      <c r="AI9" s="325"/>
+      <c r="AJ9" s="326"/>
+      <c r="AK9" s="327"/>
+      <c r="AL9" s="328"/>
+      <c r="AM9" s="329"/>
+      <c r="AN9" s="330"/>
+      <c r="AO9" s="331"/>
+      <c r="AP9" s="332"/>
+      <c r="AQ9" s="333"/>
+      <c r="AR9" s="334"/>
+      <c r="AS9" s="335"/>
+      <c r="AT9" s="336"/>
+      <c r="AU9" s="337"/>
+      <c r="AV9" s="338"/>
+      <c r="AW9" s="339"/>
+      <c r="AX9" s="340"/>
+      <c r="AY9" s="341"/>
+      <c r="AZ9" s="342"/>
+      <c r="BA9" s="343"/>
+      <c r="BB9" s="344"/>
+      <c r="BC9" s="345"/>
+      <c r="BD9" s="346"/>
+      <c r="BE9" s="347"/>
+      <c r="BF9" s="348"/>
+      <c r="BG9" s="349"/>
+      <c r="BH9" s="350"/>
+      <c r="BI9" s="163"/>
+      <c r="BJ9" s="163"/>
+      <c r="BK9" s="163"/>
+      <c r="BL9" s="163"/>
+      <c r="BM9" s="163"/>
+      <c r="BN9" s="163"/>
+      <c r="BO9" s="163"/>
+      <c r="BP9" s="163"/>
+      <c r="BQ9" s="163"/>
+      <c r="BR9" s="163"/>
+      <c r="BS9" s="163"/>
+      <c r="BT9" s="163"/>
+      <c r="BU9" s="163"/>
+      <c r="BV9" s="163"/>
+      <c r="BW9" s="163"/>
+      <c r="BX9" s="163"/>
+      <c r="BY9" s="163"/>
+      <c r="BZ9" s="163"/>
+      <c r="CA9" s="163"/>
+      <c r="CB9" s="163"/>
+      <c r="CC9" s="163"/>
+      <c r="CD9" s="163"/>
+      <c r="CE9" s="163"/>
+      <c r="CF9" s="163"/>
+      <c r="CG9" s="163"/>
+      <c r="CH9" s="163"/>
+      <c r="CI9" s="163"/>
+      <c r="CJ9" s="163"/>
+      <c r="CK9" s="163"/>
+      <c r="CL9" s="163"/>
+      <c r="CM9" s="163"/>
+      <c r="CN9" s="163"/>
+      <c r="CO9" s="163"/>
+      <c r="CP9" s="163"/>
+      <c r="CQ9" s="163"/>
+      <c r="CR9" s="163"/>
+      <c r="CS9" s="163"/>
+      <c r="CT9" s="163"/>
+      <c r="CU9" s="163"/>
+      <c r="CV9" s="163"/>
+      <c r="CW9" s="163"/>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="125">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s" s="125">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s" s="125">
+      <c r="A10" t="s" s="165">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s" s="165">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s" s="165">
         <v>31</v>
       </c>
-      <c r="D10" t="s" s="125">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s" s="125">
-        <v>93</v>
-      </c>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="239"/>
-      <c r="N10" s="240"/>
-      <c r="O10" s="241"/>
-      <c r="P10" s="242"/>
-      <c r="Q10" s="243"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="245"/>
-      <c r="T10" s="246"/>
-      <c r="U10" s="247"/>
-      <c r="V10" s="248"/>
-      <c r="W10" s="249"/>
-      <c r="X10" s="250"/>
-      <c r="Y10" s="251"/>
-      <c r="Z10" s="252"/>
-      <c r="AA10" s="253"/>
-      <c r="AB10" s="254"/>
-      <c r="AC10" s="255"/>
-      <c r="AD10" s="256"/>
-      <c r="AE10" s="257"/>
-      <c r="AF10" s="258"/>
-      <c r="AG10" s="259"/>
-      <c r="AH10" s="260"/>
-      <c r="AI10" s="261"/>
-      <c r="AJ10" s="123"/>
-      <c r="AK10" s="123"/>
-      <c r="AL10" s="123"/>
-      <c r="AM10" s="123"/>
-      <c r="AN10" s="123"/>
-      <c r="AO10" s="123"/>
-      <c r="AP10" s="123"/>
-      <c r="AQ10" s="123"/>
-      <c r="AR10" s="123"/>
-      <c r="AS10" s="123"/>
-      <c r="AT10" s="123"/>
-      <c r="AU10" s="123"/>
-      <c r="AV10" s="123"/>
-      <c r="AW10" s="123"/>
-      <c r="AX10" s="123"/>
-      <c r="AY10" s="123"/>
-      <c r="AZ10" s="123"/>
-      <c r="BA10" s="123"/>
-      <c r="BB10" s="123"/>
-      <c r="BC10" s="123"/>
-      <c r="BD10" s="123"/>
-      <c r="BE10" s="123"/>
-      <c r="BF10" s="123"/>
-      <c r="BG10" s="123"/>
-      <c r="BH10" s="123"/>
-      <c r="BI10" s="123"/>
-      <c r="BJ10" s="123"/>
-      <c r="BK10" s="123"/>
-      <c r="BL10" s="123"/>
-      <c r="BM10" s="123"/>
-      <c r="BN10" s="123"/>
-      <c r="BO10" s="123"/>
-      <c r="BP10" s="123"/>
-      <c r="BQ10" s="123"/>
-      <c r="BR10" s="123"/>
-      <c r="BS10" s="123"/>
-      <c r="BT10" s="123"/>
-      <c r="BU10" s="123"/>
-      <c r="BV10" s="123"/>
-      <c r="BW10" s="123"/>
-      <c r="BX10" s="123"/>
-      <c r="BY10" s="123"/>
-      <c r="BZ10" s="123"/>
-      <c r="CA10" s="123"/>
-      <c r="CB10" s="123"/>
-      <c r="CC10" s="123"/>
-      <c r="CD10" s="123"/>
-      <c r="CE10" s="123"/>
-      <c r="CF10" s="123"/>
-      <c r="CG10" s="123"/>
-      <c r="CH10" s="123"/>
-      <c r="CI10" s="123"/>
-      <c r="CJ10" s="123"/>
-      <c r="CK10" s="123"/>
-      <c r="CL10" s="123"/>
-      <c r="CM10" s="123"/>
-      <c r="CN10" s="123"/>
-      <c r="CO10" s="123"/>
-      <c r="CP10" s="123"/>
-      <c r="CQ10" s="123"/>
-      <c r="CR10" s="123"/>
-      <c r="CS10" s="123"/>
-      <c r="CT10" s="123"/>
-      <c r="CU10" s="123"/>
-      <c r="CV10" s="123"/>
-      <c r="CW10" s="123"/>
+      <c r="D10" t="s" s="165">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s" s="165">
+        <v>99</v>
+      </c>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="351"/>
+      <c r="S10" s="352"/>
+      <c r="T10" s="353"/>
+      <c r="U10" s="354"/>
+      <c r="V10" s="355"/>
+      <c r="W10" s="356"/>
+      <c r="X10" s="357"/>
+      <c r="Y10" s="358"/>
+      <c r="Z10" s="359"/>
+      <c r="AA10" s="360"/>
+      <c r="AB10" s="361"/>
+      <c r="AC10" s="362"/>
+      <c r="AD10" s="363"/>
+      <c r="AE10" s="364"/>
+      <c r="AF10" s="365"/>
+      <c r="AG10" s="366"/>
+      <c r="AH10" s="367"/>
+      <c r="AI10" s="368"/>
+      <c r="AJ10" s="369"/>
+      <c r="AK10" s="370"/>
+      <c r="AL10" s="371"/>
+      <c r="AM10" s="372"/>
+      <c r="AN10" s="373"/>
+      <c r="AO10" s="374"/>
+      <c r="AP10" s="375"/>
+      <c r="AQ10" s="376"/>
+      <c r="AR10" s="377"/>
+      <c r="AS10" s="378"/>
+      <c r="AT10" s="379"/>
+      <c r="AU10" s="380"/>
+      <c r="AV10" s="381"/>
+      <c r="AW10" s="382"/>
+      <c r="AX10" s="383"/>
+      <c r="AY10" s="384"/>
+      <c r="AZ10" s="385"/>
+      <c r="BA10" s="386"/>
+      <c r="BB10" s="387"/>
+      <c r="BC10" s="388"/>
+      <c r="BD10" s="389"/>
+      <c r="BE10" s="390"/>
+      <c r="BF10" s="391"/>
+      <c r="BG10" s="392"/>
+      <c r="BH10" s="393"/>
+      <c r="BI10" s="394"/>
+      <c r="BJ10" s="163"/>
+      <c r="BK10" s="163"/>
+      <c r="BL10" s="163"/>
+      <c r="BM10" s="163"/>
+      <c r="BN10" s="163"/>
+      <c r="BO10" s="163"/>
+      <c r="BP10" s="163"/>
+      <c r="BQ10" s="163"/>
+      <c r="BR10" s="163"/>
+      <c r="BS10" s="163"/>
+      <c r="BT10" s="163"/>
+      <c r="BU10" s="163"/>
+      <c r="BV10" s="163"/>
+      <c r="BW10" s="163"/>
+      <c r="BX10" s="163"/>
+      <c r="BY10" s="163"/>
+      <c r="BZ10" s="163"/>
+      <c r="CA10" s="163"/>
+      <c r="CB10" s="163"/>
+      <c r="CC10" s="163"/>
+      <c r="CD10" s="163"/>
+      <c r="CE10" s="163"/>
+      <c r="CF10" s="163"/>
+      <c r="CG10" s="163"/>
+      <c r="CH10" s="163"/>
+      <c r="CI10" s="163"/>
+      <c r="CJ10" s="163"/>
+      <c r="CK10" s="163"/>
+      <c r="CL10" s="163"/>
+      <c r="CM10" s="163"/>
+      <c r="CN10" s="163"/>
+      <c r="CO10" s="163"/>
+      <c r="CP10" s="163"/>
+      <c r="CQ10" s="163"/>
+      <c r="CR10" s="163"/>
+      <c r="CS10" s="163"/>
+      <c r="CT10" s="163"/>
+      <c r="CU10" s="163"/>
+      <c r="CV10" s="163"/>
+      <c r="CW10" s="163"/>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="125">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s" s="125">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s" s="125">
-        <v>95</v>
-      </c>
-      <c r="D11" t="s" s="125">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s" s="125">
+      <c r="A11" t="s" s="165">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s" s="165">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s" s="165">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s" s="165">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s" s="165">
         <v>55</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="123"/>
-      <c r="AI11" s="123"/>
-      <c r="AJ11" s="123"/>
-      <c r="AK11" s="123"/>
-      <c r="AL11" s="123"/>
-      <c r="AM11" s="123"/>
-      <c r="AN11" s="123"/>
-      <c r="AO11" s="262"/>
-      <c r="AP11" s="123"/>
-      <c r="AQ11" s="123"/>
-      <c r="AR11" s="123"/>
-      <c r="AS11" s="123"/>
-      <c r="AT11" s="123"/>
-      <c r="AU11" s="123"/>
-      <c r="AV11" s="123"/>
-      <c r="AW11" s="123"/>
-      <c r="AX11" s="123"/>
-      <c r="AY11" s="123"/>
-      <c r="AZ11" s="123"/>
-      <c r="BA11" s="123"/>
-      <c r="BB11" s="123"/>
-      <c r="BC11" s="123"/>
-      <c r="BD11" s="123"/>
-      <c r="BE11" s="123"/>
-      <c r="BF11" s="123"/>
-      <c r="BG11" s="123"/>
-      <c r="BH11" s="123"/>
-      <c r="BI11" s="123"/>
-      <c r="BJ11" s="123"/>
-      <c r="BK11" s="123"/>
-      <c r="BL11" s="123"/>
-      <c r="BM11" s="123"/>
-      <c r="BN11" s="123"/>
-      <c r="BO11" s="123"/>
-      <c r="BP11" s="123"/>
-      <c r="BQ11" s="123"/>
-      <c r="BR11" s="123"/>
-      <c r="BS11" s="123"/>
-      <c r="BT11" s="123"/>
-      <c r="BU11" s="123"/>
-      <c r="BV11" s="123"/>
-      <c r="BW11" s="123"/>
-      <c r="BX11" s="123"/>
-      <c r="BY11" s="123"/>
-      <c r="BZ11" s="123"/>
-      <c r="CA11" s="123"/>
-      <c r="CB11" s="123"/>
-      <c r="CC11" s="123"/>
-      <c r="CD11" s="123"/>
-      <c r="CE11" s="123"/>
-      <c r="CF11" s="123"/>
-      <c r="CG11" s="123"/>
-      <c r="CH11" s="123"/>
-      <c r="CI11" s="123"/>
-      <c r="CJ11" s="123"/>
-      <c r="CK11" s="123"/>
-      <c r="CL11" s="123"/>
-      <c r="CM11" s="123"/>
-      <c r="CN11" s="123"/>
-      <c r="CO11" s="123"/>
-      <c r="CP11" s="123"/>
-      <c r="CQ11" s="123"/>
-      <c r="CR11" s="123"/>
-      <c r="CS11" s="123"/>
-      <c r="CT11" s="123"/>
-      <c r="CU11" s="123"/>
-      <c r="CV11" s="123"/>
-      <c r="CW11" s="123"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="163"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="163"/>
+      <c r="Y11" s="163"/>
+      <c r="Z11" s="163"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="163"/>
+      <c r="AI11" s="163"/>
+      <c r="AJ11" s="163"/>
+      <c r="AK11" s="163"/>
+      <c r="AL11" s="163"/>
+      <c r="AM11" s="163"/>
+      <c r="AN11" s="163"/>
+      <c r="AO11" s="163"/>
+      <c r="AP11" s="163"/>
+      <c r="AQ11" s="163"/>
+      <c r="AR11" s="163"/>
+      <c r="AS11" s="163"/>
+      <c r="AT11" s="163"/>
+      <c r="AU11" s="163"/>
+      <c r="AV11" s="163"/>
+      <c r="AW11" s="163"/>
+      <c r="AX11" s="163"/>
+      <c r="AY11" s="163"/>
+      <c r="AZ11" s="163"/>
+      <c r="BA11" s="163"/>
+      <c r="BB11" s="163"/>
+      <c r="BC11" s="163"/>
+      <c r="BD11" s="163"/>
+      <c r="BE11" s="163"/>
+      <c r="BF11" s="163"/>
+      <c r="BG11" s="163"/>
+      <c r="BH11" s="163"/>
+      <c r="BI11" s="163"/>
+      <c r="BJ11" s="163"/>
+      <c r="BK11" s="163"/>
+      <c r="BL11" s="163"/>
+      <c r="BM11" s="163"/>
+      <c r="BN11" s="163"/>
+      <c r="BO11" s="163"/>
+      <c r="BP11" s="163"/>
+      <c r="BQ11" s="163"/>
+      <c r="BR11" s="163"/>
+      <c r="BS11" s="163"/>
+      <c r="BT11" s="163"/>
+      <c r="BU11" s="163"/>
+      <c r="BV11" s="163"/>
+      <c r="BW11" s="163"/>
+      <c r="BX11" s="163"/>
+      <c r="BY11" s="163"/>
+      <c r="BZ11" s="163"/>
+      <c r="CA11" s="163"/>
+      <c r="CB11" s="163"/>
+      <c r="CC11" s="163"/>
+      <c r="CD11" s="163"/>
+      <c r="CE11" s="163"/>
+      <c r="CF11" s="163"/>
+      <c r="CG11" s="163"/>
+      <c r="CH11" s="163"/>
+      <c r="CI11" s="163"/>
+      <c r="CJ11" s="163"/>
+      <c r="CK11" s="163"/>
+      <c r="CL11" s="163"/>
+      <c r="CM11" s="163"/>
+      <c r="CN11" s="163"/>
+      <c r="CO11" s="163"/>
+      <c r="CP11" s="163"/>
+      <c r="CQ11" s="163"/>
+      <c r="CR11" s="163"/>
+      <c r="CS11" s="163"/>
+      <c r="CT11" s="163"/>
+      <c r="CU11" s="163"/>
+      <c r="CV11" s="163"/>
+      <c r="CW11" s="163"/>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="125">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s" s="125">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s" s="125">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s" s="125">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s" s="125">
-        <v>98</v>
-      </c>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="264"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="267"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="269"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="271"/>
-      <c r="T12" s="272"/>
-      <c r="U12" s="273"/>
-      <c r="V12" s="274"/>
-      <c r="W12" s="275"/>
-      <c r="X12" s="276"/>
-      <c r="Y12" s="277"/>
-      <c r="Z12" s="278"/>
-      <c r="AA12" s="279"/>
-      <c r="AB12" s="280"/>
-      <c r="AC12" s="281"/>
-      <c r="AD12" s="282"/>
-      <c r="AE12" s="283"/>
-      <c r="AF12" s="284"/>
-      <c r="AG12" s="285"/>
-      <c r="AH12" s="286"/>
-      <c r="AI12" s="123"/>
-      <c r="AJ12" s="123"/>
-      <c r="AK12" s="123"/>
-      <c r="AL12" s="123"/>
-      <c r="AM12" s="123"/>
-      <c r="AN12" s="123"/>
-      <c r="AO12" s="123"/>
-      <c r="AP12" s="123"/>
-      <c r="AQ12" s="123"/>
-      <c r="AR12" s="123"/>
-      <c r="AS12" s="123"/>
-      <c r="AT12" s="123"/>
-      <c r="AU12" s="123"/>
-      <c r="AV12" s="123"/>
-      <c r="AW12" s="123"/>
-      <c r="AX12" s="123"/>
-      <c r="AY12" s="123"/>
-      <c r="AZ12" s="123"/>
-      <c r="BA12" s="123"/>
-      <c r="BB12" s="123"/>
-      <c r="BC12" s="123"/>
-      <c r="BD12" s="123"/>
-      <c r="BE12" s="123"/>
-      <c r="BF12" s="123"/>
-      <c r="BG12" s="123"/>
-      <c r="BH12" s="123"/>
-      <c r="BI12" s="123"/>
-      <c r="BJ12" s="123"/>
-      <c r="BK12" s="123"/>
-      <c r="BL12" s="123"/>
-      <c r="BM12" s="123"/>
-      <c r="BN12" s="123"/>
-      <c r="BO12" s="123"/>
-      <c r="BP12" s="123"/>
-      <c r="BQ12" s="123"/>
-      <c r="BR12" s="123"/>
-      <c r="BS12" s="123"/>
-      <c r="BT12" s="123"/>
-      <c r="BU12" s="123"/>
-      <c r="BV12" s="123"/>
-      <c r="BW12" s="123"/>
-      <c r="BX12" s="123"/>
-      <c r="BY12" s="123"/>
-      <c r="BZ12" s="123"/>
-      <c r="CA12" s="123"/>
-      <c r="CB12" s="123"/>
-      <c r="CC12" s="123"/>
-      <c r="CD12" s="123"/>
-      <c r="CE12" s="123"/>
-      <c r="CF12" s="123"/>
-      <c r="CG12" s="123"/>
-      <c r="CH12" s="123"/>
-      <c r="CI12" s="123"/>
-      <c r="CJ12" s="123"/>
-      <c r="CK12" s="123"/>
-      <c r="CL12" s="123"/>
-      <c r="CM12" s="123"/>
-      <c r="CN12" s="123"/>
-      <c r="CO12" s="123"/>
-      <c r="CP12" s="123"/>
-      <c r="CQ12" s="123"/>
-      <c r="CR12" s="123"/>
-      <c r="CS12" s="123"/>
-      <c r="CT12" s="123"/>
-      <c r="CU12" s="123"/>
-      <c r="CV12" s="123"/>
-      <c r="CW12" s="123"/>
+      <c r="A12" t="s" s="165">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s" s="165">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s" s="165">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s" s="165">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s" s="165">
+        <v>104</v>
+      </c>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="395"/>
+      <c r="P12" s="396"/>
+      <c r="Q12" s="397"/>
+      <c r="R12" s="398"/>
+      <c r="S12" s="399"/>
+      <c r="T12" s="400"/>
+      <c r="U12" s="401"/>
+      <c r="V12" s="402"/>
+      <c r="W12" s="403"/>
+      <c r="X12" s="404"/>
+      <c r="Y12" s="405"/>
+      <c r="Z12" s="406"/>
+      <c r="AA12" s="407"/>
+      <c r="AB12" s="408"/>
+      <c r="AC12" s="409"/>
+      <c r="AD12" s="410"/>
+      <c r="AE12" s="411"/>
+      <c r="AF12" s="412"/>
+      <c r="AG12" s="413"/>
+      <c r="AH12" s="414"/>
+      <c r="AI12" s="415"/>
+      <c r="AJ12" s="416"/>
+      <c r="AK12" s="417"/>
+      <c r="AL12" s="418"/>
+      <c r="AM12" s="419"/>
+      <c r="AN12" s="420"/>
+      <c r="AO12" s="421"/>
+      <c r="AP12" s="422"/>
+      <c r="AQ12" s="423"/>
+      <c r="AR12" s="424"/>
+      <c r="AS12" s="425"/>
+      <c r="AT12" s="426"/>
+      <c r="AU12" s="427"/>
+      <c r="AV12" s="428"/>
+      <c r="AW12" s="429"/>
+      <c r="AX12" s="430"/>
+      <c r="AY12" s="431"/>
+      <c r="AZ12" s="432"/>
+      <c r="BA12" s="433"/>
+      <c r="BB12" s="434"/>
+      <c r="BC12" s="435"/>
+      <c r="BD12" s="436"/>
+      <c r="BE12" s="437"/>
+      <c r="BF12" s="438"/>
+      <c r="BG12" s="439"/>
+      <c r="BH12" s="440"/>
+      <c r="BI12" s="441"/>
+      <c r="BJ12" s="163"/>
+      <c r="BK12" s="163"/>
+      <c r="BL12" s="163"/>
+      <c r="BM12" s="163"/>
+      <c r="BN12" s="163"/>
+      <c r="BO12" s="163"/>
+      <c r="BP12" s="163"/>
+      <c r="BQ12" s="163"/>
+      <c r="BR12" s="163"/>
+      <c r="BS12" s="163"/>
+      <c r="BT12" s="163"/>
+      <c r="BU12" s="163"/>
+      <c r="BV12" s="163"/>
+      <c r="BW12" s="163"/>
+      <c r="BX12" s="163"/>
+      <c r="BY12" s="163"/>
+      <c r="BZ12" s="163"/>
+      <c r="CA12" s="163"/>
+      <c r="CB12" s="163"/>
+      <c r="CC12" s="163"/>
+      <c r="CD12" s="163"/>
+      <c r="CE12" s="163"/>
+      <c r="CF12" s="163"/>
+      <c r="CG12" s="163"/>
+      <c r="CH12" s="163"/>
+      <c r="CI12" s="163"/>
+      <c r="CJ12" s="163"/>
+      <c r="CK12" s="163"/>
+      <c r="CL12" s="163"/>
+      <c r="CM12" s="163"/>
+      <c r="CN12" s="163"/>
+      <c r="CO12" s="163"/>
+      <c r="CP12" s="163"/>
+      <c r="CQ12" s="163"/>
+      <c r="CR12" s="163"/>
+      <c r="CS12" s="163"/>
+      <c r="CT12" s="163"/>
+      <c r="CU12" s="163"/>
+      <c r="CV12" s="163"/>
+      <c r="CW12" s="163"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -4399,20 +4399,10 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4426,10 +4416,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4441,15 +4464,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4459,20 +4473,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4790,30 +4790,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7503,13 +7503,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="32" customWidth="1"/>
-    <col min="6" max="53" width="3.28515625" style="32" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="14.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" style="32" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.140625" style="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="53" width="3.28515625" style="32" customWidth="1" collapsed="1"/>
+    <col min="54" max="16384" width="9.140625" style="32" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
@@ -7521,63 +7521,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="137"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="138"/>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -7595,102 +7595,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="139">
+      <c r="F3" s="143">
         <v>7</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139">
+      <c r="G3" s="143"/>
+      <c r="H3" s="143">
         <v>8</v>
       </c>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139">
+      <c r="I3" s="143"/>
+      <c r="J3" s="143">
         <v>9</v>
       </c>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139">
+      <c r="K3" s="143"/>
+      <c r="L3" s="143">
         <v>10</v>
       </c>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139">
+      <c r="M3" s="143"/>
+      <c r="N3" s="143">
         <v>11</v>
       </c>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139">
+      <c r="O3" s="143"/>
+      <c r="P3" s="143">
         <v>12</v>
       </c>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139">
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143">
         <v>13</v>
       </c>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139">
+      <c r="S3" s="143"/>
+      <c r="T3" s="143">
         <v>14</v>
       </c>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139">
+      <c r="U3" s="143"/>
+      <c r="V3" s="143">
         <v>15</v>
       </c>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139">
+      <c r="W3" s="143"/>
+      <c r="X3" s="143">
         <v>16</v>
       </c>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="146">
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="145">
         <v>17</v>
       </c>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146">
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145">
         <v>18</v>
       </c>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="139">
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="143">
         <v>19</v>
       </c>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139">
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143">
         <v>20</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139">
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143">
         <v>21</v>
       </c>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139">
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143">
         <v>22</v>
       </c>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139">
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143">
         <v>23</v>
       </c>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="139">
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143">
         <v>24</v>
       </c>
-      <c r="AO3" s="139"/>
-      <c r="AP3" s="139">
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="143">
         <v>1</v>
       </c>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139">
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143">
         <v>2</v>
       </c>
-      <c r="AS3" s="139"/>
-      <c r="AT3" s="139">
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="143">
         <v>3</v>
       </c>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139">
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143">
         <v>4</v>
       </c>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139">
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143">
         <v>5</v>
       </c>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139">
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143">
         <v>6</v>
       </c>
-      <c r="BA3" s="140"/>
+      <c r="BA3" s="148"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -7750,7 +7750,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="139" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -7817,7 +7817,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="144"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -7884,7 +7884,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="142"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -7949,7 +7949,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="141" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -8016,7 +8016,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="145"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -8079,7 +8079,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="139" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -8144,7 +8144,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="142"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -8203,7 +8203,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="141" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -8272,7 +8272,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -8404,7 +8404,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -8467,7 +8467,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
+      <c r="A16" s="142"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
+      <c r="A17" s="142"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="142"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -8658,7 +8658,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="141" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -8725,7 +8725,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
+      <c r="A20" s="142"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="142"/>
+      <c r="A21" s="140"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -9311,6 +9311,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -9327,21 +9342,6 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -9361,73 +9361,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="32" customWidth="1"/>
-    <col min="6" max="53" width="3.28515625" style="32" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="14.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" style="32" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.140625" style="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="53" width="3.28515625" style="32" customWidth="1" collapsed="1"/>
+    <col min="54" max="16384" width="9.140625" style="32" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="137"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="138"/>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -9445,102 +9445,102 @@
       <c r="E3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="139">
+      <c r="F3" s="143">
         <v>7</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139">
+      <c r="G3" s="143"/>
+      <c r="H3" s="143">
         <v>8</v>
       </c>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139">
+      <c r="I3" s="143"/>
+      <c r="J3" s="143">
         <v>9</v>
       </c>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139">
+      <c r="K3" s="143"/>
+      <c r="L3" s="143">
         <v>10</v>
       </c>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139">
+      <c r="M3" s="143"/>
+      <c r="N3" s="143">
         <v>11</v>
       </c>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139">
+      <c r="O3" s="143"/>
+      <c r="P3" s="143">
         <v>12</v>
       </c>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139">
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143">
         <v>13</v>
       </c>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139">
+      <c r="S3" s="143"/>
+      <c r="T3" s="143">
         <v>14</v>
       </c>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139">
+      <c r="U3" s="143"/>
+      <c r="V3" s="143">
         <v>15</v>
       </c>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139">
+      <c r="W3" s="143"/>
+      <c r="X3" s="143">
         <v>16</v>
       </c>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="146">
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="145">
         <v>17</v>
       </c>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146">
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145">
         <v>18</v>
       </c>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="139">
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="143">
         <v>19</v>
       </c>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139">
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143">
         <v>20</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139">
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143">
         <v>21</v>
       </c>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139">
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143">
         <v>22</v>
       </c>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139">
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143">
         <v>23</v>
       </c>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="139">
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143">
         <v>24</v>
       </c>
-      <c r="AO3" s="139"/>
-      <c r="AP3" s="139">
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="143">
         <v>1</v>
       </c>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139">
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143">
         <v>2</v>
       </c>
-      <c r="AS3" s="139"/>
-      <c r="AT3" s="139">
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="143">
         <v>3</v>
       </c>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139">
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143">
         <v>4</v>
       </c>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139">
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143">
         <v>5</v>
       </c>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139">
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143">
         <v>6</v>
       </c>
-      <c r="BA3" s="140"/>
+      <c r="BA3" s="148"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -9600,7 +9600,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="139" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -9667,7 +9667,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="144"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -9732,7 +9732,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="144"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -9797,7 +9797,7 @@
       <c r="BA7" s="51"/>
     </row>
     <row r="8" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="144"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -9862,7 +9862,7 @@
       <c r="BA8" s="51"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
+      <c r="A9" s="142"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -9927,7 +9927,7 @@
       <c r="BA9" s="51"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="144"/>
+      <c r="A10" s="142"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -9992,7 +9992,7 @@
       <c r="BA10" s="51"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="145"/>
+      <c r="A11" s="144"/>
       <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
@@ -10055,7 +10055,7 @@
       <c r="BA11" s="70"/>
     </row>
     <row r="12" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="139" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="124" t="s">
@@ -10122,7 +10122,7 @@
       <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
@@ -10256,7 +10256,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -10685,16 +10685,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="AJ3:AK3"/>
@@ -10706,11 +10696,21 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="AT3:AU3"/>
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AX3:AY3"/>
     <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="A5:A11"/>
     <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="AR3:AS3"/>
   </mergeCells>
@@ -10732,73 +10732,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="32" customWidth="1"/>
-    <col min="6" max="101" width="1.42578125" style="32" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="14.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" style="32" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.140625" style="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="101" width="1.42578125" style="32" customWidth="1" collapsed="1"/>
+    <col min="102" max="16384" width="9.140625" style="32" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:101" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="137"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="138"/>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="s">
@@ -10816,150 +10816,150 @@
       <c r="E3" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="147">
+      <c r="F3" s="156">
         <v>7</v>
       </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="150">
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="149">
         <v>8</v>
       </c>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="150">
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="149">
         <v>9</v>
       </c>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="150">
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="149">
         <v>10</v>
       </c>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="150">
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="149">
         <v>11</v>
       </c>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153">
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="159">
         <v>12</v>
       </c>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="150">
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="149">
         <v>13</v>
       </c>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="151"/>
-      <c r="AG3" s="152"/>
-      <c r="AH3" s="150">
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="149">
         <v>14</v>
       </c>
-      <c r="AI3" s="151"/>
-      <c r="AJ3" s="151"/>
-      <c r="AK3" s="152"/>
-      <c r="AL3" s="150">
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="151"/>
+      <c r="AL3" s="149">
         <v>15</v>
       </c>
-      <c r="AM3" s="151"/>
-      <c r="AN3" s="151"/>
-      <c r="AO3" s="152"/>
-      <c r="AP3" s="150">
+      <c r="AM3" s="150"/>
+      <c r="AN3" s="150"/>
+      <c r="AO3" s="151"/>
+      <c r="AP3" s="149">
         <v>16</v>
       </c>
-      <c r="AQ3" s="151"/>
-      <c r="AR3" s="151"/>
-      <c r="AS3" s="152"/>
-      <c r="AT3" s="150">
+      <c r="AQ3" s="150"/>
+      <c r="AR3" s="150"/>
+      <c r="AS3" s="151"/>
+      <c r="AT3" s="149">
         <v>17</v>
       </c>
-      <c r="AU3" s="151"/>
-      <c r="AV3" s="151"/>
-      <c r="AW3" s="152"/>
-      <c r="AX3" s="150">
+      <c r="AU3" s="150"/>
+      <c r="AV3" s="150"/>
+      <c r="AW3" s="151"/>
+      <c r="AX3" s="149">
         <v>18</v>
       </c>
-      <c r="AY3" s="151"/>
-      <c r="AZ3" s="151"/>
-      <c r="BA3" s="159"/>
-      <c r="BB3" s="147">
+      <c r="AY3" s="150"/>
+      <c r="AZ3" s="150"/>
+      <c r="BA3" s="152"/>
+      <c r="BB3" s="156">
         <v>19</v>
       </c>
-      <c r="BC3" s="148"/>
-      <c r="BD3" s="148"/>
-      <c r="BE3" s="149"/>
-      <c r="BF3" s="150">
+      <c r="BC3" s="157"/>
+      <c r="BD3" s="157"/>
+      <c r="BE3" s="158"/>
+      <c r="BF3" s="149">
         <v>20</v>
       </c>
-      <c r="BG3" s="151"/>
-      <c r="BH3" s="151"/>
-      <c r="BI3" s="152"/>
-      <c r="BJ3" s="150">
+      <c r="BG3" s="150"/>
+      <c r="BH3" s="150"/>
+      <c r="BI3" s="151"/>
+      <c r="BJ3" s="149">
         <v>21</v>
       </c>
-      <c r="BK3" s="151"/>
-      <c r="BL3" s="151"/>
-      <c r="BM3" s="152"/>
-      <c r="BN3" s="150">
+      <c r="BK3" s="150"/>
+      <c r="BL3" s="150"/>
+      <c r="BM3" s="151"/>
+      <c r="BN3" s="149">
         <v>22</v>
       </c>
-      <c r="BO3" s="151"/>
-      <c r="BP3" s="151"/>
-      <c r="BQ3" s="152"/>
-      <c r="BR3" s="150">
+      <c r="BO3" s="150"/>
+      <c r="BP3" s="150"/>
+      <c r="BQ3" s="151"/>
+      <c r="BR3" s="149">
         <v>23</v>
       </c>
-      <c r="BS3" s="151"/>
-      <c r="BT3" s="151"/>
-      <c r="BU3" s="151"/>
-      <c r="BV3" s="156">
+      <c r="BS3" s="150"/>
+      <c r="BT3" s="150"/>
+      <c r="BU3" s="150"/>
+      <c r="BV3" s="153">
         <v>24</v>
       </c>
-      <c r="BW3" s="157"/>
-      <c r="BX3" s="157"/>
-      <c r="BY3" s="158"/>
-      <c r="BZ3" s="151">
+      <c r="BW3" s="154"/>
+      <c r="BX3" s="154"/>
+      <c r="BY3" s="155"/>
+      <c r="BZ3" s="150">
         <v>1</v>
       </c>
-      <c r="CA3" s="151"/>
-      <c r="CB3" s="151"/>
-      <c r="CC3" s="152"/>
-      <c r="CD3" s="150">
+      <c r="CA3" s="150"/>
+      <c r="CB3" s="150"/>
+      <c r="CC3" s="151"/>
+      <c r="CD3" s="149">
         <v>2</v>
       </c>
-      <c r="CE3" s="151"/>
-      <c r="CF3" s="151"/>
-      <c r="CG3" s="152"/>
-      <c r="CH3" s="150">
+      <c r="CE3" s="150"/>
+      <c r="CF3" s="150"/>
+      <c r="CG3" s="151"/>
+      <c r="CH3" s="149">
         <v>3</v>
       </c>
-      <c r="CI3" s="151"/>
-      <c r="CJ3" s="151"/>
-      <c r="CK3" s="152"/>
-      <c r="CL3" s="150">
+      <c r="CI3" s="150"/>
+      <c r="CJ3" s="150"/>
+      <c r="CK3" s="151"/>
+      <c r="CL3" s="149">
         <v>4</v>
       </c>
-      <c r="CM3" s="151"/>
-      <c r="CN3" s="151"/>
-      <c r="CO3" s="152"/>
-      <c r="CP3" s="150">
+      <c r="CM3" s="150"/>
+      <c r="CN3" s="150"/>
+      <c r="CO3" s="151"/>
+      <c r="CP3" s="149">
         <v>5</v>
       </c>
-      <c r="CQ3" s="151"/>
-      <c r="CR3" s="151"/>
-      <c r="CS3" s="152"/>
-      <c r="CT3" s="150">
+      <c r="CQ3" s="150"/>
+      <c r="CR3" s="150"/>
+      <c r="CS3" s="151"/>
+      <c r="CT3" s="149">
         <v>6</v>
       </c>
-      <c r="CU3" s="151"/>
-      <c r="CV3" s="151"/>
-      <c r="CW3" s="159"/>
+      <c r="CU3" s="150"/>
+      <c r="CV3" s="150"/>
+      <c r="CW3" s="152"/>
     </row>
     <row r="4" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
@@ -11067,7 +11067,7 @@
       <c r="CW4" s="112"/>
     </row>
     <row r="5" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="139" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -11180,7 +11180,7 @@
       <c r="CW5" s="117"/>
     </row>
     <row r="6" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="144"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -11291,7 +11291,7 @@
       <c r="CW6" s="117"/>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A7" s="144"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -11402,7 +11402,7 @@
       <c r="CW7" s="117"/>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A8" s="144"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -11513,7 +11513,7 @@
       <c r="CW8" s="117"/>
     </row>
     <row r="9" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
+      <c r="A9" s="142"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -11624,7 +11624,7 @@
       <c r="CW9" s="117"/>
     </row>
     <row r="10" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="144"/>
+      <c r="A10" s="142"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -11735,7 +11735,7 @@
       <c r="CW10" s="117"/>
     </row>
     <row r="11" spans="1:101" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="145"/>
+      <c r="A11" s="144"/>
       <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
@@ -11844,7 +11844,7 @@
       <c r="CW11" s="117"/>
     </row>
     <row r="12" spans="1:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="139" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="124" t="s">
@@ -11957,7 +11957,7 @@
       <c r="CW12" s="117"/>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="CW13" s="117"/>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
@@ -12179,7 +12179,7 @@
       <c r="CW14" s="117"/>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -12350,67 +12350,67 @@
       <c r="C17" s="79"/>
       <c r="D17" s="80"/>
       <c r="E17" s="81"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="161"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="161"/>
-      <c r="X17" s="161"/>
-      <c r="Y17" s="161"/>
-      <c r="Z17" s="161"/>
-      <c r="AA17" s="161"/>
-      <c r="AB17" s="161"/>
-      <c r="AC17" s="161"/>
-      <c r="AD17" s="161"/>
-      <c r="AE17" s="161"/>
-      <c r="AF17" s="161"/>
-      <c r="AG17" s="161"/>
-      <c r="AH17" s="161"/>
-      <c r="AI17" s="161"/>
-      <c r="AJ17" s="161"/>
-      <c r="AK17" s="161"/>
-      <c r="AL17" s="161"/>
-      <c r="AM17" s="161"/>
-      <c r="AN17" s="161"/>
-      <c r="AO17" s="161"/>
-      <c r="AP17" s="161"/>
-      <c r="AQ17" s="161"/>
-      <c r="AR17" s="161"/>
-      <c r="AS17" s="161"/>
-      <c r="AT17" s="161"/>
-      <c r="AU17" s="161"/>
-      <c r="AV17" s="161"/>
-      <c r="AW17" s="161"/>
-      <c r="AX17" s="161"/>
-      <c r="AY17" s="161"/>
-      <c r="AZ17" s="161"/>
-      <c r="BA17" s="161"/>
-      <c r="BB17" s="161"/>
-      <c r="BC17" s="161"/>
-      <c r="BD17" s="161"/>
-      <c r="BE17" s="161"/>
-      <c r="BF17" s="161"/>
-      <c r="BG17" s="161"/>
-      <c r="BH17" s="161"/>
-      <c r="BI17" s="160"/>
-      <c r="BJ17" s="160"/>
-      <c r="BK17" s="160"/>
-      <c r="BL17" s="160"/>
-      <c r="BM17" s="160"/>
-      <c r="BN17" s="160"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="137"/>
+      <c r="AH17" s="137"/>
+      <c r="AI17" s="137"/>
+      <c r="AJ17" s="137"/>
+      <c r="AK17" s="137"/>
+      <c r="AL17" s="137"/>
+      <c r="AM17" s="137"/>
+      <c r="AN17" s="137"/>
+      <c r="AO17" s="137"/>
+      <c r="AP17" s="137"/>
+      <c r="AQ17" s="137"/>
+      <c r="AR17" s="137"/>
+      <c r="AS17" s="137"/>
+      <c r="AT17" s="137"/>
+      <c r="AU17" s="137"/>
+      <c r="AV17" s="137"/>
+      <c r="AW17" s="137"/>
+      <c r="AX17" s="137"/>
+      <c r="AY17" s="137"/>
+      <c r="AZ17" s="137"/>
+      <c r="BA17" s="137"/>
+      <c r="BB17" s="137"/>
+      <c r="BC17" s="137"/>
+      <c r="BD17" s="137"/>
+      <c r="BE17" s="137"/>
+      <c r="BF17" s="137"/>
+      <c r="BG17" s="137"/>
+      <c r="BH17" s="137"/>
+      <c r="BI17" s="136"/>
+      <c r="BJ17" s="136"/>
+      <c r="BK17" s="136"/>
+      <c r="BL17" s="136"/>
+      <c r="BM17" s="136"/>
+      <c r="BN17" s="136"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" s="77"/>
@@ -12418,67 +12418,67 @@
       <c r="C18" s="79"/>
       <c r="D18" s="80"/>
       <c r="E18" s="129"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="161"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="161"/>
-      <c r="X18" s="161"/>
-      <c r="Y18" s="161"/>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="161"/>
-      <c r="AB18" s="161"/>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="161"/>
-      <c r="AE18" s="161"/>
-      <c r="AF18" s="161"/>
-      <c r="AG18" s="161"/>
-      <c r="AH18" s="161"/>
-      <c r="AI18" s="161"/>
-      <c r="AJ18" s="161"/>
-      <c r="AK18" s="161"/>
-      <c r="AL18" s="161"/>
-      <c r="AM18" s="161"/>
-      <c r="AN18" s="161"/>
-      <c r="AO18" s="161"/>
-      <c r="AP18" s="161"/>
-      <c r="AQ18" s="161"/>
-      <c r="AR18" s="161"/>
-      <c r="AS18" s="161"/>
-      <c r="AT18" s="161"/>
-      <c r="AU18" s="161"/>
-      <c r="AV18" s="161"/>
-      <c r="AW18" s="161"/>
-      <c r="AX18" s="161"/>
-      <c r="AY18" s="161"/>
-      <c r="AZ18" s="161"/>
-      <c r="BA18" s="161"/>
-      <c r="BB18" s="161"/>
-      <c r="BC18" s="161"/>
-      <c r="BD18" s="161"/>
-      <c r="BE18" s="161"/>
-      <c r="BF18" s="161"/>
-      <c r="BG18" s="161"/>
-      <c r="BH18" s="161"/>
-      <c r="BI18" s="160"/>
-      <c r="BJ18" s="160"/>
-      <c r="BK18" s="160"/>
-      <c r="BL18" s="160"/>
-      <c r="BM18" s="160"/>
-      <c r="BN18" s="160"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="137"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="137"/>
+      <c r="AH18" s="137"/>
+      <c r="AI18" s="137"/>
+      <c r="AJ18" s="137"/>
+      <c r="AK18" s="137"/>
+      <c r="AL18" s="137"/>
+      <c r="AM18" s="137"/>
+      <c r="AN18" s="137"/>
+      <c r="AO18" s="137"/>
+      <c r="AP18" s="137"/>
+      <c r="AQ18" s="137"/>
+      <c r="AR18" s="137"/>
+      <c r="AS18" s="137"/>
+      <c r="AT18" s="137"/>
+      <c r="AU18" s="137"/>
+      <c r="AV18" s="137"/>
+      <c r="AW18" s="137"/>
+      <c r="AX18" s="137"/>
+      <c r="AY18" s="137"/>
+      <c r="AZ18" s="137"/>
+      <c r="BA18" s="137"/>
+      <c r="BB18" s="137"/>
+      <c r="BC18" s="137"/>
+      <c r="BD18" s="137"/>
+      <c r="BE18" s="137"/>
+      <c r="BF18" s="137"/>
+      <c r="BG18" s="137"/>
+      <c r="BH18" s="137"/>
+      <c r="BI18" s="136"/>
+      <c r="BJ18" s="136"/>
+      <c r="BK18" s="136"/>
+      <c r="BL18" s="136"/>
+      <c r="BM18" s="136"/>
+      <c r="BN18" s="136"/>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" s="77"/>
@@ -12486,67 +12486,67 @@
       <c r="C19" s="79"/>
       <c r="D19" s="80"/>
       <c r="E19" s="81"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="161"/>
-      <c r="AE19" s="161"/>
-      <c r="AF19" s="161"/>
-      <c r="AG19" s="161"/>
-      <c r="AH19" s="161"/>
-      <c r="AI19" s="161"/>
-      <c r="AJ19" s="161"/>
-      <c r="AK19" s="160"/>
-      <c r="AL19" s="160"/>
-      <c r="AM19" s="160"/>
-      <c r="AN19" s="160"/>
-      <c r="AO19" s="160"/>
-      <c r="AP19" s="160"/>
-      <c r="AQ19" s="160"/>
-      <c r="AR19" s="160"/>
-      <c r="AS19" s="160"/>
-      <c r="AT19" s="160"/>
-      <c r="AU19" s="160"/>
-      <c r="AV19" s="160"/>
-      <c r="AW19" s="160"/>
-      <c r="AX19" s="160"/>
-      <c r="AY19" s="160"/>
-      <c r="AZ19" s="160"/>
-      <c r="BA19" s="160"/>
-      <c r="BB19" s="160"/>
-      <c r="BC19" s="160"/>
-      <c r="BD19" s="160"/>
-      <c r="BE19" s="160"/>
-      <c r="BF19" s="160"/>
-      <c r="BG19" s="160"/>
-      <c r="BH19" s="160"/>
-      <c r="BI19" s="160"/>
-      <c r="BJ19" s="160"/>
-      <c r="BK19" s="160"/>
-      <c r="BL19" s="160"/>
-      <c r="BM19" s="160"/>
-      <c r="BN19" s="160"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="136"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="136"/>
+      <c r="X19" s="136"/>
+      <c r="Y19" s="136"/>
+      <c r="Z19" s="136"/>
+      <c r="AA19" s="136"/>
+      <c r="AB19" s="136"/>
+      <c r="AC19" s="136"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="137"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="137"/>
+      <c r="AH19" s="137"/>
+      <c r="AI19" s="137"/>
+      <c r="AJ19" s="137"/>
+      <c r="AK19" s="136"/>
+      <c r="AL19" s="136"/>
+      <c r="AM19" s="136"/>
+      <c r="AN19" s="136"/>
+      <c r="AO19" s="136"/>
+      <c r="AP19" s="136"/>
+      <c r="AQ19" s="136"/>
+      <c r="AR19" s="136"/>
+      <c r="AS19" s="136"/>
+      <c r="AT19" s="136"/>
+      <c r="AU19" s="136"/>
+      <c r="AV19" s="136"/>
+      <c r="AW19" s="136"/>
+      <c r="AX19" s="136"/>
+      <c r="AY19" s="136"/>
+      <c r="AZ19" s="136"/>
+      <c r="BA19" s="136"/>
+      <c r="BB19" s="136"/>
+      <c r="BC19" s="136"/>
+      <c r="BD19" s="136"/>
+      <c r="BE19" s="136"/>
+      <c r="BF19" s="136"/>
+      <c r="BG19" s="136"/>
+      <c r="BH19" s="136"/>
+      <c r="BI19" s="136"/>
+      <c r="BJ19" s="136"/>
+      <c r="BK19" s="136"/>
+      <c r="BL19" s="136"/>
+      <c r="BM19" s="136"/>
+      <c r="BN19" s="136"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" s="77"/>
@@ -12554,67 +12554,67 @@
       <c r="C20" s="79"/>
       <c r="D20" s="80"/>
       <c r="E20" s="81"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="161"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="161"/>
-      <c r="X20" s="161"/>
-      <c r="Y20" s="161"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="161"/>
-      <c r="AB20" s="161"/>
-      <c r="AC20" s="161"/>
-      <c r="AD20" s="161"/>
-      <c r="AE20" s="161"/>
-      <c r="AF20" s="161"/>
-      <c r="AG20" s="161"/>
-      <c r="AH20" s="161"/>
-      <c r="AI20" s="161"/>
-      <c r="AJ20" s="161"/>
-      <c r="AK20" s="161"/>
-      <c r="AL20" s="161"/>
-      <c r="AM20" s="161"/>
-      <c r="AN20" s="161"/>
-      <c r="AO20" s="161"/>
-      <c r="AP20" s="161"/>
-      <c r="AQ20" s="161"/>
-      <c r="AR20" s="161"/>
-      <c r="AS20" s="161"/>
-      <c r="AT20" s="161"/>
-      <c r="AU20" s="161"/>
-      <c r="AV20" s="161"/>
-      <c r="AW20" s="161"/>
-      <c r="AX20" s="161"/>
-      <c r="AY20" s="161"/>
-      <c r="AZ20" s="161"/>
-      <c r="BA20" s="161"/>
-      <c r="BB20" s="161"/>
-      <c r="BC20" s="161"/>
-      <c r="BD20" s="161"/>
-      <c r="BE20" s="161"/>
-      <c r="BF20" s="161"/>
-      <c r="BG20" s="161"/>
-      <c r="BH20" s="160"/>
-      <c r="BI20" s="160"/>
-      <c r="BJ20" s="160"/>
-      <c r="BK20" s="160"/>
-      <c r="BL20" s="160"/>
-      <c r="BM20" s="160"/>
-      <c r="BN20" s="160"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="137"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="137"/>
+      <c r="AH20" s="137"/>
+      <c r="AI20" s="137"/>
+      <c r="AJ20" s="137"/>
+      <c r="AK20" s="137"/>
+      <c r="AL20" s="137"/>
+      <c r="AM20" s="137"/>
+      <c r="AN20" s="137"/>
+      <c r="AO20" s="137"/>
+      <c r="AP20" s="137"/>
+      <c r="AQ20" s="137"/>
+      <c r="AR20" s="137"/>
+      <c r="AS20" s="137"/>
+      <c r="AT20" s="137"/>
+      <c r="AU20" s="137"/>
+      <c r="AV20" s="137"/>
+      <c r="AW20" s="137"/>
+      <c r="AX20" s="137"/>
+      <c r="AY20" s="137"/>
+      <c r="AZ20" s="137"/>
+      <c r="BA20" s="137"/>
+      <c r="BB20" s="137"/>
+      <c r="BC20" s="137"/>
+      <c r="BD20" s="137"/>
+      <c r="BE20" s="137"/>
+      <c r="BF20" s="137"/>
+      <c r="BG20" s="137"/>
+      <c r="BH20" s="136"/>
+      <c r="BI20" s="136"/>
+      <c r="BJ20" s="136"/>
+      <c r="BK20" s="136"/>
+      <c r="BL20" s="136"/>
+      <c r="BM20" s="136"/>
+      <c r="BN20" s="136"/>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" s="77"/>
@@ -12622,256 +12622,256 @@
       <c r="C21" s="79"/>
       <c r="D21" s="80"/>
       <c r="E21" s="81"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="161"/>
-      <c r="T21" s="161"/>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="161"/>
-      <c r="X21" s="161"/>
-      <c r="Y21" s="161"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="161"/>
-      <c r="AB21" s="161"/>
-      <c r="AC21" s="161"/>
-      <c r="AD21" s="161"/>
-      <c r="AE21" s="161"/>
-      <c r="AF21" s="161"/>
-      <c r="AG21" s="161"/>
-      <c r="AH21" s="161"/>
-      <c r="AI21" s="161"/>
-      <c r="AJ21" s="161"/>
-      <c r="AK21" s="161"/>
-      <c r="AL21" s="161"/>
-      <c r="AM21" s="161"/>
-      <c r="AN21" s="161"/>
-      <c r="AO21" s="161"/>
-      <c r="AP21" s="161"/>
-      <c r="AQ21" s="161"/>
-      <c r="AR21" s="161"/>
-      <c r="AS21" s="161"/>
-      <c r="AT21" s="161"/>
-      <c r="AU21" s="161"/>
-      <c r="AV21" s="161"/>
-      <c r="AW21" s="161"/>
-      <c r="AX21" s="161"/>
-      <c r="AY21" s="161"/>
-      <c r="AZ21" s="161"/>
-      <c r="BA21" s="161"/>
-      <c r="BB21" s="161"/>
-      <c r="BC21" s="161"/>
-      <c r="BD21" s="161"/>
-      <c r="BE21" s="161"/>
-      <c r="BF21" s="161"/>
-      <c r="BG21" s="161"/>
-      <c r="BH21" s="160"/>
-      <c r="BI21" s="160"/>
-      <c r="BJ21" s="160"/>
-      <c r="BK21" s="160"/>
-      <c r="BL21" s="160"/>
-      <c r="BM21" s="160"/>
-      <c r="BN21" s="160"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="137"/>
+      <c r="AH21" s="137"/>
+      <c r="AI21" s="137"/>
+      <c r="AJ21" s="137"/>
+      <c r="AK21" s="137"/>
+      <c r="AL21" s="137"/>
+      <c r="AM21" s="137"/>
+      <c r="AN21" s="137"/>
+      <c r="AO21" s="137"/>
+      <c r="AP21" s="137"/>
+      <c r="AQ21" s="137"/>
+      <c r="AR21" s="137"/>
+      <c r="AS21" s="137"/>
+      <c r="AT21" s="137"/>
+      <c r="AU21" s="137"/>
+      <c r="AV21" s="137"/>
+      <c r="AW21" s="137"/>
+      <c r="AX21" s="137"/>
+      <c r="AY21" s="137"/>
+      <c r="AZ21" s="137"/>
+      <c r="BA21" s="137"/>
+      <c r="BB21" s="137"/>
+      <c r="BC21" s="137"/>
+      <c r="BD21" s="137"/>
+      <c r="BE21" s="137"/>
+      <c r="BF21" s="137"/>
+      <c r="BG21" s="137"/>
+      <c r="BH21" s="136"/>
+      <c r="BI21" s="136"/>
+      <c r="BJ21" s="136"/>
+      <c r="BK21" s="136"/>
+      <c r="BL21" s="136"/>
+      <c r="BM21" s="136"/>
+      <c r="BN21" s="136"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="161"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="161"/>
-      <c r="AC22" s="161"/>
-      <c r="AD22" s="161"/>
-      <c r="AE22" s="161"/>
-      <c r="AF22" s="161"/>
-      <c r="AG22" s="161"/>
-      <c r="AH22" s="161"/>
-      <c r="AI22" s="161"/>
-      <c r="AJ22" s="161"/>
-      <c r="AK22" s="161"/>
-      <c r="AL22" s="161"/>
-      <c r="AM22" s="161"/>
-      <c r="AN22" s="161"/>
-      <c r="AO22" s="161"/>
-      <c r="AP22" s="161"/>
-      <c r="AQ22" s="161"/>
-      <c r="AR22" s="161"/>
-      <c r="AS22" s="161"/>
-      <c r="AT22" s="161"/>
-      <c r="AU22" s="161"/>
-      <c r="AV22" s="161"/>
-      <c r="AW22" s="161"/>
-      <c r="AX22" s="161"/>
-      <c r="AY22" s="161"/>
-      <c r="AZ22" s="161"/>
-      <c r="BA22" s="161"/>
-      <c r="BB22" s="161"/>
-      <c r="BC22" s="161"/>
-      <c r="BD22" s="161"/>
-      <c r="BE22" s="161"/>
-      <c r="BF22" s="161"/>
-      <c r="BG22" s="161"/>
-      <c r="BH22" s="161"/>
-      <c r="BI22" s="160"/>
-      <c r="BJ22" s="160"/>
-      <c r="BK22" s="160"/>
-      <c r="BL22" s="160"/>
-      <c r="BM22" s="160"/>
-      <c r="BN22" s="160"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="137"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="137"/>
+      <c r="AH22" s="137"/>
+      <c r="AI22" s="137"/>
+      <c r="AJ22" s="137"/>
+      <c r="AK22" s="137"/>
+      <c r="AL22" s="137"/>
+      <c r="AM22" s="137"/>
+      <c r="AN22" s="137"/>
+      <c r="AO22" s="137"/>
+      <c r="AP22" s="137"/>
+      <c r="AQ22" s="137"/>
+      <c r="AR22" s="137"/>
+      <c r="AS22" s="137"/>
+      <c r="AT22" s="137"/>
+      <c r="AU22" s="137"/>
+      <c r="AV22" s="137"/>
+      <c r="AW22" s="137"/>
+      <c r="AX22" s="137"/>
+      <c r="AY22" s="137"/>
+      <c r="AZ22" s="137"/>
+      <c r="BA22" s="137"/>
+      <c r="BB22" s="137"/>
+      <c r="BC22" s="137"/>
+      <c r="BD22" s="137"/>
+      <c r="BE22" s="137"/>
+      <c r="BF22" s="137"/>
+      <c r="BG22" s="137"/>
+      <c r="BH22" s="137"/>
+      <c r="BI22" s="136"/>
+      <c r="BJ22" s="136"/>
+      <c r="BK22" s="136"/>
+      <c r="BL22" s="136"/>
+      <c r="BM22" s="136"/>
+      <c r="BN22" s="136"/>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="160"/>
-      <c r="AK23" s="160"/>
-      <c r="AL23" s="160"/>
-      <c r="AM23" s="160"/>
-      <c r="AN23" s="160"/>
-      <c r="AO23" s="160"/>
-      <c r="AP23" s="160"/>
-      <c r="AQ23" s="160"/>
-      <c r="AR23" s="160"/>
-      <c r="AS23" s="160"/>
-      <c r="AT23" s="160"/>
-      <c r="AU23" s="160"/>
-      <c r="AV23" s="160"/>
-      <c r="AW23" s="160"/>
-      <c r="AX23" s="160"/>
-      <c r="AY23" s="160"/>
-      <c r="AZ23" s="160"/>
-      <c r="BA23" s="160"/>
-      <c r="BB23" s="160"/>
-      <c r="BC23" s="160"/>
-      <c r="BD23" s="160"/>
-      <c r="BE23" s="160"/>
-      <c r="BF23" s="160"/>
-      <c r="BG23" s="160"/>
-      <c r="BH23" s="160"/>
-      <c r="BI23" s="160"/>
-      <c r="BJ23" s="160"/>
-      <c r="BK23" s="160"/>
-      <c r="BL23" s="160"/>
-      <c r="BM23" s="160"/>
-      <c r="BN23" s="160"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="136"/>
+      <c r="T23" s="136"/>
+      <c r="U23" s="136"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="136"/>
+      <c r="X23" s="136"/>
+      <c r="Y23" s="136"/>
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="136"/>
+      <c r="AB23" s="136"/>
+      <c r="AC23" s="136"/>
+      <c r="AD23" s="136"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="136"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="136"/>
+      <c r="AJ23" s="136"/>
+      <c r="AK23" s="136"/>
+      <c r="AL23" s="136"/>
+      <c r="AM23" s="136"/>
+      <c r="AN23" s="136"/>
+      <c r="AO23" s="136"/>
+      <c r="AP23" s="136"/>
+      <c r="AQ23" s="136"/>
+      <c r="AR23" s="136"/>
+      <c r="AS23" s="136"/>
+      <c r="AT23" s="136"/>
+      <c r="AU23" s="136"/>
+      <c r="AV23" s="136"/>
+      <c r="AW23" s="136"/>
+      <c r="AX23" s="136"/>
+      <c r="AY23" s="136"/>
+      <c r="AZ23" s="136"/>
+      <c r="BA23" s="136"/>
+      <c r="BB23" s="136"/>
+      <c r="BC23" s="136"/>
+      <c r="BD23" s="136"/>
+      <c r="BE23" s="136"/>
+      <c r="BF23" s="136"/>
+      <c r="BG23" s="136"/>
+      <c r="BH23" s="136"/>
+      <c r="BI23" s="136"/>
+      <c r="BJ23" s="136"/>
+      <c r="BK23" s="136"/>
+      <c r="BL23" s="136"/>
+      <c r="BM23" s="136"/>
+      <c r="BN23" s="136"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="161"/>
-      <c r="T24" s="161"/>
-      <c r="U24" s="161"/>
-      <c r="V24" s="161"/>
-      <c r="W24" s="161"/>
-      <c r="X24" s="161"/>
-      <c r="Y24" s="161"/>
-      <c r="Z24" s="161"/>
-      <c r="AA24" s="161"/>
-      <c r="AB24" s="161"/>
-      <c r="AC24" s="161"/>
-      <c r="AD24" s="161"/>
-      <c r="AE24" s="161"/>
-      <c r="AF24" s="161"/>
-      <c r="AG24" s="161"/>
-      <c r="AH24" s="161"/>
-      <c r="AI24" s="161"/>
-      <c r="AJ24" s="161"/>
-      <c r="AK24" s="161"/>
-      <c r="AL24" s="161"/>
-      <c r="AM24" s="161"/>
-      <c r="AN24" s="161"/>
-      <c r="AO24" s="161"/>
-      <c r="AP24" s="161"/>
-      <c r="AQ24" s="161"/>
-      <c r="AR24" s="161"/>
-      <c r="AS24" s="161"/>
-      <c r="AT24" s="161"/>
-      <c r="AU24" s="161"/>
-      <c r="AV24" s="161"/>
-      <c r="AW24" s="161"/>
-      <c r="AX24" s="161"/>
-      <c r="AY24" s="161"/>
-      <c r="AZ24" s="161"/>
-      <c r="BA24" s="161"/>
-      <c r="BB24" s="161"/>
-      <c r="BC24" s="161"/>
-      <c r="BD24" s="161"/>
-      <c r="BE24" s="161"/>
-      <c r="BF24" s="161"/>
-      <c r="BG24" s="161"/>
-      <c r="BH24" s="161"/>
-      <c r="BI24" s="160"/>
-      <c r="BJ24" s="160"/>
-      <c r="BK24" s="160"/>
-      <c r="BL24" s="160"/>
-      <c r="BM24" s="160"/>
-      <c r="BN24" s="160"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="137"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="137"/>
+      <c r="AH24" s="137"/>
+      <c r="AI24" s="137"/>
+      <c r="AJ24" s="137"/>
+      <c r="AK24" s="137"/>
+      <c r="AL24" s="137"/>
+      <c r="AM24" s="137"/>
+      <c r="AN24" s="137"/>
+      <c r="AO24" s="137"/>
+      <c r="AP24" s="137"/>
+      <c r="AQ24" s="137"/>
+      <c r="AR24" s="137"/>
+      <c r="AS24" s="137"/>
+      <c r="AT24" s="137"/>
+      <c r="AU24" s="137"/>
+      <c r="AV24" s="137"/>
+      <c r="AW24" s="137"/>
+      <c r="AX24" s="137"/>
+      <c r="AY24" s="137"/>
+      <c r="AZ24" s="137"/>
+      <c r="BA24" s="137"/>
+      <c r="BB24" s="137"/>
+      <c r="BC24" s="137"/>
+      <c r="BD24" s="137"/>
+      <c r="BE24" s="137"/>
+      <c r="BF24" s="137"/>
+      <c r="BG24" s="137"/>
+      <c r="BH24" s="137"/>
+      <c r="BI24" s="136"/>
+      <c r="BJ24" s="136"/>
+      <c r="BK24" s="136"/>
+      <c r="BL24" s="136"/>
+      <c r="BM24" s="136"/>
+      <c r="BN24" s="136"/>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I25" s="65"/>
@@ -12897,13 +12897,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CH3:CK3"/>
-    <mergeCell ref="CL3:CO3"/>
-    <mergeCell ref="CP3:CS3"/>
-    <mergeCell ref="CT3:CW3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="BZ3:CC3"/>
-    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="BJ3:BM3"/>
     <mergeCell ref="BN3:BQ3"/>
@@ -12915,16 +12918,13 @@
     <mergeCell ref="AX3:BA3"/>
     <mergeCell ref="BB3:BE3"/>
     <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1080" windowWidth="24915" windowHeight="11625" tabRatio="892" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="1080" windowWidth="24915" windowHeight="11625" tabRatio="892" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Комбайн" sheetId="1" r:id="rId1"/>
     <sheet name="01.10" sheetId="71" r:id="rId2"/>
     <sheet name="17.11" sheetId="73" r:id="rId3"/>
     <sheet name="19.11" sheetId="72" r:id="rId4"/>
+    <sheet name="test" sheetId="74" r:id="rId5"/>
+    <sheet name="13.11" sheetId="75" r:id="rId6"/>
+    <sheet name="20.11" sheetId="76" r:id="rId7"/>
+    <sheet name="12.11" sheetId="77" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
@@ -3182,7 +3186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="115">
   <si>
     <t>Держ №</t>
   </si>
@@ -3453,6 +3457,96 @@
   <si>
     <t>блемний треккер</t>
   </si>
+  <si>
+    <t xml:space="preserve">John Deere-S6901_09039BI"
+</t>
+  </si>
+  <si>
+    <t>Хмільниця_Тест</t>
+  </si>
+  <si>
+    <t>Збирання кукурудзи_Тест</t>
+  </si>
+  <si>
+    <t>Півень В.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere-S9880_11270CB"
+</t>
+  </si>
+  <si>
+    <t>Коробко В.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere-S9880_11271CB"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere-S9880_11273CB"
+</t>
+  </si>
+  <si>
+    <t>Василенко А.П.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere-S9880_11269CB"
+</t>
+  </si>
+  <si>
+    <t>Скляров О.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere-S9880_11272CB"
+</t>
+  </si>
+  <si>
+    <t>Скляров М.В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палессе 16318СВ"
+</t>
+  </si>
+  <si>
+    <t>16318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нью-Холонд Новий "
+</t>
+  </si>
+  <si>
+    <t>б/н</t>
+  </si>
+  <si>
+    <t>Иллюшко С.Л</t>
+  </si>
+  <si>
+    <t>Case-310_008-40ВІ"
+Водитель: (392)Кейс-340_ZB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Holland  58005 Cиренко"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deer RW8310R 17636СВ"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трактор Джон Дір RW8310R 17656СВ"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deer RW8310R 17638СВ"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Case-210_Puma_15122СВ "
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Case-210_Puma_15121СВ"
+</t>
+  </si>
 </sst>
 </file>
 
@@ -3550,7 +3644,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3628,8 +3722,73 @@
         <fgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -4159,12 +4318,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="1569">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4401,6 +4703,1410 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4472,6 +6178,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4796,24 +6529,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="1534" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
+      <c r="B1" s="1534"/>
+      <c r="C1" s="1534"/>
+      <c r="D1" s="1534"/>
+      <c r="E1" s="1534"/>
+      <c r="F1" s="1534"/>
+      <c r="G1" s="1534"/>
+      <c r="H1" s="1534"/>
+      <c r="I1" s="1534"/>
+      <c r="J1" s="1534"/>
+      <c r="K1" s="1534"/>
+      <c r="L1" s="1534"/>
+      <c r="M1" s="1534"/>
+      <c r="N1" s="1534"/>
+      <c r="O1" s="1534"/>
+      <c r="P1" s="1534"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7521,63 +9254,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="1542" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="1542"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="1543" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
+      <c r="G2" s="1543"/>
+      <c r="H2" s="1543"/>
+      <c r="I2" s="1543"/>
+      <c r="J2" s="1543"/>
+      <c r="K2" s="1543"/>
+      <c r="L2" s="1543"/>
+      <c r="M2" s="1543"/>
+      <c r="N2" s="1543"/>
+      <c r="O2" s="1543"/>
+      <c r="P2" s="1543"/>
+      <c r="Q2" s="1543"/>
+      <c r="R2" s="1543"/>
+      <c r="S2" s="1543"/>
+      <c r="T2" s="1543"/>
+      <c r="U2" s="1543"/>
+      <c r="V2" s="1543"/>
+      <c r="W2" s="1543"/>
+      <c r="X2" s="1543"/>
+      <c r="Y2" s="1543"/>
+      <c r="Z2" s="1543"/>
+      <c r="AA2" s="1543"/>
+      <c r="AB2" s="1543"/>
+      <c r="AC2" s="1543"/>
+      <c r="AD2" s="1543"/>
+      <c r="AE2" s="1543"/>
+      <c r="AF2" s="1543"/>
+      <c r="AG2" s="1543"/>
+      <c r="AH2" s="1543"/>
+      <c r="AI2" s="1543"/>
+      <c r="AJ2" s="1543"/>
+      <c r="AK2" s="1543"/>
+      <c r="AL2" s="1543"/>
+      <c r="AM2" s="1543"/>
+      <c r="AN2" s="1543"/>
+      <c r="AO2" s="1543"/>
+      <c r="AP2" s="1543"/>
+      <c r="AQ2" s="1543"/>
+      <c r="AR2" s="1543"/>
+      <c r="AS2" s="1543"/>
+      <c r="AT2" s="1543"/>
+      <c r="AU2" s="1543"/>
+      <c r="AV2" s="1543"/>
+      <c r="AW2" s="1543"/>
+      <c r="AX2" s="1543"/>
+      <c r="AY2" s="1543"/>
+      <c r="AZ2" s="1543"/>
+      <c r="BA2" s="1543"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -7595,102 +9328,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="143">
+      <c r="F3" s="1539">
         <v>7</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143">
+      <c r="G3" s="1539"/>
+      <c r="H3" s="1539">
         <v>8</v>
       </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143">
+      <c r="I3" s="1539"/>
+      <c r="J3" s="1539">
         <v>9</v>
       </c>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143">
+      <c r="K3" s="1539"/>
+      <c r="L3" s="1539">
         <v>10</v>
       </c>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143">
+      <c r="M3" s="1539"/>
+      <c r="N3" s="1539">
         <v>11</v>
       </c>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143">
+      <c r="O3" s="1539"/>
+      <c r="P3" s="1539">
         <v>12</v>
       </c>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143">
+      <c r="Q3" s="1539"/>
+      <c r="R3" s="1539">
         <v>13</v>
       </c>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143">
+      <c r="S3" s="1539"/>
+      <c r="T3" s="1539">
         <v>14</v>
       </c>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143">
+      <c r="U3" s="1539"/>
+      <c r="V3" s="1539">
         <v>15</v>
       </c>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143">
+      <c r="W3" s="1539"/>
+      <c r="X3" s="1539">
         <v>16</v>
       </c>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="145">
+      <c r="Y3" s="1539"/>
+      <c r="Z3" s="1541">
         <v>17</v>
       </c>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145">
+      <c r="AA3" s="1541"/>
+      <c r="AB3" s="1541">
         <v>18</v>
       </c>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="143">
+      <c r="AC3" s="1541"/>
+      <c r="AD3" s="1539">
         <v>19</v>
       </c>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143">
+      <c r="AE3" s="1539"/>
+      <c r="AF3" s="1539">
         <v>20</v>
       </c>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143">
+      <c r="AG3" s="1539"/>
+      <c r="AH3" s="1539">
         <v>21</v>
       </c>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143">
+      <c r="AI3" s="1539"/>
+      <c r="AJ3" s="1539">
         <v>22</v>
       </c>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143">
+      <c r="AK3" s="1539"/>
+      <c r="AL3" s="1539">
         <v>23</v>
       </c>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143">
+      <c r="AM3" s="1539"/>
+      <c r="AN3" s="1539">
         <v>24</v>
       </c>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143">
+      <c r="AO3" s="1539"/>
+      <c r="AP3" s="1539">
         <v>1</v>
       </c>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143">
+      <c r="AQ3" s="1539"/>
+      <c r="AR3" s="1539">
         <v>2</v>
       </c>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143">
+      <c r="AS3" s="1539"/>
+      <c r="AT3" s="1539">
         <v>3</v>
       </c>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143">
+      <c r="AU3" s="1539"/>
+      <c r="AV3" s="1539">
         <v>4</v>
       </c>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143">
+      <c r="AW3" s="1539"/>
+      <c r="AX3" s="1539">
         <v>5</v>
       </c>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143">
+      <c r="AY3" s="1539"/>
+      <c r="AZ3" s="1539">
         <v>6</v>
       </c>
-      <c r="BA3" s="148"/>
+      <c r="BA3" s="1544"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -7750,7 +9483,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="1535" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -7817,7 +9550,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142"/>
+      <c r="A6" s="1538"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -7884,7 +9617,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="140"/>
+      <c r="A7" s="1536"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -7949,7 +9682,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="1537" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -8016,7 +9749,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="144"/>
+      <c r="A9" s="1540"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -8079,7 +9812,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="1535" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -8144,7 +9877,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
+      <c r="A11" s="1536"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -8203,7 +9936,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="1537" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -8272,7 +10005,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
+      <c r="A13" s="1538"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -8339,7 +10072,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
+      <c r="A14" s="1538"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -8404,7 +10137,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
+      <c r="A15" s="1538"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -8467,7 +10200,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="142"/>
+      <c r="A16" s="1538"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -8528,7 +10261,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="142"/>
+      <c r="A17" s="1538"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -8593,7 +10326,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
+      <c r="A18" s="1536"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -8658,7 +10391,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="1537" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -8725,7 +10458,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="142"/>
+      <c r="A20" s="1538"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -8788,7 +10521,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
+      <c r="A21" s="1536"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -9371,63 +11104,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="1542" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="1542"/>
       <c r="C2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="1543" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
+      <c r="G2" s="1543"/>
+      <c r="H2" s="1543"/>
+      <c r="I2" s="1543"/>
+      <c r="J2" s="1543"/>
+      <c r="K2" s="1543"/>
+      <c r="L2" s="1543"/>
+      <c r="M2" s="1543"/>
+      <c r="N2" s="1543"/>
+      <c r="O2" s="1543"/>
+      <c r="P2" s="1543"/>
+      <c r="Q2" s="1543"/>
+      <c r="R2" s="1543"/>
+      <c r="S2" s="1543"/>
+      <c r="T2" s="1543"/>
+      <c r="U2" s="1543"/>
+      <c r="V2" s="1543"/>
+      <c r="W2" s="1543"/>
+      <c r="X2" s="1543"/>
+      <c r="Y2" s="1543"/>
+      <c r="Z2" s="1543"/>
+      <c r="AA2" s="1543"/>
+      <c r="AB2" s="1543"/>
+      <c r="AC2" s="1543"/>
+      <c r="AD2" s="1543"/>
+      <c r="AE2" s="1543"/>
+      <c r="AF2" s="1543"/>
+      <c r="AG2" s="1543"/>
+      <c r="AH2" s="1543"/>
+      <c r="AI2" s="1543"/>
+      <c r="AJ2" s="1543"/>
+      <c r="AK2" s="1543"/>
+      <c r="AL2" s="1543"/>
+      <c r="AM2" s="1543"/>
+      <c r="AN2" s="1543"/>
+      <c r="AO2" s="1543"/>
+      <c r="AP2" s="1543"/>
+      <c r="AQ2" s="1543"/>
+      <c r="AR2" s="1543"/>
+      <c r="AS2" s="1543"/>
+      <c r="AT2" s="1543"/>
+      <c r="AU2" s="1543"/>
+      <c r="AV2" s="1543"/>
+      <c r="AW2" s="1543"/>
+      <c r="AX2" s="1543"/>
+      <c r="AY2" s="1543"/>
+      <c r="AZ2" s="1543"/>
+      <c r="BA2" s="1543"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -9445,102 +11178,102 @@
       <c r="E3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="143">
+      <c r="F3" s="1539">
         <v>7</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143">
+      <c r="G3" s="1539"/>
+      <c r="H3" s="1539">
         <v>8</v>
       </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143">
+      <c r="I3" s="1539"/>
+      <c r="J3" s="1539">
         <v>9</v>
       </c>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143">
+      <c r="K3" s="1539"/>
+      <c r="L3" s="1539">
         <v>10</v>
       </c>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143">
+      <c r="M3" s="1539"/>
+      <c r="N3" s="1539">
         <v>11</v>
       </c>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143">
+      <c r="O3" s="1539"/>
+      <c r="P3" s="1539">
         <v>12</v>
       </c>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143">
+      <c r="Q3" s="1539"/>
+      <c r="R3" s="1539">
         <v>13</v>
       </c>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143">
+      <c r="S3" s="1539"/>
+      <c r="T3" s="1539">
         <v>14</v>
       </c>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143">
+      <c r="U3" s="1539"/>
+      <c r="V3" s="1539">
         <v>15</v>
       </c>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143">
+      <c r="W3" s="1539"/>
+      <c r="X3" s="1539">
         <v>16</v>
       </c>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="145">
+      <c r="Y3" s="1539"/>
+      <c r="Z3" s="1541">
         <v>17</v>
       </c>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145">
+      <c r="AA3" s="1541"/>
+      <c r="AB3" s="1541">
         <v>18</v>
       </c>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="143">
+      <c r="AC3" s="1541"/>
+      <c r="AD3" s="1539">
         <v>19</v>
       </c>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143">
+      <c r="AE3" s="1539"/>
+      <c r="AF3" s="1539">
         <v>20</v>
       </c>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143">
+      <c r="AG3" s="1539"/>
+      <c r="AH3" s="1539">
         <v>21</v>
       </c>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143">
+      <c r="AI3" s="1539"/>
+      <c r="AJ3" s="1539">
         <v>22</v>
       </c>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143">
+      <c r="AK3" s="1539"/>
+      <c r="AL3" s="1539">
         <v>23</v>
       </c>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143">
+      <c r="AM3" s="1539"/>
+      <c r="AN3" s="1539">
         <v>24</v>
       </c>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143">
+      <c r="AO3" s="1539"/>
+      <c r="AP3" s="1539">
         <v>1</v>
       </c>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143">
+      <c r="AQ3" s="1539"/>
+      <c r="AR3" s="1539">
         <v>2</v>
       </c>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143">
+      <c r="AS3" s="1539"/>
+      <c r="AT3" s="1539">
         <v>3</v>
       </c>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143">
+      <c r="AU3" s="1539"/>
+      <c r="AV3" s="1539">
         <v>4</v>
       </c>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143">
+      <c r="AW3" s="1539"/>
+      <c r="AX3" s="1539">
         <v>5</v>
       </c>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143">
+      <c r="AY3" s="1539"/>
+      <c r="AZ3" s="1539">
         <v>6</v>
       </c>
-      <c r="BA3" s="148"/>
+      <c r="BA3" s="1544"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -9600,7 +11333,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="1535" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -9667,7 +11400,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142"/>
+      <c r="A6" s="1538"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -9732,7 +11465,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="142"/>
+      <c r="A7" s="1538"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -9797,7 +11530,7 @@
       <c r="BA7" s="51"/>
     </row>
     <row r="8" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="142"/>
+      <c r="A8" s="1538"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -9862,7 +11595,7 @@
       <c r="BA8" s="51"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="142"/>
+      <c r="A9" s="1538"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -9927,7 +11660,7 @@
       <c r="BA9" s="51"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="142"/>
+      <c r="A10" s="1538"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -9992,7 +11725,7 @@
       <c r="BA10" s="51"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
+      <c r="A11" s="1540"/>
       <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
@@ -10055,7 +11788,7 @@
       <c r="BA11" s="70"/>
     </row>
     <row r="12" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="1535" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="124" t="s">
@@ -10122,7 +11855,7 @@
       <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
+      <c r="A13" s="1538"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -10189,7 +11922,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
+      <c r="A14" s="1538"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
@@ -10256,7 +11989,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
+      <c r="A15" s="1538"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -10724,10 +12457,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CW26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X18" sqref="X18"/>
-      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10742,63 +12475,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:101" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="1542" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="1542"/>
       <c r="C2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="1543" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
+      <c r="G2" s="1543"/>
+      <c r="H2" s="1543"/>
+      <c r="I2" s="1543"/>
+      <c r="J2" s="1543"/>
+      <c r="K2" s="1543"/>
+      <c r="L2" s="1543"/>
+      <c r="M2" s="1543"/>
+      <c r="N2" s="1543"/>
+      <c r="O2" s="1543"/>
+      <c r="P2" s="1543"/>
+      <c r="Q2" s="1543"/>
+      <c r="R2" s="1543"/>
+      <c r="S2" s="1543"/>
+      <c r="T2" s="1543"/>
+      <c r="U2" s="1543"/>
+      <c r="V2" s="1543"/>
+      <c r="W2" s="1543"/>
+      <c r="X2" s="1543"/>
+      <c r="Y2" s="1543"/>
+      <c r="Z2" s="1543"/>
+      <c r="AA2" s="1543"/>
+      <c r="AB2" s="1543"/>
+      <c r="AC2" s="1543"/>
+      <c r="AD2" s="1543"/>
+      <c r="AE2" s="1543"/>
+      <c r="AF2" s="1543"/>
+      <c r="AG2" s="1543"/>
+      <c r="AH2" s="1543"/>
+      <c r="AI2" s="1543"/>
+      <c r="AJ2" s="1543"/>
+      <c r="AK2" s="1543"/>
+      <c r="AL2" s="1543"/>
+      <c r="AM2" s="1543"/>
+      <c r="AN2" s="1543"/>
+      <c r="AO2" s="1543"/>
+      <c r="AP2" s="1543"/>
+      <c r="AQ2" s="1543"/>
+      <c r="AR2" s="1543"/>
+      <c r="AS2" s="1543"/>
+      <c r="AT2" s="1543"/>
+      <c r="AU2" s="1543"/>
+      <c r="AV2" s="1543"/>
+      <c r="AW2" s="1543"/>
+      <c r="AX2" s="1543"/>
+      <c r="AY2" s="1543"/>
+      <c r="AZ2" s="1543"/>
+      <c r="BA2" s="1543"/>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="s">
@@ -10816,150 +12549,150 @@
       <c r="E3" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="156">
+      <c r="F3" s="1552">
         <v>7</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="149">
+      <c r="G3" s="1553"/>
+      <c r="H3" s="1553"/>
+      <c r="I3" s="1554"/>
+      <c r="J3" s="1545">
         <v>8</v>
       </c>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="149">
+      <c r="K3" s="1546"/>
+      <c r="L3" s="1546"/>
+      <c r="M3" s="1547"/>
+      <c r="N3" s="1545">
         <v>9</v>
       </c>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="149">
+      <c r="O3" s="1546"/>
+      <c r="P3" s="1546"/>
+      <c r="Q3" s="1547"/>
+      <c r="R3" s="1545">
         <v>10</v>
       </c>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="149">
+      <c r="S3" s="1546"/>
+      <c r="T3" s="1546"/>
+      <c r="U3" s="1547"/>
+      <c r="V3" s="1545">
         <v>11</v>
       </c>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="159">
+      <c r="W3" s="1546"/>
+      <c r="X3" s="1546"/>
+      <c r="Y3" s="1547"/>
+      <c r="Z3" s="1555">
         <v>12</v>
       </c>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="149">
+      <c r="AA3" s="1556"/>
+      <c r="AB3" s="1556"/>
+      <c r="AC3" s="1557"/>
+      <c r="AD3" s="1545">
         <v>13</v>
       </c>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="151"/>
-      <c r="AH3" s="149">
+      <c r="AE3" s="1546"/>
+      <c r="AF3" s="1546"/>
+      <c r="AG3" s="1547"/>
+      <c r="AH3" s="1545">
         <v>14</v>
       </c>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="151"/>
-      <c r="AL3" s="149">
+      <c r="AI3" s="1546"/>
+      <c r="AJ3" s="1546"/>
+      <c r="AK3" s="1547"/>
+      <c r="AL3" s="1545">
         <v>15</v>
       </c>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="150"/>
-      <c r="AO3" s="151"/>
-      <c r="AP3" s="149">
+      <c r="AM3" s="1546"/>
+      <c r="AN3" s="1546"/>
+      <c r="AO3" s="1547"/>
+      <c r="AP3" s="1545">
         <v>16</v>
       </c>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="151"/>
-      <c r="AT3" s="149">
+      <c r="AQ3" s="1546"/>
+      <c r="AR3" s="1546"/>
+      <c r="AS3" s="1547"/>
+      <c r="AT3" s="1545">
         <v>17</v>
       </c>
-      <c r="AU3" s="150"/>
-      <c r="AV3" s="150"/>
-      <c r="AW3" s="151"/>
-      <c r="AX3" s="149">
+      <c r="AU3" s="1546"/>
+      <c r="AV3" s="1546"/>
+      <c r="AW3" s="1547"/>
+      <c r="AX3" s="1545">
         <v>18</v>
       </c>
-      <c r="AY3" s="150"/>
-      <c r="AZ3" s="150"/>
-      <c r="BA3" s="152"/>
-      <c r="BB3" s="156">
+      <c r="AY3" s="1546"/>
+      <c r="AZ3" s="1546"/>
+      <c r="BA3" s="1548"/>
+      <c r="BB3" s="1552">
         <v>19</v>
       </c>
-      <c r="BC3" s="157"/>
-      <c r="BD3" s="157"/>
-      <c r="BE3" s="158"/>
-      <c r="BF3" s="149">
+      <c r="BC3" s="1553"/>
+      <c r="BD3" s="1553"/>
+      <c r="BE3" s="1554"/>
+      <c r="BF3" s="1545">
         <v>20</v>
       </c>
-      <c r="BG3" s="150"/>
-      <c r="BH3" s="150"/>
-      <c r="BI3" s="151"/>
-      <c r="BJ3" s="149">
+      <c r="BG3" s="1546"/>
+      <c r="BH3" s="1546"/>
+      <c r="BI3" s="1547"/>
+      <c r="BJ3" s="1545">
         <v>21</v>
       </c>
-      <c r="BK3" s="150"/>
-      <c r="BL3" s="150"/>
-      <c r="BM3" s="151"/>
-      <c r="BN3" s="149">
+      <c r="BK3" s="1546"/>
+      <c r="BL3" s="1546"/>
+      <c r="BM3" s="1547"/>
+      <c r="BN3" s="1545">
         <v>22</v>
       </c>
-      <c r="BO3" s="150"/>
-      <c r="BP3" s="150"/>
-      <c r="BQ3" s="151"/>
-      <c r="BR3" s="149">
+      <c r="BO3" s="1546"/>
+      <c r="BP3" s="1546"/>
+      <c r="BQ3" s="1547"/>
+      <c r="BR3" s="1545">
         <v>23</v>
       </c>
-      <c r="BS3" s="150"/>
-      <c r="BT3" s="150"/>
-      <c r="BU3" s="150"/>
-      <c r="BV3" s="153">
+      <c r="BS3" s="1546"/>
+      <c r="BT3" s="1546"/>
+      <c r="BU3" s="1546"/>
+      <c r="BV3" s="1549">
         <v>24</v>
       </c>
-      <c r="BW3" s="154"/>
-      <c r="BX3" s="154"/>
-      <c r="BY3" s="155"/>
-      <c r="BZ3" s="150">
+      <c r="BW3" s="1550"/>
+      <c r="BX3" s="1550"/>
+      <c r="BY3" s="1551"/>
+      <c r="BZ3" s="1546">
         <v>1</v>
       </c>
-      <c r="CA3" s="150"/>
-      <c r="CB3" s="150"/>
-      <c r="CC3" s="151"/>
-      <c r="CD3" s="149">
+      <c r="CA3" s="1546"/>
+      <c r="CB3" s="1546"/>
+      <c r="CC3" s="1547"/>
+      <c r="CD3" s="1545">
         <v>2</v>
       </c>
-      <c r="CE3" s="150"/>
-      <c r="CF3" s="150"/>
-      <c r="CG3" s="151"/>
-      <c r="CH3" s="149">
+      <c r="CE3" s="1546"/>
+      <c r="CF3" s="1546"/>
+      <c r="CG3" s="1547"/>
+      <c r="CH3" s="1545">
         <v>3</v>
       </c>
-      <c r="CI3" s="150"/>
-      <c r="CJ3" s="150"/>
-      <c r="CK3" s="151"/>
-      <c r="CL3" s="149">
+      <c r="CI3" s="1546"/>
+      <c r="CJ3" s="1546"/>
+      <c r="CK3" s="1547"/>
+      <c r="CL3" s="1545">
         <v>4</v>
       </c>
-      <c r="CM3" s="150"/>
-      <c r="CN3" s="150"/>
-      <c r="CO3" s="151"/>
-      <c r="CP3" s="149">
+      <c r="CM3" s="1546"/>
+      <c r="CN3" s="1546"/>
+      <c r="CO3" s="1547"/>
+      <c r="CP3" s="1545">
         <v>5</v>
       </c>
-      <c r="CQ3" s="150"/>
-      <c r="CR3" s="150"/>
-      <c r="CS3" s="151"/>
-      <c r="CT3" s="149">
+      <c r="CQ3" s="1546"/>
+      <c r="CR3" s="1546"/>
+      <c r="CS3" s="1547"/>
+      <c r="CT3" s="1545">
         <v>6</v>
       </c>
-      <c r="CU3" s="150"/>
-      <c r="CV3" s="150"/>
-      <c r="CW3" s="152"/>
+      <c r="CU3" s="1546"/>
+      <c r="CV3" s="1546"/>
+      <c r="CW3" s="1548"/>
     </row>
     <row r="4" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
@@ -11067,7 +12800,7 @@
       <c r="CW4" s="112"/>
     </row>
     <row r="5" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="1535" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -11180,7 +12913,7 @@
       <c r="CW5" s="117"/>
     </row>
     <row r="6" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142"/>
+      <c r="A6" s="1538"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -11291,7 +13024,7 @@
       <c r="CW6" s="117"/>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A7" s="142"/>
+      <c r="A7" s="1538"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -11402,7 +13135,7 @@
       <c r="CW7" s="117"/>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A8" s="142"/>
+      <c r="A8" s="1538"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -11513,7 +13246,7 @@
       <c r="CW8" s="117"/>
     </row>
     <row r="9" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="142"/>
+      <c r="A9" s="1538"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -11624,7 +13357,7 @@
       <c r="CW9" s="117"/>
     </row>
     <row r="10" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="142"/>
+      <c r="A10" s="1538"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -11735,7 +13468,7 @@
       <c r="CW10" s="117"/>
     </row>
     <row r="11" spans="1:101" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
+      <c r="A11" s="1540"/>
       <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
@@ -11844,7 +13577,7 @@
       <c r="CW11" s="117"/>
     </row>
     <row r="12" spans="1:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="1535" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="124" t="s">
@@ -11957,7 +13690,7 @@
       <c r="CW12" s="117"/>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
+      <c r="A13" s="1538"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -12068,7 +13801,7 @@
       <c r="CW13" s="117"/>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
+      <c r="A14" s="1538"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
@@ -12179,7 +13912,7 @@
       <c r="CW14" s="117"/>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
+      <c r="A15" s="1538"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -12930,4 +14663,4898 @@
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:CW12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="101" width="1.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2" s="1558" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1559"/>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1560">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1561"/>
+      <c r="H3" s="1561"/>
+      <c r="I3" s="1562"/>
+      <c r="J3" s="1560">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1561"/>
+      <c r="L3" s="1561"/>
+      <c r="M3" s="1562"/>
+      <c r="N3" s="1560">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1561"/>
+      <c r="P3" s="1561"/>
+      <c r="Q3" s="1562"/>
+      <c r="R3" s="1560">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1561"/>
+      <c r="T3" s="1561"/>
+      <c r="U3" s="1562"/>
+      <c r="V3" s="1560">
+        <v>11</v>
+      </c>
+      <c r="W3" s="1561"/>
+      <c r="X3" s="1561"/>
+      <c r="Y3" s="1562"/>
+      <c r="Z3" s="1560">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="1561"/>
+      <c r="AB3" s="1561"/>
+      <c r="AC3" s="1562"/>
+      <c r="AD3" s="1560">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="1561"/>
+      <c r="AF3" s="1561"/>
+      <c r="AG3" s="1562"/>
+      <c r="AH3" s="1560">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="1561"/>
+      <c r="AJ3" s="1561"/>
+      <c r="AK3" s="1562"/>
+      <c r="AL3" s="1560">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="1561"/>
+      <c r="AN3" s="1561"/>
+      <c r="AO3" s="1562"/>
+      <c r="AP3" s="1560">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="1561"/>
+      <c r="AR3" s="1561"/>
+      <c r="AS3" s="1562"/>
+      <c r="AT3" s="1560">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="1561"/>
+      <c r="AV3" s="1561"/>
+      <c r="AW3" s="1562"/>
+      <c r="AX3" s="1560">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="1561"/>
+      <c r="AZ3" s="1561"/>
+      <c r="BA3" s="1562"/>
+      <c r="BB3" s="1560">
+        <v>19</v>
+      </c>
+      <c r="BC3" s="1561"/>
+      <c r="BD3" s="1561"/>
+      <c r="BE3" s="1562"/>
+      <c r="BF3" s="1560">
+        <v>20</v>
+      </c>
+      <c r="BG3" s="1561"/>
+      <c r="BH3" s="1561"/>
+      <c r="BI3" s="1562"/>
+      <c r="BJ3" s="1560">
+        <v>21</v>
+      </c>
+      <c r="BK3" s="1561"/>
+      <c r="BL3" s="1561"/>
+      <c r="BM3" s="1562"/>
+      <c r="BN3" s="1560">
+        <v>22</v>
+      </c>
+      <c r="BO3" s="1561"/>
+      <c r="BP3" s="1561"/>
+      <c r="BQ3" s="1562"/>
+      <c r="BR3" s="1560">
+        <v>23</v>
+      </c>
+      <c r="BS3" s="1561"/>
+      <c r="BT3" s="1561"/>
+      <c r="BU3" s="1562"/>
+      <c r="BV3" s="1560">
+        <v>24</v>
+      </c>
+      <c r="BW3" s="1561"/>
+      <c r="BX3" s="1561"/>
+      <c r="BY3" s="1562"/>
+      <c r="BZ3" s="1560">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="1561"/>
+      <c r="CB3" s="1561"/>
+      <c r="CC3" s="1562"/>
+      <c r="CD3" s="1560">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="1561"/>
+      <c r="CF3" s="1561"/>
+      <c r="CG3" s="1562"/>
+      <c r="CH3" s="1560">
+        <v>3</v>
+      </c>
+      <c r="CI3" s="1561"/>
+      <c r="CJ3" s="1561"/>
+      <c r="CK3" s="1562"/>
+      <c r="CL3" s="1560">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="1561"/>
+      <c r="CN3" s="1561"/>
+      <c r="CO3" s="1562"/>
+      <c r="CP3" s="1560">
+        <v>5</v>
+      </c>
+      <c r="CQ3" s="1561"/>
+      <c r="CR3" s="1561"/>
+      <c r="CS3" s="1562"/>
+      <c r="CT3" s="1560">
+        <v>6</v>
+      </c>
+      <c r="CU3" s="1561"/>
+      <c r="CV3" s="1561"/>
+      <c r="CW3" s="1562"/>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="136"/>
+      <c r="BA4" s="136"/>
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="136"/>
+      <c r="BH4" s="136"/>
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="136"/>
+      <c r="BO4" s="136"/>
+      <c r="BP4" s="136"/>
+      <c r="BQ4" s="136"/>
+      <c r="BR4" s="136"/>
+      <c r="BS4" s="136"/>
+      <c r="BT4" s="136"/>
+      <c r="BU4" s="136"/>
+      <c r="BV4" s="136"/>
+      <c r="BW4" s="136"/>
+      <c r="BX4" s="136"/>
+      <c r="BY4" s="136"/>
+      <c r="BZ4" s="136"/>
+      <c r="CA4" s="136"/>
+      <c r="CB4" s="136"/>
+      <c r="CC4" s="136"/>
+      <c r="CD4" s="136"/>
+      <c r="CE4" s="136"/>
+      <c r="CF4" s="136"/>
+      <c r="CG4" s="136"/>
+      <c r="CH4" s="136"/>
+      <c r="CI4" s="136"/>
+      <c r="CJ4" s="136"/>
+      <c r="CK4" s="136"/>
+      <c r="CL4" s="136"/>
+      <c r="CM4" s="136"/>
+      <c r="CN4" s="136"/>
+      <c r="CO4" s="136"/>
+      <c r="CP4" s="136"/>
+      <c r="CQ4" s="136"/>
+      <c r="CR4" s="136"/>
+      <c r="CS4" s="136"/>
+      <c r="CT4" s="136"/>
+      <c r="CU4" s="136"/>
+      <c r="CV4" s="136"/>
+      <c r="CW4" s="136"/>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="389"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="390"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="391"/>
+      <c r="AE5" s="392"/>
+      <c r="AF5" s="154"/>
+      <c r="AG5" s="155"/>
+      <c r="AH5" s="156"/>
+      <c r="AI5" s="157"/>
+      <c r="AJ5" s="158"/>
+      <c r="AK5" s="159"/>
+      <c r="AL5" s="160"/>
+      <c r="AM5" s="161"/>
+      <c r="AN5" s="162"/>
+      <c r="AO5" s="163"/>
+      <c r="AP5" s="164"/>
+      <c r="AQ5" s="165"/>
+      <c r="AR5" s="166"/>
+      <c r="AS5" s="167"/>
+      <c r="AT5" s="168"/>
+      <c r="AU5" s="393"/>
+      <c r="AV5" s="394"/>
+      <c r="AW5" s="169"/>
+      <c r="AX5" s="170"/>
+      <c r="AY5" s="171"/>
+      <c r="AZ5" s="172"/>
+      <c r="BA5" s="173"/>
+      <c r="BB5" s="174"/>
+      <c r="BC5" s="175"/>
+      <c r="BD5" s="176"/>
+      <c r="BE5" s="177"/>
+      <c r="BF5" s="178"/>
+      <c r="BG5" s="179"/>
+      <c r="BH5" s="180"/>
+      <c r="BI5" s="395"/>
+      <c r="BJ5" s="396"/>
+      <c r="BK5" s="397"/>
+      <c r="BL5" s="398"/>
+      <c r="BM5" s="399"/>
+      <c r="BN5" s="400"/>
+      <c r="BO5" s="401"/>
+      <c r="BP5" s="402"/>
+      <c r="BQ5" s="403"/>
+      <c r="BR5" s="404"/>
+      <c r="BS5" s="405"/>
+      <c r="BT5" s="406"/>
+      <c r="BU5" s="407"/>
+      <c r="BV5" s="136"/>
+      <c r="BW5" s="136"/>
+      <c r="BX5" s="136"/>
+      <c r="BY5" s="136"/>
+      <c r="BZ5" s="136"/>
+      <c r="CA5" s="136"/>
+      <c r="CB5" s="136"/>
+      <c r="CC5" s="136"/>
+      <c r="CD5" s="136"/>
+      <c r="CE5" s="136"/>
+      <c r="CF5" s="136"/>
+      <c r="CG5" s="136"/>
+      <c r="CH5" s="136"/>
+      <c r="CI5" s="136"/>
+      <c r="CJ5" s="136"/>
+      <c r="CK5" s="136"/>
+      <c r="CL5" s="136"/>
+      <c r="CM5" s="136"/>
+      <c r="CN5" s="136"/>
+      <c r="CO5" s="136"/>
+      <c r="CP5" s="136"/>
+      <c r="CQ5" s="136"/>
+      <c r="CR5" s="136"/>
+      <c r="CS5" s="136"/>
+      <c r="CT5" s="136"/>
+      <c r="CU5" s="136"/>
+      <c r="CV5" s="136"/>
+      <c r="CW5" s="136"/>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="408"/>
+      <c r="K6" s="409"/>
+      <c r="L6" s="410"/>
+      <c r="M6" s="411"/>
+      <c r="N6" s="412"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="186"/>
+      <c r="U6" s="187"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="413"/>
+      <c r="Y6" s="414"/>
+      <c r="Z6" s="190"/>
+      <c r="AA6" s="191"/>
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="415"/>
+      <c r="AE6" s="416"/>
+      <c r="AF6" s="194"/>
+      <c r="AG6" s="195"/>
+      <c r="AH6" s="196"/>
+      <c r="AI6" s="197"/>
+      <c r="AJ6" s="198"/>
+      <c r="AK6" s="199"/>
+      <c r="AL6" s="200"/>
+      <c r="AM6" s="201"/>
+      <c r="AN6" s="202"/>
+      <c r="AO6" s="203"/>
+      <c r="AP6" s="204"/>
+      <c r="AQ6" s="205"/>
+      <c r="AR6" s="206"/>
+      <c r="AS6" s="207"/>
+      <c r="AT6" s="208"/>
+      <c r="AU6" s="417"/>
+      <c r="AV6" s="418"/>
+      <c r="AW6" s="209"/>
+      <c r="AX6" s="210"/>
+      <c r="AY6" s="211"/>
+      <c r="AZ6" s="212"/>
+      <c r="BA6" s="213"/>
+      <c r="BB6" s="214"/>
+      <c r="BC6" s="215"/>
+      <c r="BD6" s="216"/>
+      <c r="BE6" s="217"/>
+      <c r="BF6" s="218"/>
+      <c r="BG6" s="219"/>
+      <c r="BH6" s="220"/>
+      <c r="BI6" s="221"/>
+      <c r="BJ6" s="419"/>
+      <c r="BK6" s="420"/>
+      <c r="BL6" s="421"/>
+      <c r="BM6" s="422"/>
+      <c r="BN6" s="423"/>
+      <c r="BO6" s="424"/>
+      <c r="BP6" s="425"/>
+      <c r="BQ6" s="426"/>
+      <c r="BR6" s="427"/>
+      <c r="BS6" s="428"/>
+      <c r="BT6" s="429"/>
+      <c r="BU6" s="430"/>
+      <c r="BV6" s="136"/>
+      <c r="BW6" s="136"/>
+      <c r="BX6" s="136"/>
+      <c r="BY6" s="136"/>
+      <c r="BZ6" s="136"/>
+      <c r="CA6" s="136"/>
+      <c r="CB6" s="136"/>
+      <c r="CC6" s="136"/>
+      <c r="CD6" s="136"/>
+      <c r="CE6" s="136"/>
+      <c r="CF6" s="136"/>
+      <c r="CG6" s="136"/>
+      <c r="CH6" s="136"/>
+      <c r="CI6" s="136"/>
+      <c r="CJ6" s="136"/>
+      <c r="CK6" s="136"/>
+      <c r="CL6" s="136"/>
+      <c r="CM6" s="136"/>
+      <c r="CN6" s="136"/>
+      <c r="CO6" s="136"/>
+      <c r="CP6" s="136"/>
+      <c r="CQ6" s="136"/>
+      <c r="CR6" s="136"/>
+      <c r="CS6" s="136"/>
+      <c r="CT6" s="136"/>
+      <c r="CU6" s="136"/>
+      <c r="CV6" s="136"/>
+      <c r="CW6" s="136"/>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="431"/>
+      <c r="O7" s="432"/>
+      <c r="P7" s="433"/>
+      <c r="Q7" s="434"/>
+      <c r="R7" s="435"/>
+      <c r="S7" s="436"/>
+      <c r="T7" s="437"/>
+      <c r="U7" s="438"/>
+      <c r="V7" s="439"/>
+      <c r="W7" s="440"/>
+      <c r="X7" s="441"/>
+      <c r="Y7" s="442"/>
+      <c r="Z7" s="443"/>
+      <c r="AA7" s="444"/>
+      <c r="AB7" s="445"/>
+      <c r="AC7" s="446"/>
+      <c r="AD7" s="222"/>
+      <c r="AE7" s="223"/>
+      <c r="AF7" s="224"/>
+      <c r="AG7" s="225"/>
+      <c r="AH7" s="226"/>
+      <c r="AI7" s="227"/>
+      <c r="AJ7" s="228"/>
+      <c r="AK7" s="229"/>
+      <c r="AL7" s="447"/>
+      <c r="AM7" s="448"/>
+      <c r="AN7" s="449"/>
+      <c r="AO7" s="450"/>
+      <c r="AP7" s="451"/>
+      <c r="AQ7" s="452"/>
+      <c r="AR7" s="453"/>
+      <c r="AS7" s="454"/>
+      <c r="AT7" s="455"/>
+      <c r="AU7" s="456"/>
+      <c r="AV7" s="457"/>
+      <c r="AW7" s="458"/>
+      <c r="AX7" s="459"/>
+      <c r="AY7" s="460"/>
+      <c r="AZ7" s="461"/>
+      <c r="BA7" s="462"/>
+      <c r="BB7" s="463"/>
+      <c r="BC7" s="464"/>
+      <c r="BD7" s="465"/>
+      <c r="BE7" s="466"/>
+      <c r="BF7" s="467"/>
+      <c r="BG7" s="468"/>
+      <c r="BH7" s="469"/>
+      <c r="BI7" s="470"/>
+      <c r="BJ7" s="471"/>
+      <c r="BK7" s="472"/>
+      <c r="BL7" s="473"/>
+      <c r="BM7" s="474"/>
+      <c r="BN7" s="475"/>
+      <c r="BO7" s="476"/>
+      <c r="BP7" s="477"/>
+      <c r="BQ7" s="478"/>
+      <c r="BR7" s="479"/>
+      <c r="BS7" s="480"/>
+      <c r="BT7" s="481"/>
+      <c r="BU7" s="482"/>
+      <c r="BV7" s="136"/>
+      <c r="BW7" s="136"/>
+      <c r="BX7" s="136"/>
+      <c r="BY7" s="136"/>
+      <c r="BZ7" s="136"/>
+      <c r="CA7" s="136"/>
+      <c r="CB7" s="136"/>
+      <c r="CC7" s="136"/>
+      <c r="CD7" s="136"/>
+      <c r="CE7" s="136"/>
+      <c r="CF7" s="136"/>
+      <c r="CG7" s="136"/>
+      <c r="CH7" s="136"/>
+      <c r="CI7" s="136"/>
+      <c r="CJ7" s="136"/>
+      <c r="CK7" s="136"/>
+      <c r="CL7" s="136"/>
+      <c r="CM7" s="136"/>
+      <c r="CN7" s="136"/>
+      <c r="CO7" s="136"/>
+      <c r="CP7" s="136"/>
+      <c r="CQ7" s="136"/>
+      <c r="CR7" s="136"/>
+      <c r="CS7" s="136"/>
+      <c r="CT7" s="136"/>
+      <c r="CU7" s="136"/>
+      <c r="CV7" s="136"/>
+      <c r="CW7" s="136"/>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="232"/>
+      <c r="U8" s="233"/>
+      <c r="V8" s="234"/>
+      <c r="W8" s="235"/>
+      <c r="X8" s="236"/>
+      <c r="Y8" s="237"/>
+      <c r="Z8" s="238"/>
+      <c r="AA8" s="483"/>
+      <c r="AB8" s="484"/>
+      <c r="AC8" s="239"/>
+      <c r="AD8" s="485"/>
+      <c r="AE8" s="486"/>
+      <c r="AF8" s="240"/>
+      <c r="AG8" s="241"/>
+      <c r="AH8" s="242"/>
+      <c r="AI8" s="243"/>
+      <c r="AJ8" s="244"/>
+      <c r="AK8" s="245"/>
+      <c r="AL8" s="246"/>
+      <c r="AM8" s="247"/>
+      <c r="AN8" s="248"/>
+      <c r="AO8" s="249"/>
+      <c r="AP8" s="250"/>
+      <c r="AQ8" s="251"/>
+      <c r="AR8" s="252"/>
+      <c r="AS8" s="253"/>
+      <c r="AT8" s="254"/>
+      <c r="AU8" s="255"/>
+      <c r="AV8" s="487"/>
+      <c r="AW8" s="256"/>
+      <c r="AX8" s="257"/>
+      <c r="AY8" s="258"/>
+      <c r="AZ8" s="259"/>
+      <c r="BA8" s="260"/>
+      <c r="BB8" s="261"/>
+      <c r="BC8" s="262"/>
+      <c r="BD8" s="263"/>
+      <c r="BE8" s="264"/>
+      <c r="BF8" s="265"/>
+      <c r="BG8" s="266"/>
+      <c r="BH8" s="267"/>
+      <c r="BI8" s="488"/>
+      <c r="BJ8" s="489"/>
+      <c r="BK8" s="490"/>
+      <c r="BL8" s="491"/>
+      <c r="BM8" s="492"/>
+      <c r="BN8" s="493"/>
+      <c r="BO8" s="494"/>
+      <c r="BP8" s="495"/>
+      <c r="BQ8" s="496"/>
+      <c r="BR8" s="497"/>
+      <c r="BS8" s="498"/>
+      <c r="BT8" s="499"/>
+      <c r="BU8" s="500"/>
+      <c r="BV8" s="136"/>
+      <c r="BW8" s="136"/>
+      <c r="BX8" s="136"/>
+      <c r="BY8" s="136"/>
+      <c r="BZ8" s="136"/>
+      <c r="CA8" s="136"/>
+      <c r="CB8" s="136"/>
+      <c r="CC8" s="136"/>
+      <c r="CD8" s="136"/>
+      <c r="CE8" s="136"/>
+      <c r="CF8" s="136"/>
+      <c r="CG8" s="136"/>
+      <c r="CH8" s="136"/>
+      <c r="CI8" s="136"/>
+      <c r="CJ8" s="136"/>
+      <c r="CK8" s="136"/>
+      <c r="CL8" s="136"/>
+      <c r="CM8" s="136"/>
+      <c r="CN8" s="136"/>
+      <c r="CO8" s="136"/>
+      <c r="CP8" s="136"/>
+      <c r="CQ8" s="136"/>
+      <c r="CR8" s="136"/>
+      <c r="CS8" s="136"/>
+      <c r="CT8" s="136"/>
+      <c r="CU8" s="136"/>
+      <c r="CV8" s="136"/>
+      <c r="CW8" s="136"/>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="268"/>
+      <c r="O9" s="269"/>
+      <c r="P9" s="270"/>
+      <c r="Q9" s="271"/>
+      <c r="R9" s="272"/>
+      <c r="S9" s="273"/>
+      <c r="T9" s="274"/>
+      <c r="U9" s="275"/>
+      <c r="V9" s="276"/>
+      <c r="W9" s="277"/>
+      <c r="X9" s="501"/>
+      <c r="Y9" s="502"/>
+      <c r="Z9" s="278"/>
+      <c r="AA9" s="503"/>
+      <c r="AB9" s="504"/>
+      <c r="AC9" s="279"/>
+      <c r="AD9" s="505"/>
+      <c r="AE9" s="506"/>
+      <c r="AF9" s="280"/>
+      <c r="AG9" s="281"/>
+      <c r="AH9" s="282"/>
+      <c r="AI9" s="283"/>
+      <c r="AJ9" s="284"/>
+      <c r="AK9" s="285"/>
+      <c r="AL9" s="286"/>
+      <c r="AM9" s="287"/>
+      <c r="AN9" s="288"/>
+      <c r="AO9" s="289"/>
+      <c r="AP9" s="290"/>
+      <c r="AQ9" s="291"/>
+      <c r="AR9" s="292"/>
+      <c r="AS9" s="293"/>
+      <c r="AT9" s="294"/>
+      <c r="AU9" s="295"/>
+      <c r="AV9" s="507"/>
+      <c r="AW9" s="296"/>
+      <c r="AX9" s="297"/>
+      <c r="AY9" s="298"/>
+      <c r="AZ9" s="299"/>
+      <c r="BA9" s="300"/>
+      <c r="BB9" s="301"/>
+      <c r="BC9" s="302"/>
+      <c r="BD9" s="303"/>
+      <c r="BE9" s="304"/>
+      <c r="BF9" s="305"/>
+      <c r="BG9" s="306"/>
+      <c r="BH9" s="307"/>
+      <c r="BI9" s="136"/>
+      <c r="BJ9" s="508"/>
+      <c r="BK9" s="509"/>
+      <c r="BL9" s="510"/>
+      <c r="BM9" s="511"/>
+      <c r="BN9" s="512"/>
+      <c r="BO9" s="513"/>
+      <c r="BP9" s="514"/>
+      <c r="BQ9" s="515"/>
+      <c r="BR9" s="516"/>
+      <c r="BS9" s="517"/>
+      <c r="BT9" s="518"/>
+      <c r="BU9" s="519"/>
+      <c r="BV9" s="136"/>
+      <c r="BW9" s="136"/>
+      <c r="BX9" s="136"/>
+      <c r="BY9" s="136"/>
+      <c r="BZ9" s="136"/>
+      <c r="CA9" s="136"/>
+      <c r="CB9" s="136"/>
+      <c r="CC9" s="136"/>
+      <c r="CD9" s="136"/>
+      <c r="CE9" s="136"/>
+      <c r="CF9" s="136"/>
+      <c r="CG9" s="136"/>
+      <c r="CH9" s="136"/>
+      <c r="CI9" s="136"/>
+      <c r="CJ9" s="136"/>
+      <c r="CK9" s="136"/>
+      <c r="CL9" s="136"/>
+      <c r="CM9" s="136"/>
+      <c r="CN9" s="136"/>
+      <c r="CO9" s="136"/>
+      <c r="CP9" s="136"/>
+      <c r="CQ9" s="136"/>
+      <c r="CR9" s="136"/>
+      <c r="CS9" s="136"/>
+      <c r="CT9" s="136"/>
+      <c r="CU9" s="136"/>
+      <c r="CV9" s="136"/>
+      <c r="CW9" s="136"/>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="308"/>
+      <c r="Q10" s="309"/>
+      <c r="R10" s="310"/>
+      <c r="S10" s="311"/>
+      <c r="T10" s="312"/>
+      <c r="U10" s="313"/>
+      <c r="V10" s="314"/>
+      <c r="W10" s="315"/>
+      <c r="X10" s="316"/>
+      <c r="Y10" s="520"/>
+      <c r="Z10" s="521"/>
+      <c r="AA10" s="317"/>
+      <c r="AB10" s="522"/>
+      <c r="AC10" s="318"/>
+      <c r="AD10" s="319"/>
+      <c r="AE10" s="523"/>
+      <c r="AF10" s="320"/>
+      <c r="AG10" s="321"/>
+      <c r="AH10" s="322"/>
+      <c r="AI10" s="524"/>
+      <c r="AJ10" s="525"/>
+      <c r="AK10" s="526"/>
+      <c r="AL10" s="527"/>
+      <c r="AM10" s="323"/>
+      <c r="AN10" s="324"/>
+      <c r="AO10" s="325"/>
+      <c r="AP10" s="326"/>
+      <c r="AQ10" s="327"/>
+      <c r="AR10" s="328"/>
+      <c r="AS10" s="329"/>
+      <c r="AT10" s="330"/>
+      <c r="AU10" s="528"/>
+      <c r="AV10" s="331"/>
+      <c r="AW10" s="332"/>
+      <c r="AX10" s="333"/>
+      <c r="AY10" s="334"/>
+      <c r="AZ10" s="335"/>
+      <c r="BA10" s="336"/>
+      <c r="BB10" s="337"/>
+      <c r="BC10" s="338"/>
+      <c r="BD10" s="339"/>
+      <c r="BE10" s="340"/>
+      <c r="BF10" s="341"/>
+      <c r="BG10" s="342"/>
+      <c r="BH10" s="343"/>
+      <c r="BI10" s="529"/>
+      <c r="BJ10" s="530"/>
+      <c r="BK10" s="531"/>
+      <c r="BL10" s="532"/>
+      <c r="BM10" s="533"/>
+      <c r="BN10" s="534"/>
+      <c r="BO10" s="535"/>
+      <c r="BP10" s="536"/>
+      <c r="BQ10" s="537"/>
+      <c r="BR10" s="538"/>
+      <c r="BS10" s="539"/>
+      <c r="BT10" s="540"/>
+      <c r="BU10" s="541"/>
+      <c r="BV10" s="136"/>
+      <c r="BW10" s="136"/>
+      <c r="BX10" s="136"/>
+      <c r="BY10" s="136"/>
+      <c r="BZ10" s="136"/>
+      <c r="CA10" s="136"/>
+      <c r="CB10" s="136"/>
+      <c r="CC10" s="136"/>
+      <c r="CD10" s="136"/>
+      <c r="CE10" s="136"/>
+      <c r="CF10" s="136"/>
+      <c r="CG10" s="136"/>
+      <c r="CH10" s="136"/>
+      <c r="CI10" s="136"/>
+      <c r="CJ10" s="136"/>
+      <c r="CK10" s="136"/>
+      <c r="CL10" s="136"/>
+      <c r="CM10" s="136"/>
+      <c r="CN10" s="136"/>
+      <c r="CO10" s="136"/>
+      <c r="CP10" s="136"/>
+      <c r="CQ10" s="136"/>
+      <c r="CR10" s="136"/>
+      <c r="CS10" s="136"/>
+      <c r="CT10" s="136"/>
+      <c r="CU10" s="136"/>
+      <c r="CV10" s="136"/>
+      <c r="CW10" s="136"/>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="344"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="136"/>
+      <c r="AC11" s="136"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="136"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="136"/>
+      <c r="AJ11" s="136"/>
+      <c r="AK11" s="136"/>
+      <c r="AL11" s="136"/>
+      <c r="AM11" s="136"/>
+      <c r="AN11" s="136"/>
+      <c r="AO11" s="136"/>
+      <c r="AP11" s="136"/>
+      <c r="AQ11" s="136"/>
+      <c r="AR11" s="136"/>
+      <c r="AS11" s="136"/>
+      <c r="AT11" s="136"/>
+      <c r="AU11" s="136"/>
+      <c r="AV11" s="136"/>
+      <c r="AW11" s="136"/>
+      <c r="AX11" s="136"/>
+      <c r="AY11" s="136"/>
+      <c r="AZ11" s="136"/>
+      <c r="BA11" s="136"/>
+      <c r="BB11" s="136"/>
+      <c r="BC11" s="136"/>
+      <c r="BD11" s="136"/>
+      <c r="BE11" s="136"/>
+      <c r="BF11" s="136"/>
+      <c r="BG11" s="136"/>
+      <c r="BH11" s="136"/>
+      <c r="BI11" s="136"/>
+      <c r="BJ11" s="136"/>
+      <c r="BK11" s="136"/>
+      <c r="BL11" s="136"/>
+      <c r="BM11" s="136"/>
+      <c r="BN11" s="136"/>
+      <c r="BO11" s="136"/>
+      <c r="BP11" s="136"/>
+      <c r="BQ11" s="136"/>
+      <c r="BR11" s="136"/>
+      <c r="BS11" s="136"/>
+      <c r="BT11" s="136"/>
+      <c r="BU11" s="136"/>
+      <c r="BV11" s="136"/>
+      <c r="BW11" s="136"/>
+      <c r="BX11" s="136"/>
+      <c r="BY11" s="136"/>
+      <c r="BZ11" s="136"/>
+      <c r="CA11" s="136"/>
+      <c r="CB11" s="136"/>
+      <c r="CC11" s="136"/>
+      <c r="CD11" s="136"/>
+      <c r="CE11" s="136"/>
+      <c r="CF11" s="136"/>
+      <c r="CG11" s="136"/>
+      <c r="CH11" s="136"/>
+      <c r="CI11" s="136"/>
+      <c r="CJ11" s="136"/>
+      <c r="CK11" s="136"/>
+      <c r="CL11" s="136"/>
+      <c r="CM11" s="136"/>
+      <c r="CN11" s="136"/>
+      <c r="CO11" s="136"/>
+      <c r="CP11" s="136"/>
+      <c r="CQ11" s="136"/>
+      <c r="CR11" s="136"/>
+      <c r="CS11" s="136"/>
+      <c r="CT11" s="136"/>
+      <c r="CU11" s="136"/>
+      <c r="CV11" s="136"/>
+      <c r="CW11" s="136"/>
+    </row>
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A12" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="542"/>
+      <c r="J12" s="543"/>
+      <c r="K12" s="544"/>
+      <c r="L12" s="545"/>
+      <c r="M12" s="546"/>
+      <c r="N12" s="345"/>
+      <c r="O12" s="346"/>
+      <c r="P12" s="347"/>
+      <c r="Q12" s="348"/>
+      <c r="R12" s="349"/>
+      <c r="S12" s="350"/>
+      <c r="T12" s="351"/>
+      <c r="U12" s="352"/>
+      <c r="V12" s="353"/>
+      <c r="W12" s="354"/>
+      <c r="X12" s="355"/>
+      <c r="Y12" s="547"/>
+      <c r="Z12" s="356"/>
+      <c r="AA12" s="357"/>
+      <c r="AB12" s="358"/>
+      <c r="AC12" s="359"/>
+      <c r="AD12" s="548"/>
+      <c r="AE12" s="549"/>
+      <c r="AF12" s="360"/>
+      <c r="AG12" s="361"/>
+      <c r="AH12" s="362"/>
+      <c r="AI12" s="363"/>
+      <c r="AJ12" s="364"/>
+      <c r="AK12" s="365"/>
+      <c r="AL12" s="366"/>
+      <c r="AM12" s="367"/>
+      <c r="AN12" s="368"/>
+      <c r="AO12" s="369"/>
+      <c r="AP12" s="370"/>
+      <c r="AQ12" s="371"/>
+      <c r="AR12" s="372"/>
+      <c r="AS12" s="373"/>
+      <c r="AT12" s="374"/>
+      <c r="AU12" s="375"/>
+      <c r="AV12" s="550"/>
+      <c r="AW12" s="376"/>
+      <c r="AX12" s="377"/>
+      <c r="AY12" s="378"/>
+      <c r="AZ12" s="379"/>
+      <c r="BA12" s="380"/>
+      <c r="BB12" s="381"/>
+      <c r="BC12" s="382"/>
+      <c r="BD12" s="383"/>
+      <c r="BE12" s="384"/>
+      <c r="BF12" s="385"/>
+      <c r="BG12" s="386"/>
+      <c r="BH12" s="387"/>
+      <c r="BI12" s="388"/>
+      <c r="BJ12" s="136"/>
+      <c r="BK12" s="136"/>
+      <c r="BL12" s="136"/>
+      <c r="BM12" s="136"/>
+      <c r="BN12" s="136"/>
+      <c r="BO12" s="136"/>
+      <c r="BP12" s="136"/>
+      <c r="BQ12" s="136"/>
+      <c r="BR12" s="136"/>
+      <c r="BS12" s="136"/>
+      <c r="BT12" s="136"/>
+      <c r="BU12" s="136"/>
+      <c r="BV12" s="136"/>
+      <c r="BW12" s="136"/>
+      <c r="BX12" s="136"/>
+      <c r="BY12" s="136"/>
+      <c r="BZ12" s="136"/>
+      <c r="CA12" s="136"/>
+      <c r="CB12" s="136"/>
+      <c r="CC12" s="136"/>
+      <c r="CD12" s="136"/>
+      <c r="CE12" s="136"/>
+      <c r="CF12" s="136"/>
+      <c r="CG12" s="136"/>
+      <c r="CH12" s="136"/>
+      <c r="CI12" s="136"/>
+      <c r="CJ12" s="136"/>
+      <c r="CK12" s="136"/>
+      <c r="CL12" s="136"/>
+      <c r="CM12" s="136"/>
+      <c r="CN12" s="136"/>
+      <c r="CO12" s="136"/>
+      <c r="CP12" s="136"/>
+      <c r="CQ12" s="136"/>
+      <c r="CR12" s="136"/>
+      <c r="CS12" s="136"/>
+      <c r="CT12" s="136"/>
+      <c r="CU12" s="136"/>
+      <c r="CV12" s="136"/>
+      <c r="CW12" s="136"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:CW12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="101" width="1.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2" s="1563" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1559"/>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3" s="551" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="551" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="551" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="551" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="551" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1564">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1561"/>
+      <c r="H3" s="1561"/>
+      <c r="I3" s="1562"/>
+      <c r="J3" s="1564">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1561"/>
+      <c r="L3" s="1561"/>
+      <c r="M3" s="1562"/>
+      <c r="N3" s="1564">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1561"/>
+      <c r="P3" s="1561"/>
+      <c r="Q3" s="1562"/>
+      <c r="R3" s="1564">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1561"/>
+      <c r="T3" s="1561"/>
+      <c r="U3" s="1562"/>
+      <c r="V3" s="1564">
+        <v>11</v>
+      </c>
+      <c r="W3" s="1561"/>
+      <c r="X3" s="1561"/>
+      <c r="Y3" s="1562"/>
+      <c r="Z3" s="1564">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="1561"/>
+      <c r="AB3" s="1561"/>
+      <c r="AC3" s="1562"/>
+      <c r="AD3" s="1564">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="1561"/>
+      <c r="AF3" s="1561"/>
+      <c r="AG3" s="1562"/>
+      <c r="AH3" s="1564">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="1561"/>
+      <c r="AJ3" s="1561"/>
+      <c r="AK3" s="1562"/>
+      <c r="AL3" s="1564">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="1561"/>
+      <c r="AN3" s="1561"/>
+      <c r="AO3" s="1562"/>
+      <c r="AP3" s="1564">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="1561"/>
+      <c r="AR3" s="1561"/>
+      <c r="AS3" s="1562"/>
+      <c r="AT3" s="1564">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="1561"/>
+      <c r="AV3" s="1561"/>
+      <c r="AW3" s="1562"/>
+      <c r="AX3" s="1564">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="1561"/>
+      <c r="AZ3" s="1561"/>
+      <c r="BA3" s="1562"/>
+      <c r="BB3" s="1564">
+        <v>19</v>
+      </c>
+      <c r="BC3" s="1561"/>
+      <c r="BD3" s="1561"/>
+      <c r="BE3" s="1562"/>
+      <c r="BF3" s="1564">
+        <v>20</v>
+      </c>
+      <c r="BG3" s="1561"/>
+      <c r="BH3" s="1561"/>
+      <c r="BI3" s="1562"/>
+      <c r="BJ3" s="1564">
+        <v>21</v>
+      </c>
+      <c r="BK3" s="1561"/>
+      <c r="BL3" s="1561"/>
+      <c r="BM3" s="1562"/>
+      <c r="BN3" s="1564">
+        <v>22</v>
+      </c>
+      <c r="BO3" s="1561"/>
+      <c r="BP3" s="1561"/>
+      <c r="BQ3" s="1562"/>
+      <c r="BR3" s="1564">
+        <v>23</v>
+      </c>
+      <c r="BS3" s="1561"/>
+      <c r="BT3" s="1561"/>
+      <c r="BU3" s="1562"/>
+      <c r="BV3" s="1564">
+        <v>24</v>
+      </c>
+      <c r="BW3" s="1561"/>
+      <c r="BX3" s="1561"/>
+      <c r="BY3" s="1562"/>
+      <c r="BZ3" s="1564">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="1561"/>
+      <c r="CB3" s="1561"/>
+      <c r="CC3" s="1562"/>
+      <c r="CD3" s="1564">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="1561"/>
+      <c r="CF3" s="1561"/>
+      <c r="CG3" s="1562"/>
+      <c r="CH3" s="1564">
+        <v>3</v>
+      </c>
+      <c r="CI3" s="1561"/>
+      <c r="CJ3" s="1561"/>
+      <c r="CK3" s="1562"/>
+      <c r="CL3" s="1564">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="1561"/>
+      <c r="CN3" s="1561"/>
+      <c r="CO3" s="1562"/>
+      <c r="CP3" s="1564">
+        <v>5</v>
+      </c>
+      <c r="CQ3" s="1561"/>
+      <c r="CR3" s="1561"/>
+      <c r="CS3" s="1562"/>
+      <c r="CT3" s="1564">
+        <v>6</v>
+      </c>
+      <c r="CU3" s="1561"/>
+      <c r="CV3" s="1561"/>
+      <c r="CW3" s="1562"/>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="136"/>
+      <c r="BA4" s="136"/>
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="136"/>
+      <c r="BH4" s="136"/>
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="136"/>
+      <c r="BO4" s="136"/>
+      <c r="BP4" s="136"/>
+      <c r="BQ4" s="136"/>
+      <c r="BR4" s="136"/>
+      <c r="BS4" s="136"/>
+      <c r="BT4" s="136"/>
+      <c r="BU4" s="136"/>
+      <c r="BV4" s="136"/>
+      <c r="BW4" s="136"/>
+      <c r="BX4" s="136"/>
+      <c r="BY4" s="136"/>
+      <c r="BZ4" s="136"/>
+      <c r="CA4" s="136"/>
+      <c r="CB4" s="136"/>
+      <c r="CC4" s="136"/>
+      <c r="CD4" s="136"/>
+      <c r="CE4" s="136"/>
+      <c r="CF4" s="136"/>
+      <c r="CG4" s="136"/>
+      <c r="CH4" s="136"/>
+      <c r="CI4" s="136"/>
+      <c r="CJ4" s="136"/>
+      <c r="CK4" s="136"/>
+      <c r="CL4" s="136"/>
+      <c r="CM4" s="136"/>
+      <c r="CN4" s="136"/>
+      <c r="CO4" s="136"/>
+      <c r="CP4" s="136"/>
+      <c r="CQ4" s="136"/>
+      <c r="CR4" s="136"/>
+      <c r="CS4" s="136"/>
+      <c r="CT4" s="136"/>
+      <c r="CU4" s="136"/>
+      <c r="CV4" s="136"/>
+      <c r="CW4" s="136"/>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="552"/>
+      <c r="O5" s="553"/>
+      <c r="P5" s="554"/>
+      <c r="Q5" s="555"/>
+      <c r="R5" s="556"/>
+      <c r="S5" s="557"/>
+      <c r="T5" s="558"/>
+      <c r="U5" s="559"/>
+      <c r="V5" s="560"/>
+      <c r="W5" s="561"/>
+      <c r="X5" s="562"/>
+      <c r="Y5" s="563"/>
+      <c r="Z5" s="564"/>
+      <c r="AA5" s="565"/>
+      <c r="AB5" s="566"/>
+      <c r="AC5" s="567"/>
+      <c r="AD5" s="568"/>
+      <c r="AE5" s="569"/>
+      <c r="AF5" s="797"/>
+      <c r="AG5" s="798"/>
+      <c r="AH5" s="570"/>
+      <c r="AI5" s="571"/>
+      <c r="AJ5" s="572"/>
+      <c r="AK5" s="573"/>
+      <c r="AL5" s="574"/>
+      <c r="AM5" s="575"/>
+      <c r="AN5" s="799"/>
+      <c r="AO5" s="800"/>
+      <c r="AP5" s="801"/>
+      <c r="AQ5" s="802"/>
+      <c r="AR5" s="576"/>
+      <c r="AS5" s="577"/>
+      <c r="AT5" s="578"/>
+      <c r="AU5" s="579"/>
+      <c r="AV5" s="803"/>
+      <c r="AW5" s="804"/>
+      <c r="AX5" s="805"/>
+      <c r="AY5" s="580"/>
+      <c r="AZ5" s="806"/>
+      <c r="BA5" s="807"/>
+      <c r="BB5" s="808"/>
+      <c r="BC5" s="809"/>
+      <c r="BD5" s="810"/>
+      <c r="BE5" s="811"/>
+      <c r="BF5" s="812"/>
+      <c r="BG5" s="813"/>
+      <c r="BH5" s="814"/>
+      <c r="BI5" s="815"/>
+      <c r="BJ5" s="816"/>
+      <c r="BK5" s="817"/>
+      <c r="BL5" s="818"/>
+      <c r="BM5" s="819"/>
+      <c r="BN5" s="820"/>
+      <c r="BO5" s="821"/>
+      <c r="BP5" s="822"/>
+      <c r="BQ5" s="823"/>
+      <c r="BR5" s="824"/>
+      <c r="BS5" s="825"/>
+      <c r="BT5" s="826"/>
+      <c r="BU5" s="827"/>
+      <c r="BV5" s="136"/>
+      <c r="BW5" s="136"/>
+      <c r="BX5" s="136"/>
+      <c r="BY5" s="136"/>
+      <c r="BZ5" s="136"/>
+      <c r="CA5" s="136"/>
+      <c r="CB5" s="136"/>
+      <c r="CC5" s="136"/>
+      <c r="CD5" s="136"/>
+      <c r="CE5" s="136"/>
+      <c r="CF5" s="136"/>
+      <c r="CG5" s="136"/>
+      <c r="CH5" s="136"/>
+      <c r="CI5" s="136"/>
+      <c r="CJ5" s="136"/>
+      <c r="CK5" s="136"/>
+      <c r="CL5" s="136"/>
+      <c r="CM5" s="136"/>
+      <c r="CN5" s="136"/>
+      <c r="CO5" s="136"/>
+      <c r="CP5" s="136"/>
+      <c r="CQ5" s="136"/>
+      <c r="CR5" s="136"/>
+      <c r="CS5" s="136"/>
+      <c r="CT5" s="136"/>
+      <c r="CU5" s="136"/>
+      <c r="CV5" s="136"/>
+      <c r="CW5" s="136"/>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="828"/>
+      <c r="N6" s="581"/>
+      <c r="O6" s="582"/>
+      <c r="P6" s="583"/>
+      <c r="Q6" s="584"/>
+      <c r="R6" s="585"/>
+      <c r="S6" s="586"/>
+      <c r="T6" s="587"/>
+      <c r="U6" s="588"/>
+      <c r="V6" s="589"/>
+      <c r="W6" s="829"/>
+      <c r="X6" s="830"/>
+      <c r="Y6" s="831"/>
+      <c r="Z6" s="832"/>
+      <c r="AA6" s="833"/>
+      <c r="AB6" s="834"/>
+      <c r="AC6" s="835"/>
+      <c r="AD6" s="836"/>
+      <c r="AE6" s="590"/>
+      <c r="AF6" s="837"/>
+      <c r="AG6" s="838"/>
+      <c r="AH6" s="591"/>
+      <c r="AI6" s="592"/>
+      <c r="AJ6" s="593"/>
+      <c r="AK6" s="594"/>
+      <c r="AL6" s="595"/>
+      <c r="AM6" s="596"/>
+      <c r="AN6" s="839"/>
+      <c r="AO6" s="597"/>
+      <c r="AP6" s="598"/>
+      <c r="AQ6" s="599"/>
+      <c r="AR6" s="600"/>
+      <c r="AS6" s="601"/>
+      <c r="AT6" s="602"/>
+      <c r="AU6" s="603"/>
+      <c r="AV6" s="604"/>
+      <c r="AW6" s="605"/>
+      <c r="AX6" s="606"/>
+      <c r="AY6" s="607"/>
+      <c r="AZ6" s="608"/>
+      <c r="BA6" s="609"/>
+      <c r="BB6" s="610"/>
+      <c r="BC6" s="611"/>
+      <c r="BD6" s="612"/>
+      <c r="BE6" s="136"/>
+      <c r="BF6" s="840"/>
+      <c r="BG6" s="841"/>
+      <c r="BH6" s="842"/>
+      <c r="BI6" s="843"/>
+      <c r="BJ6" s="844"/>
+      <c r="BK6" s="845"/>
+      <c r="BL6" s="846"/>
+      <c r="BM6" s="847"/>
+      <c r="BN6" s="848"/>
+      <c r="BO6" s="849"/>
+      <c r="BP6" s="850"/>
+      <c r="BQ6" s="851"/>
+      <c r="BR6" s="852"/>
+      <c r="BS6" s="853"/>
+      <c r="BT6" s="854"/>
+      <c r="BU6" s="855"/>
+      <c r="BV6" s="136"/>
+      <c r="BW6" s="136"/>
+      <c r="BX6" s="136"/>
+      <c r="BY6" s="136"/>
+      <c r="BZ6" s="136"/>
+      <c r="CA6" s="136"/>
+      <c r="CB6" s="136"/>
+      <c r="CC6" s="136"/>
+      <c r="CD6" s="136"/>
+      <c r="CE6" s="136"/>
+      <c r="CF6" s="136"/>
+      <c r="CG6" s="136"/>
+      <c r="CH6" s="136"/>
+      <c r="CI6" s="136"/>
+      <c r="CJ6" s="136"/>
+      <c r="CK6" s="136"/>
+      <c r="CL6" s="136"/>
+      <c r="CM6" s="136"/>
+      <c r="CN6" s="136"/>
+      <c r="CO6" s="136"/>
+      <c r="CP6" s="136"/>
+      <c r="CQ6" s="136"/>
+      <c r="CR6" s="136"/>
+      <c r="CS6" s="136"/>
+      <c r="CT6" s="136"/>
+      <c r="CU6" s="136"/>
+      <c r="CV6" s="136"/>
+      <c r="CW6" s="136"/>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="856"/>
+      <c r="N7" s="613"/>
+      <c r="O7" s="614"/>
+      <c r="P7" s="615"/>
+      <c r="Q7" s="616"/>
+      <c r="R7" s="617"/>
+      <c r="S7" s="618"/>
+      <c r="T7" s="619"/>
+      <c r="U7" s="620"/>
+      <c r="V7" s="621"/>
+      <c r="W7" s="622"/>
+      <c r="X7" s="623"/>
+      <c r="Y7" s="624"/>
+      <c r="Z7" s="625"/>
+      <c r="AA7" s="626"/>
+      <c r="AB7" s="627"/>
+      <c r="AC7" s="628"/>
+      <c r="AD7" s="629"/>
+      <c r="AE7" s="630"/>
+      <c r="AF7" s="631"/>
+      <c r="AG7" s="857"/>
+      <c r="AH7" s="632"/>
+      <c r="AI7" s="633"/>
+      <c r="AJ7" s="634"/>
+      <c r="AK7" s="635"/>
+      <c r="AL7" s="636"/>
+      <c r="AM7" s="637"/>
+      <c r="AN7" s="638"/>
+      <c r="AO7" s="858"/>
+      <c r="AP7" s="639"/>
+      <c r="AQ7" s="859"/>
+      <c r="AR7" s="640"/>
+      <c r="AS7" s="641"/>
+      <c r="AT7" s="642"/>
+      <c r="AU7" s="643"/>
+      <c r="AV7" s="860"/>
+      <c r="AW7" s="861"/>
+      <c r="AX7" s="862"/>
+      <c r="AY7" s="644"/>
+      <c r="AZ7" s="645"/>
+      <c r="BA7" s="863"/>
+      <c r="BB7" s="864"/>
+      <c r="BC7" s="646"/>
+      <c r="BD7" s="647"/>
+      <c r="BE7" s="648"/>
+      <c r="BF7" s="865"/>
+      <c r="BG7" s="866"/>
+      <c r="BH7" s="867"/>
+      <c r="BI7" s="868"/>
+      <c r="BJ7" s="869"/>
+      <c r="BK7" s="870"/>
+      <c r="BL7" s="871"/>
+      <c r="BM7" s="872"/>
+      <c r="BN7" s="873"/>
+      <c r="BO7" s="874"/>
+      <c r="BP7" s="875"/>
+      <c r="BQ7" s="876"/>
+      <c r="BR7" s="877"/>
+      <c r="BS7" s="878"/>
+      <c r="BT7" s="879"/>
+      <c r="BU7" s="880"/>
+      <c r="BV7" s="136"/>
+      <c r="BW7" s="136"/>
+      <c r="BX7" s="136"/>
+      <c r="BY7" s="136"/>
+      <c r="BZ7" s="136"/>
+      <c r="CA7" s="136"/>
+      <c r="CB7" s="136"/>
+      <c r="CC7" s="136"/>
+      <c r="CD7" s="136"/>
+      <c r="CE7" s="136"/>
+      <c r="CF7" s="136"/>
+      <c r="CG7" s="136"/>
+      <c r="CH7" s="136"/>
+      <c r="CI7" s="136"/>
+      <c r="CJ7" s="136"/>
+      <c r="CK7" s="136"/>
+      <c r="CL7" s="136"/>
+      <c r="CM7" s="136"/>
+      <c r="CN7" s="136"/>
+      <c r="CO7" s="136"/>
+      <c r="CP7" s="136"/>
+      <c r="CQ7" s="136"/>
+      <c r="CR7" s="136"/>
+      <c r="CS7" s="136"/>
+      <c r="CT7" s="136"/>
+      <c r="CU7" s="136"/>
+      <c r="CV7" s="136"/>
+      <c r="CW7" s="136"/>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="649"/>
+      <c r="O8" s="650"/>
+      <c r="P8" s="651"/>
+      <c r="Q8" s="652"/>
+      <c r="R8" s="653"/>
+      <c r="S8" s="654"/>
+      <c r="T8" s="655"/>
+      <c r="U8" s="656"/>
+      <c r="V8" s="657"/>
+      <c r="W8" s="658"/>
+      <c r="X8" s="659"/>
+      <c r="Y8" s="660"/>
+      <c r="Z8" s="661"/>
+      <c r="AA8" s="662"/>
+      <c r="AB8" s="663"/>
+      <c r="AC8" s="664"/>
+      <c r="AD8" s="665"/>
+      <c r="AE8" s="666"/>
+      <c r="AF8" s="881"/>
+      <c r="AG8" s="882"/>
+      <c r="AH8" s="667"/>
+      <c r="AI8" s="668"/>
+      <c r="AJ8" s="669"/>
+      <c r="AK8" s="670"/>
+      <c r="AL8" s="671"/>
+      <c r="AM8" s="672"/>
+      <c r="AN8" s="883"/>
+      <c r="AO8" s="673"/>
+      <c r="AP8" s="674"/>
+      <c r="AQ8" s="675"/>
+      <c r="AR8" s="676"/>
+      <c r="AS8" s="677"/>
+      <c r="AT8" s="678"/>
+      <c r="AU8" s="679"/>
+      <c r="AV8" s="884"/>
+      <c r="AW8" s="885"/>
+      <c r="AX8" s="886"/>
+      <c r="AY8" s="680"/>
+      <c r="AZ8" s="681"/>
+      <c r="BA8" s="682"/>
+      <c r="BB8" s="683"/>
+      <c r="BC8" s="684"/>
+      <c r="BD8" s="685"/>
+      <c r="BE8" s="686"/>
+      <c r="BF8" s="887"/>
+      <c r="BG8" s="888"/>
+      <c r="BH8" s="889"/>
+      <c r="BI8" s="890"/>
+      <c r="BJ8" s="891"/>
+      <c r="BK8" s="892"/>
+      <c r="BL8" s="893"/>
+      <c r="BM8" s="894"/>
+      <c r="BN8" s="895"/>
+      <c r="BO8" s="896"/>
+      <c r="BP8" s="897"/>
+      <c r="BQ8" s="898"/>
+      <c r="BR8" s="899"/>
+      <c r="BS8" s="900"/>
+      <c r="BT8" s="901"/>
+      <c r="BU8" s="902"/>
+      <c r="BV8" s="136"/>
+      <c r="BW8" s="136"/>
+      <c r="BX8" s="136"/>
+      <c r="BY8" s="136"/>
+      <c r="BZ8" s="136"/>
+      <c r="CA8" s="136"/>
+      <c r="CB8" s="136"/>
+      <c r="CC8" s="136"/>
+      <c r="CD8" s="136"/>
+      <c r="CE8" s="136"/>
+      <c r="CF8" s="136"/>
+      <c r="CG8" s="136"/>
+      <c r="CH8" s="136"/>
+      <c r="CI8" s="136"/>
+      <c r="CJ8" s="136"/>
+      <c r="CK8" s="136"/>
+      <c r="CL8" s="136"/>
+      <c r="CM8" s="136"/>
+      <c r="CN8" s="136"/>
+      <c r="CO8" s="136"/>
+      <c r="CP8" s="136"/>
+      <c r="CQ8" s="136"/>
+      <c r="CR8" s="136"/>
+      <c r="CS8" s="136"/>
+      <c r="CT8" s="136"/>
+      <c r="CU8" s="136"/>
+      <c r="CV8" s="136"/>
+      <c r="CW8" s="136"/>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="687"/>
+      <c r="M9" s="688"/>
+      <c r="N9" s="689"/>
+      <c r="O9" s="690"/>
+      <c r="P9" s="691"/>
+      <c r="Q9" s="692"/>
+      <c r="R9" s="693"/>
+      <c r="S9" s="694"/>
+      <c r="T9" s="695"/>
+      <c r="U9" s="696"/>
+      <c r="V9" s="697"/>
+      <c r="W9" s="698"/>
+      <c r="X9" s="699"/>
+      <c r="Y9" s="700"/>
+      <c r="Z9" s="701"/>
+      <c r="AA9" s="702"/>
+      <c r="AB9" s="703"/>
+      <c r="AC9" s="704"/>
+      <c r="AD9" s="705"/>
+      <c r="AE9" s="706"/>
+      <c r="AF9" s="903"/>
+      <c r="AG9" s="904"/>
+      <c r="AH9" s="707"/>
+      <c r="AI9" s="708"/>
+      <c r="AJ9" s="709"/>
+      <c r="AK9" s="710"/>
+      <c r="AL9" s="711"/>
+      <c r="AM9" s="712"/>
+      <c r="AN9" s="713"/>
+      <c r="AO9" s="714"/>
+      <c r="AP9" s="715"/>
+      <c r="AQ9" s="905"/>
+      <c r="AR9" s="716"/>
+      <c r="AS9" s="717"/>
+      <c r="AT9" s="718"/>
+      <c r="AU9" s="719"/>
+      <c r="AV9" s="906"/>
+      <c r="AW9" s="907"/>
+      <c r="AX9" s="720"/>
+      <c r="AY9" s="721"/>
+      <c r="AZ9" s="722"/>
+      <c r="BA9" s="723"/>
+      <c r="BB9" s="724"/>
+      <c r="BC9" s="725"/>
+      <c r="BD9" s="726"/>
+      <c r="BE9" s="727"/>
+      <c r="BF9" s="908"/>
+      <c r="BG9" s="909"/>
+      <c r="BH9" s="910"/>
+      <c r="BI9" s="911"/>
+      <c r="BJ9" s="912"/>
+      <c r="BK9" s="913"/>
+      <c r="BL9" s="914"/>
+      <c r="BM9" s="915"/>
+      <c r="BN9" s="916"/>
+      <c r="BO9" s="917"/>
+      <c r="BP9" s="918"/>
+      <c r="BQ9" s="919"/>
+      <c r="BR9" s="920"/>
+      <c r="BS9" s="921"/>
+      <c r="BT9" s="922"/>
+      <c r="BU9" s="923"/>
+      <c r="BV9" s="136"/>
+      <c r="BW9" s="136"/>
+      <c r="BX9" s="136"/>
+      <c r="BY9" s="136"/>
+      <c r="BZ9" s="136"/>
+      <c r="CA9" s="136"/>
+      <c r="CB9" s="136"/>
+      <c r="CC9" s="136"/>
+      <c r="CD9" s="136"/>
+      <c r="CE9" s="136"/>
+      <c r="CF9" s="136"/>
+      <c r="CG9" s="136"/>
+      <c r="CH9" s="136"/>
+      <c r="CI9" s="136"/>
+      <c r="CJ9" s="136"/>
+      <c r="CK9" s="136"/>
+      <c r="CL9" s="136"/>
+      <c r="CM9" s="136"/>
+      <c r="CN9" s="136"/>
+      <c r="CO9" s="136"/>
+      <c r="CP9" s="136"/>
+      <c r="CQ9" s="136"/>
+      <c r="CR9" s="136"/>
+      <c r="CS9" s="136"/>
+      <c r="CT9" s="136"/>
+      <c r="CU9" s="136"/>
+      <c r="CV9" s="136"/>
+      <c r="CW9" s="136"/>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="924"/>
+      <c r="N10" s="925"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="728"/>
+      <c r="R10" s="729"/>
+      <c r="S10" s="730"/>
+      <c r="T10" s="731"/>
+      <c r="U10" s="926"/>
+      <c r="V10" s="927"/>
+      <c r="W10" s="928"/>
+      <c r="X10" s="929"/>
+      <c r="Y10" s="930"/>
+      <c r="Z10" s="931"/>
+      <c r="AA10" s="932"/>
+      <c r="AB10" s="933"/>
+      <c r="AC10" s="732"/>
+      <c r="AD10" s="733"/>
+      <c r="AE10" s="734"/>
+      <c r="AF10" s="735"/>
+      <c r="AG10" s="934"/>
+      <c r="AH10" s="736"/>
+      <c r="AI10" s="737"/>
+      <c r="AJ10" s="738"/>
+      <c r="AK10" s="739"/>
+      <c r="AL10" s="740"/>
+      <c r="AM10" s="741"/>
+      <c r="AN10" s="935"/>
+      <c r="AO10" s="936"/>
+      <c r="AP10" s="742"/>
+      <c r="AQ10" s="743"/>
+      <c r="AR10" s="744"/>
+      <c r="AS10" s="745"/>
+      <c r="AT10" s="746"/>
+      <c r="AU10" s="747"/>
+      <c r="AV10" s="937"/>
+      <c r="AW10" s="938"/>
+      <c r="AX10" s="748"/>
+      <c r="AY10" s="749"/>
+      <c r="AZ10" s="750"/>
+      <c r="BA10" s="751"/>
+      <c r="BB10" s="752"/>
+      <c r="BC10" s="753"/>
+      <c r="BD10" s="754"/>
+      <c r="BE10" s="755"/>
+      <c r="BF10" s="939"/>
+      <c r="BG10" s="940"/>
+      <c r="BH10" s="941"/>
+      <c r="BI10" s="942"/>
+      <c r="BJ10" s="943"/>
+      <c r="BK10" s="944"/>
+      <c r="BL10" s="945"/>
+      <c r="BM10" s="946"/>
+      <c r="BN10" s="947"/>
+      <c r="BO10" s="948"/>
+      <c r="BP10" s="949"/>
+      <c r="BQ10" s="950"/>
+      <c r="BR10" s="951"/>
+      <c r="BS10" s="952"/>
+      <c r="BT10" s="953"/>
+      <c r="BU10" s="954"/>
+      <c r="BV10" s="136"/>
+      <c r="BW10" s="136"/>
+      <c r="BX10" s="136"/>
+      <c r="BY10" s="136"/>
+      <c r="BZ10" s="136"/>
+      <c r="CA10" s="136"/>
+      <c r="CB10" s="136"/>
+      <c r="CC10" s="136"/>
+      <c r="CD10" s="136"/>
+      <c r="CE10" s="136"/>
+      <c r="CF10" s="136"/>
+      <c r="CG10" s="136"/>
+      <c r="CH10" s="136"/>
+      <c r="CI10" s="136"/>
+      <c r="CJ10" s="136"/>
+      <c r="CK10" s="136"/>
+      <c r="CL10" s="136"/>
+      <c r="CM10" s="136"/>
+      <c r="CN10" s="136"/>
+      <c r="CO10" s="136"/>
+      <c r="CP10" s="136"/>
+      <c r="CQ10" s="136"/>
+      <c r="CR10" s="136"/>
+      <c r="CS10" s="136"/>
+      <c r="CT10" s="136"/>
+      <c r="CU10" s="136"/>
+      <c r="CV10" s="136"/>
+      <c r="CW10" s="136"/>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="756"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="136"/>
+      <c r="AC11" s="136"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="136"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="136"/>
+      <c r="AJ11" s="136"/>
+      <c r="AK11" s="136"/>
+      <c r="AL11" s="136"/>
+      <c r="AM11" s="136"/>
+      <c r="AN11" s="136"/>
+      <c r="AO11" s="136"/>
+      <c r="AP11" s="136"/>
+      <c r="AQ11" s="136"/>
+      <c r="AR11" s="136"/>
+      <c r="AS11" s="136"/>
+      <c r="AT11" s="136"/>
+      <c r="AU11" s="136"/>
+      <c r="AV11" s="136"/>
+      <c r="AW11" s="136"/>
+      <c r="AX11" s="136"/>
+      <c r="AY11" s="136"/>
+      <c r="AZ11" s="136"/>
+      <c r="BA11" s="136"/>
+      <c r="BB11" s="136"/>
+      <c r="BC11" s="136"/>
+      <c r="BD11" s="136"/>
+      <c r="BE11" s="136"/>
+      <c r="BF11" s="136"/>
+      <c r="BG11" s="136"/>
+      <c r="BH11" s="136"/>
+      <c r="BI11" s="136"/>
+      <c r="BJ11" s="136"/>
+      <c r="BK11" s="136"/>
+      <c r="BL11" s="136"/>
+      <c r="BM11" s="136"/>
+      <c r="BN11" s="136"/>
+      <c r="BO11" s="136"/>
+      <c r="BP11" s="136"/>
+      <c r="BQ11" s="136"/>
+      <c r="BR11" s="136"/>
+      <c r="BS11" s="136"/>
+      <c r="BT11" s="136"/>
+      <c r="BU11" s="136"/>
+      <c r="BV11" s="136"/>
+      <c r="BW11" s="136"/>
+      <c r="BX11" s="136"/>
+      <c r="BY11" s="136"/>
+      <c r="BZ11" s="136"/>
+      <c r="CA11" s="136"/>
+      <c r="CB11" s="136"/>
+      <c r="CC11" s="136"/>
+      <c r="CD11" s="136"/>
+      <c r="CE11" s="136"/>
+      <c r="CF11" s="136"/>
+      <c r="CG11" s="136"/>
+      <c r="CH11" s="136"/>
+      <c r="CI11" s="136"/>
+      <c r="CJ11" s="136"/>
+      <c r="CK11" s="136"/>
+      <c r="CL11" s="136"/>
+      <c r="CM11" s="136"/>
+      <c r="CN11" s="136"/>
+      <c r="CO11" s="136"/>
+      <c r="CP11" s="136"/>
+      <c r="CQ11" s="136"/>
+      <c r="CR11" s="136"/>
+      <c r="CS11" s="136"/>
+      <c r="CT11" s="136"/>
+      <c r="CU11" s="136"/>
+      <c r="CV11" s="136"/>
+      <c r="CW11" s="136"/>
+    </row>
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A12" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="955"/>
+      <c r="I12" s="956"/>
+      <c r="J12" s="957"/>
+      <c r="K12" s="958"/>
+      <c r="L12" s="959"/>
+      <c r="M12" s="960"/>
+      <c r="N12" s="757"/>
+      <c r="O12" s="758"/>
+      <c r="P12" s="759"/>
+      <c r="Q12" s="760"/>
+      <c r="R12" s="761"/>
+      <c r="S12" s="762"/>
+      <c r="T12" s="763"/>
+      <c r="U12" s="764"/>
+      <c r="V12" s="765"/>
+      <c r="W12" s="766"/>
+      <c r="X12" s="767"/>
+      <c r="Y12" s="768"/>
+      <c r="Z12" s="769"/>
+      <c r="AA12" s="770"/>
+      <c r="AB12" s="771"/>
+      <c r="AC12" s="772"/>
+      <c r="AD12" s="773"/>
+      <c r="AE12" s="774"/>
+      <c r="AF12" s="775"/>
+      <c r="AG12" s="961"/>
+      <c r="AH12" s="776"/>
+      <c r="AI12" s="777"/>
+      <c r="AJ12" s="778"/>
+      <c r="AK12" s="779"/>
+      <c r="AL12" s="780"/>
+      <c r="AM12" s="781"/>
+      <c r="AN12" s="962"/>
+      <c r="AO12" s="963"/>
+      <c r="AP12" s="782"/>
+      <c r="AQ12" s="783"/>
+      <c r="AR12" s="784"/>
+      <c r="AS12" s="785"/>
+      <c r="AT12" s="786"/>
+      <c r="AU12" s="787"/>
+      <c r="AV12" s="788"/>
+      <c r="AW12" s="964"/>
+      <c r="AX12" s="965"/>
+      <c r="AY12" s="789"/>
+      <c r="AZ12" s="790"/>
+      <c r="BA12" s="791"/>
+      <c r="BB12" s="792"/>
+      <c r="BC12" s="793"/>
+      <c r="BD12" s="794"/>
+      <c r="BE12" s="795"/>
+      <c r="BF12" s="796"/>
+      <c r="BG12" s="136"/>
+      <c r="BH12" s="136"/>
+      <c r="BI12" s="136"/>
+      <c r="BJ12" s="136"/>
+      <c r="BK12" s="136"/>
+      <c r="BL12" s="136"/>
+      <c r="BM12" s="136"/>
+      <c r="BN12" s="136"/>
+      <c r="BO12" s="136"/>
+      <c r="BP12" s="136"/>
+      <c r="BQ12" s="136"/>
+      <c r="BR12" s="136"/>
+      <c r="BS12" s="136"/>
+      <c r="BT12" s="136"/>
+      <c r="BU12" s="136"/>
+      <c r="BV12" s="136"/>
+      <c r="BW12" s="136"/>
+      <c r="BX12" s="136"/>
+      <c r="BY12" s="136"/>
+      <c r="BZ12" s="136"/>
+      <c r="CA12" s="136"/>
+      <c r="CB12" s="136"/>
+      <c r="CC12" s="136"/>
+      <c r="CD12" s="136"/>
+      <c r="CE12" s="136"/>
+      <c r="CF12" s="136"/>
+      <c r="CG12" s="136"/>
+      <c r="CH12" s="136"/>
+      <c r="CI12" s="136"/>
+      <c r="CJ12" s="136"/>
+      <c r="CK12" s="136"/>
+      <c r="CL12" s="136"/>
+      <c r="CM12" s="136"/>
+      <c r="CN12" s="136"/>
+      <c r="CO12" s="136"/>
+      <c r="CP12" s="136"/>
+      <c r="CQ12" s="136"/>
+      <c r="CR12" s="136"/>
+      <c r="CS12" s="136"/>
+      <c r="CT12" s="136"/>
+      <c r="CU12" s="136"/>
+      <c r="CV12" s="136"/>
+      <c r="CW12" s="136"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:CW9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="101" width="1.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2" s="1565" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1559"/>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3" s="966" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="966" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="966" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="966" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="966" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1566">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1561"/>
+      <c r="H3" s="1561"/>
+      <c r="I3" s="1562"/>
+      <c r="J3" s="1566">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1561"/>
+      <c r="L3" s="1561"/>
+      <c r="M3" s="1562"/>
+      <c r="N3" s="1566">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1561"/>
+      <c r="P3" s="1561"/>
+      <c r="Q3" s="1562"/>
+      <c r="R3" s="1566">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1561"/>
+      <c r="T3" s="1561"/>
+      <c r="U3" s="1562"/>
+      <c r="V3" s="1566">
+        <v>11</v>
+      </c>
+      <c r="W3" s="1561"/>
+      <c r="X3" s="1561"/>
+      <c r="Y3" s="1562"/>
+      <c r="Z3" s="1566">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="1561"/>
+      <c r="AB3" s="1561"/>
+      <c r="AC3" s="1562"/>
+      <c r="AD3" s="1566">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="1561"/>
+      <c r="AF3" s="1561"/>
+      <c r="AG3" s="1562"/>
+      <c r="AH3" s="1566">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="1561"/>
+      <c r="AJ3" s="1561"/>
+      <c r="AK3" s="1562"/>
+      <c r="AL3" s="1566">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="1561"/>
+      <c r="AN3" s="1561"/>
+      <c r="AO3" s="1562"/>
+      <c r="AP3" s="1566">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="1561"/>
+      <c r="AR3" s="1561"/>
+      <c r="AS3" s="1562"/>
+      <c r="AT3" s="1566">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="1561"/>
+      <c r="AV3" s="1561"/>
+      <c r="AW3" s="1562"/>
+      <c r="AX3" s="1566">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="1561"/>
+      <c r="AZ3" s="1561"/>
+      <c r="BA3" s="1562"/>
+      <c r="BB3" s="1566">
+        <v>19</v>
+      </c>
+      <c r="BC3" s="1561"/>
+      <c r="BD3" s="1561"/>
+      <c r="BE3" s="1562"/>
+      <c r="BF3" s="1566">
+        <v>20</v>
+      </c>
+      <c r="BG3" s="1561"/>
+      <c r="BH3" s="1561"/>
+      <c r="BI3" s="1562"/>
+      <c r="BJ3" s="1566">
+        <v>21</v>
+      </c>
+      <c r="BK3" s="1561"/>
+      <c r="BL3" s="1561"/>
+      <c r="BM3" s="1562"/>
+      <c r="BN3" s="1566">
+        <v>22</v>
+      </c>
+      <c r="BO3" s="1561"/>
+      <c r="BP3" s="1561"/>
+      <c r="BQ3" s="1562"/>
+      <c r="BR3" s="1566">
+        <v>23</v>
+      </c>
+      <c r="BS3" s="1561"/>
+      <c r="BT3" s="1561"/>
+      <c r="BU3" s="1562"/>
+      <c r="BV3" s="1566">
+        <v>24</v>
+      </c>
+      <c r="BW3" s="1561"/>
+      <c r="BX3" s="1561"/>
+      <c r="BY3" s="1562"/>
+      <c r="BZ3" s="1566">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="1561"/>
+      <c r="CB3" s="1561"/>
+      <c r="CC3" s="1562"/>
+      <c r="CD3" s="1566">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="1561"/>
+      <c r="CF3" s="1561"/>
+      <c r="CG3" s="1562"/>
+      <c r="CH3" s="1566">
+        <v>3</v>
+      </c>
+      <c r="CI3" s="1561"/>
+      <c r="CJ3" s="1561"/>
+      <c r="CK3" s="1562"/>
+      <c r="CL3" s="1566">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="1561"/>
+      <c r="CN3" s="1561"/>
+      <c r="CO3" s="1562"/>
+      <c r="CP3" s="1566">
+        <v>5</v>
+      </c>
+      <c r="CQ3" s="1561"/>
+      <c r="CR3" s="1561"/>
+      <c r="CS3" s="1562"/>
+      <c r="CT3" s="1566">
+        <v>6</v>
+      </c>
+      <c r="CU3" s="1561"/>
+      <c r="CV3" s="1561"/>
+      <c r="CW3" s="1562"/>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="136"/>
+      <c r="BA4" s="136"/>
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="136"/>
+      <c r="BH4" s="136"/>
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="136"/>
+      <c r="BO4" s="136"/>
+      <c r="BP4" s="136"/>
+      <c r="BQ4" s="136"/>
+      <c r="BR4" s="136"/>
+      <c r="BS4" s="136"/>
+      <c r="BT4" s="136"/>
+      <c r="BU4" s="136"/>
+      <c r="BV4" s="136"/>
+      <c r="BW4" s="136"/>
+      <c r="BX4" s="136"/>
+      <c r="BY4" s="136"/>
+      <c r="BZ4" s="136"/>
+      <c r="CA4" s="136"/>
+      <c r="CB4" s="136"/>
+      <c r="CC4" s="136"/>
+      <c r="CD4" s="136"/>
+      <c r="CE4" s="136"/>
+      <c r="CF4" s="136"/>
+      <c r="CG4" s="136"/>
+      <c r="CH4" s="136"/>
+      <c r="CI4" s="136"/>
+      <c r="CJ4" s="136"/>
+      <c r="CK4" s="136"/>
+      <c r="CL4" s="136"/>
+      <c r="CM4" s="136"/>
+      <c r="CN4" s="136"/>
+      <c r="CO4" s="136"/>
+      <c r="CP4" s="136"/>
+      <c r="CQ4" s="136"/>
+      <c r="CR4" s="136"/>
+      <c r="CS4" s="136"/>
+      <c r="CT4" s="136"/>
+      <c r="CU4" s="136"/>
+      <c r="CV4" s="136"/>
+      <c r="CW4" s="136"/>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="967"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="136"/>
+      <c r="BO5" s="136"/>
+      <c r="BP5" s="136"/>
+      <c r="BQ5" s="136"/>
+      <c r="BR5" s="136"/>
+      <c r="BS5" s="136"/>
+      <c r="BT5" s="136"/>
+      <c r="BU5" s="136"/>
+      <c r="BV5" s="136"/>
+      <c r="BW5" s="136"/>
+      <c r="BX5" s="136"/>
+      <c r="BY5" s="136"/>
+      <c r="BZ5" s="136"/>
+      <c r="CA5" s="136"/>
+      <c r="CB5" s="136"/>
+      <c r="CC5" s="136"/>
+      <c r="CD5" s="136"/>
+      <c r="CE5" s="136"/>
+      <c r="CF5" s="136"/>
+      <c r="CG5" s="136"/>
+      <c r="CH5" s="136"/>
+      <c r="CI5" s="136"/>
+      <c r="CJ5" s="136"/>
+      <c r="CK5" s="136"/>
+      <c r="CL5" s="136"/>
+      <c r="CM5" s="136"/>
+      <c r="CN5" s="136"/>
+      <c r="CO5" s="136"/>
+      <c r="CP5" s="136"/>
+      <c r="CQ5" s="136"/>
+      <c r="CR5" s="136"/>
+      <c r="CS5" s="136"/>
+      <c r="CT5" s="136"/>
+      <c r="CU5" s="136"/>
+      <c r="CV5" s="136"/>
+      <c r="CW5" s="136"/>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="139" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="136"/>
+      <c r="G6" s="1028"/>
+      <c r="H6" s="1029"/>
+      <c r="I6" s="1030"/>
+      <c r="J6" s="1031"/>
+      <c r="K6" s="1032"/>
+      <c r="L6" s="1033"/>
+      <c r="M6" s="1034"/>
+      <c r="N6" s="1035"/>
+      <c r="O6" s="1036"/>
+      <c r="P6" s="1037"/>
+      <c r="Q6" s="968"/>
+      <c r="R6" s="969"/>
+      <c r="S6" s="970"/>
+      <c r="T6" s="971"/>
+      <c r="U6" s="972"/>
+      <c r="V6" s="973"/>
+      <c r="W6" s="974"/>
+      <c r="X6" s="975"/>
+      <c r="Y6" s="976"/>
+      <c r="Z6" s="977"/>
+      <c r="AA6" s="978"/>
+      <c r="AB6" s="979"/>
+      <c r="AC6" s="980"/>
+      <c r="AD6" s="981"/>
+      <c r="AE6" s="982"/>
+      <c r="AF6" s="1038"/>
+      <c r="AG6" s="1039"/>
+      <c r="AH6" s="983"/>
+      <c r="AI6" s="984"/>
+      <c r="AJ6" s="985"/>
+      <c r="AK6" s="986"/>
+      <c r="AL6" s="987"/>
+      <c r="AM6" s="988"/>
+      <c r="AN6" s="989"/>
+      <c r="AO6" s="990"/>
+      <c r="AP6" s="991"/>
+      <c r="AQ6" s="992"/>
+      <c r="AR6" s="993"/>
+      <c r="AS6" s="994"/>
+      <c r="AT6" s="995"/>
+      <c r="AU6" s="996"/>
+      <c r="AV6" s="1040"/>
+      <c r="AW6" s="1041"/>
+      <c r="AX6" s="997"/>
+      <c r="AY6" s="998"/>
+      <c r="AZ6" s="999"/>
+      <c r="BA6" s="1000"/>
+      <c r="BB6" s="1001"/>
+      <c r="BC6" s="1002"/>
+      <c r="BD6" s="1003"/>
+      <c r="BE6" s="1004"/>
+      <c r="BF6" s="1005"/>
+      <c r="BG6" s="1006"/>
+      <c r="BH6" s="1007"/>
+      <c r="BI6" s="1008"/>
+      <c r="BJ6" s="1009"/>
+      <c r="BK6" s="1010"/>
+      <c r="BL6" s="1011"/>
+      <c r="BM6" s="1012"/>
+      <c r="BN6" s="1013"/>
+      <c r="BO6" s="1042"/>
+      <c r="BP6" s="1043"/>
+      <c r="BQ6" s="1014"/>
+      <c r="BR6" s="1015"/>
+      <c r="BS6" s="1016"/>
+      <c r="BT6" s="1017"/>
+      <c r="BU6" s="1044"/>
+      <c r="BV6" s="1045"/>
+      <c r="BW6" s="1046"/>
+      <c r="BX6" s="1047"/>
+      <c r="BY6" s="136"/>
+      <c r="BZ6" s="136"/>
+      <c r="CA6" s="136"/>
+      <c r="CB6" s="136"/>
+      <c r="CC6" s="136"/>
+      <c r="CD6" s="136"/>
+      <c r="CE6" s="136"/>
+      <c r="CF6" s="136"/>
+      <c r="CG6" s="136"/>
+      <c r="CH6" s="136"/>
+      <c r="CI6" s="136"/>
+      <c r="CJ6" s="136"/>
+      <c r="CK6" s="136"/>
+      <c r="CL6" s="136"/>
+      <c r="CM6" s="136"/>
+      <c r="CN6" s="136"/>
+      <c r="CO6" s="136"/>
+      <c r="CP6" s="136"/>
+      <c r="CQ6" s="136"/>
+      <c r="CR6" s="136"/>
+      <c r="CS6" s="136"/>
+      <c r="CT6" s="136"/>
+      <c r="CU6" s="136"/>
+      <c r="CV6" s="136"/>
+      <c r="CW6" s="136"/>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1018"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="136"/>
+      <c r="AF7" s="136"/>
+      <c r="AG7" s="136"/>
+      <c r="AH7" s="136"/>
+      <c r="AI7" s="136"/>
+      <c r="AJ7" s="136"/>
+      <c r="AK7" s="136"/>
+      <c r="AL7" s="136"/>
+      <c r="AM7" s="136"/>
+      <c r="AN7" s="136"/>
+      <c r="AO7" s="136"/>
+      <c r="AP7" s="136"/>
+      <c r="AQ7" s="136"/>
+      <c r="AR7" s="136"/>
+      <c r="AS7" s="136"/>
+      <c r="AT7" s="136"/>
+      <c r="AU7" s="136"/>
+      <c r="AV7" s="136"/>
+      <c r="AW7" s="136"/>
+      <c r="AX7" s="136"/>
+      <c r="AY7" s="136"/>
+      <c r="AZ7" s="136"/>
+      <c r="BA7" s="136"/>
+      <c r="BB7" s="136"/>
+      <c r="BC7" s="136"/>
+      <c r="BD7" s="136"/>
+      <c r="BE7" s="136"/>
+      <c r="BF7" s="136"/>
+      <c r="BG7" s="136"/>
+      <c r="BH7" s="136"/>
+      <c r="BI7" s="136"/>
+      <c r="BJ7" s="136"/>
+      <c r="BK7" s="136"/>
+      <c r="BL7" s="136"/>
+      <c r="BM7" s="136"/>
+      <c r="BN7" s="136"/>
+      <c r="BO7" s="136"/>
+      <c r="BP7" s="136"/>
+      <c r="BQ7" s="136"/>
+      <c r="BR7" s="136"/>
+      <c r="BS7" s="136"/>
+      <c r="BT7" s="136"/>
+      <c r="BU7" s="136"/>
+      <c r="BV7" s="136"/>
+      <c r="BW7" s="136"/>
+      <c r="BX7" s="136"/>
+      <c r="BY7" s="136"/>
+      <c r="BZ7" s="136"/>
+      <c r="CA7" s="136"/>
+      <c r="CB7" s="136"/>
+      <c r="CC7" s="136"/>
+      <c r="CD7" s="136"/>
+      <c r="CE7" s="136"/>
+      <c r="CF7" s="136"/>
+      <c r="CG7" s="136"/>
+      <c r="CH7" s="136"/>
+      <c r="CI7" s="136"/>
+      <c r="CJ7" s="136"/>
+      <c r="CK7" s="136"/>
+      <c r="CL7" s="136"/>
+      <c r="CM7" s="136"/>
+      <c r="CN7" s="136"/>
+      <c r="CO7" s="136"/>
+      <c r="CP7" s="136"/>
+      <c r="CQ7" s="136"/>
+      <c r="CR7" s="136"/>
+      <c r="CS7" s="136"/>
+      <c r="CT7" s="136"/>
+      <c r="CU7" s="136"/>
+      <c r="CV7" s="136"/>
+      <c r="CW7" s="136"/>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="1048"/>
+      <c r="U8" s="1049"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="1050"/>
+      <c r="X8" s="1051"/>
+      <c r="Y8" s="1052"/>
+      <c r="Z8" s="1053"/>
+      <c r="AA8" s="1054"/>
+      <c r="AB8" s="1019"/>
+      <c r="AC8" s="1020"/>
+      <c r="AD8" s="1021"/>
+      <c r="AE8" s="1022"/>
+      <c r="AF8" s="1023"/>
+      <c r="AG8" s="1024"/>
+      <c r="AH8" s="1025"/>
+      <c r="AI8" s="1026"/>
+      <c r="AJ8" s="1055"/>
+      <c r="AK8" s="1056"/>
+      <c r="AL8" s="1057"/>
+      <c r="AM8" s="1058"/>
+      <c r="AN8" s="1059"/>
+      <c r="AO8" s="1060"/>
+      <c r="AP8" s="1061"/>
+      <c r="AQ8" s="1062"/>
+      <c r="AR8" s="1063"/>
+      <c r="AS8" s="1064"/>
+      <c r="AT8" s="1065"/>
+      <c r="AU8" s="1066"/>
+      <c r="AV8" s="1067"/>
+      <c r="AW8" s="1068"/>
+      <c r="AX8" s="1069"/>
+      <c r="AY8" s="1070"/>
+      <c r="AZ8" s="1071"/>
+      <c r="BA8" s="1072"/>
+      <c r="BB8" s="1073"/>
+      <c r="BC8" s="1074"/>
+      <c r="BD8" s="1075"/>
+      <c r="BE8" s="1076"/>
+      <c r="BF8" s="1077"/>
+      <c r="BG8" s="1078"/>
+      <c r="BH8" s="1079"/>
+      <c r="BI8" s="1080"/>
+      <c r="BJ8" s="1081"/>
+      <c r="BK8" s="1082"/>
+      <c r="BL8" s="1083"/>
+      <c r="BM8" s="1084"/>
+      <c r="BN8" s="1085"/>
+      <c r="BO8" s="1086"/>
+      <c r="BP8" s="1087"/>
+      <c r="BQ8" s="1088"/>
+      <c r="BR8" s="1089"/>
+      <c r="BS8" s="1090"/>
+      <c r="BT8" s="1091"/>
+      <c r="BU8" s="1092"/>
+      <c r="BV8" s="1093"/>
+      <c r="BW8" s="1094"/>
+      <c r="BX8" s="1095"/>
+      <c r="BY8" s="1096"/>
+      <c r="BZ8" s="1097"/>
+      <c r="CA8" s="1098"/>
+      <c r="CB8" s="1099"/>
+      <c r="CC8" s="1100"/>
+      <c r="CD8" s="1101"/>
+      <c r="CE8" s="1102"/>
+      <c r="CF8" s="1103"/>
+      <c r="CG8" s="1104"/>
+      <c r="CH8" s="1105"/>
+      <c r="CI8" s="1106"/>
+      <c r="CJ8" s="1107"/>
+      <c r="CK8" s="1108"/>
+      <c r="CL8" s="1109"/>
+      <c r="CM8" s="1110"/>
+      <c r="CN8" s="1111"/>
+      <c r="CO8" s="1112"/>
+      <c r="CP8" s="1113"/>
+      <c r="CQ8" s="1114"/>
+      <c r="CR8" s="1115"/>
+      <c r="CS8" s="1116"/>
+      <c r="CT8" s="136"/>
+      <c r="CU8" s="136"/>
+      <c r="CV8" s="136"/>
+      <c r="CW8" s="136"/>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="1027"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="136"/>
+      <c r="X9" s="136"/>
+      <c r="Y9" s="136"/>
+      <c r="Z9" s="136"/>
+      <c r="AA9" s="136"/>
+      <c r="AB9" s="136"/>
+      <c r="AC9" s="136"/>
+      <c r="AD9" s="136"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="136"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="136"/>
+      <c r="AJ9" s="136"/>
+      <c r="AK9" s="136"/>
+      <c r="AL9" s="136"/>
+      <c r="AM9" s="136"/>
+      <c r="AN9" s="136"/>
+      <c r="AO9" s="136"/>
+      <c r="AP9" s="136"/>
+      <c r="AQ9" s="136"/>
+      <c r="AR9" s="136"/>
+      <c r="AS9" s="136"/>
+      <c r="AT9" s="136"/>
+      <c r="AU9" s="136"/>
+      <c r="AV9" s="136"/>
+      <c r="AW9" s="136"/>
+      <c r="AX9" s="136"/>
+      <c r="AY9" s="136"/>
+      <c r="AZ9" s="136"/>
+      <c r="BA9" s="136"/>
+      <c r="BB9" s="136"/>
+      <c r="BC9" s="136"/>
+      <c r="BD9" s="136"/>
+      <c r="BE9" s="136"/>
+      <c r="BF9" s="136"/>
+      <c r="BG9" s="136"/>
+      <c r="BH9" s="136"/>
+      <c r="BI9" s="136"/>
+      <c r="BJ9" s="136"/>
+      <c r="BK9" s="136"/>
+      <c r="BL9" s="136"/>
+      <c r="BM9" s="136"/>
+      <c r="BN9" s="136"/>
+      <c r="BO9" s="136"/>
+      <c r="BP9" s="136"/>
+      <c r="BQ9" s="136"/>
+      <c r="BR9" s="136"/>
+      <c r="BS9" s="136"/>
+      <c r="BT9" s="136"/>
+      <c r="BU9" s="136"/>
+      <c r="BV9" s="136"/>
+      <c r="BW9" s="136"/>
+      <c r="BX9" s="136"/>
+      <c r="BY9" s="136"/>
+      <c r="BZ9" s="136"/>
+      <c r="CA9" s="136"/>
+      <c r="CB9" s="136"/>
+      <c r="CC9" s="136"/>
+      <c r="CD9" s="136"/>
+      <c r="CE9" s="136"/>
+      <c r="CF9" s="136"/>
+      <c r="CG9" s="136"/>
+      <c r="CH9" s="136"/>
+      <c r="CI9" s="136"/>
+      <c r="CJ9" s="136"/>
+      <c r="CK9" s="136"/>
+      <c r="CL9" s="136"/>
+      <c r="CM9" s="136"/>
+      <c r="CN9" s="136"/>
+      <c r="CO9" s="136"/>
+      <c r="CP9" s="136"/>
+      <c r="CQ9" s="136"/>
+      <c r="CR9" s="136"/>
+      <c r="CS9" s="136"/>
+      <c r="CT9" s="136"/>
+      <c r="CU9" s="136"/>
+      <c r="CV9" s="136"/>
+      <c r="CW9" s="136"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:CW17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="101" width="1.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2" s="1567" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1559"/>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3" s="1117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1117" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1568">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1561"/>
+      <c r="H3" s="1561"/>
+      <c r="I3" s="1562"/>
+      <c r="J3" s="1568">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1561"/>
+      <c r="L3" s="1561"/>
+      <c r="M3" s="1562"/>
+      <c r="N3" s="1568">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1561"/>
+      <c r="P3" s="1561"/>
+      <c r="Q3" s="1562"/>
+      <c r="R3" s="1568">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1561"/>
+      <c r="T3" s="1561"/>
+      <c r="U3" s="1562"/>
+      <c r="V3" s="1568">
+        <v>11</v>
+      </c>
+      <c r="W3" s="1561"/>
+      <c r="X3" s="1561"/>
+      <c r="Y3" s="1562"/>
+      <c r="Z3" s="1568">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="1561"/>
+      <c r="AB3" s="1561"/>
+      <c r="AC3" s="1562"/>
+      <c r="AD3" s="1568">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="1561"/>
+      <c r="AF3" s="1561"/>
+      <c r="AG3" s="1562"/>
+      <c r="AH3" s="1568">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="1561"/>
+      <c r="AJ3" s="1561"/>
+      <c r="AK3" s="1562"/>
+      <c r="AL3" s="1568">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="1561"/>
+      <c r="AN3" s="1561"/>
+      <c r="AO3" s="1562"/>
+      <c r="AP3" s="1568">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="1561"/>
+      <c r="AR3" s="1561"/>
+      <c r="AS3" s="1562"/>
+      <c r="AT3" s="1568">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="1561"/>
+      <c r="AV3" s="1561"/>
+      <c r="AW3" s="1562"/>
+      <c r="AX3" s="1568">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="1561"/>
+      <c r="AZ3" s="1561"/>
+      <c r="BA3" s="1562"/>
+      <c r="BB3" s="1568">
+        <v>19</v>
+      </c>
+      <c r="BC3" s="1561"/>
+      <c r="BD3" s="1561"/>
+      <c r="BE3" s="1562"/>
+      <c r="BF3" s="1568">
+        <v>20</v>
+      </c>
+      <c r="BG3" s="1561"/>
+      <c r="BH3" s="1561"/>
+      <c r="BI3" s="1562"/>
+      <c r="BJ3" s="1568">
+        <v>21</v>
+      </c>
+      <c r="BK3" s="1561"/>
+      <c r="BL3" s="1561"/>
+      <c r="BM3" s="1562"/>
+      <c r="BN3" s="1568">
+        <v>22</v>
+      </c>
+      <c r="BO3" s="1561"/>
+      <c r="BP3" s="1561"/>
+      <c r="BQ3" s="1562"/>
+      <c r="BR3" s="1568">
+        <v>23</v>
+      </c>
+      <c r="BS3" s="1561"/>
+      <c r="BT3" s="1561"/>
+      <c r="BU3" s="1562"/>
+      <c r="BV3" s="1568">
+        <v>24</v>
+      </c>
+      <c r="BW3" s="1561"/>
+      <c r="BX3" s="1561"/>
+      <c r="BY3" s="1562"/>
+      <c r="BZ3" s="1568">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="1561"/>
+      <c r="CB3" s="1561"/>
+      <c r="CC3" s="1562"/>
+      <c r="CD3" s="1568">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="1561"/>
+      <c r="CF3" s="1561"/>
+      <c r="CG3" s="1562"/>
+      <c r="CH3" s="1568">
+        <v>3</v>
+      </c>
+      <c r="CI3" s="1561"/>
+      <c r="CJ3" s="1561"/>
+      <c r="CK3" s="1562"/>
+      <c r="CL3" s="1568">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="1561"/>
+      <c r="CN3" s="1561"/>
+      <c r="CO3" s="1562"/>
+      <c r="CP3" s="1568">
+        <v>5</v>
+      </c>
+      <c r="CQ3" s="1561"/>
+      <c r="CR3" s="1561"/>
+      <c r="CS3" s="1562"/>
+      <c r="CT3" s="1568">
+        <v>6</v>
+      </c>
+      <c r="CU3" s="1561"/>
+      <c r="CV3" s="1561"/>
+      <c r="CW3" s="1562"/>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="136"/>
+      <c r="BA4" s="136"/>
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="136"/>
+      <c r="BH4" s="136"/>
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="136"/>
+      <c r="BO4" s="136"/>
+      <c r="BP4" s="136"/>
+      <c r="BQ4" s="136"/>
+      <c r="BR4" s="136"/>
+      <c r="BS4" s="136"/>
+      <c r="BT4" s="136"/>
+      <c r="BU4" s="136"/>
+      <c r="BV4" s="136"/>
+      <c r="BW4" s="136"/>
+      <c r="BX4" s="136"/>
+      <c r="BY4" s="136"/>
+      <c r="BZ4" s="136"/>
+      <c r="CA4" s="136"/>
+      <c r="CB4" s="136"/>
+      <c r="CC4" s="136"/>
+      <c r="CD4" s="136"/>
+      <c r="CE4" s="136"/>
+      <c r="CF4" s="136"/>
+      <c r="CG4" s="136"/>
+      <c r="CH4" s="136"/>
+      <c r="CI4" s="136"/>
+      <c r="CJ4" s="136"/>
+      <c r="CK4" s="136"/>
+      <c r="CL4" s="136"/>
+      <c r="CM4" s="136"/>
+      <c r="CN4" s="136"/>
+      <c r="CO4" s="136"/>
+      <c r="CP4" s="136"/>
+      <c r="CQ4" s="136"/>
+      <c r="CR4" s="136"/>
+      <c r="CS4" s="136"/>
+      <c r="CT4" s="136"/>
+      <c r="CU4" s="136"/>
+      <c r="CV4" s="136"/>
+      <c r="CW4" s="136"/>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="1118"/>
+      <c r="M5" s="1119"/>
+      <c r="N5" s="1120"/>
+      <c r="O5" s="1121"/>
+      <c r="P5" s="1122"/>
+      <c r="Q5" s="1123"/>
+      <c r="R5" s="1459"/>
+      <c r="S5" s="1460"/>
+      <c r="T5" s="1124"/>
+      <c r="U5" s="1125"/>
+      <c r="V5" s="1126"/>
+      <c r="W5" s="1127"/>
+      <c r="X5" s="1461"/>
+      <c r="Y5" s="1462"/>
+      <c r="Z5" s="1128"/>
+      <c r="AA5" s="1463"/>
+      <c r="AB5" s="1464"/>
+      <c r="AC5" s="1129"/>
+      <c r="AD5" s="1130"/>
+      <c r="AE5" s="1131"/>
+      <c r="AF5" s="1465"/>
+      <c r="AG5" s="1466"/>
+      <c r="AH5" s="1132"/>
+      <c r="AI5" s="1133"/>
+      <c r="AJ5" s="1134"/>
+      <c r="AK5" s="1135"/>
+      <c r="AL5" s="1136"/>
+      <c r="AM5" s="1137"/>
+      <c r="AN5" s="1138"/>
+      <c r="AO5" s="1139"/>
+      <c r="AP5" s="1140"/>
+      <c r="AQ5" s="1141"/>
+      <c r="AR5" s="1142"/>
+      <c r="AS5" s="1143"/>
+      <c r="AT5" s="1144"/>
+      <c r="AU5" s="1145"/>
+      <c r="AV5" s="1467"/>
+      <c r="AW5" s="1468"/>
+      <c r="AX5" s="1146"/>
+      <c r="AY5" s="1147"/>
+      <c r="AZ5" s="1148"/>
+      <c r="BA5" s="1149"/>
+      <c r="BB5" s="1150"/>
+      <c r="BC5" s="1469"/>
+      <c r="BD5" s="1470"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="136"/>
+      <c r="BO5" s="136"/>
+      <c r="BP5" s="136"/>
+      <c r="BQ5" s="136"/>
+      <c r="BR5" s="136"/>
+      <c r="BS5" s="136"/>
+      <c r="BT5" s="136"/>
+      <c r="BU5" s="136"/>
+      <c r="BV5" s="136"/>
+      <c r="BW5" s="136"/>
+      <c r="BX5" s="136"/>
+      <c r="BY5" s="136"/>
+      <c r="BZ5" s="136"/>
+      <c r="CA5" s="136"/>
+      <c r="CB5" s="136"/>
+      <c r="CC5" s="136"/>
+      <c r="CD5" s="136"/>
+      <c r="CE5" s="136"/>
+      <c r="CF5" s="136"/>
+      <c r="CG5" s="136"/>
+      <c r="CH5" s="136"/>
+      <c r="CI5" s="136"/>
+      <c r="CJ5" s="136"/>
+      <c r="CK5" s="136"/>
+      <c r="CL5" s="136"/>
+      <c r="CM5" s="136"/>
+      <c r="CN5" s="136"/>
+      <c r="CO5" s="136"/>
+      <c r="CP5" s="136"/>
+      <c r="CQ5" s="136"/>
+      <c r="CR5" s="136"/>
+      <c r="CS5" s="136"/>
+      <c r="CT5" s="136"/>
+      <c r="CU5" s="136"/>
+      <c r="CV5" s="136"/>
+      <c r="CW5" s="136"/>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="1151"/>
+      <c r="P6" s="1152"/>
+      <c r="Q6" s="1153"/>
+      <c r="R6" s="1154"/>
+      <c r="S6" s="1155"/>
+      <c r="T6" s="1156"/>
+      <c r="U6" s="1157"/>
+      <c r="V6" s="1158"/>
+      <c r="W6" s="1159"/>
+      <c r="X6" s="1471"/>
+      <c r="Y6" s="1472"/>
+      <c r="Z6" s="1473"/>
+      <c r="AA6" s="1160"/>
+      <c r="AB6" s="1161"/>
+      <c r="AC6" s="1162"/>
+      <c r="AD6" s="1163"/>
+      <c r="AE6" s="1164"/>
+      <c r="AF6" s="1474"/>
+      <c r="AG6" s="1475"/>
+      <c r="AH6" s="1165"/>
+      <c r="AI6" s="1166"/>
+      <c r="AJ6" s="1167"/>
+      <c r="AK6" s="1168"/>
+      <c r="AL6" s="1169"/>
+      <c r="AM6" s="1170"/>
+      <c r="AN6" s="1476"/>
+      <c r="AO6" s="1171"/>
+      <c r="AP6" s="1172"/>
+      <c r="AQ6" s="1173"/>
+      <c r="AR6" s="1174"/>
+      <c r="AS6" s="1175"/>
+      <c r="AT6" s="1176"/>
+      <c r="AU6" s="1477"/>
+      <c r="AV6" s="1478"/>
+      <c r="AW6" s="1479"/>
+      <c r="AX6" s="1480"/>
+      <c r="AY6" s="1177"/>
+      <c r="AZ6" s="1178"/>
+      <c r="BA6" s="1179"/>
+      <c r="BB6" s="1180"/>
+      <c r="BC6" s="1481"/>
+      <c r="BD6" s="1482"/>
+      <c r="BE6" s="136"/>
+      <c r="BF6" s="136"/>
+      <c r="BG6" s="136"/>
+      <c r="BH6" s="136"/>
+      <c r="BI6" s="136"/>
+      <c r="BJ6" s="136"/>
+      <c r="BK6" s="136"/>
+      <c r="BL6" s="136"/>
+      <c r="BM6" s="136"/>
+      <c r="BN6" s="136"/>
+      <c r="BO6" s="136"/>
+      <c r="BP6" s="136"/>
+      <c r="BQ6" s="136"/>
+      <c r="BR6" s="136"/>
+      <c r="BS6" s="136"/>
+      <c r="BT6" s="136"/>
+      <c r="BU6" s="136"/>
+      <c r="BV6" s="136"/>
+      <c r="BW6" s="136"/>
+      <c r="BX6" s="136"/>
+      <c r="BY6" s="136"/>
+      <c r="BZ6" s="136"/>
+      <c r="CA6" s="136"/>
+      <c r="CB6" s="136"/>
+      <c r="CC6" s="136"/>
+      <c r="CD6" s="136"/>
+      <c r="CE6" s="136"/>
+      <c r="CF6" s="136"/>
+      <c r="CG6" s="136"/>
+      <c r="CH6" s="136"/>
+      <c r="CI6" s="136"/>
+      <c r="CJ6" s="136"/>
+      <c r="CK6" s="136"/>
+      <c r="CL6" s="136"/>
+      <c r="CM6" s="136"/>
+      <c r="CN6" s="136"/>
+      <c r="CO6" s="136"/>
+      <c r="CP6" s="136"/>
+      <c r="CQ6" s="136"/>
+      <c r="CR6" s="136"/>
+      <c r="CS6" s="136"/>
+      <c r="CT6" s="136"/>
+      <c r="CU6" s="136"/>
+      <c r="CV6" s="136"/>
+      <c r="CW6" s="136"/>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="1181"/>
+      <c r="N7" s="1182"/>
+      <c r="O7" s="1183"/>
+      <c r="P7" s="1184"/>
+      <c r="Q7" s="1185"/>
+      <c r="R7" s="1186"/>
+      <c r="S7" s="1483"/>
+      <c r="T7" s="1187"/>
+      <c r="U7" s="1188"/>
+      <c r="V7" s="1189"/>
+      <c r="W7" s="1190"/>
+      <c r="X7" s="1191"/>
+      <c r="Y7" s="1192"/>
+      <c r="Z7" s="1484"/>
+      <c r="AA7" s="1485"/>
+      <c r="AB7" s="1193"/>
+      <c r="AC7" s="1486"/>
+      <c r="AD7" s="1487"/>
+      <c r="AE7" s="1488"/>
+      <c r="AF7" s="1194"/>
+      <c r="AG7" s="1195"/>
+      <c r="AH7" s="1196"/>
+      <c r="AI7" s="1197"/>
+      <c r="AJ7" s="1489"/>
+      <c r="AK7" s="1490"/>
+      <c r="AL7" s="1491"/>
+      <c r="AM7" s="1492"/>
+      <c r="AN7" s="1493"/>
+      <c r="AO7" s="1198"/>
+      <c r="AP7" s="1199"/>
+      <c r="AQ7" s="1200"/>
+      <c r="AR7" s="1201"/>
+      <c r="AS7" s="1202"/>
+      <c r="AT7" s="1203"/>
+      <c r="AU7" s="1204"/>
+      <c r="AV7" s="1205"/>
+      <c r="AW7" s="1494"/>
+      <c r="AX7" s="1495"/>
+      <c r="AY7" s="1206"/>
+      <c r="AZ7" s="1207"/>
+      <c r="BA7" s="1208"/>
+      <c r="BB7" s="1209"/>
+      <c r="BC7" s="1210"/>
+      <c r="BD7" s="1211"/>
+      <c r="BE7" s="136"/>
+      <c r="BF7" s="136"/>
+      <c r="BG7" s="136"/>
+      <c r="BH7" s="136"/>
+      <c r="BI7" s="136"/>
+      <c r="BJ7" s="136"/>
+      <c r="BK7" s="136"/>
+      <c r="BL7" s="136"/>
+      <c r="BM7" s="136"/>
+      <c r="BN7" s="136"/>
+      <c r="BO7" s="136"/>
+      <c r="BP7" s="136"/>
+      <c r="BQ7" s="136"/>
+      <c r="BR7" s="136"/>
+      <c r="BS7" s="136"/>
+      <c r="BT7" s="136"/>
+      <c r="BU7" s="136"/>
+      <c r="BV7" s="136"/>
+      <c r="BW7" s="136"/>
+      <c r="BX7" s="136"/>
+      <c r="BY7" s="136"/>
+      <c r="BZ7" s="136"/>
+      <c r="CA7" s="136"/>
+      <c r="CB7" s="136"/>
+      <c r="CC7" s="136"/>
+      <c r="CD7" s="136"/>
+      <c r="CE7" s="136"/>
+      <c r="CF7" s="136"/>
+      <c r="CG7" s="136"/>
+      <c r="CH7" s="136"/>
+      <c r="CI7" s="136"/>
+      <c r="CJ7" s="136"/>
+      <c r="CK7" s="136"/>
+      <c r="CL7" s="136"/>
+      <c r="CM7" s="136"/>
+      <c r="CN7" s="136"/>
+      <c r="CO7" s="136"/>
+      <c r="CP7" s="136"/>
+      <c r="CQ7" s="136"/>
+      <c r="CR7" s="136"/>
+      <c r="CS7" s="136"/>
+      <c r="CT7" s="136"/>
+      <c r="CU7" s="136"/>
+      <c r="CV7" s="136"/>
+      <c r="CW7" s="136"/>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="1212"/>
+      <c r="N8" s="1213"/>
+      <c r="O8" s="1214"/>
+      <c r="P8" s="1215"/>
+      <c r="Q8" s="1216"/>
+      <c r="R8" s="1217"/>
+      <c r="S8" s="1218"/>
+      <c r="T8" s="1219"/>
+      <c r="U8" s="1220"/>
+      <c r="V8" s="1221"/>
+      <c r="W8" s="1222"/>
+      <c r="X8" s="1223"/>
+      <c r="Y8" s="1224"/>
+      <c r="Z8" s="1225"/>
+      <c r="AA8" s="1226"/>
+      <c r="AB8" s="1227"/>
+      <c r="AC8" s="1228"/>
+      <c r="AD8" s="1229"/>
+      <c r="AE8" s="1230"/>
+      <c r="AF8" s="1496"/>
+      <c r="AG8" s="1497"/>
+      <c r="AH8" s="1231"/>
+      <c r="AI8" s="1232"/>
+      <c r="AJ8" s="1233"/>
+      <c r="AK8" s="1234"/>
+      <c r="AL8" s="1235"/>
+      <c r="AM8" s="1236"/>
+      <c r="AN8" s="1237"/>
+      <c r="AO8" s="1238"/>
+      <c r="AP8" s="1239"/>
+      <c r="AQ8" s="1240"/>
+      <c r="AR8" s="1241"/>
+      <c r="AS8" s="1242"/>
+      <c r="AT8" s="1243"/>
+      <c r="AU8" s="1244"/>
+      <c r="AV8" s="1245"/>
+      <c r="AW8" s="1498"/>
+      <c r="AX8" s="1246"/>
+      <c r="AY8" s="1247"/>
+      <c r="AZ8" s="1248"/>
+      <c r="BA8" s="1249"/>
+      <c r="BB8" s="1250"/>
+      <c r="BC8" s="1251"/>
+      <c r="BD8" s="1499"/>
+      <c r="BE8" s="136"/>
+      <c r="BF8" s="136"/>
+      <c r="BG8" s="136"/>
+      <c r="BH8" s="136"/>
+      <c r="BI8" s="136"/>
+      <c r="BJ8" s="136"/>
+      <c r="BK8" s="136"/>
+      <c r="BL8" s="136"/>
+      <c r="BM8" s="136"/>
+      <c r="BN8" s="136"/>
+      <c r="BO8" s="136"/>
+      <c r="BP8" s="136"/>
+      <c r="BQ8" s="136"/>
+      <c r="BR8" s="136"/>
+      <c r="BS8" s="136"/>
+      <c r="BT8" s="136"/>
+      <c r="BU8" s="136"/>
+      <c r="BV8" s="136"/>
+      <c r="BW8" s="136"/>
+      <c r="BX8" s="136"/>
+      <c r="BY8" s="136"/>
+      <c r="BZ8" s="136"/>
+      <c r="CA8" s="136"/>
+      <c r="CB8" s="136"/>
+      <c r="CC8" s="136"/>
+      <c r="CD8" s="136"/>
+      <c r="CE8" s="136"/>
+      <c r="CF8" s="136"/>
+      <c r="CG8" s="136"/>
+      <c r="CH8" s="136"/>
+      <c r="CI8" s="136"/>
+      <c r="CJ8" s="136"/>
+      <c r="CK8" s="136"/>
+      <c r="CL8" s="136"/>
+      <c r="CM8" s="136"/>
+      <c r="CN8" s="136"/>
+      <c r="CO8" s="136"/>
+      <c r="CP8" s="136"/>
+      <c r="CQ8" s="136"/>
+      <c r="CR8" s="136"/>
+      <c r="CS8" s="136"/>
+      <c r="CT8" s="136"/>
+      <c r="CU8" s="136"/>
+      <c r="CV8" s="136"/>
+      <c r="CW8" s="136"/>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="1252"/>
+      <c r="N9" s="1253"/>
+      <c r="O9" s="1254"/>
+      <c r="P9" s="1500"/>
+      <c r="Q9" s="1501"/>
+      <c r="R9" s="1502"/>
+      <c r="S9" s="1503"/>
+      <c r="T9" s="1504"/>
+      <c r="U9" s="1255"/>
+      <c r="V9" s="1256"/>
+      <c r="W9" s="1257"/>
+      <c r="X9" s="1258"/>
+      <c r="Y9" s="1259"/>
+      <c r="Z9" s="1260"/>
+      <c r="AA9" s="1261"/>
+      <c r="AB9" s="1262"/>
+      <c r="AC9" s="1263"/>
+      <c r="AD9" s="1264"/>
+      <c r="AE9" s="1265"/>
+      <c r="AF9" s="1266"/>
+      <c r="AG9" s="1267"/>
+      <c r="AH9" s="1505"/>
+      <c r="AI9" s="1506"/>
+      <c r="AJ9" s="1268"/>
+      <c r="AK9" s="1269"/>
+      <c r="AL9" s="1270"/>
+      <c r="AM9" s="1271"/>
+      <c r="AN9" s="1272"/>
+      <c r="AO9" s="1273"/>
+      <c r="AP9" s="1274"/>
+      <c r="AQ9" s="1275"/>
+      <c r="AR9" s="1276"/>
+      <c r="AS9" s="1277"/>
+      <c r="AT9" s="1278"/>
+      <c r="AU9" s="1279"/>
+      <c r="AV9" s="136"/>
+      <c r="AW9" s="1507"/>
+      <c r="AX9" s="1508"/>
+      <c r="AY9" s="1280"/>
+      <c r="AZ9" s="1281"/>
+      <c r="BA9" s="1282"/>
+      <c r="BB9" s="136"/>
+      <c r="BC9" s="136"/>
+      <c r="BD9" s="1509"/>
+      <c r="BE9" s="136"/>
+      <c r="BF9" s="136"/>
+      <c r="BG9" s="136"/>
+      <c r="BH9" s="136"/>
+      <c r="BI9" s="136"/>
+      <c r="BJ9" s="136"/>
+      <c r="BK9" s="136"/>
+      <c r="BL9" s="136"/>
+      <c r="BM9" s="136"/>
+      <c r="BN9" s="136"/>
+      <c r="BO9" s="136"/>
+      <c r="BP9" s="136"/>
+      <c r="BQ9" s="136"/>
+      <c r="BR9" s="136"/>
+      <c r="BS9" s="136"/>
+      <c r="BT9" s="136"/>
+      <c r="BU9" s="136"/>
+      <c r="BV9" s="136"/>
+      <c r="BW9" s="136"/>
+      <c r="BX9" s="136"/>
+      <c r="BY9" s="136"/>
+      <c r="BZ9" s="136"/>
+      <c r="CA9" s="136"/>
+      <c r="CB9" s="136"/>
+      <c r="CC9" s="136"/>
+      <c r="CD9" s="136"/>
+      <c r="CE9" s="136"/>
+      <c r="CF9" s="136"/>
+      <c r="CG9" s="136"/>
+      <c r="CH9" s="136"/>
+      <c r="CI9" s="136"/>
+      <c r="CJ9" s="136"/>
+      <c r="CK9" s="136"/>
+      <c r="CL9" s="136"/>
+      <c r="CM9" s="136"/>
+      <c r="CN9" s="136"/>
+      <c r="CO9" s="136"/>
+      <c r="CP9" s="136"/>
+      <c r="CQ9" s="136"/>
+      <c r="CR9" s="136"/>
+      <c r="CS9" s="136"/>
+      <c r="CT9" s="136"/>
+      <c r="CU9" s="136"/>
+      <c r="CV9" s="136"/>
+      <c r="CW9" s="136"/>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="1283"/>
+      <c r="L10" s="1284"/>
+      <c r="M10" s="1285"/>
+      <c r="N10" s="1286"/>
+      <c r="O10" s="1287"/>
+      <c r="P10" s="1288"/>
+      <c r="Q10" s="1289"/>
+      <c r="R10" s="1290"/>
+      <c r="S10" s="1291"/>
+      <c r="T10" s="1292"/>
+      <c r="U10" s="1293"/>
+      <c r="V10" s="1294"/>
+      <c r="W10" s="1295"/>
+      <c r="X10" s="1296"/>
+      <c r="Y10" s="1297"/>
+      <c r="Z10" s="1298"/>
+      <c r="AA10" s="1299"/>
+      <c r="AB10" s="1300"/>
+      <c r="AC10" s="1301"/>
+      <c r="AD10" s="1302"/>
+      <c r="AE10" s="1303"/>
+      <c r="AF10" s="1304"/>
+      <c r="AG10" s="1305"/>
+      <c r="AH10" s="1510"/>
+      <c r="AI10" s="1306"/>
+      <c r="AJ10" s="1307"/>
+      <c r="AK10" s="1308"/>
+      <c r="AL10" s="1309"/>
+      <c r="AM10" s="1310"/>
+      <c r="AN10" s="1311"/>
+      <c r="AO10" s="1312"/>
+      <c r="AP10" s="1313"/>
+      <c r="AQ10" s="1314"/>
+      <c r="AR10" s="1315"/>
+      <c r="AS10" s="1316"/>
+      <c r="AT10" s="1317"/>
+      <c r="AU10" s="1318"/>
+      <c r="AV10" s="136"/>
+      <c r="AW10" s="1511"/>
+      <c r="AX10" s="1512"/>
+      <c r="AY10" s="1319"/>
+      <c r="AZ10" s="1320"/>
+      <c r="BA10" s="1321"/>
+      <c r="BB10" s="1322"/>
+      <c r="BC10" s="1323"/>
+      <c r="BD10" s="1324"/>
+      <c r="BE10" s="136"/>
+      <c r="BF10" s="136"/>
+      <c r="BG10" s="136"/>
+      <c r="BH10" s="136"/>
+      <c r="BI10" s="136"/>
+      <c r="BJ10" s="136"/>
+      <c r="BK10" s="136"/>
+      <c r="BL10" s="136"/>
+      <c r="BM10" s="136"/>
+      <c r="BN10" s="136"/>
+      <c r="BO10" s="136"/>
+      <c r="BP10" s="136"/>
+      <c r="BQ10" s="136"/>
+      <c r="BR10" s="136"/>
+      <c r="BS10" s="136"/>
+      <c r="BT10" s="136"/>
+      <c r="BU10" s="136"/>
+      <c r="BV10" s="136"/>
+      <c r="BW10" s="136"/>
+      <c r="BX10" s="136"/>
+      <c r="BY10" s="136"/>
+      <c r="BZ10" s="136"/>
+      <c r="CA10" s="136"/>
+      <c r="CB10" s="136"/>
+      <c r="CC10" s="136"/>
+      <c r="CD10" s="136"/>
+      <c r="CE10" s="136"/>
+      <c r="CF10" s="136"/>
+      <c r="CG10" s="136"/>
+      <c r="CH10" s="136"/>
+      <c r="CI10" s="136"/>
+      <c r="CJ10" s="136"/>
+      <c r="CK10" s="136"/>
+      <c r="CL10" s="136"/>
+      <c r="CM10" s="136"/>
+      <c r="CN10" s="136"/>
+      <c r="CO10" s="136"/>
+      <c r="CP10" s="136"/>
+      <c r="CQ10" s="136"/>
+      <c r="CR10" s="136"/>
+      <c r="CS10" s="136"/>
+      <c r="CT10" s="136"/>
+      <c r="CU10" s="136"/>
+      <c r="CV10" s="136"/>
+      <c r="CW10" s="136"/>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="1325"/>
+      <c r="Q11" s="1326"/>
+      <c r="R11" s="1327"/>
+      <c r="S11" s="1328"/>
+      <c r="T11" s="1329"/>
+      <c r="U11" s="1330"/>
+      <c r="V11" s="1331"/>
+      <c r="W11" s="1332"/>
+      <c r="X11" s="1333"/>
+      <c r="Y11" s="1334"/>
+      <c r="Z11" s="1335"/>
+      <c r="AA11" s="1513"/>
+      <c r="AB11" s="1514"/>
+      <c r="AC11" s="1336"/>
+      <c r="AD11" s="1337"/>
+      <c r="AE11" s="1338"/>
+      <c r="AF11" s="1339"/>
+      <c r="AG11" s="1340"/>
+      <c r="AH11" s="1341"/>
+      <c r="AI11" s="1342"/>
+      <c r="AJ11" s="1343"/>
+      <c r="AK11" s="1344"/>
+      <c r="AL11" s="1345"/>
+      <c r="AM11" s="1346"/>
+      <c r="AN11" s="1347"/>
+      <c r="AO11" s="1348"/>
+      <c r="AP11" s="1349"/>
+      <c r="AQ11" s="1350"/>
+      <c r="AR11" s="1351"/>
+      <c r="AS11" s="1352"/>
+      <c r="AT11" s="1353"/>
+      <c r="AU11" s="1354"/>
+      <c r="AV11" s="136"/>
+      <c r="AW11" s="1355"/>
+      <c r="AX11" s="1356"/>
+      <c r="AY11" s="1357"/>
+      <c r="AZ11" s="1358"/>
+      <c r="BA11" s="1359"/>
+      <c r="BB11" s="1360"/>
+      <c r="BC11" s="1361"/>
+      <c r="BD11" s="136"/>
+      <c r="BE11" s="136"/>
+      <c r="BF11" s="136"/>
+      <c r="BG11" s="136"/>
+      <c r="BH11" s="136"/>
+      <c r="BI11" s="136"/>
+      <c r="BJ11" s="136"/>
+      <c r="BK11" s="136"/>
+      <c r="BL11" s="136"/>
+      <c r="BM11" s="136"/>
+      <c r="BN11" s="136"/>
+      <c r="BO11" s="136"/>
+      <c r="BP11" s="136"/>
+      <c r="BQ11" s="136"/>
+      <c r="BR11" s="136"/>
+      <c r="BS11" s="136"/>
+      <c r="BT11" s="136"/>
+      <c r="BU11" s="136"/>
+      <c r="BV11" s="136"/>
+      <c r="BW11" s="136"/>
+      <c r="BX11" s="136"/>
+      <c r="BY11" s="136"/>
+      <c r="BZ11" s="136"/>
+      <c r="CA11" s="136"/>
+      <c r="CB11" s="136"/>
+      <c r="CC11" s="136"/>
+      <c r="CD11" s="136"/>
+      <c r="CE11" s="136"/>
+      <c r="CF11" s="136"/>
+      <c r="CG11" s="136"/>
+      <c r="CH11" s="136"/>
+      <c r="CI11" s="136"/>
+      <c r="CJ11" s="136"/>
+      <c r="CK11" s="136"/>
+      <c r="CL11" s="136"/>
+      <c r="CM11" s="136"/>
+      <c r="CN11" s="136"/>
+      <c r="CO11" s="136"/>
+      <c r="CP11" s="136"/>
+      <c r="CQ11" s="136"/>
+      <c r="CR11" s="136"/>
+      <c r="CS11" s="136"/>
+      <c r="CT11" s="136"/>
+      <c r="CU11" s="136"/>
+      <c r="CV11" s="136"/>
+      <c r="CW11" s="136"/>
+    </row>
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A12" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="139" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="1362"/>
+      <c r="M12" s="1363"/>
+      <c r="N12" s="1364"/>
+      <c r="O12" s="1365"/>
+      <c r="P12" s="1515"/>
+      <c r="Q12" s="1516"/>
+      <c r="R12" s="1517"/>
+      <c r="S12" s="1518"/>
+      <c r="T12" s="1519"/>
+      <c r="U12" s="1520"/>
+      <c r="V12" s="1366"/>
+      <c r="W12" s="1367"/>
+      <c r="X12" s="1368"/>
+      <c r="Y12" s="1369"/>
+      <c r="Z12" s="1370"/>
+      <c r="AA12" s="1371"/>
+      <c r="AB12" s="1521"/>
+      <c r="AC12" s="1522"/>
+      <c r="AD12" s="1372"/>
+      <c r="AE12" s="1373"/>
+      <c r="AF12" s="1374"/>
+      <c r="AG12" s="1523"/>
+      <c r="AH12" s="1375"/>
+      <c r="AI12" s="1376"/>
+      <c r="AJ12" s="1377"/>
+      <c r="AK12" s="1378"/>
+      <c r="AL12" s="1379"/>
+      <c r="AM12" s="1380"/>
+      <c r="AN12" s="1381"/>
+      <c r="AO12" s="1382"/>
+      <c r="AP12" s="1383"/>
+      <c r="AQ12" s="1384"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="136"/>
+      <c r="AT12" s="136"/>
+      <c r="AU12" s="136"/>
+      <c r="AV12" s="136"/>
+      <c r="AW12" s="136"/>
+      <c r="AX12" s="136"/>
+      <c r="AY12" s="136"/>
+      <c r="AZ12" s="136"/>
+      <c r="BA12" s="136"/>
+      <c r="BB12" s="136"/>
+      <c r="BC12" s="136"/>
+      <c r="BD12" s="136"/>
+      <c r="BE12" s="136"/>
+      <c r="BF12" s="136"/>
+      <c r="BG12" s="136"/>
+      <c r="BH12" s="136"/>
+      <c r="BI12" s="136"/>
+      <c r="BJ12" s="136"/>
+      <c r="BK12" s="136"/>
+      <c r="BL12" s="136"/>
+      <c r="BM12" s="136"/>
+      <c r="BN12" s="136"/>
+      <c r="BO12" s="136"/>
+      <c r="BP12" s="136"/>
+      <c r="BQ12" s="136"/>
+      <c r="BR12" s="136"/>
+      <c r="BS12" s="136"/>
+      <c r="BT12" s="136"/>
+      <c r="BU12" s="136"/>
+      <c r="BV12" s="136"/>
+      <c r="BW12" s="136"/>
+      <c r="BX12" s="136"/>
+      <c r="BY12" s="136"/>
+      <c r="BZ12" s="136"/>
+      <c r="CA12" s="136"/>
+      <c r="CB12" s="136"/>
+      <c r="CC12" s="136"/>
+      <c r="CD12" s="136"/>
+      <c r="CE12" s="136"/>
+      <c r="CF12" s="136"/>
+      <c r="CG12" s="136"/>
+      <c r="CH12" s="136"/>
+      <c r="CI12" s="136"/>
+      <c r="CJ12" s="136"/>
+      <c r="CK12" s="136"/>
+      <c r="CL12" s="136"/>
+      <c r="CM12" s="136"/>
+      <c r="CN12" s="136"/>
+      <c r="CO12" s="136"/>
+      <c r="CP12" s="136"/>
+      <c r="CQ12" s="136"/>
+      <c r="CR12" s="136"/>
+      <c r="CS12" s="136"/>
+      <c r="CT12" s="136"/>
+      <c r="CU12" s="136"/>
+      <c r="CV12" s="136"/>
+      <c r="CW12" s="136"/>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A13" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="1385"/>
+      <c r="S13" s="1386"/>
+      <c r="T13" s="1387"/>
+      <c r="U13" s="1388"/>
+      <c r="V13" s="1389"/>
+      <c r="W13" s="1390"/>
+      <c r="X13" s="1391"/>
+      <c r="Y13" s="1524"/>
+      <c r="Z13" s="1525"/>
+      <c r="AA13" s="1392"/>
+      <c r="AB13" s="1393"/>
+      <c r="AC13" s="1394"/>
+      <c r="AD13" s="1395"/>
+      <c r="AE13" s="1396"/>
+      <c r="AF13" s="1397"/>
+      <c r="AG13" s="1526"/>
+      <c r="AH13" s="1398"/>
+      <c r="AI13" s="1399"/>
+      <c r="AJ13" s="1400"/>
+      <c r="AK13" s="1401"/>
+      <c r="AL13" s="1402"/>
+      <c r="AM13" s="1403"/>
+      <c r="AN13" s="1404"/>
+      <c r="AO13" s="1405"/>
+      <c r="AP13" s="1406"/>
+      <c r="AQ13" s="1407"/>
+      <c r="AR13" s="1408"/>
+      <c r="AS13" s="1409"/>
+      <c r="AT13" s="1410"/>
+      <c r="AU13" s="1411"/>
+      <c r="AV13" s="1527"/>
+      <c r="AW13" s="1528"/>
+      <c r="AX13" s="1529"/>
+      <c r="AY13" s="1412"/>
+      <c r="AZ13" s="1413"/>
+      <c r="BA13" s="1414"/>
+      <c r="BB13" s="1415"/>
+      <c r="BC13" s="1416"/>
+      <c r="BD13" s="136"/>
+      <c r="BE13" s="136"/>
+      <c r="BF13" s="136"/>
+      <c r="BG13" s="136"/>
+      <c r="BH13" s="136"/>
+      <c r="BI13" s="136"/>
+      <c r="BJ13" s="136"/>
+      <c r="BK13" s="136"/>
+      <c r="BL13" s="136"/>
+      <c r="BM13" s="136"/>
+      <c r="BN13" s="136"/>
+      <c r="BO13" s="136"/>
+      <c r="BP13" s="136"/>
+      <c r="BQ13" s="136"/>
+      <c r="BR13" s="136"/>
+      <c r="BS13" s="136"/>
+      <c r="BT13" s="136"/>
+      <c r="BU13" s="136"/>
+      <c r="BV13" s="136"/>
+      <c r="BW13" s="136"/>
+      <c r="BX13" s="136"/>
+      <c r="BY13" s="136"/>
+      <c r="BZ13" s="136"/>
+      <c r="CA13" s="136"/>
+      <c r="CB13" s="136"/>
+      <c r="CC13" s="136"/>
+      <c r="CD13" s="136"/>
+      <c r="CE13" s="136"/>
+      <c r="CF13" s="136"/>
+      <c r="CG13" s="136"/>
+      <c r="CH13" s="136"/>
+      <c r="CI13" s="136"/>
+      <c r="CJ13" s="136"/>
+      <c r="CK13" s="136"/>
+      <c r="CL13" s="136"/>
+      <c r="CM13" s="136"/>
+      <c r="CN13" s="136"/>
+      <c r="CO13" s="136"/>
+      <c r="CP13" s="136"/>
+      <c r="CQ13" s="136"/>
+      <c r="CR13" s="136"/>
+      <c r="CS13" s="136"/>
+      <c r="CT13" s="136"/>
+      <c r="CU13" s="136"/>
+      <c r="CV13" s="136"/>
+      <c r="CW13" s="136"/>
+    </row>
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A14" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1417"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="136"/>
+      <c r="AA14" s="136"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="136"/>
+      <c r="AD14" s="136"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="136"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="136"/>
+      <c r="AJ14" s="136"/>
+      <c r="AK14" s="136"/>
+      <c r="AL14" s="136"/>
+      <c r="AM14" s="136"/>
+      <c r="AN14" s="136"/>
+      <c r="AO14" s="136"/>
+      <c r="AP14" s="136"/>
+      <c r="AQ14" s="136"/>
+      <c r="AR14" s="136"/>
+      <c r="AS14" s="136"/>
+      <c r="AT14" s="136"/>
+      <c r="AU14" s="136"/>
+      <c r="AV14" s="136"/>
+      <c r="AW14" s="136"/>
+      <c r="AX14" s="136"/>
+      <c r="AY14" s="136"/>
+      <c r="AZ14" s="136"/>
+      <c r="BA14" s="136"/>
+      <c r="BB14" s="136"/>
+      <c r="BC14" s="136"/>
+      <c r="BD14" s="136"/>
+      <c r="BE14" s="136"/>
+      <c r="BF14" s="136"/>
+      <c r="BG14" s="136"/>
+      <c r="BH14" s="136"/>
+      <c r="BI14" s="136"/>
+      <c r="BJ14" s="136"/>
+      <c r="BK14" s="136"/>
+      <c r="BL14" s="136"/>
+      <c r="BM14" s="136"/>
+      <c r="BN14" s="136"/>
+      <c r="BO14" s="136"/>
+      <c r="BP14" s="136"/>
+      <c r="BQ14" s="136"/>
+      <c r="BR14" s="136"/>
+      <c r="BS14" s="136"/>
+      <c r="BT14" s="136"/>
+      <c r="BU14" s="136"/>
+      <c r="BV14" s="136"/>
+      <c r="BW14" s="136"/>
+      <c r="BX14" s="136"/>
+      <c r="BY14" s="136"/>
+      <c r="BZ14" s="136"/>
+      <c r="CA14" s="136"/>
+      <c r="CB14" s="136"/>
+      <c r="CC14" s="136"/>
+      <c r="CD14" s="136"/>
+      <c r="CE14" s="136"/>
+      <c r="CF14" s="136"/>
+      <c r="CG14" s="136"/>
+      <c r="CH14" s="136"/>
+      <c r="CI14" s="136"/>
+      <c r="CJ14" s="136"/>
+      <c r="CK14" s="136"/>
+      <c r="CL14" s="136"/>
+      <c r="CM14" s="136"/>
+      <c r="CN14" s="136"/>
+      <c r="CO14" s="136"/>
+      <c r="CP14" s="136"/>
+      <c r="CQ14" s="136"/>
+      <c r="CR14" s="136"/>
+      <c r="CS14" s="136"/>
+      <c r="CT14" s="136"/>
+      <c r="CU14" s="136"/>
+      <c r="CV14" s="136"/>
+      <c r="CW14" s="136"/>
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A15" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="1418"/>
+      <c r="N15" s="1419"/>
+      <c r="O15" s="1420"/>
+      <c r="P15" s="1421"/>
+      <c r="Q15" s="1422"/>
+      <c r="R15" s="1423"/>
+      <c r="S15" s="1424"/>
+      <c r="T15" s="1425"/>
+      <c r="U15" s="1426"/>
+      <c r="V15" s="1427"/>
+      <c r="W15" s="1428"/>
+      <c r="X15" s="1429"/>
+      <c r="Y15" s="1430"/>
+      <c r="Z15" s="1431"/>
+      <c r="AA15" s="1530"/>
+      <c r="AB15" s="1432"/>
+      <c r="AC15" s="1433"/>
+      <c r="AD15" s="1434"/>
+      <c r="AE15" s="1435"/>
+      <c r="AF15" s="1531"/>
+      <c r="AG15" s="1532"/>
+      <c r="AH15" s="1436"/>
+      <c r="AI15" s="1437"/>
+      <c r="AJ15" s="1438"/>
+      <c r="AK15" s="1439"/>
+      <c r="AL15" s="1440"/>
+      <c r="AM15" s="1441"/>
+      <c r="AN15" s="1442"/>
+      <c r="AO15" s="1443"/>
+      <c r="AP15" s="1444"/>
+      <c r="AQ15" s="1445"/>
+      <c r="AR15" s="1446"/>
+      <c r="AS15" s="1447"/>
+      <c r="AT15" s="1448"/>
+      <c r="AU15" s="1449"/>
+      <c r="AV15" s="1450"/>
+      <c r="AW15" s="1451"/>
+      <c r="AX15" s="1533"/>
+      <c r="AY15" s="1452"/>
+      <c r="AZ15" s="1453"/>
+      <c r="BA15" s="1454"/>
+      <c r="BB15" s="1455"/>
+      <c r="BC15" s="1456"/>
+      <c r="BD15" s="1457"/>
+      <c r="BE15" s="1458"/>
+      <c r="BF15" s="136"/>
+      <c r="BG15" s="136"/>
+      <c r="BH15" s="136"/>
+      <c r="BI15" s="136"/>
+      <c r="BJ15" s="136"/>
+      <c r="BK15" s="136"/>
+      <c r="BL15" s="136"/>
+      <c r="BM15" s="136"/>
+      <c r="BN15" s="136"/>
+      <c r="BO15" s="136"/>
+      <c r="BP15" s="136"/>
+      <c r="BQ15" s="136"/>
+      <c r="BR15" s="136"/>
+      <c r="BS15" s="136"/>
+      <c r="BT15" s="136"/>
+      <c r="BU15" s="136"/>
+      <c r="BV15" s="136"/>
+      <c r="BW15" s="136"/>
+      <c r="BX15" s="136"/>
+      <c r="BY15" s="136"/>
+      <c r="BZ15" s="136"/>
+      <c r="CA15" s="136"/>
+      <c r="CB15" s="136"/>
+      <c r="CC15" s="136"/>
+      <c r="CD15" s="136"/>
+      <c r="CE15" s="136"/>
+      <c r="CF15" s="136"/>
+      <c r="CG15" s="136"/>
+      <c r="CH15" s="136"/>
+      <c r="CI15" s="136"/>
+      <c r="CJ15" s="136"/>
+      <c r="CK15" s="136"/>
+      <c r="CL15" s="136"/>
+      <c r="CM15" s="136"/>
+      <c r="CN15" s="136"/>
+      <c r="CO15" s="136"/>
+      <c r="CP15" s="136"/>
+      <c r="CQ15" s="136"/>
+      <c r="CR15" s="136"/>
+      <c r="CS15" s="136"/>
+      <c r="CT15" s="136"/>
+      <c r="CU15" s="136"/>
+      <c r="CV15" s="136"/>
+      <c r="CW15" s="136"/>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -4998,18 +4998,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5022,10 +5010,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5037,15 +5058,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5053,18 +5065,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
@@ -8853,63 +8853,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="140"/>
-      <c r="AW2" s="140"/>
-      <c r="AX2" s="140"/>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="140"/>
-      <c r="BA2" s="140"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -8927,102 +8927,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="141">
+      <c r="F3" s="143">
         <v>7</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141">
+      <c r="G3" s="143"/>
+      <c r="H3" s="143">
         <v>8</v>
       </c>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141">
+      <c r="I3" s="143"/>
+      <c r="J3" s="143">
         <v>9</v>
       </c>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141">
+      <c r="K3" s="143"/>
+      <c r="L3" s="143">
         <v>10</v>
       </c>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141">
+      <c r="M3" s="143"/>
+      <c r="N3" s="143">
         <v>11</v>
       </c>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141">
+      <c r="O3" s="143"/>
+      <c r="P3" s="143">
         <v>12</v>
       </c>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141">
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143">
         <v>13</v>
       </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141">
+      <c r="S3" s="143"/>
+      <c r="T3" s="143">
         <v>14</v>
       </c>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141">
+      <c r="U3" s="143"/>
+      <c r="V3" s="143">
         <v>15</v>
       </c>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141">
+      <c r="W3" s="143"/>
+      <c r="X3" s="143">
         <v>16</v>
       </c>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="148">
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="145">
         <v>17</v>
       </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148">
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145">
         <v>18</v>
       </c>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="141">
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="143">
         <v>19</v>
       </c>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="141">
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143">
         <v>20</v>
       </c>
-      <c r="AG3" s="141"/>
-      <c r="AH3" s="141">
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143">
         <v>21</v>
       </c>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141">
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143">
         <v>22</v>
       </c>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="141">
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143">
         <v>23</v>
       </c>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="141">
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143">
         <v>24</v>
       </c>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141">
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="143">
         <v>1</v>
       </c>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="141">
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143">
         <v>2</v>
       </c>
-      <c r="AS3" s="141"/>
-      <c r="AT3" s="141">
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="143">
         <v>3</v>
       </c>
-      <c r="AU3" s="141"/>
-      <c r="AV3" s="141">
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143">
         <v>4</v>
       </c>
-      <c r="AW3" s="141"/>
-      <c r="AX3" s="141">
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143">
         <v>5</v>
       </c>
-      <c r="AY3" s="141"/>
-      <c r="AZ3" s="141">
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143">
         <v>6</v>
       </c>
-      <c r="BA3" s="142"/>
+      <c r="BA3" s="148"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -9082,7 +9082,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="139" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -9149,7 +9149,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="146"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="144"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -9281,7 +9281,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="141" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -9348,7 +9348,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -9411,7 +9411,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="139" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -9476,7 +9476,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -9535,7 +9535,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="141" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -9604,7 +9604,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -9671,7 +9671,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -9736,7 +9736,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -9799,7 +9799,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
+      <c r="A16" s="142"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -9860,7 +9860,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
+      <c r="A17" s="142"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -9925,7 +9925,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="144"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -9990,7 +9990,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="141" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -10057,7 +10057,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="146"/>
+      <c r="A20" s="142"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -10120,7 +10120,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="144"/>
+      <c r="A21" s="140"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -10643,6 +10643,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -10659,21 +10674,6 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -10703,63 +10703,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="140"/>
-      <c r="AW2" s="140"/>
-      <c r="AX2" s="140"/>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="140"/>
-      <c r="BA2" s="140"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -10777,102 +10777,102 @@
       <c r="E3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="141">
+      <c r="F3" s="143">
         <v>7</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141">
+      <c r="G3" s="143"/>
+      <c r="H3" s="143">
         <v>8</v>
       </c>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141">
+      <c r="I3" s="143"/>
+      <c r="J3" s="143">
         <v>9</v>
       </c>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141">
+      <c r="K3" s="143"/>
+      <c r="L3" s="143">
         <v>10</v>
       </c>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141">
+      <c r="M3" s="143"/>
+      <c r="N3" s="143">
         <v>11</v>
       </c>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141">
+      <c r="O3" s="143"/>
+      <c r="P3" s="143">
         <v>12</v>
       </c>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141">
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143">
         <v>13</v>
       </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141">
+      <c r="S3" s="143"/>
+      <c r="T3" s="143">
         <v>14</v>
       </c>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141">
+      <c r="U3" s="143"/>
+      <c r="V3" s="143">
         <v>15</v>
       </c>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141">
+      <c r="W3" s="143"/>
+      <c r="X3" s="143">
         <v>16</v>
       </c>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="148">
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="145">
         <v>17</v>
       </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148">
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145">
         <v>18</v>
       </c>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="141">
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="143">
         <v>19</v>
       </c>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="141">
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143">
         <v>20</v>
       </c>
-      <c r="AG3" s="141"/>
-      <c r="AH3" s="141">
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143">
         <v>21</v>
       </c>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141">
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143">
         <v>22</v>
       </c>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="141">
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143">
         <v>23</v>
       </c>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="141">
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143">
         <v>24</v>
       </c>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141">
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="143">
         <v>1</v>
       </c>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="141">
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143">
         <v>2</v>
       </c>
-      <c r="AS3" s="141"/>
-      <c r="AT3" s="141">
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="143">
         <v>3</v>
       </c>
-      <c r="AU3" s="141"/>
-      <c r="AV3" s="141">
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143">
         <v>4</v>
       </c>
-      <c r="AW3" s="141"/>
-      <c r="AX3" s="141">
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143">
         <v>5</v>
       </c>
-      <c r="AY3" s="141"/>
-      <c r="AZ3" s="141">
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143">
         <v>6</v>
       </c>
-      <c r="BA3" s="142"/>
+      <c r="BA3" s="148"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -10932,7 +10932,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="139" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -10999,7 +10999,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="146"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -11064,7 +11064,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="146"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -11129,7 +11129,7 @@
       <c r="BA7" s="51"/>
     </row>
     <row r="8" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="146"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -11194,7 +11194,7 @@
       <c r="BA8" s="51"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+      <c r="A9" s="142"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -11259,7 +11259,7 @@
       <c r="BA9" s="51"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+      <c r="A10" s="142"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -11324,7 +11324,7 @@
       <c r="BA10" s="51"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+      <c r="A11" s="144"/>
       <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="BA11" s="70"/>
     </row>
     <row r="12" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="139" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="124" t="s">
@@ -11454,7 +11454,7 @@
       <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -11521,7 +11521,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
@@ -11588,7 +11588,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -12017,6 +12017,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A5:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:BA2"/>
     <mergeCell ref="F3:G3"/>
@@ -12033,18 +12045,6 @@
     <mergeCell ref="AZ3:BA3"/>
     <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A5:A11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -12059,7 +12059,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X18" sqref="X18"/>
-      <selection pane="bottomLeft" activeCell="Z28" sqref="Z28"/>
+      <selection pane="bottomLeft" activeCell="AS30" sqref="AS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12074,63 +12074,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:101" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="140"/>
-      <c r="AW2" s="140"/>
-      <c r="AX2" s="140"/>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="140"/>
-      <c r="BA2" s="140"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="s">
@@ -12148,150 +12148,150 @@
       <c r="E3" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="149">
+      <c r="F3" s="156">
         <v>7</v>
       </c>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="152">
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="149">
         <v>8</v>
       </c>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="152">
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="149">
         <v>9</v>
       </c>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="152">
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="149">
         <v>10</v>
       </c>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="152">
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="149">
         <v>11</v>
       </c>
-      <c r="W3" s="153"/>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="155">
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="159">
         <v>12</v>
       </c>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="152">
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="149">
         <v>13</v>
       </c>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="152">
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="149">
         <v>14</v>
       </c>
-      <c r="AI3" s="153"/>
-      <c r="AJ3" s="153"/>
-      <c r="AK3" s="154"/>
-      <c r="AL3" s="152">
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="151"/>
+      <c r="AL3" s="149">
         <v>15</v>
       </c>
-      <c r="AM3" s="153"/>
-      <c r="AN3" s="153"/>
-      <c r="AO3" s="154"/>
-      <c r="AP3" s="152">
+      <c r="AM3" s="150"/>
+      <c r="AN3" s="150"/>
+      <c r="AO3" s="151"/>
+      <c r="AP3" s="149">
         <v>16</v>
       </c>
-      <c r="AQ3" s="153"/>
-      <c r="AR3" s="153"/>
-      <c r="AS3" s="154"/>
-      <c r="AT3" s="152">
+      <c r="AQ3" s="150"/>
+      <c r="AR3" s="150"/>
+      <c r="AS3" s="151"/>
+      <c r="AT3" s="149">
         <v>17</v>
       </c>
-      <c r="AU3" s="153"/>
-      <c r="AV3" s="153"/>
-      <c r="AW3" s="154"/>
-      <c r="AX3" s="152">
+      <c r="AU3" s="150"/>
+      <c r="AV3" s="150"/>
+      <c r="AW3" s="151"/>
+      <c r="AX3" s="149">
         <v>18</v>
       </c>
-      <c r="AY3" s="153"/>
-      <c r="AZ3" s="153"/>
-      <c r="BA3" s="161"/>
-      <c r="BB3" s="149">
+      <c r="AY3" s="150"/>
+      <c r="AZ3" s="150"/>
+      <c r="BA3" s="152"/>
+      <c r="BB3" s="156">
         <v>19</v>
       </c>
-      <c r="BC3" s="150"/>
-      <c r="BD3" s="150"/>
-      <c r="BE3" s="151"/>
-      <c r="BF3" s="152">
+      <c r="BC3" s="157"/>
+      <c r="BD3" s="157"/>
+      <c r="BE3" s="158"/>
+      <c r="BF3" s="149">
         <v>20</v>
       </c>
-      <c r="BG3" s="153"/>
-      <c r="BH3" s="153"/>
-      <c r="BI3" s="154"/>
-      <c r="BJ3" s="152">
+      <c r="BG3" s="150"/>
+      <c r="BH3" s="150"/>
+      <c r="BI3" s="151"/>
+      <c r="BJ3" s="149">
         <v>21</v>
       </c>
-      <c r="BK3" s="153"/>
-      <c r="BL3" s="153"/>
-      <c r="BM3" s="154"/>
-      <c r="BN3" s="152">
+      <c r="BK3" s="150"/>
+      <c r="BL3" s="150"/>
+      <c r="BM3" s="151"/>
+      <c r="BN3" s="149">
         <v>22</v>
       </c>
-      <c r="BO3" s="153"/>
-      <c r="BP3" s="153"/>
-      <c r="BQ3" s="154"/>
-      <c r="BR3" s="152">
+      <c r="BO3" s="150"/>
+      <c r="BP3" s="150"/>
+      <c r="BQ3" s="151"/>
+      <c r="BR3" s="149">
         <v>23</v>
       </c>
-      <c r="BS3" s="153"/>
-      <c r="BT3" s="153"/>
-      <c r="BU3" s="153"/>
-      <c r="BV3" s="158">
+      <c r="BS3" s="150"/>
+      <c r="BT3" s="150"/>
+      <c r="BU3" s="150"/>
+      <c r="BV3" s="153">
         <v>24</v>
       </c>
-      <c r="BW3" s="159"/>
-      <c r="BX3" s="159"/>
-      <c r="BY3" s="160"/>
-      <c r="BZ3" s="153">
+      <c r="BW3" s="154"/>
+      <c r="BX3" s="154"/>
+      <c r="BY3" s="155"/>
+      <c r="BZ3" s="150">
         <v>1</v>
       </c>
-      <c r="CA3" s="153"/>
-      <c r="CB3" s="153"/>
-      <c r="CC3" s="154"/>
-      <c r="CD3" s="152">
+      <c r="CA3" s="150"/>
+      <c r="CB3" s="150"/>
+      <c r="CC3" s="151"/>
+      <c r="CD3" s="149">
         <v>2</v>
       </c>
-      <c r="CE3" s="153"/>
-      <c r="CF3" s="153"/>
-      <c r="CG3" s="154"/>
-      <c r="CH3" s="152">
+      <c r="CE3" s="150"/>
+      <c r="CF3" s="150"/>
+      <c r="CG3" s="151"/>
+      <c r="CH3" s="149">
         <v>3</v>
       </c>
-      <c r="CI3" s="153"/>
-      <c r="CJ3" s="153"/>
-      <c r="CK3" s="154"/>
-      <c r="CL3" s="152">
+      <c r="CI3" s="150"/>
+      <c r="CJ3" s="150"/>
+      <c r="CK3" s="151"/>
+      <c r="CL3" s="149">
         <v>4</v>
       </c>
-      <c r="CM3" s="153"/>
-      <c r="CN3" s="153"/>
-      <c r="CO3" s="154"/>
-      <c r="CP3" s="152">
+      <c r="CM3" s="150"/>
+      <c r="CN3" s="150"/>
+      <c r="CO3" s="151"/>
+      <c r="CP3" s="149">
         <v>5</v>
       </c>
-      <c r="CQ3" s="153"/>
-      <c r="CR3" s="153"/>
-      <c r="CS3" s="154"/>
-      <c r="CT3" s="152">
+      <c r="CQ3" s="150"/>
+      <c r="CR3" s="150"/>
+      <c r="CS3" s="151"/>
+      <c r="CT3" s="149">
         <v>6</v>
       </c>
-      <c r="CU3" s="153"/>
-      <c r="CV3" s="153"/>
-      <c r="CW3" s="161"/>
+      <c r="CU3" s="150"/>
+      <c r="CV3" s="150"/>
+      <c r="CW3" s="152"/>
     </row>
     <row r="4" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
@@ -12399,7 +12399,7 @@
       <c r="CW4" s="112"/>
     </row>
     <row r="5" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="139" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -12512,7 +12512,7 @@
       <c r="CW5" s="117"/>
     </row>
     <row r="6" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="146"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="CW6" s="117"/>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -12734,7 +12734,7 @@
       <c r="CW7" s="117"/>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -12845,7 +12845,7 @@
       <c r="CW8" s="117"/>
     </row>
     <row r="9" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+      <c r="A9" s="142"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -12956,7 +12956,7 @@
       <c r="CW9" s="117"/>
     </row>
     <row r="10" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+      <c r="A10" s="142"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -13067,7 +13067,7 @@
       <c r="CW10" s="117"/>
     </row>
     <row r="11" spans="1:101" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+      <c r="A11" s="144"/>
       <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
@@ -13176,7 +13176,7 @@
       <c r="CW11" s="117"/>
     </row>
     <row r="12" spans="1:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="139" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="124" t="s">
@@ -13289,7 +13289,7 @@
       <c r="CW12" s="117"/>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -13400,7 +13400,7 @@
       <c r="CW13" s="117"/>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
@@ -13511,7 +13511,7 @@
       <c r="CW14" s="117"/>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -14229,13 +14229,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CH3:CK3"/>
-    <mergeCell ref="CL3:CO3"/>
-    <mergeCell ref="CP3:CS3"/>
-    <mergeCell ref="CT3:CW3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="BZ3:CC3"/>
-    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="BJ3:BM3"/>
     <mergeCell ref="BN3:BQ3"/>
@@ -14247,16 +14250,13 @@
     <mergeCell ref="AX3:BA3"/>
     <mergeCell ref="BB3:BE3"/>
     <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/sourse - копия.xlsx
+++ b/sourse - копия.xlsx
@@ -4993,10 +4993,20 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5010,23 +5020,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5037,7 +5044,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5049,24 +5062,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
@@ -6128,24 +6128,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8853,63 +8853,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -8927,102 +8927,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="143">
+      <c r="F3" s="139">
         <v>7</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143">
+      <c r="G3" s="139"/>
+      <c r="H3" s="139">
         <v>8</v>
       </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143">
+      <c r="I3" s="139"/>
+      <c r="J3" s="139">
         <v>9</v>
       </c>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143">
+      <c r="K3" s="139"/>
+      <c r="L3" s="139">
         <v>10</v>
       </c>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143">
+      <c r="M3" s="139"/>
+      <c r="N3" s="139">
         <v>11</v>
       </c>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143">
+      <c r="O3" s="139"/>
+      <c r="P3" s="139">
         <v>12</v>
       </c>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143">
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139">
         <v>13</v>
       </c>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143">
+      <c r="S3" s="139"/>
+      <c r="T3" s="139">
         <v>14</v>
       </c>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143">
+      <c r="U3" s="139"/>
+      <c r="V3" s="139">
         <v>15</v>
       </c>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143">
+      <c r="W3" s="139"/>
+      <c r="X3" s="139">
         <v>16</v>
       </c>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="145">
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="146">
         <v>17</v>
       </c>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145">
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146">
         <v>18</v>
       </c>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="143">
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="139">
         <v>19</v>
       </c>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143">
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139">
         <v>20</v>
       </c>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143">
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139">
         <v>21</v>
       </c>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143">
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139">
         <v>22</v>
       </c>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143">
+      <c r="AK3" s="139"/>
+      <c r="AL3" s="139">
         <v>23</v>
       </c>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143">
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="139">
         <v>24</v>
       </c>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143">
+      <c r="AO3" s="139"/>
+      <c r="AP3" s="139">
         <v>1</v>
       </c>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143">
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139">
         <v>2</v>
       </c>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143">
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="139">
         <v>3</v>
       </c>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143">
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="139">
         <v>4</v>
       </c>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143">
+      <c r="AW3" s="139"/>
+      <c r="AX3" s="139">
         <v>5</v>
       </c>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143">
+      <c r="AY3" s="139"/>
+      <c r="AZ3" s="139">
         <v>6</v>
       </c>
-      <c r="BA3" s="148"/>
+      <c r="BA3" s="140"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -9082,7 +9082,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="141" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -9149,7 +9149,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="140"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -9281,7 +9281,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="143" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -9348,7 +9348,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="144"/>
+      <c r="A9" s="145"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -9411,7 +9411,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="141" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -9476,7 +9476,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
+      <c r="A11" s="142"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -9535,7 +9535,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="143" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -9604,7 +9604,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -9671,7 +9671,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -9736,7 +9736,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -9799,7 +9799,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="142"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -9860,7 +9860,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="142"/>
+      <c r="A17" s="144"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -9925,7 +9925,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
+      <c r="A18" s="142"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -9990,7 +9990,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="143" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -10057,7 +10057,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="142"/>
+      <c r="A20" s="144"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -10120,7 +10120,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
+      <c r="A21" s="142"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -10643,21 +10643,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -10674,6 +10659,21 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -10703,63 +10703,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -10777,102 +10777,102 @@
       <c r="E3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="143">
+      <c r="F3" s="139">
         <v>7</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143">
+      <c r="G3" s="139"/>
+      <c r="H3" s="139">
         <v>8</v>
       </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143">
+      <c r="I3" s="139"/>
+      <c r="J3" s="139">
         <v>9</v>
       </c>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143">
+      <c r="K3" s="139"/>
+      <c r="L3" s="139">
         <v>10</v>
       </c>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143">
+      <c r="M3" s="139"/>
+      <c r="N3" s="139">
         <v>11</v>
       </c>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143">
+      <c r="O3" s="139"/>
+      <c r="P3" s="139">
         <v>12</v>
       </c>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143">
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139">
         <v>13</v>
       </c>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143">
+      <c r="S3" s="139"/>
+      <c r="T3" s="139">
         <v>14</v>
       </c>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143">
+      <c r="U3" s="139"/>
+      <c r="V3" s="139">
         <v>15</v>
       </c>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143">
+      <c r="W3" s="139"/>
+      <c r="X3" s="139">
         <v>16</v>
       </c>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="145">
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="146">
         <v>17</v>
       </c>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145">
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146">
         <v>18</v>
       </c>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="143">
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="139">
         <v>19</v>
       </c>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143">
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139">
         <v>20</v>
       </c>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143">
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139">
         <v>21</v>
       </c>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143">
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139">
         <v>22</v>
       </c>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143">
+      <c r="AK3" s="139"/>
+      <c r="AL3" s="139">
         <v>23</v>
       </c>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143">
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="139">
         <v>24</v>
       </c>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143">
+      <c r="AO3" s="139"/>
+      <c r="AP3" s="139">
         <v>1</v>
       </c>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143">
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139">
         <v>2</v>
       </c>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143">
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="139">
         <v>3</v>
       </c>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143">
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="139">
         <v>4</v>
       </c>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143">
+      <c r="AW3" s="139"/>
+      <c r="AX3" s="139">
         <v>5</v>
       </c>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143">
+      <c r="AY3" s="139"/>
+      <c r="AZ3" s="139">
         <v>6</v>
       </c>
-      <c r="BA3" s="148"/>
+      <c r="BA3" s="140"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -10932,7 +10932,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="141" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -10999,7 +10999,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -11064,7 +11064,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="142"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -11129,7 +11129,7 @@
       <c r="BA7" s="51"/>
     </row>
     <row r="8" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="142"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -11194,7 +11194,7 @@
       <c r="BA8" s="51"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="142"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -11259,7 +11259,7 @@
       <c r="BA9" s="51"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="142"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -11324,7 +11324,7 @@
       <c r="BA10" s="51"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="BA11" s="70"/>
     </row>
     <row r="12" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="141" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="124" t="s">
@@ -11454,7 +11454,7 @@
       <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -11521,7 +11521,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
@@ -11588,7 +11588,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -12017,6 +12017,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="AJ3:AK3"/>
@@ -12028,21 +12038,11 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="AT3:AU3"/>
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AX3:AY3"/>
     <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="A5:A11"/>
     <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="AR3:AS3"/>
   </mergeCells>
@@ -12059,7 +12059,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X18" sqref="X18"/>
-      <selection pane="bottomLeft" activeCell="AS30" sqref="AS30"/>
+      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12074,63 +12074,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:101" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="s">
@@ -12148,150 +12148,150 @@
       <c r="E3" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="156">
+      <c r="F3" s="147">
         <v>7</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="149">
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="150">
         <v>8</v>
       </c>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="149">
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="150">
         <v>9</v>
       </c>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="149">
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="150">
         <v>10</v>
       </c>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="149">
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="150">
         <v>11</v>
       </c>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="159">
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153">
         <v>12</v>
       </c>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="149">
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="155"/>
+      <c r="AD3" s="150">
         <v>13</v>
       </c>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="151"/>
-      <c r="AH3" s="149">
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="150">
         <v>14</v>
       </c>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="151"/>
-      <c r="AL3" s="149">
+      <c r="AI3" s="151"/>
+      <c r="AJ3" s="151"/>
+      <c r="AK3" s="152"/>
+      <c r="AL3" s="150">
         <v>15</v>
       </c>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="150"/>
-      <c r="AO3" s="151"/>
-      <c r="AP3" s="149">
+      <c r="AM3" s="151"/>
+      <c r="AN3" s="151"/>
+      <c r="AO3" s="152"/>
+      <c r="AP3" s="150">
         <v>16</v>
       </c>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="151"/>
-      <c r="AT3" s="149">
+      <c r="AQ3" s="151"/>
+      <c r="AR3" s="151"/>
+      <c r="AS3" s="152"/>
+      <c r="AT3" s="150">
         <v>17</v>
       </c>
-      <c r="AU3" s="150"/>
-      <c r="AV3" s="150"/>
-      <c r="AW3" s="151"/>
-      <c r="AX3" s="149">
+      <c r="AU3" s="151"/>
+      <c r="AV3" s="151"/>
+      <c r="AW3" s="152"/>
+      <c r="AX3" s="150">
         <v>18</v>
       </c>
-      <c r="AY3" s="150"/>
-      <c r="AZ3" s="150"/>
-      <c r="BA3" s="152"/>
-      <c r="BB3" s="156">
+      <c r="AY3" s="151"/>
+      <c r="AZ3" s="151"/>
+      <c r="BA3" s="159"/>
+      <c r="BB3" s="147">
         <v>19</v>
       </c>
-      <c r="BC3" s="157"/>
-      <c r="BD3" s="157"/>
-      <c r="BE3" s="158"/>
-      <c r="BF3" s="149">
+      <c r="BC3" s="148"/>
+      <c r="BD3" s="148"/>
+      <c r="BE3" s="149"/>
+      <c r="BF3" s="150">
         <v>20</v>
       </c>
-      <c r="BG3" s="150"/>
-      <c r="BH3" s="150"/>
-      <c r="BI3" s="151"/>
-      <c r="BJ3" s="149">
+      <c r="BG3" s="151"/>
+      <c r="BH3" s="151"/>
+      <c r="BI3" s="152"/>
+      <c r="BJ3" s="150">
         <v>21</v>
       </c>
-      <c r="BK3" s="150"/>
-      <c r="BL3" s="150"/>
-      <c r="BM3" s="151"/>
-      <c r="BN3" s="149">
+      <c r="BK3" s="151"/>
+      <c r="BL3" s="151"/>
+      <c r="BM3" s="152"/>
+      <c r="BN3" s="150">
         <v>22</v>
       </c>
-      <c r="BO3" s="150"/>
-      <c r="BP3" s="150"/>
-      <c r="BQ3" s="151"/>
-      <c r="BR3" s="149">
+      <c r="BO3" s="151"/>
+      <c r="BP3" s="151"/>
+      <c r="BQ3" s="152"/>
+      <c r="BR3" s="150">
         <v>23</v>
       </c>
-      <c r="BS3" s="150"/>
-      <c r="BT3" s="150"/>
-      <c r="BU3" s="150"/>
-      <c r="BV3" s="153">
+      <c r="BS3" s="151"/>
+      <c r="BT3" s="151"/>
+      <c r="BU3" s="151"/>
+      <c r="BV3" s="156">
         <v>24</v>
       </c>
-      <c r="BW3" s="154"/>
-      <c r="BX3" s="154"/>
-      <c r="BY3" s="155"/>
-      <c r="BZ3" s="150">
+      <c r="BW3" s="157"/>
+      <c r="BX3" s="157"/>
+      <c r="BY3" s="158"/>
+      <c r="BZ3" s="151">
         <v>1</v>
       </c>
-      <c r="CA3" s="150"/>
-      <c r="CB3" s="150"/>
-      <c r="CC3" s="151"/>
-      <c r="CD3" s="149">
+      <c r="CA3" s="151"/>
+      <c r="CB3" s="151"/>
+      <c r="CC3" s="152"/>
+      <c r="CD3" s="150">
         <v>2</v>
       </c>
-      <c r="CE3" s="150"/>
-      <c r="CF3" s="150"/>
-      <c r="CG3" s="151"/>
-      <c r="CH3" s="149">
+      <c r="CE3" s="151"/>
+      <c r="CF3" s="151"/>
+      <c r="CG3" s="152"/>
+      <c r="CH3" s="150">
         <v>3</v>
       </c>
-      <c r="CI3" s="150"/>
-      <c r="CJ3" s="150"/>
-      <c r="CK3" s="151"/>
-      <c r="CL3" s="149">
+      <c r="CI3" s="151"/>
+      <c r="CJ3" s="151"/>
+      <c r="CK3" s="152"/>
+      <c r="CL3" s="150">
         <v>4</v>
       </c>
-      <c r="CM3" s="150"/>
-      <c r="CN3" s="150"/>
-      <c r="CO3" s="151"/>
-      <c r="CP3" s="149">
+      <c r="CM3" s="151"/>
+      <c r="CN3" s="151"/>
+      <c r="CO3" s="152"/>
+      <c r="CP3" s="150">
         <v>5</v>
       </c>
-      <c r="CQ3" s="150"/>
-      <c r="CR3" s="150"/>
-      <c r="CS3" s="151"/>
-      <c r="CT3" s="149">
+      <c r="CQ3" s="151"/>
+      <c r="CR3" s="151"/>
+      <c r="CS3" s="152"/>
+      <c r="CT3" s="150">
         <v>6</v>
       </c>
-      <c r="CU3" s="150"/>
-      <c r="CV3" s="150"/>
-      <c r="CW3" s="152"/>
+      <c r="CU3" s="151"/>
+      <c r="CV3" s="151"/>
+      <c r="CW3" s="159"/>
     </row>
     <row r="4" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
@@ -12399,7 +12399,7 @@
       <c r="CW4" s="112"/>
     </row>
     <row r="5" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="141" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -12512,7 +12512,7 @@
       <c r="CW5" s="117"/>
     </row>
     <row r="6" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="CW6" s="117"/>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A7" s="142"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -12734,7 +12734,7 @@
       <c r="CW7" s="117"/>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A8" s="142"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -12845,7 +12845,7 @@
       <c r="CW8" s="117"/>
     </row>
     <row r="9" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="142"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -12956,7 +12956,7 @@
       <c r="CW9" s="117"/>
     </row>
     <row r="10" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="142"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -13067,7 +13067,7 @@
       <c r="CW10" s="117"/>
     </row>
     <row r="11" spans="1:101" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
@@ -13176,7 +13176,7 @@
       <c r="CW11" s="117"/>
     </row>
     <row r="12" spans="1:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="141" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="124" t="s">
@@ -13289,7 +13289,7 @@
       <c r="CW12" s="117"/>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -13400,7 +13400,7 @@
       <c r="CW13" s="117"/>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
@@ -13511,7 +13511,7 @@
       <c r="CW14" s="117"/>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -13682,67 +13682,67 @@
       <c r="C17" s="79"/>
       <c r="D17" s="80"/>
       <c r="E17" s="81"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="137"/>
-      <c r="AH17" s="137"/>
-      <c r="AI17" s="137"/>
-      <c r="AJ17" s="137"/>
-      <c r="AK17" s="137"/>
-      <c r="AL17" s="137"/>
-      <c r="AM17" s="137"/>
-      <c r="AN17" s="137"/>
-      <c r="AO17" s="137"/>
-      <c r="AP17" s="137"/>
-      <c r="AQ17" s="137"/>
-      <c r="AR17" s="137"/>
-      <c r="AS17" s="137"/>
-      <c r="AT17" s="137"/>
-      <c r="AU17" s="137"/>
-      <c r="AV17" s="137"/>
-      <c r="AW17" s="137"/>
-      <c r="AX17" s="137"/>
-      <c r="AY17" s="137"/>
-      <c r="AZ17" s="137"/>
-      <c r="BA17" s="137"/>
-      <c r="BB17" s="137"/>
-      <c r="BC17" s="137"/>
-      <c r="BD17" s="137"/>
-      <c r="BE17" s="137"/>
-      <c r="BF17" s="137"/>
-      <c r="BG17" s="137"/>
-      <c r="BH17" s="137"/>
-      <c r="BI17" s="136"/>
-      <c r="BJ17" s="136"/>
-      <c r="BK17" s="136"/>
-      <c r="BL17" s="136"/>
-      <c r="BM17" s="136"/>
-      <c r="BN17" s="136"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="160"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="161"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="161"/>
+      <c r="AB17" s="161"/>
+      <c r="AC17" s="161"/>
+      <c r="AD17" s="161"/>
+      <c r="AE17" s="161"/>
+      <c r="AF17" s="161"/>
+      <c r="AG17" s="161"/>
+      <c r="AH17" s="161"/>
+      <c r="AI17" s="161"/>
+      <c r="AJ17" s="161"/>
+      <c r="AK17" s="161"/>
+      <c r="AL17" s="161"/>
+      <c r="AM17" s="161"/>
+      <c r="AN17" s="161"/>
+      <c r="AO17" s="161"/>
+      <c r="AP17" s="161"/>
+      <c r="AQ17" s="161"/>
+      <c r="AR17" s="161"/>
+      <c r="AS17" s="161"/>
+      <c r="AT17" s="161"/>
+      <c r="AU17" s="161"/>
+      <c r="AV17" s="161"/>
+      <c r="AW17" s="161"/>
+      <c r="AX17" s="161"/>
+      <c r="AY17" s="161"/>
+      <c r="AZ17" s="161"/>
+      <c r="BA17" s="161"/>
+      <c r="BB17" s="161"/>
+      <c r="BC17" s="161"/>
+      <c r="BD17" s="161"/>
+      <c r="BE17" s="161"/>
+      <c r="BF17" s="161"/>
+      <c r="BG17" s="161"/>
+      <c r="BH17" s="161"/>
+      <c r="BI17" s="160"/>
+      <c r="BJ17" s="160"/>
+      <c r="BK17" s="160"/>
+      <c r="BL17" s="160"/>
+      <c r="BM17" s="160"/>
+      <c r="BN17" s="160"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" s="77"/>
@@ -13750,67 +13750,67 @@
       <c r="C18" s="79"/>
       <c r="D18" s="80"/>
       <c r="E18" s="129"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="137"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="137"/>
-      <c r="AH18" s="137"/>
-      <c r="AI18" s="137"/>
-      <c r="AJ18" s="137"/>
-      <c r="AK18" s="137"/>
-      <c r="AL18" s="137"/>
-      <c r="AM18" s="137"/>
-      <c r="AN18" s="137"/>
-      <c r="AO18" s="137"/>
-      <c r="AP18" s="137"/>
-      <c r="AQ18" s="137"/>
-      <c r="AR18" s="137"/>
-      <c r="AS18" s="137"/>
-      <c r="AT18" s="137"/>
-      <c r="AU18" s="137"/>
-      <c r="AV18" s="137"/>
-      <c r="AW18" s="137"/>
-      <c r="AX18" s="137"/>
-      <c r="AY18" s="137"/>
-      <c r="AZ18" s="137"/>
-      <c r="BA18" s="137"/>
-      <c r="BB18" s="137"/>
-      <c r="BC18" s="137"/>
-      <c r="BD18" s="137"/>
-      <c r="BE18" s="137"/>
-      <c r="BF18" s="137"/>
-      <c r="BG18" s="137"/>
-      <c r="BH18" s="137"/>
-      <c r="BI18" s="136"/>
-      <c r="BJ18" s="136"/>
-      <c r="BK18" s="136"/>
-      <c r="BL18" s="136"/>
-      <c r="BM18" s="136"/>
-      <c r="BN18" s="136"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="161"/>
+      <c r="X18" s="161"/>
+      <c r="Y18" s="161"/>
+      <c r="Z18" s="161"/>
+      <c r="AA18" s="161"/>
+      <c r="AB18" s="161"/>
+      <c r="AC18" s="161"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="161"/>
+      <c r="AF18" s="161"/>
+      <c r="AG18" s="161"/>
+      <c r="AH18" s="161"/>
+      <c r="AI18" s="161"/>
+      <c r="AJ18" s="161"/>
+      <c r="AK18" s="161"/>
+      <c r="AL18" s="161"/>
+      <c r="AM18" s="161"/>
+      <c r="AN18" s="161"/>
+      <c r="AO18" s="161"/>
+      <c r="AP18" s="161"/>
+      <c r="AQ18" s="161"/>
+      <c r="AR18" s="161"/>
+      <c r="AS18" s="161"/>
+      <c r="AT18" s="161"/>
+      <c r="AU18" s="161"/>
+      <c r="AV18" s="161"/>
+      <c r="AW18" s="161"/>
+      <c r="AX18" s="161"/>
+      <c r="AY18" s="161"/>
+      <c r="AZ18" s="161"/>
+      <c r="BA18" s="161"/>
+      <c r="BB18" s="161"/>
+      <c r="BC18" s="161"/>
+      <c r="BD18" s="161"/>
+      <c r="BE18" s="161"/>
+      <c r="BF18" s="161"/>
+      <c r="BG18" s="161"/>
+      <c r="BH18" s="161"/>
+      <c r="BI18" s="160"/>
+      <c r="BJ18" s="160"/>
+      <c r="BK18" s="160"/>
+      <c r="BL18" s="160"/>
+      <c r="BM18" s="160"/>
+      <c r="BN18" s="160"/>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" s="77"/>
@@ -13818,67 +13818,67 @@
       <c r="C19" s="79"/>
       <c r="D19" s="80"/>
       <c r="E19" s="81"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="136"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="136"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="136"/>
-      <c r="AD19" s="137"/>
-      <c r="AE19" s="137"/>
-      <c r="AF19" s="137"/>
-      <c r="AG19" s="137"/>
-      <c r="AH19" s="137"/>
-      <c r="AI19" s="137"/>
-      <c r="AJ19" s="137"/>
-      <c r="AK19" s="136"/>
-      <c r="AL19" s="136"/>
-      <c r="AM19" s="136"/>
-      <c r="AN19" s="136"/>
-      <c r="AO19" s="136"/>
-      <c r="AP19" s="136"/>
-      <c r="AQ19" s="136"/>
-      <c r="AR19" s="136"/>
-      <c r="AS19" s="136"/>
-      <c r="AT19" s="136"/>
-      <c r="AU19" s="136"/>
-      <c r="AV19" s="136"/>
-      <c r="AW19" s="136"/>
-      <c r="AX19" s="136"/>
-      <c r="AY19" s="136"/>
-      <c r="AZ19" s="136"/>
-      <c r="BA19" s="136"/>
-      <c r="BB19" s="136"/>
-      <c r="BC19" s="136"/>
-      <c r="BD19" s="136"/>
-      <c r="BE19" s="136"/>
-      <c r="BF19" s="136"/>
-      <c r="BG19" s="136"/>
-      <c r="BH19" s="136"/>
-      <c r="BI19" s="136"/>
-      <c r="BJ19" s="136"/>
-      <c r="BK19" s="136"/>
-      <c r="BL19" s="136"/>
-      <c r="BM19" s="136"/>
-      <c r="BN19" s="136"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="160"/>
+      <c r="AD19" s="161"/>
+      <c r="AE19" s="161"/>
+      <c r="AF19" s="161"/>
+      <c r="AG19" s="161"/>
+      <c r="AH19" s="161"/>
+      <c r="AI19" s="161"/>
+      <c r="AJ19" s="161"/>
+      <c r="AK19" s="160"/>
+      <c r="AL19" s="160"/>
+      <c r="AM19" s="160"/>
+      <c r="AN19" s="160"/>
+      <c r="AO19" s="160"/>
+      <c r="AP19" s="160"/>
+      <c r="AQ19" s="160"/>
+      <c r="AR19" s="160"/>
+      <c r="AS19" s="160"/>
+      <c r="AT19" s="160"/>
+      <c r="AU19" s="160"/>
+      <c r="AV19" s="160"/>
+      <c r="AW19" s="160"/>
+      <c r="AX19" s="160"/>
+      <c r="AY19" s="160"/>
+      <c r="AZ19" s="160"/>
+      <c r="BA19" s="160"/>
+      <c r="BB19" s="160"/>
+      <c r="BC19" s="160"/>
+      <c r="BD19" s="160"/>
+      <c r="BE19" s="160"/>
+      <c r="BF19" s="160"/>
+      <c r="BG19" s="160"/>
+      <c r="BH19" s="160"/>
+      <c r="BI19" s="160"/>
+      <c r="BJ19" s="160"/>
+      <c r="BK19" s="160"/>
+      <c r="BL19" s="160"/>
+      <c r="BM19" s="160"/>
+      <c r="BN19" s="160"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" s="77"/>
@@ -13886,67 +13886,67 @@
       <c r="C20" s="79"/>
       <c r="D20" s="80"/>
       <c r="E20" s="81"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="137"/>
-      <c r="Y20" s="137"/>
-      <c r="Z20" s="137"/>
-      <c r="AA20" s="137"/>
-      <c r="AB20" s="137"/>
-      <c r="AC20" s="137"/>
-      <c r="AD20" s="137"/>
-      <c r="AE20" s="137"/>
-      <c r="AF20" s="137"/>
-      <c r="AG20" s="137"/>
-      <c r="AH20" s="137"/>
-      <c r="AI20" s="137"/>
-      <c r="AJ20" s="137"/>
-      <c r="AK20" s="137"/>
-      <c r="AL20" s="137"/>
-      <c r="AM20" s="137"/>
-      <c r="AN20" s="137"/>
-      <c r="AO20" s="137"/>
-      <c r="AP20" s="137"/>
-      <c r="AQ20" s="137"/>
-      <c r="AR20" s="137"/>
-      <c r="AS20" s="137"/>
-      <c r="AT20" s="137"/>
-      <c r="AU20" s="137"/>
-      <c r="AV20" s="137"/>
-      <c r="AW20" s="137"/>
-      <c r="AX20" s="137"/>
-      <c r="AY20" s="137"/>
-      <c r="AZ20" s="137"/>
-      <c r="BA20" s="137"/>
-      <c r="BB20" s="137"/>
-      <c r="BC20" s="137"/>
-      <c r="BD20" s="137"/>
-      <c r="BE20" s="137"/>
-      <c r="BF20" s="137"/>
-      <c r="BG20" s="137"/>
-      <c r="BH20" s="136"/>
-      <c r="BI20" s="136"/>
-      <c r="BJ20" s="136"/>
-      <c r="BK20" s="136"/>
-      <c r="BL20" s="136"/>
-      <c r="BM20" s="136"/>
-      <c r="BN20" s="136"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="161"/>
+      <c r="T20" s="161"/>
+      <c r="U20" s="161"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="161"/>
+      <c r="X20" s="161"/>
+      <c r="Y20" s="161"/>
+      <c r="Z20" s="161"/>
+      <c r="AA20" s="161"/>
+      <c r="AB20" s="161"/>
+      <c r="AC20" s="161"/>
+      <c r="AD20" s="161"/>
+      <c r="AE20" s="161"/>
+      <c r="AF20" s="161"/>
+      <c r="AG20" s="161"/>
+      <c r="AH20" s="161"/>
+      <c r="AI20" s="161"/>
+      <c r="AJ20" s="161"/>
+      <c r="AK20" s="161"/>
+      <c r="AL20" s="161"/>
+      <c r="AM20" s="161"/>
+      <c r="AN20" s="161"/>
+      <c r="AO20" s="161"/>
+      <c r="AP20" s="161"/>
+      <c r="AQ20" s="161"/>
+      <c r="AR20" s="161"/>
+      <c r="AS20" s="161"/>
+      <c r="AT20" s="161"/>
+      <c r="AU20" s="161"/>
+      <c r="AV20" s="161"/>
+      <c r="AW20" s="161"/>
+      <c r="AX20" s="161"/>
+      <c r="AY20" s="161"/>
+      <c r="AZ20" s="161"/>
+      <c r="BA20" s="161"/>
+      <c r="BB20" s="161"/>
+      <c r="BC20" s="161"/>
+      <c r="BD20" s="161"/>
+      <c r="BE20" s="161"/>
+      <c r="BF20" s="161"/>
+      <c r="BG20" s="161"/>
+      <c r="BH20" s="160"/>
+      <c r="BI20" s="160"/>
+      <c r="BJ20" s="160"/>
+      <c r="BK20" s="160"/>
+      <c r="BL20" s="160"/>
+      <c r="BM20" s="160"/>
+      <c r="BN20" s="160"/>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" s="77"/>
@@ -13954,256 +13954,256 @@
       <c r="C21" s="79"/>
       <c r="D21" s="80"/>
       <c r="E21" s="81"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="137"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="137"/>
-      <c r="AB21" s="137"/>
-      <c r="AC21" s="137"/>
-      <c r="AD21" s="137"/>
-      <c r="AE21" s="137"/>
-      <c r="AF21" s="137"/>
-      <c r="AG21" s="137"/>
-      <c r="AH21" s="137"/>
-      <c r="AI21" s="137"/>
-      <c r="AJ21" s="137"/>
-      <c r="AK21" s="137"/>
-      <c r="AL21" s="137"/>
-      <c r="AM21" s="137"/>
-      <c r="AN21" s="137"/>
-      <c r="AO21" s="137"/>
-      <c r="AP21" s="137"/>
-      <c r="AQ21" s="137"/>
-      <c r="AR21" s="137"/>
-      <c r="AS21" s="137"/>
-      <c r="AT21" s="137"/>
-      <c r="AU21" s="137"/>
-      <c r="AV21" s="137"/>
-      <c r="AW21" s="137"/>
-      <c r="AX21" s="137"/>
-      <c r="AY21" s="137"/>
-      <c r="AZ21" s="137"/>
-      <c r="BA21" s="137"/>
-      <c r="BB21" s="137"/>
-      <c r="BC21" s="137"/>
-      <c r="BD21" s="137"/>
-      <c r="BE21" s="137"/>
-      <c r="BF21" s="137"/>
-      <c r="BG21" s="137"/>
-      <c r="BH21" s="136"/>
-      <c r="BI21" s="136"/>
-      <c r="BJ21" s="136"/>
-      <c r="BK21" s="136"/>
-      <c r="BL21" s="136"/>
-      <c r="BM21" s="136"/>
-      <c r="BN21" s="136"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="160"/>
+      <c r="N21" s="160"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="161"/>
+      <c r="T21" s="161"/>
+      <c r="U21" s="161"/>
+      <c r="V21" s="161"/>
+      <c r="W21" s="161"/>
+      <c r="X21" s="161"/>
+      <c r="Y21" s="161"/>
+      <c r="Z21" s="161"/>
+      <c r="AA21" s="161"/>
+      <c r="AB21" s="161"/>
+      <c r="AC21" s="161"/>
+      <c r="AD21" s="161"/>
+      <c r="AE21" s="161"/>
+      <c r="AF21" s="161"/>
+      <c r="AG21" s="161"/>
+      <c r="AH21" s="161"/>
+      <c r="AI21" s="161"/>
+      <c r="AJ21" s="161"/>
+      <c r="AK21" s="161"/>
+      <c r="AL21" s="161"/>
+      <c r="AM21" s="161"/>
+      <c r="AN21" s="161"/>
+      <c r="AO21" s="161"/>
+      <c r="AP21" s="161"/>
+      <c r="AQ21" s="161"/>
+      <c r="AR21" s="161"/>
+      <c r="AS21" s="161"/>
+      <c r="AT21" s="161"/>
+      <c r="AU21" s="161"/>
+      <c r="AV21" s="161"/>
+      <c r="AW21" s="161"/>
+      <c r="AX21" s="161"/>
+      <c r="AY21" s="161"/>
+      <c r="AZ21" s="161"/>
+      <c r="BA21" s="161"/>
+      <c r="BB21" s="161"/>
+      <c r="BC21" s="161"/>
+      <c r="BD21" s="161"/>
+      <c r="BE21" s="161"/>
+      <c r="BF21" s="161"/>
+      <c r="BG21" s="161"/>
+      <c r="BH21" s="160"/>
+      <c r="BI21" s="160"/>
+      <c r="BJ21" s="160"/>
+      <c r="BK21" s="160"/>
+      <c r="BL21" s="160"/>
+      <c r="BM21" s="160"/>
+      <c r="BN21" s="160"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="136"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="137"/>
-      <c r="T22" s="137"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="137"/>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="137"/>
-      <c r="Z22" s="137"/>
-      <c r="AA22" s="137"/>
-      <c r="AB22" s="137"/>
-      <c r="AC22" s="137"/>
-      <c r="AD22" s="137"/>
-      <c r="AE22" s="137"/>
-      <c r="AF22" s="137"/>
-      <c r="AG22" s="137"/>
-      <c r="AH22" s="137"/>
-      <c r="AI22" s="137"/>
-      <c r="AJ22" s="137"/>
-      <c r="AK22" s="137"/>
-      <c r="AL22" s="137"/>
-      <c r="AM22" s="137"/>
-      <c r="AN22" s="137"/>
-      <c r="AO22" s="137"/>
-      <c r="AP22" s="137"/>
-      <c r="AQ22" s="137"/>
-      <c r="AR22" s="137"/>
-      <c r="AS22" s="137"/>
-      <c r="AT22" s="137"/>
-      <c r="AU22" s="137"/>
-      <c r="AV22" s="137"/>
-      <c r="AW22" s="137"/>
-      <c r="AX22" s="137"/>
-      <c r="AY22" s="137"/>
-      <c r="AZ22" s="137"/>
-      <c r="BA22" s="137"/>
-      <c r="BB22" s="137"/>
-      <c r="BC22" s="137"/>
-      <c r="BD22" s="137"/>
-      <c r="BE22" s="137"/>
-      <c r="BF22" s="137"/>
-      <c r="BG22" s="137"/>
-      <c r="BH22" s="137"/>
-      <c r="BI22" s="136"/>
-      <c r="BJ22" s="136"/>
-      <c r="BK22" s="136"/>
-      <c r="BL22" s="136"/>
-      <c r="BM22" s="136"/>
-      <c r="BN22" s="136"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="161"/>
+      <c r="AB22" s="161"/>
+      <c r="AC22" s="161"/>
+      <c r="AD22" s="161"/>
+      <c r="AE22" s="161"/>
+      <c r="AF22" s="161"/>
+      <c r="AG22" s="161"/>
+      <c r="AH22" s="161"/>
+      <c r="AI22" s="161"/>
+      <c r="AJ22" s="161"/>
+      <c r="AK22" s="161"/>
+      <c r="AL22" s="161"/>
+      <c r="AM22" s="161"/>
+      <c r="AN22" s="161"/>
+      <c r="AO22" s="161"/>
+      <c r="AP22" s="161"/>
+      <c r="AQ22" s="161"/>
+      <c r="AR22" s="161"/>
+      <c r="AS22" s="161"/>
+      <c r="AT22" s="161"/>
+      <c r="AU22" s="161"/>
+      <c r="AV22" s="161"/>
+      <c r="AW22" s="161"/>
+      <c r="AX22" s="161"/>
+      <c r="AY22" s="161"/>
+      <c r="AZ22" s="161"/>
+      <c r="BA22" s="161"/>
+      <c r="BB22" s="161"/>
+      <c r="BC22" s="161"/>
+      <c r="BD22" s="161"/>
+      <c r="BE22" s="161"/>
+      <c r="BF22" s="161"/>
+      <c r="BG22" s="161"/>
+      <c r="BH22" s="161"/>
+      <c r="BI22" s="160"/>
+      <c r="BJ22" s="160"/>
+      <c r="BK22" s="160"/>
+      <c r="BL22" s="160"/>
+      <c r="BM22" s="160"/>
+      <c r="BN22" s="160"/>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="136"/>
-      <c r="T23" s="136"/>
-      <c r="U23" s="136"/>
-      <c r="V23" s="136"/>
-      <c r="W23" s="136"/>
-      <c r="X23" s="136"/>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="136"/>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="136"/>
-      <c r="AC23" s="136"/>
-      <c r="AD23" s="136"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="136"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="136"/>
-      <c r="AJ23" s="136"/>
-      <c r="AK23" s="136"/>
-      <c r="AL23" s="136"/>
-      <c r="AM23" s="136"/>
-      <c r="AN23" s="136"/>
-      <c r="AO23" s="136"/>
-      <c r="AP23" s="136"/>
-      <c r="AQ23" s="136"/>
-      <c r="AR23" s="136"/>
-      <c r="AS23" s="136"/>
-      <c r="AT23" s="136"/>
-      <c r="AU23" s="136"/>
-      <c r="AV23" s="136"/>
-      <c r="AW23" s="136"/>
-      <c r="AX23" s="136"/>
-      <c r="AY23" s="136"/>
-      <c r="AZ23" s="136"/>
-      <c r="BA23" s="136"/>
-      <c r="BB23" s="136"/>
-      <c r="BC23" s="136"/>
-      <c r="BD23" s="136"/>
-      <c r="BE23" s="136"/>
-      <c r="BF23" s="136"/>
-      <c r="BG23" s="136"/>
-      <c r="BH23" s="136"/>
-      <c r="BI23" s="136"/>
-      <c r="BJ23" s="136"/>
-      <c r="BK23" s="136"/>
-      <c r="BL23" s="136"/>
-      <c r="BM23" s="136"/>
-      <c r="BN23" s="136"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="160"/>
+      <c r="AC23" s="160"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="160"/>
+      <c r="AF23" s="160"/>
+      <c r="AG23" s="160"/>
+      <c r="AH23" s="160"/>
+      <c r="AI23" s="160"/>
+      <c r="AJ23" s="160"/>
+      <c r="AK23" s="160"/>
+      <c r="AL23" s="160"/>
+      <c r="AM23" s="160"/>
+      <c r="AN23" s="160"/>
+      <c r="AO23" s="160"/>
+      <c r="AP23" s="160"/>
+      <c r="AQ23" s="160"/>
+      <c r="AR23" s="160"/>
+      <c r="AS23" s="160"/>
+      <c r="AT23" s="160"/>
+      <c r="AU23" s="160"/>
+      <c r="AV23" s="160"/>
+      <c r="AW23" s="160"/>
+      <c r="AX23" s="160"/>
+      <c r="AY23" s="160"/>
+      <c r="AZ23" s="160"/>
+      <c r="BA23" s="160"/>
+      <c r="BB23" s="160"/>
+      <c r="BC23" s="160"/>
+      <c r="BD23" s="160"/>
+      <c r="BE23" s="160"/>
+      <c r="BF23" s="160"/>
+      <c r="BG23" s="160"/>
+      <c r="BH23" s="160"/>
+      <c r="BI23" s="160"/>
+      <c r="BJ23" s="160"/>
+      <c r="BK23" s="160"/>
+      <c r="BL23" s="160"/>
+      <c r="BM23" s="160"/>
+      <c r="BN23" s="160"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="137"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="137"/>
-      <c r="AB24" s="137"/>
-      <c r="AC24" s="137"/>
-      <c r="AD24" s="137"/>
-      <c r="AE24" s="137"/>
-      <c r="AF24" s="137"/>
-      <c r="AG24" s="137"/>
-      <c r="AH24" s="137"/>
-      <c r="AI24" s="137"/>
-      <c r="AJ24" s="137"/>
-      <c r="AK24" s="137"/>
-      <c r="AL24" s="137"/>
-      <c r="AM24" s="137"/>
-      <c r="AN24" s="137"/>
-      <c r="AO24" s="137"/>
-      <c r="AP24" s="137"/>
-      <c r="AQ24" s="137"/>
-      <c r="AR24" s="137"/>
-      <c r="AS24" s="137"/>
-      <c r="AT24" s="137"/>
-      <c r="AU24" s="137"/>
-      <c r="AV24" s="137"/>
-      <c r="AW24" s="137"/>
-      <c r="AX24" s="137"/>
-      <c r="AY24" s="137"/>
-      <c r="AZ24" s="137"/>
-      <c r="BA24" s="137"/>
-      <c r="BB24" s="137"/>
-      <c r="BC24" s="137"/>
-      <c r="BD24" s="137"/>
-      <c r="BE24" s="137"/>
-      <c r="BF24" s="137"/>
-      <c r="BG24" s="137"/>
-      <c r="BH24" s="137"/>
-      <c r="BI24" s="136"/>
-      <c r="BJ24" s="136"/>
-      <c r="BK24" s="136"/>
-      <c r="BL24" s="136"/>
-      <c r="BM24" s="136"/>
-      <c r="BN24" s="136"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="161"/>
+      <c r="T24" s="161"/>
+      <c r="U24" s="161"/>
+      <c r="V24" s="161"/>
+      <c r="W24" s="161"/>
+      <c r="X24" s="161"/>
+      <c r="Y24" s="161"/>
+      <c r="Z24" s="161"/>
+      <c r="AA24" s="161"/>
+      <c r="AB24" s="161"/>
+      <c r="AC24" s="161"/>
+      <c r="AD24" s="161"/>
+      <c r="AE24" s="161"/>
+      <c r="AF24" s="161"/>
+      <c r="AG24" s="161"/>
+      <c r="AH24" s="161"/>
+      <c r="AI24" s="161"/>
+      <c r="AJ24" s="161"/>
+      <c r="AK24" s="161"/>
+      <c r="AL24" s="161"/>
+      <c r="AM24" s="161"/>
+      <c r="AN24" s="161"/>
+      <c r="AO24" s="161"/>
+      <c r="AP24" s="161"/>
+      <c r="AQ24" s="161"/>
+      <c r="AR24" s="161"/>
+      <c r="AS24" s="161"/>
+      <c r="AT24" s="161"/>
+      <c r="AU24" s="161"/>
+      <c r="AV24" s="161"/>
+      <c r="AW24" s="161"/>
+      <c r="AX24" s="161"/>
+      <c r="AY24" s="161"/>
+      <c r="AZ24" s="161"/>
+      <c r="BA24" s="161"/>
+      <c r="BB24" s="161"/>
+      <c r="BC24" s="161"/>
+      <c r="BD24" s="161"/>
+      <c r="BE24" s="161"/>
+      <c r="BF24" s="161"/>
+      <c r="BG24" s="161"/>
+      <c r="BH24" s="161"/>
+      <c r="BI24" s="160"/>
+      <c r="BJ24" s="160"/>
+      <c r="BK24" s="160"/>
+      <c r="BL24" s="160"/>
+      <c r="BM24" s="160"/>
+      <c r="BN24" s="160"/>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I25" s="65"/>
@@ -14229,16 +14229,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="BJ3:BM3"/>
     <mergeCell ref="BN3:BQ3"/>
@@ -14250,13 +14247,16 @@
     <mergeCell ref="AX3:BA3"/>
     <mergeCell ref="BB3:BE3"/>
     <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="CH3:CK3"/>
-    <mergeCell ref="CL3:CO3"/>
-    <mergeCell ref="CP3:CS3"/>
-    <mergeCell ref="CT3:CW3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="BZ3:CC3"/>
-    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -14547,102 +14547,102 @@
       <c r="C4" s="172"/>
       <c r="D4" s="172"/>
       <c r="E4" s="172"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="136"/>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="136"/>
-      <c r="BG4" s="136"/>
-      <c r="BH4" s="136"/>
-      <c r="BI4" s="136"/>
-      <c r="BJ4" s="136"/>
-      <c r="BK4" s="136"/>
-      <c r="BL4" s="136"/>
-      <c r="BM4" s="136"/>
-      <c r="BN4" s="136"/>
-      <c r="BO4" s="136"/>
-      <c r="BP4" s="136"/>
-      <c r="BQ4" s="136"/>
-      <c r="BR4" s="136"/>
-      <c r="BS4" s="136"/>
-      <c r="BT4" s="136"/>
-      <c r="BU4" s="136"/>
-      <c r="BV4" s="136"/>
-      <c r="BW4" s="136"/>
-      <c r="BX4" s="136"/>
-      <c r="BY4" s="136"/>
-      <c r="BZ4" s="136"/>
-      <c r="CA4" s="136"/>
-      <c r="CB4" s="136"/>
-      <c r="CC4" s="136"/>
-      <c r="CD4" s="136"/>
-      <c r="CE4" s="136"/>
-      <c r="CF4" s="136"/>
-      <c r="CG4" s="136"/>
-      <c r="CH4" s="136"/>
-      <c r="CI4" s="136"/>
-      <c r="CJ4" s="136"/>
-      <c r="CK4" s="136"/>
-      <c r="CL4" s="136"/>
-      <c r="CM4" s="136"/>
-      <c r="CN4" s="136"/>
-      <c r="CO4" s="136"/>
-      <c r="CP4" s="136"/>
-      <c r="CQ4" s="136"/>
-      <c r="CR4" s="136"/>
-      <c r="CS4" s="136"/>
-      <c r="CT4" s="136"/>
-      <c r="CU4" s="136"/>
-      <c r="CV4" s="136"/>
-      <c r="CW4" s="136"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="160"/>
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="160"/>
+      <c r="AF4" s="160"/>
+      <c r="AG4" s="160"/>
+      <c r="AH4" s="160"/>
+      <c r="AI4" s="160"/>
+      <c r="AJ4" s="160"/>
+      <c r="AK4" s="160"/>
+      <c r="AL4" s="160"/>
+      <c r="AM4" s="160"/>
+      <c r="AN4" s="160"/>
+      <c r="AO4" s="160"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="160"/>
+      <c r="AR4" s="160"/>
+      <c r="AS4" s="160"/>
+      <c r="AT4" s="160"/>
+      <c r="AU4" s="160"/>
+      <c r="AV4" s="160"/>
+      <c r="AW4" s="160"/>
+      <c r="AX4" s="160"/>
+      <c r="AY4" s="160"/>
+      <c r="AZ4" s="160"/>
+      <c r="BA4" s="160"/>
+      <c r="BB4" s="160"/>
+      <c r="BC4" s="160"/>
+      <c r="BD4" s="160"/>
+      <c r="BE4" s="160"/>
+      <c r="BF4" s="160"/>
+      <c r="BG4" s="160"/>
+      <c r="BH4" s="160"/>
+      <c r="BI4" s="160"/>
+      <c r="BJ4" s="160"/>
+      <c r="BK4" s="160"/>
+      <c r="BL4" s="160"/>
+      <c r="BM4" s="160"/>
+      <c r="BN4" s="160"/>
+      <c r="BO4" s="160"/>
+      <c r="BP4" s="160"/>
+      <c r="BQ4" s="160"/>
+      <c r="BR4" s="160"/>
+      <c r="BS4" s="160"/>
+      <c r="BT4" s="160"/>
+      <c r="BU4" s="160"/>
+      <c r="BV4" s="160"/>
+      <c r="BW4" s="160"/>
+      <c r="BX4" s="160"/>
+      <c r="BY4" s="160"/>
+      <c r="BZ4" s="160"/>
+      <c r="CA4" s="160"/>
+      <c r="CB4" s="160"/>
+      <c r="CC4" s="160"/>
+      <c r="CD4" s="160"/>
+      <c r="CE4" s="160"/>
+      <c r="CF4" s="160"/>
+      <c r="CG4" s="160"/>
+      <c r="CH4" s="160"/>
+      <c r="CI4" s="160"/>
+      <c r="CJ4" s="160"/>
+      <c r="CK4" s="160"/>
+      <c r="CL4" s="160"/>
+      <c r="CM4" s="160"/>
+      <c r="CN4" s="160"/>
+      <c r="CO4" s="160"/>
+      <c r="CP4" s="160"/>
+      <c r="CQ4" s="160"/>
+      <c r="CR4" s="160"/>
+      <c r="CS4" s="160"/>
+      <c r="CT4" s="160"/>
+      <c r="CU4" s="160"/>
+      <c r="CV4" s="160"/>
+      <c r="CW4" s="160"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="172">
@@ -14660,8 +14660,8 @@
       <c r="E5" t="s" s="172">
         <v>94</v>
       </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
       <c r="H5" s="596"/>
       <c r="I5" s="597"/>
       <c r="J5" s="598"/>
@@ -14728,34 +14728,34 @@
       <c r="BS5" s="626"/>
       <c r="BT5" s="627"/>
       <c r="BU5" s="628"/>
-      <c r="BV5" s="136"/>
-      <c r="BW5" s="136"/>
-      <c r="BX5" s="136"/>
-      <c r="BY5" s="136"/>
-      <c r="BZ5" s="136"/>
-      <c r="CA5" s="136"/>
-      <c r="CB5" s="136"/>
-      <c r="CC5" s="136"/>
-      <c r="CD5" s="136"/>
-      <c r="CE5" s="136"/>
-      <c r="CF5" s="136"/>
-      <c r="CG5" s="136"/>
-      <c r="CH5" s="136"/>
-      <c r="CI5" s="136"/>
-      <c r="CJ5" s="136"/>
-      <c r="CK5" s="136"/>
-      <c r="CL5" s="136"/>
-      <c r="CM5" s="136"/>
-      <c r="CN5" s="136"/>
-      <c r="CO5" s="136"/>
-      <c r="CP5" s="136"/>
-      <c r="CQ5" s="136"/>
-      <c r="CR5" s="136"/>
-      <c r="CS5" s="136"/>
-      <c r="CT5" s="136"/>
-      <c r="CU5" s="136"/>
-      <c r="CV5" s="136"/>
-      <c r="CW5" s="136"/>
+      <c r="BV5" s="160"/>
+      <c r="BW5" s="160"/>
+      <c r="BX5" s="160"/>
+      <c r="BY5" s="160"/>
+      <c r="BZ5" s="160"/>
+      <c r="CA5" s="160"/>
+      <c r="CB5" s="160"/>
+      <c r="CC5" s="160"/>
+      <c r="CD5" s="160"/>
+      <c r="CE5" s="160"/>
+      <c r="CF5" s="160"/>
+      <c r="CG5" s="160"/>
+      <c r="CH5" s="160"/>
+      <c r="CI5" s="160"/>
+      <c r="CJ5" s="160"/>
+      <c r="CK5" s="160"/>
+      <c r="CL5" s="160"/>
+      <c r="CM5" s="160"/>
+      <c r="CN5" s="160"/>
+      <c r="CO5" s="160"/>
+      <c r="CP5" s="160"/>
+      <c r="CQ5" s="160"/>
+      <c r="CR5" s="160"/>
+      <c r="CS5" s="160"/>
+      <c r="CT5" s="160"/>
+      <c r="CU5" s="160"/>
+      <c r="CV5" s="160"/>
+      <c r="CW5" s="160"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="172">
@@ -14773,9 +14773,9 @@
       <c r="E6" t="s" s="172">
         <v>94</v>
       </c>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
       <c r="I6" s="629"/>
       <c r="J6" s="630"/>
       <c r="K6" s="631"/>
@@ -14841,34 +14841,34 @@
       <c r="BS6" s="661"/>
       <c r="BT6" s="662"/>
       <c r="BU6" s="663"/>
-      <c r="BV6" s="136"/>
-      <c r="BW6" s="136"/>
-      <c r="BX6" s="136"/>
-      <c r="BY6" s="136"/>
-      <c r="BZ6" s="136"/>
-      <c r="CA6" s="136"/>
-      <c r="CB6" s="136"/>
-      <c r="CC6" s="136"/>
-      <c r="CD6" s="136"/>
-      <c r="CE6" s="136"/>
-      <c r="CF6" s="136"/>
-      <c r="CG6" s="136"/>
-      <c r="CH6" s="136"/>
-      <c r="CI6" s="136"/>
-      <c r="CJ6" s="136"/>
-      <c r="CK6" s="136"/>
-      <c r="CL6" s="136"/>
-      <c r="CM6" s="136"/>
-      <c r="CN6" s="136"/>
-      <c r="CO6" s="136"/>
-      <c r="CP6" s="136"/>
-      <c r="CQ6" s="136"/>
-      <c r="CR6" s="136"/>
-      <c r="CS6" s="136"/>
-      <c r="CT6" s="136"/>
-      <c r="CU6" s="136"/>
-      <c r="CV6" s="136"/>
-      <c r="CW6" s="136"/>
+      <c r="BV6" s="160"/>
+      <c r="BW6" s="160"/>
+      <c r="BX6" s="160"/>
+      <c r="BY6" s="160"/>
+      <c r="BZ6" s="160"/>
+      <c r="CA6" s="160"/>
+      <c r="CB6" s="160"/>
+      <c r="CC6" s="160"/>
+      <c r="CD6" s="160"/>
+      <c r="CE6" s="160"/>
+      <c r="CF6" s="160"/>
+      <c r="CG6" s="160"/>
+      <c r="CH6" s="160"/>
+      <c r="CI6" s="160"/>
+      <c r="CJ6" s="160"/>
+      <c r="CK6" s="160"/>
+      <c r="CL6" s="160"/>
+      <c r="CM6" s="160"/>
+      <c r="CN6" s="160"/>
+      <c r="CO6" s="160"/>
+      <c r="CP6" s="160"/>
+      <c r="CQ6" s="160"/>
+      <c r="CR6" s="160"/>
+      <c r="CS6" s="160"/>
+      <c r="CT6" s="160"/>
+      <c r="CU6" s="160"/>
+      <c r="CV6" s="160"/>
+      <c r="CW6" s="160"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="172">
@@ -14886,13 +14886,13 @@
       <c r="E7" t="s" s="172">
         <v>49</v>
       </c>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
       <c r="M7" s="259"/>
       <c r="N7" s="260"/>
       <c r="O7" s="261"/>
@@ -14954,34 +14954,34 @@
       <c r="BS7" s="691"/>
       <c r="BT7" s="692"/>
       <c r="BU7" s="693"/>
-      <c r="BV7" s="136"/>
-      <c r="BW7" s="136"/>
-      <c r="BX7" s="136"/>
-      <c r="BY7" s="136"/>
-      <c r="BZ7" s="136"/>
-      <c r="CA7" s="136"/>
-      <c r="CB7" s="136"/>
-      <c r="CC7" s="136"/>
-      <c r="CD7" s="136"/>
-      <c r="CE7" s="136"/>
-      <c r="CF7" s="136"/>
-      <c r="CG7" s="136"/>
-      <c r="CH7" s="136"/>
-      <c r="CI7" s="136"/>
-      <c r="CJ7" s="136"/>
-      <c r="CK7" s="136"/>
-      <c r="CL7" s="136"/>
-      <c r="CM7" s="136"/>
-      <c r="CN7" s="136"/>
-      <c r="CO7" s="136"/>
-      <c r="CP7" s="136"/>
-      <c r="CQ7" s="136"/>
-      <c r="CR7" s="136"/>
-      <c r="CS7" s="136"/>
-      <c r="CT7" s="136"/>
-      <c r="CU7" s="136"/>
-      <c r="CV7" s="136"/>
-      <c r="CW7" s="136"/>
+      <c r="BV7" s="160"/>
+      <c r="BW7" s="160"/>
+      <c r="BX7" s="160"/>
+      <c r="BY7" s="160"/>
+      <c r="BZ7" s="160"/>
+      <c r="CA7" s="160"/>
+      <c r="CB7" s="160"/>
+      <c r="CC7" s="160"/>
+      <c r="CD7" s="160"/>
+      <c r="CE7" s="160"/>
+      <c r="CF7" s="160"/>
+      <c r="CG7" s="160"/>
+      <c r="CH7" s="160"/>
+      <c r="CI7" s="160"/>
+      <c r="CJ7" s="160"/>
+      <c r="CK7" s="160"/>
+      <c r="CL7" s="160"/>
+      <c r="CM7" s="160"/>
+      <c r="CN7" s="160"/>
+      <c r="CO7" s="160"/>
+      <c r="CP7" s="160"/>
+      <c r="CQ7" s="160"/>
+      <c r="CR7" s="160"/>
+      <c r="CS7" s="160"/>
+      <c r="CT7" s="160"/>
+      <c r="CU7" s="160"/>
+      <c r="CV7" s="160"/>
+      <c r="CW7" s="160"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="172">
@@ -14999,12 +14999,12 @@
       <c r="E8" t="s" s="172">
         <v>50</v>
       </c>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
       <c r="L8" s="694"/>
       <c r="M8" s="305"/>
       <c r="N8" s="306"/>
@@ -15067,34 +15067,34 @@
       <c r="BS8" s="713"/>
       <c r="BT8" s="714"/>
       <c r="BU8" s="715"/>
-      <c r="BV8" s="136"/>
-      <c r="BW8" s="136"/>
-      <c r="BX8" s="136"/>
-      <c r="BY8" s="136"/>
-      <c r="BZ8" s="136"/>
-      <c r="CA8" s="136"/>
-      <c r="CB8" s="136"/>
-      <c r="CC8" s="136"/>
-      <c r="CD8" s="136"/>
-      <c r="CE8" s="136"/>
-      <c r="CF8" s="136"/>
-      <c r="CG8" s="136"/>
-      <c r="CH8" s="136"/>
-      <c r="CI8" s="136"/>
-      <c r="CJ8" s="136"/>
-      <c r="CK8" s="136"/>
-      <c r="CL8" s="136"/>
-      <c r="CM8" s="136"/>
-      <c r="CN8" s="136"/>
-      <c r="CO8" s="136"/>
-      <c r="CP8" s="136"/>
-      <c r="CQ8" s="136"/>
-      <c r="CR8" s="136"/>
-      <c r="CS8" s="136"/>
-      <c r="CT8" s="136"/>
-      <c r="CU8" s="136"/>
-      <c r="CV8" s="136"/>
-      <c r="CW8" s="136"/>
+      <c r="BV8" s="160"/>
+      <c r="BW8" s="160"/>
+      <c r="BX8" s="160"/>
+      <c r="BY8" s="160"/>
+      <c r="BZ8" s="160"/>
+      <c r="CA8" s="160"/>
+      <c r="CB8" s="160"/>
+      <c r="CC8" s="160"/>
+      <c r="CD8" s="160"/>
+      <c r="CE8" s="160"/>
+      <c r="CF8" s="160"/>
+      <c r="CG8" s="160"/>
+      <c r="CH8" s="160"/>
+      <c r="CI8" s="160"/>
+      <c r="CJ8" s="160"/>
+      <c r="CK8" s="160"/>
+      <c r="CL8" s="160"/>
+      <c r="CM8" s="160"/>
+      <c r="CN8" s="160"/>
+      <c r="CO8" s="160"/>
+      <c r="CP8" s="160"/>
+      <c r="CQ8" s="160"/>
+      <c r="CR8" s="160"/>
+      <c r="CS8" s="160"/>
+      <c r="CT8" s="160"/>
+      <c r="CU8" s="160"/>
+      <c r="CV8" s="160"/>
+      <c r="CW8" s="160"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="172">
@@ -15112,10 +15112,10 @@
       <c r="E9" t="s" s="172">
         <v>51</v>
       </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
       <c r="J9" s="716"/>
       <c r="K9" s="717"/>
       <c r="L9" s="718"/>
@@ -15160,8 +15160,8 @@
       <c r="AY9" s="388"/>
       <c r="AZ9" s="389"/>
       <c r="BA9" s="390"/>
-      <c r="BB9" s="136"/>
-      <c r="BC9" s="136"/>
+      <c r="BB9" s="160"/>
+      <c r="BC9" s="160"/>
       <c r="BD9" s="729"/>
       <c r="BE9" s="730"/>
       <c r="BF9" s="731"/>
@@ -15180,34 +15180,34 @@
       <c r="BS9" s="744"/>
       <c r="BT9" s="745"/>
       <c r="BU9" s="746"/>
-      <c r="BV9" s="136"/>
-      <c r="BW9" s="136"/>
-      <c r="BX9" s="136"/>
-      <c r="BY9" s="136"/>
-      <c r="BZ9" s="136"/>
-      <c r="CA9" s="136"/>
-      <c r="CB9" s="136"/>
-      <c r="CC9" s="136"/>
-      <c r="CD9" s="136"/>
-      <c r="CE9" s="136"/>
-      <c r="CF9" s="136"/>
-      <c r="CG9" s="136"/>
-      <c r="CH9" s="136"/>
-      <c r="CI9" s="136"/>
-      <c r="CJ9" s="136"/>
-      <c r="CK9" s="136"/>
-      <c r="CL9" s="136"/>
-      <c r="CM9" s="136"/>
-      <c r="CN9" s="136"/>
-      <c r="CO9" s="136"/>
-      <c r="CP9" s="136"/>
-      <c r="CQ9" s="136"/>
-      <c r="CR9" s="136"/>
-      <c r="CS9" s="136"/>
-      <c r="CT9" s="136"/>
-      <c r="CU9" s="136"/>
-      <c r="CV9" s="136"/>
-      <c r="CW9" s="136"/>
+      <c r="BV9" s="160"/>
+      <c r="BW9" s="160"/>
+      <c r="BX9" s="160"/>
+      <c r="BY9" s="160"/>
+      <c r="BZ9" s="160"/>
+      <c r="CA9" s="160"/>
+      <c r="CB9" s="160"/>
+      <c r="CC9" s="160"/>
+      <c r="CD9" s="160"/>
+      <c r="CE9" s="160"/>
+      <c r="CF9" s="160"/>
+      <c r="CG9" s="160"/>
+      <c r="CH9" s="160"/>
+      <c r="CI9" s="160"/>
+      <c r="CJ9" s="160"/>
+      <c r="CK9" s="160"/>
+      <c r="CL9" s="160"/>
+      <c r="CM9" s="160"/>
+      <c r="CN9" s="160"/>
+      <c r="CO9" s="160"/>
+      <c r="CP9" s="160"/>
+      <c r="CQ9" s="160"/>
+      <c r="CR9" s="160"/>
+      <c r="CS9" s="160"/>
+      <c r="CT9" s="160"/>
+      <c r="CU9" s="160"/>
+      <c r="CV9" s="160"/>
+      <c r="CW9" s="160"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="172">
@@ -15225,9 +15225,9 @@
       <c r="E10" t="s" s="172">
         <v>52</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
       <c r="I10" s="747"/>
       <c r="J10" s="748"/>
       <c r="K10" s="391"/>
@@ -15293,34 +15293,34 @@
       <c r="BS10" s="767"/>
       <c r="BT10" s="768"/>
       <c r="BU10" s="769"/>
-      <c r="BV10" s="136"/>
-      <c r="BW10" s="136"/>
-      <c r="BX10" s="136"/>
-      <c r="BY10" s="136"/>
-      <c r="BZ10" s="136"/>
-      <c r="CA10" s="136"/>
-      <c r="CB10" s="136"/>
-      <c r="CC10" s="136"/>
-      <c r="CD10" s="136"/>
-      <c r="CE10" s="136"/>
-      <c r="CF10" s="136"/>
-      <c r="CG10" s="136"/>
-      <c r="CH10" s="136"/>
-      <c r="CI10" s="136"/>
-      <c r="CJ10" s="136"/>
-      <c r="CK10" s="136"/>
-      <c r="CL10" s="136"/>
-      <c r="CM10" s="136"/>
-      <c r="CN10" s="136"/>
-      <c r="CO10" s="136"/>
-      <c r="CP10" s="136"/>
-      <c r="CQ10" s="136"/>
-      <c r="CR10" s="136"/>
-      <c r="CS10" s="136"/>
-      <c r="CT10" s="136"/>
-      <c r="CU10" s="136"/>
-      <c r="CV10" s="136"/>
-      <c r="CW10" s="136"/>
+      <c r="BV10" s="160"/>
+      <c r="BW10" s="160"/>
+      <c r="BX10" s="160"/>
+      <c r="BY10" s="160"/>
+      <c r="BZ10" s="160"/>
+      <c r="CA10" s="160"/>
+      <c r="CB10" s="160"/>
+      <c r="CC10" s="160"/>
+      <c r="CD10" s="160"/>
+      <c r="CE10" s="160"/>
+      <c r="CF10" s="160"/>
+      <c r="CG10" s="160"/>
+      <c r="CH10" s="160"/>
+      <c r="CI10" s="160"/>
+      <c r="CJ10" s="160"/>
+      <c r="CK10" s="160"/>
+      <c r="CL10" s="160"/>
+      <c r="CM10" s="160"/>
+      <c r="CN10" s="160"/>
+      <c r="CO10" s="160"/>
+      <c r="CP10" s="160"/>
+      <c r="CQ10" s="160"/>
+      <c r="CR10" s="160"/>
+      <c r="CS10" s="160"/>
+      <c r="CT10" s="160"/>
+      <c r="CU10" s="160"/>
+      <c r="CV10" s="160"/>
+      <c r="CW10" s="160"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="172">
@@ -15338,16 +15338,16 @@
       <c r="E11" t="s" s="172">
         <v>53</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="160"/>
       <c r="P11" s="438"/>
       <c r="Q11" s="439"/>
       <c r="R11" s="440"/>
@@ -15406,34 +15406,34 @@
       <c r="BS11" s="788"/>
       <c r="BT11" s="789"/>
       <c r="BU11" s="790"/>
-      <c r="BV11" s="136"/>
-      <c r="BW11" s="136"/>
-      <c r="BX11" s="136"/>
-      <c r="BY11" s="136"/>
-      <c r="BZ11" s="136"/>
-      <c r="CA11" s="136"/>
-      <c r="CB11" s="136"/>
-      <c r="CC11" s="136"/>
-      <c r="CD11" s="136"/>
-      <c r="CE11" s="136"/>
-      <c r="CF11" s="136"/>
-      <c r="CG11" s="136"/>
-      <c r="CH11" s="136"/>
-      <c r="CI11" s="136"/>
-      <c r="CJ11" s="136"/>
-      <c r="CK11" s="136"/>
-      <c r="CL11" s="136"/>
-      <c r="CM11" s="136"/>
-      <c r="CN11" s="136"/>
-      <c r="CO11" s="136"/>
-      <c r="CP11" s="136"/>
-      <c r="CQ11" s="136"/>
-      <c r="CR11" s="136"/>
-      <c r="CS11" s="136"/>
-      <c r="CT11" s="136"/>
-      <c r="CU11" s="136"/>
-      <c r="CV11" s="136"/>
-      <c r="CW11" s="136"/>
+      <c r="BV11" s="160"/>
+      <c r="BW11" s="160"/>
+      <c r="BX11" s="160"/>
+      <c r="BY11" s="160"/>
+      <c r="BZ11" s="160"/>
+      <c r="CA11" s="160"/>
+      <c r="CB11" s="160"/>
+      <c r="CC11" s="160"/>
+      <c r="CD11" s="160"/>
+      <c r="CE11" s="160"/>
+      <c r="CF11" s="160"/>
+      <c r="CG11" s="160"/>
+      <c r="CH11" s="160"/>
+      <c r="CI11" s="160"/>
+      <c r="CJ11" s="160"/>
+      <c r="CK11" s="160"/>
+      <c r="CL11" s="160"/>
+      <c r="CM11" s="160"/>
+      <c r="CN11" s="160"/>
+      <c r="CO11" s="160"/>
+      <c r="CP11" s="160"/>
+      <c r="CQ11" s="160"/>
+      <c r="CR11" s="160"/>
+      <c r="CS11" s="160"/>
+      <c r="CT11" s="160"/>
+      <c r="CU11" s="160"/>
+      <c r="CV11" s="160"/>
+      <c r="CW11" s="160"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="172">
@@ -15451,8 +15451,8 @@
       <c r="E12" t="s" s="172">
         <v>54</v>
       </c>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
       <c r="H12" s="791"/>
       <c r="I12" s="792"/>
       <c r="J12" s="793"/>
@@ -15489,7 +15489,7 @@
       <c r="AO12" s="507"/>
       <c r="AP12" s="508"/>
       <c r="AQ12" s="509"/>
-      <c r="AR12" s="136"/>
+      <c r="AR12" s="160"/>
       <c r="AS12" s="804"/>
       <c r="AT12" s="805"/>
       <c r="AU12" s="806"/>
@@ -15519,34 +15519,34 @@
       <c r="BS12" s="830"/>
       <c r="BT12" s="831"/>
       <c r="BU12" s="832"/>
-      <c r="BV12" s="136"/>
-      <c r="BW12" s="136"/>
-      <c r="BX12" s="136"/>
-      <c r="BY12" s="136"/>
-      <c r="BZ12" s="136"/>
-      <c r="CA12" s="136"/>
-      <c r="CB12" s="136"/>
-      <c r="CC12" s="136"/>
-      <c r="CD12" s="136"/>
-      <c r="CE12" s="136"/>
-      <c r="CF12" s="136"/>
-      <c r="CG12" s="136"/>
-      <c r="CH12" s="136"/>
-      <c r="CI12" s="136"/>
-      <c r="CJ12" s="136"/>
-      <c r="CK12" s="136"/>
-      <c r="CL12" s="136"/>
-      <c r="CM12" s="136"/>
-      <c r="CN12" s="136"/>
-      <c r="CO12" s="136"/>
-      <c r="CP12" s="136"/>
-      <c r="CQ12" s="136"/>
-      <c r="CR12" s="136"/>
-      <c r="CS12" s="136"/>
-      <c r="CT12" s="136"/>
-      <c r="CU12" s="136"/>
-      <c r="CV12" s="136"/>
-      <c r="CW12" s="136"/>
+      <c r="BV12" s="160"/>
+      <c r="BW12" s="160"/>
+      <c r="BX12" s="160"/>
+      <c r="BY12" s="160"/>
+      <c r="BZ12" s="160"/>
+      <c r="CA12" s="160"/>
+      <c r="CB12" s="160"/>
+      <c r="CC12" s="160"/>
+      <c r="CD12" s="160"/>
+      <c r="CE12" s="160"/>
+      <c r="CF12" s="160"/>
+      <c r="CG12" s="160"/>
+      <c r="CH12" s="160"/>
+      <c r="CI12" s="160"/>
+      <c r="CJ12" s="160"/>
+      <c r="CK12" s="160"/>
+      <c r="CL12" s="160"/>
+      <c r="CM12" s="160"/>
+      <c r="CN12" s="160"/>
+      <c r="CO12" s="160"/>
+      <c r="CP12" s="160"/>
+      <c r="CQ12" s="160"/>
+      <c r="CR12" s="160"/>
+      <c r="CS12" s="160"/>
+      <c r="CT12" s="160"/>
+      <c r="CU12" s="160"/>
+      <c r="CV12" s="160"/>
+      <c r="CW12" s="160"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="172">
@@ -15564,18 +15564,18 @@
       <c r="E13" t="s" s="172">
         <v>86</v>
       </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
       <c r="H13" s="833"/>
       <c r="I13" s="834"/>
       <c r="J13" s="835"/>
       <c r="K13" s="836"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
       <c r="R13" s="510"/>
       <c r="S13" s="511"/>
       <c r="T13" s="512"/>
@@ -15632,34 +15632,34 @@
       <c r="BS13" s="858"/>
       <c r="BT13" s="859"/>
       <c r="BU13" s="860"/>
-      <c r="BV13" s="136"/>
-      <c r="BW13" s="136"/>
-      <c r="BX13" s="136"/>
-      <c r="BY13" s="136"/>
-      <c r="BZ13" s="136"/>
-      <c r="CA13" s="136"/>
-      <c r="CB13" s="136"/>
-      <c r="CC13" s="136"/>
-      <c r="CD13" s="136"/>
-      <c r="CE13" s="136"/>
-      <c r="CF13" s="136"/>
-      <c r="CG13" s="136"/>
-      <c r="CH13" s="136"/>
-      <c r="CI13" s="136"/>
-      <c r="CJ13" s="136"/>
-      <c r="CK13" s="136"/>
-      <c r="CL13" s="136"/>
-      <c r="CM13" s="136"/>
-      <c r="CN13" s="136"/>
-      <c r="CO13" s="136"/>
-      <c r="CP13" s="136"/>
-      <c r="CQ13" s="136"/>
-      <c r="CR13" s="136"/>
-      <c r="CS13" s="136"/>
-      <c r="CT13" s="136"/>
-      <c r="CU13" s="136"/>
-      <c r="CV13" s="136"/>
-      <c r="CW13" s="136"/>
+      <c r="BV13" s="160"/>
+      <c r="BW13" s="160"/>
+      <c r="BX13" s="160"/>
+      <c r="BY13" s="160"/>
+      <c r="BZ13" s="160"/>
+      <c r="CA13" s="160"/>
+      <c r="CB13" s="160"/>
+      <c r="CC13" s="160"/>
+      <c r="CD13" s="160"/>
+      <c r="CE13" s="160"/>
+      <c r="CF13" s="160"/>
+      <c r="CG13" s="160"/>
+      <c r="CH13" s="160"/>
+      <c r="CI13" s="160"/>
+      <c r="CJ13" s="160"/>
+      <c r="CK13" s="160"/>
+      <c r="CL13" s="160"/>
+      <c r="CM13" s="160"/>
+      <c r="CN13" s="160"/>
+      <c r="CO13" s="160"/>
+      <c r="CP13" s="160"/>
+      <c r="CQ13" s="160"/>
+      <c r="CR13" s="160"/>
+      <c r="CS13" s="160"/>
+      <c r="CT13" s="160"/>
+      <c r="CU13" s="160"/>
+      <c r="CV13" s="160"/>
+      <c r="CW13" s="160"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="172">
@@ -15678,101 +15678,101 @@
         <v>55</v>
       </c>
       <c r="F14" s="549"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="136"/>
-      <c r="AA14" s="136"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="136"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="136"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="136"/>
-      <c r="AJ14" s="136"/>
-      <c r="AK14" s="136"/>
-      <c r="AL14" s="136"/>
-      <c r="AM14" s="136"/>
-      <c r="AN14" s="136"/>
-      <c r="AO14" s="136"/>
-      <c r="AP14" s="136"/>
-      <c r="AQ14" s="136"/>
-      <c r="AR14" s="136"/>
-      <c r="AS14" s="136"/>
-      <c r="AT14" s="136"/>
-      <c r="AU14" s="136"/>
-      <c r="AV14" s="136"/>
-      <c r="AW14" s="136"/>
-      <c r="AX14" s="136"/>
-      <c r="AY14" s="136"/>
-      <c r="AZ14" s="136"/>
-      <c r="BA14" s="136"/>
-      <c r="BB14" s="136"/>
-      <c r="BC14" s="136"/>
-      <c r="BD14" s="136"/>
-      <c r="BE14" s="136"/>
-      <c r="BF14" s="136"/>
-      <c r="BG14" s="136"/>
-      <c r="BH14" s="136"/>
-      <c r="BI14" s="136"/>
-      <c r="BJ14" s="136"/>
-      <c r="BK14" s="136"/>
-      <c r="BL14" s="136"/>
-      <c r="BM14" s="136"/>
-      <c r="BN14" s="136"/>
-      <c r="BO14" s="136"/>
-      <c r="BP14" s="136"/>
-      <c r="BQ14" s="136"/>
-      <c r="BR14" s="136"/>
-      <c r="BS14" s="136"/>
-      <c r="BT14" s="136"/>
-      <c r="BU14" s="136"/>
-      <c r="BV14" s="136"/>
-      <c r="BW14" s="136"/>
-      <c r="BX14" s="136"/>
-      <c r="BY14" s="136"/>
-      <c r="BZ14" s="136"/>
-      <c r="CA14" s="136"/>
-      <c r="CB14" s="136"/>
-      <c r="CC14" s="136"/>
-      <c r="CD14" s="136"/>
-      <c r="CE14" s="136"/>
-      <c r="CF14" s="136"/>
-      <c r="CG14" s="136"/>
-      <c r="CH14" s="136"/>
-      <c r="CI14" s="136"/>
-      <c r="CJ14" s="136"/>
-      <c r="CK14" s="136"/>
-      <c r="CL14" s="136"/>
-      <c r="CM14" s="136"/>
-      <c r="CN14" s="136"/>
-      <c r="CO14" s="136"/>
-      <c r="CP14" s="136"/>
-      <c r="CQ14" s="136"/>
-      <c r="CR14" s="136"/>
-      <c r="CS14" s="136"/>
-      <c r="CT14" s="136"/>
-      <c r="CU14" s="136"/>
-      <c r="CV14" s="136"/>
-      <c r="CW14" s="136"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="160"/>
+      <c r="AA14" s="160"/>
+      <c r="AB14" s="160"/>
+      <c r="AC14" s="160"/>
+      <c r="AD14" s="160"/>
+      <c r="AE14" s="160"/>
+      <c r="AF14" s="160"/>
+      <c r="AG14" s="160"/>
+      <c r="AH14" s="160"/>
+      <c r="AI14" s="160"/>
+      <c r="AJ14" s="160"/>
+      <c r="AK14" s="160"/>
+      <c r="AL14" s="160"/>
+      <c r="AM14" s="160"/>
+      <c r="AN14" s="160"/>
+      <c r="AO14" s="160"/>
+      <c r="AP14" s="160"/>
+      <c r="AQ14" s="160"/>
+      <c r="AR14" s="160"/>
+      <c r="AS14" s="160"/>
+      <c r="AT14" s="160"/>
+      <c r="AU14" s="160"/>
+      <c r="AV14" s="160"/>
+      <c r="AW14" s="160"/>
+      <c r="AX14" s="160"/>
+      <c r="AY14" s="160"/>
+      <c r="AZ14" s="160"/>
+      <c r="BA14" s="160"/>
+      <c r="BB14" s="160"/>
+      <c r="BC14" s="160"/>
+      <c r="BD14" s="160"/>
+      <c r="BE14" s="160"/>
+      <c r="BF14" s="160"/>
+      <c r="BG14" s="160"/>
+      <c r="BH14" s="160"/>
+      <c r="BI14" s="160"/>
+      <c r="BJ14" s="160"/>
+      <c r="BK14" s="160"/>
+      <c r="BL14" s="160"/>
+      <c r="BM14" s="160"/>
+      <c r="BN14" s="160"/>
+      <c r="BO14" s="160"/>
+      <c r="BP14" s="160"/>
+      <c r="BQ14" s="160"/>
+      <c r="BR14" s="160"/>
+      <c r="BS14" s="160"/>
+      <c r="BT14" s="160"/>
+      <c r="BU14" s="160"/>
+      <c r="BV14" s="160"/>
+      <c r="BW14" s="160"/>
+      <c r="BX14" s="160"/>
+      <c r="BY14" s="160"/>
+      <c r="BZ14" s="160"/>
+      <c r="CA14" s="160"/>
+      <c r="CB14" s="160"/>
+      <c r="CC14" s="160"/>
+      <c r="CD14" s="160"/>
+      <c r="CE14" s="160"/>
+      <c r="CF14" s="160"/>
+      <c r="CG14" s="160"/>
+      <c r="CH14" s="160"/>
+      <c r="CI14" s="160"/>
+      <c r="CJ14" s="160"/>
+      <c r="CK14" s="160"/>
+      <c r="CL14" s="160"/>
+      <c r="CM14" s="160"/>
+      <c r="CN14" s="160"/>
+      <c r="CO14" s="160"/>
+      <c r="CP14" s="160"/>
+      <c r="CQ14" s="160"/>
+      <c r="CR14" s="160"/>
+      <c r="CS14" s="160"/>
+      <c r="CT14" s="160"/>
+      <c r="CU14" s="160"/>
+      <c r="CV14" s="160"/>
+      <c r="CW14" s="160"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="172">
@@ -15790,9 +15790,9 @@
       <c r="E15" t="s" s="172">
         <v>56</v>
       </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
       <c r="I15" s="861"/>
       <c r="J15" s="862"/>
       <c r="K15" s="863"/>
@@ -15842,50 +15842,50 @@
       <c r="BC15" s="593"/>
       <c r="BD15" s="594"/>
       <c r="BE15" s="595"/>
-      <c r="BF15" s="136"/>
-      <c r="BG15" s="136"/>
-      <c r="BH15" s="136"/>
-      <c r="BI15" s="136"/>
-      <c r="BJ15" s="136"/>
-      <c r="BK15" s="136"/>
-      <c r="BL15" s="136"/>
-      <c r="BM15" s="136"/>
-      <c r="BN15" s="136"/>
-      <c r="BO15" s="136"/>
-      <c r="BP15" s="136"/>
-      <c r="BQ15" s="136"/>
-      <c r="BR15" s="136"/>
-      <c r="BS15" s="136"/>
-      <c r="BT15" s="136"/>
-      <c r="BU15" s="136"/>
-      <c r="BV15" s="136"/>
-      <c r="BW15" s="136"/>
-      <c r="BX15" s="136"/>
-      <c r="BY15" s="136"/>
-      <c r="BZ15" s="136"/>
-      <c r="CA15" s="136"/>
-      <c r="CB15" s="136"/>
-      <c r="CC15" s="136"/>
-      <c r="CD15" s="136"/>
-      <c r="CE15" s="136"/>
-      <c r="CF15" s="136"/>
-      <c r="CG15" s="136"/>
-      <c r="CH15" s="136"/>
-      <c r="CI15" s="136"/>
-      <c r="CJ15" s="136"/>
-      <c r="CK15" s="136"/>
-      <c r="CL15" s="136"/>
-      <c r="CM15" s="136"/>
-      <c r="CN15" s="136"/>
-      <c r="CO15" s="136"/>
-      <c r="CP15" s="136"/>
-      <c r="CQ15" s="136"/>
-      <c r="CR15" s="136"/>
-      <c r="CS15" s="136"/>
-      <c r="CT15" s="136"/>
-      <c r="CU15" s="136"/>
-      <c r="CV15" s="136"/>
-      <c r="CW15" s="136"/>
+      <c r="BF15" s="160"/>
+      <c r="BG15" s="160"/>
+      <c r="BH15" s="160"/>
+      <c r="BI15" s="160"/>
+      <c r="BJ15" s="160"/>
+      <c r="BK15" s="160"/>
+      <c r="BL15" s="160"/>
+      <c r="BM15" s="160"/>
+      <c r="BN15" s="160"/>
+      <c r="BO15" s="160"/>
+      <c r="BP15" s="160"/>
+      <c r="BQ15" s="160"/>
+      <c r="BR15" s="160"/>
+      <c r="BS15" s="160"/>
+      <c r="BT15" s="160"/>
+      <c r="BU15" s="160"/>
+      <c r="BV15" s="160"/>
+      <c r="BW15" s="160"/>
+      <c r="BX15" s="160"/>
+      <c r="BY15" s="160"/>
+      <c r="BZ15" s="160"/>
+      <c r="CA15" s="160"/>
+      <c r="CB15" s="160"/>
+      <c r="CC15" s="160"/>
+      <c r="CD15" s="160"/>
+      <c r="CE15" s="160"/>
+      <c r="CF15" s="160"/>
+      <c r="CG15" s="160"/>
+      <c r="CH15" s="160"/>
+      <c r="CI15" s="160"/>
+      <c r="CJ15" s="160"/>
+      <c r="CK15" s="160"/>
+      <c r="CL15" s="160"/>
+      <c r="CM15" s="160"/>
+      <c r="CN15" s="160"/>
+      <c r="CO15" s="160"/>
+      <c r="CP15" s="160"/>
+      <c r="CQ15" s="160"/>
+      <c r="CR15" s="160"/>
+      <c r="CS15" s="160"/>
+      <c r="CT15" s="160"/>
+      <c r="CU15" s="160"/>
+      <c r="CV15" s="160"/>
+      <c r="CW15" s="160"/>
     </row>
   </sheetData>
   <mergeCells>
